--- a/WAS계획서 및 일지.xlsx
+++ b/WAS계획서 및 일지.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="28035" windowHeight="12345" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="28035" windowHeight="12345" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="역할분담" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="374">
   <si>
     <t>2019년 8월</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -1469,23 +1469,51 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>1차 목표 : 로그인/사원등록/생산등록(그에 따른 DB/View)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면 틀 구현 완성</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면구성 업무분기</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>사원등록/생산품등록/배송유무등록/생산재고등록 페이지 구현</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>09월 04일</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>메인 화면틀 구현 완성</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 목표 : 로그인/사원등록/생산등록(그에 따른 DB/View)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재까지 진행상황 보고 및 피드백</t>
-  </si>
-  <si>
-    <t>급여/어선입출항 프로시져 생성, 구체적인 메인화면 구현, 로고 이미지 생성, 진행상황 보고/ 피드백 회의</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>09월 05일</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>급여/어선입출항 프로시져 생성, 구체적인 메인화면 구현, 로고 이미지 생성</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>09월 06일</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면 메뉴 구현, 테이블 기능서 작성, 생산품등록 페이지 구현</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>09월 09일</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면 틀 구현 완료, 사원등록/생산품등록/배송유무등록/생산재고등록 페이지 구현 시작</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>사원등록/생산품등록/배송유무등록/생산재고등록 페이지 구현</t>
   </si>
 </sst>
 </file>
@@ -2424,7 +2452,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2692,15 +2720,252 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="34" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="34" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="32" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2713,16 +2978,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2737,234 +2996,6 @@
     <xf numFmtId="0" fontId="8" fillId="18" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="32" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="34" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2997,12 +3028,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="34" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -3433,8 +3458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V129"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView showGridLines="0" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Z35" sqref="Z35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3470,22 +3495,22 @@
     </row>
     <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="127"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="144"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="145"/>
       <c r="P2" s="17"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
@@ -3496,178 +3521,178 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
-      <c r="B4" s="128" t="s">
+      <c r="B4" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="129"/>
-      <c r="D4" s="129" t="s">
+      <c r="C4" s="133"/>
+      <c r="D4" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129" t="s">
+      <c r="E4" s="133"/>
+      <c r="F4" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129" t="s">
+      <c r="G4" s="133"/>
+      <c r="H4" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129" t="s">
+      <c r="I4" s="133"/>
+      <c r="J4" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="129"/>
-      <c r="L4" s="129" t="s">
+      <c r="K4" s="133"/>
+      <c r="L4" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="129"/>
-      <c r="N4" s="129" t="s">
+      <c r="M4" s="133"/>
+      <c r="N4" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="130"/>
+      <c r="O4" s="147"/>
       <c r="P4" s="17"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
-      <c r="B5" s="104">
+      <c r="B5" s="122">
         <v>18</v>
       </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105">
+      <c r="C5" s="123"/>
+      <c r="D5" s="123">
         <v>19</v>
       </c>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105">
+      <c r="E5" s="123"/>
+      <c r="F5" s="123">
         <v>20</v>
       </c>
-      <c r="G5" s="105"/>
-      <c r="H5" s="131">
+      <c r="G5" s="123"/>
+      <c r="H5" s="118">
         <v>21</v>
       </c>
-      <c r="I5" s="131"/>
-      <c r="J5" s="131">
+      <c r="I5" s="118"/>
+      <c r="J5" s="118">
         <v>22</v>
       </c>
-      <c r="K5" s="131"/>
-      <c r="L5" s="131">
+      <c r="K5" s="118"/>
+      <c r="L5" s="118">
         <v>23</v>
       </c>
-      <c r="M5" s="131"/>
-      <c r="N5" s="131">
+      <c r="M5" s="118"/>
+      <c r="N5" s="118">
         <v>24</v>
       </c>
-      <c r="O5" s="135"/>
+      <c r="O5" s="121"/>
       <c r="P5" s="17"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
-      <c r="B6" s="132"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="113" t="s">
+      <c r="B6" s="102"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="114"/>
-      <c r="L6" s="119" t="s">
+      <c r="K6" s="112"/>
+      <c r="L6" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="148"/>
-      <c r="N6" s="119"/>
-      <c r="O6" s="120"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="99"/>
       <c r="P6" s="17"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
-      <c r="B7" s="133"/>
-      <c r="C7" s="110"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="105"/>
       <c r="D7" s="109"/>
-      <c r="E7" s="110"/>
+      <c r="E7" s="105"/>
       <c r="F7" s="109"/>
-      <c r="G7" s="110"/>
+      <c r="G7" s="105"/>
       <c r="H7" s="109"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="149"/>
-      <c r="N7" s="121"/>
-      <c r="O7" s="122"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="113"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="100"/>
       <c r="P7" s="17"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
-      <c r="B8" s="133"/>
-      <c r="C8" s="110"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="105"/>
       <c r="D8" s="109"/>
-      <c r="E8" s="110"/>
+      <c r="E8" s="105"/>
       <c r="F8" s="109"/>
-      <c r="G8" s="110"/>
+      <c r="G8" s="105"/>
       <c r="H8" s="109"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="121"/>
-      <c r="M8" s="149"/>
-      <c r="N8" s="121"/>
-      <c r="O8" s="122"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="100"/>
       <c r="P8" s="17"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
-      <c r="B9" s="133"/>
-      <c r="C9" s="110"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="105"/>
       <c r="D9" s="109"/>
-      <c r="E9" s="110"/>
+      <c r="E9" s="105"/>
       <c r="F9" s="109"/>
-      <c r="G9" s="110"/>
+      <c r="G9" s="105"/>
       <c r="H9" s="109"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="121"/>
-      <c r="M9" s="149"/>
-      <c r="N9" s="121"/>
-      <c r="O9" s="122"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="113"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="100"/>
       <c r="P9" s="17"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
-      <c r="B10" s="133"/>
-      <c r="C10" s="110"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="105"/>
       <c r="D10" s="109"/>
-      <c r="E10" s="110"/>
+      <c r="E10" s="105"/>
       <c r="F10" s="109"/>
-      <c r="G10" s="110"/>
+      <c r="G10" s="105"/>
       <c r="H10" s="109"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="121"/>
-      <c r="M10" s="149"/>
-      <c r="N10" s="121"/>
-      <c r="O10" s="122"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="100"/>
       <c r="P10" s="17"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
-      <c r="B11" s="134"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="118"/>
-      <c r="L11" s="123"/>
-      <c r="M11" s="150"/>
-      <c r="N11" s="123"/>
-      <c r="O11" s="124"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="116"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="98"/>
+      <c r="N11" s="97"/>
+      <c r="O11" s="101"/>
       <c r="P11" s="17"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -3680,196 +3705,196 @@
       <c r="G12" s="9"/>
       <c r="H12" s="8"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="151" t="s">
+      <c r="J12" s="154" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="152"/>
-      <c r="L12" s="152"/>
-      <c r="M12" s="153"/>
+      <c r="K12" s="155"/>
+      <c r="L12" s="155"/>
+      <c r="M12" s="156"/>
       <c r="N12" s="10"/>
       <c r="O12" s="23"/>
       <c r="P12" s="17"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
-      <c r="B13" s="154">
+      <c r="B13" s="157">
         <v>25</v>
       </c>
-      <c r="C13" s="155"/>
-      <c r="D13" s="155">
+      <c r="C13" s="158"/>
+      <c r="D13" s="158">
         <v>26</v>
       </c>
-      <c r="E13" s="155"/>
-      <c r="F13" s="155">
+      <c r="E13" s="158"/>
+      <c r="F13" s="158">
         <v>27</v>
       </c>
-      <c r="G13" s="155"/>
-      <c r="H13" s="156">
+      <c r="G13" s="158"/>
+      <c r="H13" s="150">
         <v>28</v>
       </c>
-      <c r="I13" s="156"/>
-      <c r="J13" s="156">
+      <c r="I13" s="150"/>
+      <c r="J13" s="150">
         <v>29</v>
       </c>
-      <c r="K13" s="156"/>
-      <c r="L13" s="156">
+      <c r="K13" s="150"/>
+      <c r="L13" s="150">
         <v>30</v>
       </c>
-      <c r="M13" s="156"/>
-      <c r="N13" s="156">
+      <c r="M13" s="150"/>
+      <c r="N13" s="150">
         <v>31</v>
       </c>
-      <c r="O13" s="167"/>
-      <c r="P13" s="92" t="s">
+      <c r="O13" s="151"/>
+      <c r="P13" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="93"/>
-      <c r="T13" s="93"/>
-      <c r="U13" s="94"/>
+      <c r="Q13" s="172"/>
+      <c r="R13" s="172"/>
+      <c r="S13" s="172"/>
+      <c r="T13" s="172"/>
+      <c r="U13" s="173"/>
     </row>
     <row r="14" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
-      <c r="B14" s="132"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="157" t="s">
+      <c r="B14" s="102"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="108"/>
-      <c r="F14" s="157" t="s">
+      <c r="E14" s="103"/>
+      <c r="F14" s="148" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="160"/>
-      <c r="H14" s="158" t="s">
+      <c r="G14" s="135"/>
+      <c r="H14" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="158"/>
-      <c r="J14" s="158" t="s">
+      <c r="I14" s="152"/>
+      <c r="J14" s="152" t="s">
         <v>276</v>
       </c>
-      <c r="K14" s="158"/>
-      <c r="L14" s="160" t="s">
+      <c r="K14" s="152"/>
+      <c r="L14" s="135" t="s">
         <v>359</v>
       </c>
-      <c r="M14" s="160"/>
-      <c r="N14" s="160"/>
-      <c r="O14" s="161"/>
-      <c r="P14" s="95"/>
-      <c r="Q14" s="96"/>
-      <c r="R14" s="96"/>
-      <c r="S14" s="96"/>
-      <c r="T14" s="96"/>
-      <c r="U14" s="97"/>
+      <c r="M14" s="135"/>
+      <c r="N14" s="135"/>
+      <c r="O14" s="136"/>
+      <c r="P14" s="174"/>
+      <c r="Q14" s="159"/>
+      <c r="R14" s="159"/>
+      <c r="S14" s="159"/>
+      <c r="T14" s="159"/>
+      <c r="U14" s="175"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
-      <c r="B15" s="133"/>
-      <c r="C15" s="110"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="105"/>
       <c r="D15" s="109"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="166"/>
-      <c r="G15" s="162"/>
-      <c r="H15" s="159"/>
-      <c r="I15" s="159"/>
-      <c r="J15" s="159"/>
-      <c r="K15" s="159"/>
-      <c r="L15" s="162"/>
-      <c r="M15" s="162"/>
-      <c r="N15" s="162"/>
-      <c r="O15" s="163"/>
-      <c r="P15" s="95"/>
-      <c r="Q15" s="96"/>
-      <c r="R15" s="96"/>
-      <c r="S15" s="96"/>
-      <c r="T15" s="96"/>
-      <c r="U15" s="97"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="153"/>
+      <c r="I15" s="153"/>
+      <c r="J15" s="153"/>
+      <c r="K15" s="153"/>
+      <c r="L15" s="137"/>
+      <c r="M15" s="137"/>
+      <c r="N15" s="137"/>
+      <c r="O15" s="138"/>
+      <c r="P15" s="174"/>
+      <c r="Q15" s="159"/>
+      <c r="R15" s="159"/>
+      <c r="S15" s="159"/>
+      <c r="T15" s="159"/>
+      <c r="U15" s="175"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
-      <c r="B16" s="133"/>
-      <c r="C16" s="110"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="105"/>
       <c r="D16" s="109"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="166"/>
-      <c r="G16" s="162"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
-      <c r="K16" s="159"/>
-      <c r="L16" s="162"/>
-      <c r="M16" s="162"/>
-      <c r="N16" s="162"/>
-      <c r="O16" s="163"/>
-      <c r="P16" s="98"/>
-      <c r="Q16" s="99"/>
-      <c r="R16" s="99"/>
-      <c r="S16" s="99"/>
-      <c r="T16" s="99"/>
-      <c r="U16" s="100"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="149"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="137"/>
+      <c r="M16" s="137"/>
+      <c r="N16" s="137"/>
+      <c r="O16" s="138"/>
+      <c r="P16" s="176"/>
+      <c r="Q16" s="160"/>
+      <c r="R16" s="160"/>
+      <c r="S16" s="160"/>
+      <c r="T16" s="160"/>
+      <c r="U16" s="177"/>
     </row>
     <row r="17" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
-      <c r="B17" s="133"/>
-      <c r="C17" s="110"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="105"/>
       <c r="D17" s="109"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="166"/>
-      <c r="G17" s="162"/>
-      <c r="H17" s="159" t="s">
+      <c r="E17" s="105"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="153" t="s">
         <v>54</v>
       </c>
-      <c r="I17" s="159"/>
-      <c r="J17" s="96" t="s">
+      <c r="I17" s="153"/>
+      <c r="J17" s="159" t="s">
         <v>360</v>
       </c>
-      <c r="K17" s="96"/>
-      <c r="L17" s="162"/>
-      <c r="M17" s="162"/>
-      <c r="N17" s="162"/>
-      <c r="O17" s="163"/>
+      <c r="K17" s="159"/>
+      <c r="L17" s="137"/>
+      <c r="M17" s="137"/>
+      <c r="N17" s="137"/>
+      <c r="O17" s="138"/>
       <c r="P17" s="17"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
-      <c r="B18" s="133"/>
-      <c r="C18" s="110"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="105"/>
       <c r="D18" s="109"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="162"/>
-      <c r="H18" s="101" t="s">
+      <c r="E18" s="105"/>
+      <c r="F18" s="149"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="178" t="s">
         <v>280</v>
       </c>
-      <c r="I18" s="101"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="164"/>
-      <c r="M18" s="164"/>
-      <c r="N18" s="164"/>
-      <c r="O18" s="165"/>
+      <c r="I18" s="178"/>
+      <c r="J18" s="160"/>
+      <c r="K18" s="160"/>
+      <c r="L18" s="139"/>
+      <c r="M18" s="139"/>
+      <c r="N18" s="139"/>
+      <c r="O18" s="140"/>
       <c r="P18" s="17"/>
     </row>
     <row r="19" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
       <c r="B19" s="24"/>
       <c r="C19" s="25"/>
-      <c r="D19" s="138" t="s">
+      <c r="D19" s="161" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="140" t="s">
+      <c r="E19" s="162"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="162"/>
+      <c r="H19" s="163" t="s">
         <v>51</v>
       </c>
-      <c r="I19" s="140"/>
-      <c r="J19" s="140"/>
-      <c r="K19" s="140"/>
-      <c r="L19" s="140"/>
-      <c r="M19" s="140"/>
-      <c r="N19" s="140"/>
-      <c r="O19" s="141"/>
+      <c r="I19" s="163"/>
+      <c r="J19" s="163"/>
+      <c r="K19" s="163"/>
+      <c r="L19" s="163"/>
+      <c r="M19" s="163"/>
+      <c r="N19" s="163"/>
+      <c r="O19" s="164"/>
       <c r="P19" s="17"/>
     </row>
     <row r="20" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3890,22 +3915,22 @@
     </row>
     <row r="21" spans="1:16" ht="33.75" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
-      <c r="B21" s="125" t="s">
+      <c r="B21" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="126"/>
-      <c r="D21" s="126"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="126"/>
-      <c r="H21" s="126"/>
-      <c r="I21" s="126"/>
-      <c r="J21" s="126"/>
-      <c r="K21" s="126"/>
-      <c r="L21" s="126"/>
-      <c r="M21" s="126"/>
-      <c r="N21" s="126"/>
-      <c r="O21" s="127"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="144"/>
+      <c r="J21" s="144"/>
+      <c r="K21" s="144"/>
+      <c r="L21" s="144"/>
+      <c r="M21" s="144"/>
+      <c r="N21" s="144"/>
+      <c r="O21" s="145"/>
       <c r="P21" s="17"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -3916,506 +3941,508 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
-      <c r="B23" s="128" t="s">
+      <c r="B23" s="146" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="129"/>
-      <c r="D23" s="129" t="s">
+      <c r="C23" s="133"/>
+      <c r="D23" s="133" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="129"/>
-      <c r="F23" s="129" t="s">
+      <c r="E23" s="133"/>
+      <c r="F23" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="129"/>
-      <c r="H23" s="129" t="s">
+      <c r="G23" s="133"/>
+      <c r="H23" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="I23" s="129"/>
-      <c r="J23" s="129" t="s">
+      <c r="I23" s="133"/>
+      <c r="J23" s="133" t="s">
         <v>28</v>
       </c>
-      <c r="K23" s="129"/>
-      <c r="L23" s="129" t="s">
+      <c r="K23" s="133"/>
+      <c r="L23" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="M23" s="129"/>
-      <c r="N23" s="129" t="s">
+      <c r="M23" s="133"/>
+      <c r="N23" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="O23" s="130"/>
+      <c r="O23" s="147"/>
       <c r="P23" s="17"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
-      <c r="B24" s="104">
+      <c r="B24" s="122">
         <v>1</v>
       </c>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105">
+      <c r="C24" s="123"/>
+      <c r="D24" s="123">
         <v>2</v>
       </c>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105">
+      <c r="E24" s="123"/>
+      <c r="F24" s="123">
         <v>3</v>
       </c>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105">
+      <c r="G24" s="123"/>
+      <c r="H24" s="123">
         <v>4</v>
       </c>
-      <c r="I24" s="105"/>
-      <c r="J24" s="105">
+      <c r="I24" s="123"/>
+      <c r="J24" s="123">
         <v>5</v>
       </c>
-      <c r="K24" s="105"/>
-      <c r="L24" s="105">
+      <c r="K24" s="123"/>
+      <c r="L24" s="123">
         <v>6</v>
       </c>
-      <c r="M24" s="105"/>
-      <c r="N24" s="105">
+      <c r="M24" s="123"/>
+      <c r="N24" s="123">
         <v>7</v>
       </c>
-      <c r="O24" s="106"/>
+      <c r="O24" s="134"/>
       <c r="P24" s="17"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
-      <c r="B25" s="132"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="107" t="s">
+      <c r="B25" s="102"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="108" t="s">
         <v>358</v>
       </c>
-      <c r="E25" s="170"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="170" t="s">
+      <c r="E25" s="130"/>
+      <c r="F25" s="130"/>
+      <c r="G25" s="130"/>
+      <c r="H25" s="130"/>
+      <c r="I25" s="130"/>
+      <c r="J25" s="130"/>
+      <c r="K25" s="130"/>
+      <c r="L25" s="130" t="s">
         <v>363</v>
       </c>
-      <c r="M25" s="170"/>
-      <c r="N25" s="160"/>
-      <c r="O25" s="161"/>
+      <c r="M25" s="130"/>
+      <c r="N25" s="135"/>
+      <c r="O25" s="136"/>
       <c r="P25" s="17"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
-      <c r="B26" s="133"/>
-      <c r="C26" s="110"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="105"/>
       <c r="D26" s="109"/>
-      <c r="E26" s="171"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="171"/>
-      <c r="M26" s="171"/>
-      <c r="N26" s="162"/>
-      <c r="O26" s="163"/>
+      <c r="E26" s="131"/>
+      <c r="F26" s="131"/>
+      <c r="G26" s="131"/>
+      <c r="H26" s="131"/>
+      <c r="I26" s="131"/>
+      <c r="J26" s="131"/>
+      <c r="K26" s="131"/>
+      <c r="L26" s="131"/>
+      <c r="M26" s="131"/>
+      <c r="N26" s="137"/>
+      <c r="O26" s="138"/>
       <c r="P26" s="17"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
-      <c r="B27" s="133"/>
-      <c r="C27" s="110"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="105"/>
       <c r="D27" s="109"/>
-      <c r="E27" s="171"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="90"/>
-      <c r="L27" s="162" t="s">
-        <v>365</v>
-      </c>
-      <c r="M27" s="162"/>
-      <c r="N27" s="162"/>
-      <c r="O27" s="163"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="131"/>
+      <c r="H27" s="131"/>
+      <c r="I27" s="131"/>
+      <c r="J27" s="131"/>
+      <c r="K27" s="131"/>
+      <c r="L27" s="137" t="s">
+        <v>364</v>
+      </c>
+      <c r="M27" s="137"/>
+      <c r="N27" s="137"/>
+      <c r="O27" s="138"/>
       <c r="P27" s="17"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
-      <c r="B28" s="133"/>
-      <c r="C28" s="110"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="105"/>
       <c r="D28" s="109"/>
-      <c r="E28" s="171"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="162"/>
-      <c r="M28" s="162"/>
-      <c r="N28" s="162"/>
-      <c r="O28" s="163"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="131"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="131"/>
+      <c r="J28" s="131"/>
+      <c r="K28" s="131"/>
+      <c r="L28" s="137"/>
+      <c r="M28" s="137"/>
+      <c r="N28" s="137"/>
+      <c r="O28" s="138"/>
       <c r="P28" s="17"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
-      <c r="B29" s="133"/>
-      <c r="C29" s="110"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="105"/>
       <c r="D29" s="109"/>
-      <c r="E29" s="171"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="90"/>
-      <c r="M29" s="90"/>
-      <c r="N29" s="162"/>
-      <c r="O29" s="163"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="131"/>
+      <c r="K29" s="131"/>
+      <c r="L29" s="89"/>
+      <c r="M29" s="89"/>
+      <c r="N29" s="137"/>
+      <c r="O29" s="138"/>
       <c r="P29" s="17"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
-      <c r="B30" s="134"/>
-      <c r="C30" s="112"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="172"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="91"/>
-      <c r="I30" s="91"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="91"/>
-      <c r="M30" s="91"/>
-      <c r="N30" s="164"/>
-      <c r="O30" s="165"/>
+      <c r="B30" s="106"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="132"/>
+      <c r="F30" s="132"/>
+      <c r="G30" s="132"/>
+      <c r="H30" s="132"/>
+      <c r="I30" s="132"/>
+      <c r="J30" s="132"/>
+      <c r="K30" s="132"/>
+      <c r="L30" s="90"/>
+      <c r="M30" s="90"/>
+      <c r="N30" s="139"/>
+      <c r="O30" s="140"/>
       <c r="P30" s="17"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="27"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="168" t="s">
-        <v>364</v>
-      </c>
-      <c r="E31" s="169"/>
-      <c r="F31" s="169"/>
-      <c r="G31" s="169"/>
-      <c r="H31" s="169"/>
-      <c r="I31" s="169"/>
-      <c r="J31" s="169"/>
-      <c r="K31" s="169"/>
-      <c r="L31" s="191"/>
-      <c r="M31" s="191"/>
-      <c r="N31" s="191"/>
-      <c r="O31" s="192"/>
+      <c r="D31" s="141" t="s">
+        <v>362</v>
+      </c>
+      <c r="E31" s="142"/>
+      <c r="F31" s="142"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="142"/>
+      <c r="I31" s="142"/>
+      <c r="J31" s="142"/>
+      <c r="K31" s="142"/>
+      <c r="L31" s="91"/>
+      <c r="M31" s="91"/>
+      <c r="N31" s="91"/>
+      <c r="O31" s="92"/>
       <c r="P31" s="17"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
-      <c r="B32" s="104">
+      <c r="B32" s="122">
         <v>8</v>
       </c>
-      <c r="C32" s="105"/>
-      <c r="D32" s="105">
+      <c r="C32" s="123"/>
+      <c r="D32" s="123">
         <v>9</v>
       </c>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105">
+      <c r="E32" s="123"/>
+      <c r="F32" s="123">
         <v>10</v>
       </c>
-      <c r="G32" s="105"/>
-      <c r="H32" s="105">
+      <c r="G32" s="123"/>
+      <c r="H32" s="123">
         <v>11</v>
       </c>
-      <c r="I32" s="105"/>
-      <c r="J32" s="105">
+      <c r="I32" s="123"/>
+      <c r="J32" s="123">
         <v>12</v>
       </c>
-      <c r="K32" s="105"/>
-      <c r="L32" s="105">
+      <c r="K32" s="123"/>
+      <c r="L32" s="123">
         <v>13</v>
       </c>
-      <c r="M32" s="105"/>
-      <c r="N32" s="105">
+      <c r="M32" s="123"/>
+      <c r="N32" s="123">
         <v>14</v>
       </c>
-      <c r="O32" s="106"/>
+      <c r="O32" s="134"/>
       <c r="P32" s="17"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
-      <c r="B33" s="132"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="107"/>
-      <c r="G33" s="108"/>
-      <c r="H33" s="107"/>
-      <c r="I33" s="108"/>
-      <c r="J33" s="113"/>
-      <c r="K33" s="114"/>
-      <c r="L33" s="119" t="s">
+      <c r="B33" s="102"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="108" t="s">
+        <v>365</v>
+      </c>
+      <c r="E33" s="130"/>
+      <c r="F33" s="130"/>
+      <c r="G33" s="130"/>
+      <c r="H33" s="130"/>
+      <c r="I33" s="130"/>
+      <c r="J33" s="130"/>
+      <c r="K33" s="103"/>
+      <c r="L33" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="M33" s="148"/>
-      <c r="N33" s="119" t="s">
+      <c r="M33" s="94"/>
+      <c r="N33" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="O33" s="120"/>
+      <c r="O33" s="99"/>
       <c r="P33" s="17"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
-      <c r="B34" s="133"/>
-      <c r="C34" s="110"/>
+      <c r="B34" s="104"/>
+      <c r="C34" s="105"/>
       <c r="D34" s="109"/>
-      <c r="E34" s="110"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="110"/>
-      <c r="H34" s="109"/>
-      <c r="I34" s="110"/>
-      <c r="J34" s="115"/>
-      <c r="K34" s="116"/>
-      <c r="L34" s="121"/>
-      <c r="M34" s="149"/>
-      <c r="N34" s="121"/>
-      <c r="O34" s="122"/>
+      <c r="E34" s="131"/>
+      <c r="F34" s="131"/>
+      <c r="G34" s="131"/>
+      <c r="H34" s="131"/>
+      <c r="I34" s="131"/>
+      <c r="J34" s="131"/>
+      <c r="K34" s="105"/>
+      <c r="L34" s="95"/>
+      <c r="M34" s="96"/>
+      <c r="N34" s="95"/>
+      <c r="O34" s="100"/>
       <c r="P34" s="17"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
-      <c r="B35" s="133"/>
-      <c r="C35" s="110"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="105"/>
       <c r="D35" s="109"/>
-      <c r="E35" s="110"/>
-      <c r="F35" s="109"/>
-      <c r="G35" s="110"/>
-      <c r="H35" s="109"/>
-      <c r="I35" s="110"/>
-      <c r="J35" s="115"/>
-      <c r="K35" s="116"/>
-      <c r="L35" s="121"/>
-      <c r="M35" s="149"/>
-      <c r="N35" s="121"/>
-      <c r="O35" s="122"/>
+      <c r="E35" s="131"/>
+      <c r="F35" s="131"/>
+      <c r="G35" s="131"/>
+      <c r="H35" s="131"/>
+      <c r="I35" s="131"/>
+      <c r="J35" s="131"/>
+      <c r="K35" s="105"/>
+      <c r="L35" s="95"/>
+      <c r="M35" s="96"/>
+      <c r="N35" s="95"/>
+      <c r="O35" s="100"/>
       <c r="P35" s="17"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
-      <c r="B36" s="133"/>
-      <c r="C36" s="110"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="105"/>
       <c r="D36" s="109"/>
-      <c r="E36" s="110"/>
-      <c r="F36" s="109"/>
-      <c r="G36" s="110"/>
-      <c r="H36" s="109"/>
-      <c r="I36" s="110"/>
-      <c r="J36" s="115"/>
-      <c r="K36" s="116"/>
-      <c r="L36" s="121"/>
-      <c r="M36" s="149"/>
-      <c r="N36" s="121"/>
-      <c r="O36" s="122"/>
+      <c r="E36" s="131"/>
+      <c r="F36" s="131"/>
+      <c r="G36" s="131"/>
+      <c r="H36" s="131"/>
+      <c r="I36" s="131"/>
+      <c r="J36" s="131"/>
+      <c r="K36" s="105"/>
+      <c r="L36" s="95"/>
+      <c r="M36" s="96"/>
+      <c r="N36" s="95"/>
+      <c r="O36" s="100"/>
       <c r="P36" s="17"/>
     </row>
     <row r="37" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
-      <c r="B37" s="133"/>
-      <c r="C37" s="110"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="105"/>
       <c r="D37" s="109"/>
-      <c r="E37" s="110"/>
-      <c r="F37" s="109"/>
-      <c r="G37" s="110"/>
-      <c r="H37" s="109"/>
-      <c r="I37" s="110"/>
-      <c r="J37" s="115"/>
-      <c r="K37" s="116"/>
-      <c r="L37" s="121"/>
-      <c r="M37" s="149"/>
-      <c r="N37" s="121"/>
-      <c r="O37" s="122"/>
+      <c r="E37" s="131"/>
+      <c r="F37" s="131"/>
+      <c r="G37" s="131"/>
+      <c r="H37" s="131"/>
+      <c r="I37" s="131"/>
+      <c r="J37" s="131"/>
+      <c r="K37" s="105"/>
+      <c r="L37" s="95"/>
+      <c r="M37" s="96"/>
+      <c r="N37" s="95"/>
+      <c r="O37" s="100"/>
       <c r="P37" s="17"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
-      <c r="B38" s="134"/>
-      <c r="C38" s="112"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="112"/>
-      <c r="F38" s="111"/>
-      <c r="G38" s="112"/>
-      <c r="H38" s="111"/>
-      <c r="I38" s="112"/>
-      <c r="J38" s="117"/>
-      <c r="K38" s="118"/>
-      <c r="L38" s="123"/>
-      <c r="M38" s="150"/>
-      <c r="N38" s="123"/>
-      <c r="O38" s="124"/>
+      <c r="B38" s="106"/>
+      <c r="C38" s="107"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="132"/>
+      <c r="F38" s="132"/>
+      <c r="G38" s="132"/>
+      <c r="H38" s="132"/>
+      <c r="I38" s="132"/>
+      <c r="J38" s="132"/>
+      <c r="K38" s="107"/>
+      <c r="L38" s="97"/>
+      <c r="M38" s="98"/>
+      <c r="N38" s="97"/>
+      <c r="O38" s="101"/>
       <c r="P38" s="17"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="B39" s="27"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="175" t="s">
+      <c r="D39" s="128" t="s">
         <v>52</v>
       </c>
-      <c r="E39" s="176"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
-      <c r="H39" s="176"/>
-      <c r="I39" s="176"/>
-      <c r="J39" s="176"/>
-      <c r="K39" s="176"/>
+      <c r="E39" s="129"/>
+      <c r="F39" s="129"/>
+      <c r="G39" s="129"/>
+      <c r="H39" s="129"/>
+      <c r="I39" s="129"/>
+      <c r="J39" s="129"/>
+      <c r="K39" s="129"/>
       <c r="L39" s="35"/>
       <c r="M39" s="36"/>
-      <c r="N39" s="173" t="s">
+      <c r="N39" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="O39" s="174"/>
+      <c r="O39" s="127"/>
       <c r="P39" s="17"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
-      <c r="B40" s="136">
+      <c r="B40" s="124">
         <v>15</v>
       </c>
-      <c r="C40" s="137"/>
-      <c r="D40" s="131">
+      <c r="C40" s="125"/>
+      <c r="D40" s="118">
         <v>16</v>
       </c>
-      <c r="E40" s="131"/>
-      <c r="F40" s="131">
+      <c r="E40" s="118"/>
+      <c r="F40" s="118">
         <v>17</v>
       </c>
-      <c r="G40" s="131"/>
-      <c r="H40" s="131">
+      <c r="G40" s="118"/>
+      <c r="H40" s="118">
         <v>18</v>
       </c>
-      <c r="I40" s="131"/>
-      <c r="J40" s="131">
+      <c r="I40" s="118"/>
+      <c r="J40" s="118">
         <v>19</v>
       </c>
-      <c r="K40" s="131"/>
-      <c r="L40" s="131">
+      <c r="K40" s="118"/>
+      <c r="L40" s="118">
         <v>20</v>
       </c>
-      <c r="M40" s="131"/>
-      <c r="N40" s="131">
+      <c r="M40" s="118"/>
+      <c r="N40" s="118">
         <v>21</v>
       </c>
-      <c r="O40" s="135"/>
+      <c r="O40" s="121"/>
       <c r="P40" s="17"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
-      <c r="B41" s="132"/>
-      <c r="C41" s="108"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="108"/>
-      <c r="F41" s="107"/>
-      <c r="G41" s="108"/>
-      <c r="H41" s="107"/>
-      <c r="I41" s="108"/>
-      <c r="J41" s="113"/>
-      <c r="K41" s="114"/>
-      <c r="L41" s="119"/>
-      <c r="M41" s="148"/>
-      <c r="N41" s="119"/>
-      <c r="O41" s="120"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="108"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="108"/>
+      <c r="G41" s="103"/>
+      <c r="H41" s="108"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="111"/>
+      <c r="K41" s="112"/>
+      <c r="L41" s="93"/>
+      <c r="M41" s="94"/>
+      <c r="N41" s="93"/>
+      <c r="O41" s="99"/>
       <c r="P41" s="17"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
-      <c r="B42" s="133"/>
-      <c r="C42" s="110"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="105"/>
       <c r="D42" s="109"/>
-      <c r="E42" s="110"/>
+      <c r="E42" s="105"/>
       <c r="F42" s="109"/>
-      <c r="G42" s="110"/>
+      <c r="G42" s="105"/>
       <c r="H42" s="109"/>
-      <c r="I42" s="110"/>
-      <c r="J42" s="115"/>
-      <c r="K42" s="116"/>
-      <c r="L42" s="121"/>
-      <c r="M42" s="149"/>
-      <c r="N42" s="121"/>
-      <c r="O42" s="122"/>
+      <c r="I42" s="105"/>
+      <c r="J42" s="113"/>
+      <c r="K42" s="114"/>
+      <c r="L42" s="95"/>
+      <c r="M42" s="96"/>
+      <c r="N42" s="95"/>
+      <c r="O42" s="100"/>
       <c r="P42" s="17"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
-      <c r="B43" s="133"/>
-      <c r="C43" s="110"/>
+      <c r="B43" s="104"/>
+      <c r="C43" s="105"/>
       <c r="D43" s="109"/>
-      <c r="E43" s="110"/>
+      <c r="E43" s="105"/>
       <c r="F43" s="109"/>
-      <c r="G43" s="110"/>
+      <c r="G43" s="105"/>
       <c r="H43" s="109"/>
-      <c r="I43" s="110"/>
-      <c r="J43" s="115"/>
-      <c r="K43" s="116"/>
-      <c r="L43" s="121"/>
-      <c r="M43" s="149"/>
-      <c r="N43" s="121"/>
-      <c r="O43" s="122"/>
+      <c r="I43" s="105"/>
+      <c r="J43" s="113"/>
+      <c r="K43" s="114"/>
+      <c r="L43" s="95"/>
+      <c r="M43" s="96"/>
+      <c r="N43" s="95"/>
+      <c r="O43" s="100"/>
       <c r="P43" s="17"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
-      <c r="B44" s="133"/>
-      <c r="C44" s="110"/>
+      <c r="B44" s="104"/>
+      <c r="C44" s="105"/>
       <c r="D44" s="109"/>
-      <c r="E44" s="110"/>
+      <c r="E44" s="105"/>
       <c r="F44" s="109"/>
-      <c r="G44" s="110"/>
+      <c r="G44" s="105"/>
       <c r="H44" s="109"/>
-      <c r="I44" s="110"/>
-      <c r="J44" s="115"/>
-      <c r="K44" s="116"/>
-      <c r="L44" s="121"/>
-      <c r="M44" s="149"/>
-      <c r="N44" s="121"/>
-      <c r="O44" s="122"/>
+      <c r="I44" s="105"/>
+      <c r="J44" s="113"/>
+      <c r="K44" s="114"/>
+      <c r="L44" s="95"/>
+      <c r="M44" s="96"/>
+      <c r="N44" s="95"/>
+      <c r="O44" s="100"/>
       <c r="P44" s="17"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
-      <c r="B45" s="133"/>
-      <c r="C45" s="110"/>
+      <c r="B45" s="104"/>
+      <c r="C45" s="105"/>
       <c r="D45" s="109"/>
-      <c r="E45" s="110"/>
+      <c r="E45" s="105"/>
       <c r="F45" s="109"/>
-      <c r="G45" s="110"/>
+      <c r="G45" s="105"/>
       <c r="H45" s="109"/>
-      <c r="I45" s="110"/>
-      <c r="J45" s="115"/>
-      <c r="K45" s="116"/>
-      <c r="L45" s="121"/>
-      <c r="M45" s="149"/>
-      <c r="N45" s="121"/>
-      <c r="O45" s="122"/>
+      <c r="I45" s="105"/>
+      <c r="J45" s="113"/>
+      <c r="K45" s="114"/>
+      <c r="L45" s="95"/>
+      <c r="M45" s="96"/>
+      <c r="N45" s="95"/>
+      <c r="O45" s="100"/>
       <c r="P45" s="17"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="11"/>
-      <c r="B46" s="134"/>
-      <c r="C46" s="112"/>
-      <c r="D46" s="111"/>
-      <c r="E46" s="112"/>
-      <c r="F46" s="111"/>
-      <c r="G46" s="112"/>
-      <c r="H46" s="111"/>
-      <c r="I46" s="112"/>
-      <c r="J46" s="117"/>
-      <c r="K46" s="118"/>
-      <c r="L46" s="123"/>
-      <c r="M46" s="150"/>
-      <c r="N46" s="123"/>
-      <c r="O46" s="124"/>
+      <c r="B46" s="106"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="110"/>
+      <c r="E46" s="107"/>
+      <c r="F46" s="110"/>
+      <c r="G46" s="107"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="107"/>
+      <c r="J46" s="115"/>
+      <c r="K46" s="116"/>
+      <c r="L46" s="97"/>
+      <c r="M46" s="98"/>
+      <c r="N46" s="97"/>
+      <c r="O46" s="101"/>
       <c r="P46" s="17"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
@@ -4424,172 +4451,172 @@
       <c r="C47" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="142" t="s">
+      <c r="D47" s="165" t="s">
         <v>53</v>
       </c>
-      <c r="E47" s="143"/>
-      <c r="F47" s="143"/>
-      <c r="G47" s="143"/>
-      <c r="H47" s="144" t="s">
+      <c r="E47" s="166"/>
+      <c r="F47" s="166"/>
+      <c r="G47" s="166"/>
+      <c r="H47" s="167" t="s">
         <v>37</v>
       </c>
-      <c r="I47" s="144"/>
-      <c r="J47" s="144"/>
-      <c r="K47" s="144"/>
-      <c r="L47" s="144"/>
-      <c r="M47" s="144"/>
-      <c r="N47" s="144"/>
-      <c r="O47" s="145"/>
+      <c r="I47" s="167"/>
+      <c r="J47" s="167"/>
+      <c r="K47" s="167"/>
+      <c r="L47" s="167"/>
+      <c r="M47" s="167"/>
+      <c r="N47" s="167"/>
+      <c r="O47" s="168"/>
       <c r="P47" s="17"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
-      <c r="B48" s="104">
+      <c r="B48" s="122">
         <v>22</v>
       </c>
-      <c r="C48" s="105"/>
-      <c r="D48" s="105">
+      <c r="C48" s="123"/>
+      <c r="D48" s="123">
         <v>23</v>
       </c>
-      <c r="E48" s="105"/>
-      <c r="F48" s="105">
+      <c r="E48" s="123"/>
+      <c r="F48" s="123">
         <v>24</v>
       </c>
-      <c r="G48" s="105"/>
-      <c r="H48" s="131">
+      <c r="G48" s="123"/>
+      <c r="H48" s="118">
         <v>25</v>
       </c>
-      <c r="I48" s="131"/>
-      <c r="J48" s="131">
+      <c r="I48" s="118"/>
+      <c r="J48" s="118">
         <v>26</v>
       </c>
-      <c r="K48" s="131"/>
-      <c r="L48" s="131">
+      <c r="K48" s="118"/>
+      <c r="L48" s="118">
         <v>27</v>
       </c>
-      <c r="M48" s="131"/>
-      <c r="N48" s="131">
+      <c r="M48" s="118"/>
+      <c r="N48" s="118">
         <v>20</v>
       </c>
-      <c r="O48" s="135"/>
+      <c r="O48" s="121"/>
       <c r="P48" s="17"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="11"/>
-      <c r="B49" s="132"/>
-      <c r="C49" s="108"/>
-      <c r="D49" s="107"/>
-      <c r="E49" s="108"/>
-      <c r="F49" s="107"/>
-      <c r="G49" s="108"/>
-      <c r="H49" s="107"/>
-      <c r="I49" s="108"/>
-      <c r="J49" s="113"/>
-      <c r="K49" s="114"/>
-      <c r="L49" s="119"/>
-      <c r="M49" s="148"/>
-      <c r="N49" s="119"/>
-      <c r="O49" s="120"/>
+      <c r="B49" s="102"/>
+      <c r="C49" s="103"/>
+      <c r="D49" s="108"/>
+      <c r="E49" s="103"/>
+      <c r="F49" s="108"/>
+      <c r="G49" s="103"/>
+      <c r="H49" s="108"/>
+      <c r="I49" s="103"/>
+      <c r="J49" s="111"/>
+      <c r="K49" s="112"/>
+      <c r="L49" s="93"/>
+      <c r="M49" s="94"/>
+      <c r="N49" s="93"/>
+      <c r="O49" s="99"/>
       <c r="P49" s="17"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="11"/>
-      <c r="B50" s="133"/>
-      <c r="C50" s="110"/>
+      <c r="B50" s="104"/>
+      <c r="C50" s="105"/>
       <c r="D50" s="109"/>
-      <c r="E50" s="110"/>
+      <c r="E50" s="105"/>
       <c r="F50" s="109"/>
-      <c r="G50" s="110"/>
+      <c r="G50" s="105"/>
       <c r="H50" s="109"/>
-      <c r="I50" s="110"/>
-      <c r="J50" s="115"/>
-      <c r="K50" s="116"/>
-      <c r="L50" s="121"/>
-      <c r="M50" s="149"/>
-      <c r="N50" s="121"/>
-      <c r="O50" s="122"/>
+      <c r="I50" s="105"/>
+      <c r="J50" s="113"/>
+      <c r="K50" s="114"/>
+      <c r="L50" s="95"/>
+      <c r="M50" s="96"/>
+      <c r="N50" s="95"/>
+      <c r="O50" s="100"/>
       <c r="P50" s="17"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="11"/>
-      <c r="B51" s="133"/>
-      <c r="C51" s="110"/>
+      <c r="B51" s="104"/>
+      <c r="C51" s="105"/>
       <c r="D51" s="109"/>
-      <c r="E51" s="110"/>
+      <c r="E51" s="105"/>
       <c r="F51" s="109"/>
-      <c r="G51" s="110"/>
+      <c r="G51" s="105"/>
       <c r="H51" s="109"/>
-      <c r="I51" s="110"/>
-      <c r="J51" s="115"/>
-      <c r="K51" s="116"/>
-      <c r="L51" s="121"/>
-      <c r="M51" s="149"/>
-      <c r="N51" s="121"/>
-      <c r="O51" s="122"/>
+      <c r="I51" s="105"/>
+      <c r="J51" s="113"/>
+      <c r="K51" s="114"/>
+      <c r="L51" s="95"/>
+      <c r="M51" s="96"/>
+      <c r="N51" s="95"/>
+      <c r="O51" s="100"/>
       <c r="P51" s="17"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="11"/>
-      <c r="B52" s="133"/>
-      <c r="C52" s="110"/>
+      <c r="B52" s="104"/>
+      <c r="C52" s="105"/>
       <c r="D52" s="109"/>
-      <c r="E52" s="110"/>
+      <c r="E52" s="105"/>
       <c r="F52" s="109"/>
-      <c r="G52" s="110"/>
+      <c r="G52" s="105"/>
       <c r="H52" s="109"/>
-      <c r="I52" s="110"/>
-      <c r="J52" s="115"/>
-      <c r="K52" s="116"/>
-      <c r="L52" s="121"/>
-      <c r="M52" s="149"/>
-      <c r="N52" s="121"/>
-      <c r="O52" s="122"/>
+      <c r="I52" s="105"/>
+      <c r="J52" s="113"/>
+      <c r="K52" s="114"/>
+      <c r="L52" s="95"/>
+      <c r="M52" s="96"/>
+      <c r="N52" s="95"/>
+      <c r="O52" s="100"/>
       <c r="P52" s="17"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="11"/>
-      <c r="B53" s="133"/>
-      <c r="C53" s="110"/>
+      <c r="B53" s="104"/>
+      <c r="C53" s="105"/>
       <c r="D53" s="109"/>
-      <c r="E53" s="110"/>
+      <c r="E53" s="105"/>
       <c r="F53" s="109"/>
-      <c r="G53" s="110"/>
+      <c r="G53" s="105"/>
       <c r="H53" s="109"/>
-      <c r="I53" s="110"/>
-      <c r="J53" s="115"/>
-      <c r="K53" s="116"/>
-      <c r="L53" s="121"/>
-      <c r="M53" s="149"/>
-      <c r="N53" s="121"/>
-      <c r="O53" s="122"/>
+      <c r="I53" s="105"/>
+      <c r="J53" s="113"/>
+      <c r="K53" s="114"/>
+      <c r="L53" s="95"/>
+      <c r="M53" s="96"/>
+      <c r="N53" s="95"/>
+      <c r="O53" s="100"/>
       <c r="P53" s="17"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="11"/>
-      <c r="B54" s="134"/>
-      <c r="C54" s="112"/>
-      <c r="D54" s="111"/>
-      <c r="E54" s="112"/>
-      <c r="F54" s="111"/>
-      <c r="G54" s="112"/>
-      <c r="H54" s="111"/>
-      <c r="I54" s="112"/>
-      <c r="J54" s="117"/>
-      <c r="K54" s="118"/>
-      <c r="L54" s="123"/>
-      <c r="M54" s="150"/>
-      <c r="N54" s="123"/>
-      <c r="O54" s="124"/>
+      <c r="B54" s="106"/>
+      <c r="C54" s="107"/>
+      <c r="D54" s="110"/>
+      <c r="E54" s="107"/>
+      <c r="F54" s="110"/>
+      <c r="G54" s="107"/>
+      <c r="H54" s="110"/>
+      <c r="I54" s="107"/>
+      <c r="J54" s="115"/>
+      <c r="K54" s="116"/>
+      <c r="L54" s="97"/>
+      <c r="M54" s="98"/>
+      <c r="N54" s="97"/>
+      <c r="O54" s="101"/>
       <c r="P54" s="17"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="11"/>
       <c r="B55" s="22"/>
       <c r="C55" s="3"/>
-      <c r="D55" s="146"/>
-      <c r="E55" s="144"/>
-      <c r="F55" s="144"/>
-      <c r="G55" s="147"/>
+      <c r="D55" s="169"/>
+      <c r="E55" s="167"/>
+      <c r="F55" s="167"/>
+      <c r="G55" s="170"/>
       <c r="H55" s="2"/>
       <c r="I55" s="3"/>
       <c r="J55" s="4"/>
@@ -4602,128 +4629,128 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="11"/>
-      <c r="B56" s="179">
+      <c r="B56" s="117">
         <v>28</v>
       </c>
-      <c r="C56" s="131"/>
-      <c r="D56" s="131">
+      <c r="C56" s="118"/>
+      <c r="D56" s="118">
         <v>29</v>
       </c>
-      <c r="E56" s="131"/>
-      <c r="F56" s="131">
+      <c r="E56" s="118"/>
+      <c r="F56" s="118">
         <v>30</v>
       </c>
-      <c r="G56" s="131"/>
-      <c r="N56" s="177"/>
-      <c r="O56" s="178"/>
+      <c r="G56" s="118"/>
+      <c r="N56" s="119"/>
+      <c r="O56" s="120"/>
       <c r="P56" s="17"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="11"/>
-      <c r="B57" s="132"/>
-      <c r="C57" s="108"/>
-      <c r="D57" s="107"/>
-      <c r="E57" s="108"/>
-      <c r="F57" s="107"/>
-      <c r="G57" s="108"/>
-      <c r="H57" s="107"/>
-      <c r="I57" s="108"/>
-      <c r="J57" s="113"/>
-      <c r="K57" s="114"/>
-      <c r="L57" s="119"/>
-      <c r="M57" s="148"/>
-      <c r="N57" s="119"/>
-      <c r="O57" s="120"/>
+      <c r="B57" s="102"/>
+      <c r="C57" s="103"/>
+      <c r="D57" s="108"/>
+      <c r="E57" s="103"/>
+      <c r="F57" s="108"/>
+      <c r="G57" s="103"/>
+      <c r="H57" s="108"/>
+      <c r="I57" s="103"/>
+      <c r="J57" s="111"/>
+      <c r="K57" s="112"/>
+      <c r="L57" s="93"/>
+      <c r="M57" s="94"/>
+      <c r="N57" s="93"/>
+      <c r="O57" s="99"/>
       <c r="P57" s="17"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="11"/>
-      <c r="B58" s="133"/>
-      <c r="C58" s="110"/>
+      <c r="B58" s="104"/>
+      <c r="C58" s="105"/>
       <c r="D58" s="109"/>
-      <c r="E58" s="110"/>
+      <c r="E58" s="105"/>
       <c r="F58" s="109"/>
-      <c r="G58" s="110"/>
+      <c r="G58" s="105"/>
       <c r="H58" s="109"/>
-      <c r="I58" s="110"/>
-      <c r="J58" s="115"/>
-      <c r="K58" s="116"/>
-      <c r="L58" s="121"/>
-      <c r="M58" s="149"/>
-      <c r="N58" s="121"/>
-      <c r="O58" s="122"/>
+      <c r="I58" s="105"/>
+      <c r="J58" s="113"/>
+      <c r="K58" s="114"/>
+      <c r="L58" s="95"/>
+      <c r="M58" s="96"/>
+      <c r="N58" s="95"/>
+      <c r="O58" s="100"/>
       <c r="P58" s="17"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="11"/>
-      <c r="B59" s="133"/>
-      <c r="C59" s="110"/>
+      <c r="B59" s="104"/>
+      <c r="C59" s="105"/>
       <c r="D59" s="109"/>
-      <c r="E59" s="110"/>
+      <c r="E59" s="105"/>
       <c r="F59" s="109"/>
-      <c r="G59" s="110"/>
+      <c r="G59" s="105"/>
       <c r="H59" s="109"/>
-      <c r="I59" s="110"/>
-      <c r="J59" s="115"/>
-      <c r="K59" s="116"/>
-      <c r="L59" s="121"/>
-      <c r="M59" s="149"/>
-      <c r="N59" s="121"/>
-      <c r="O59" s="122"/>
+      <c r="I59" s="105"/>
+      <c r="J59" s="113"/>
+      <c r="K59" s="114"/>
+      <c r="L59" s="95"/>
+      <c r="M59" s="96"/>
+      <c r="N59" s="95"/>
+      <c r="O59" s="100"/>
       <c r="P59" s="17"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="11"/>
-      <c r="B60" s="133"/>
-      <c r="C60" s="110"/>
+      <c r="B60" s="104"/>
+      <c r="C60" s="105"/>
       <c r="D60" s="109"/>
-      <c r="E60" s="110"/>
+      <c r="E60" s="105"/>
       <c r="F60" s="109"/>
-      <c r="G60" s="110"/>
+      <c r="G60" s="105"/>
       <c r="H60" s="109"/>
-      <c r="I60" s="110"/>
-      <c r="J60" s="115"/>
-      <c r="K60" s="116"/>
-      <c r="L60" s="121"/>
-      <c r="M60" s="149"/>
-      <c r="N60" s="121"/>
-      <c r="O60" s="122"/>
+      <c r="I60" s="105"/>
+      <c r="J60" s="113"/>
+      <c r="K60" s="114"/>
+      <c r="L60" s="95"/>
+      <c r="M60" s="96"/>
+      <c r="N60" s="95"/>
+      <c r="O60" s="100"/>
       <c r="P60" s="17"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="11"/>
-      <c r="B61" s="133"/>
-      <c r="C61" s="110"/>
+      <c r="B61" s="104"/>
+      <c r="C61" s="105"/>
       <c r="D61" s="109"/>
-      <c r="E61" s="110"/>
+      <c r="E61" s="105"/>
       <c r="F61" s="109"/>
-      <c r="G61" s="110"/>
+      <c r="G61" s="105"/>
       <c r="H61" s="109"/>
-      <c r="I61" s="110"/>
-      <c r="J61" s="115"/>
-      <c r="K61" s="116"/>
-      <c r="L61" s="121"/>
-      <c r="M61" s="149"/>
-      <c r="N61" s="121"/>
-      <c r="O61" s="122"/>
+      <c r="I61" s="105"/>
+      <c r="J61" s="113"/>
+      <c r="K61" s="114"/>
+      <c r="L61" s="95"/>
+      <c r="M61" s="96"/>
+      <c r="N61" s="95"/>
+      <c r="O61" s="100"/>
       <c r="P61" s="17"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="11"/>
-      <c r="B62" s="134"/>
-      <c r="C62" s="112"/>
-      <c r="D62" s="111"/>
-      <c r="E62" s="112"/>
-      <c r="F62" s="111"/>
-      <c r="G62" s="112"/>
-      <c r="H62" s="111"/>
-      <c r="I62" s="112"/>
-      <c r="J62" s="117"/>
-      <c r="K62" s="118"/>
-      <c r="L62" s="123"/>
-      <c r="M62" s="150"/>
-      <c r="N62" s="123"/>
-      <c r="O62" s="124"/>
+      <c r="B62" s="106"/>
+      <c r="C62" s="107"/>
+      <c r="D62" s="110"/>
+      <c r="E62" s="107"/>
+      <c r="F62" s="110"/>
+      <c r="G62" s="107"/>
+      <c r="H62" s="110"/>
+      <c r="I62" s="107"/>
+      <c r="J62" s="115"/>
+      <c r="K62" s="116"/>
+      <c r="L62" s="97"/>
+      <c r="M62" s="98"/>
+      <c r="N62" s="97"/>
+      <c r="O62" s="101"/>
       <c r="P62" s="17"/>
     </row>
     <row r="63" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4762,22 +4789,22 @@
     </row>
     <row r="65" spans="1:16" ht="33.75" x14ac:dyDescent="0.3">
       <c r="A65" s="11"/>
-      <c r="B65" s="125" t="s">
+      <c r="B65" s="143" t="s">
         <v>38</v>
       </c>
-      <c r="C65" s="126"/>
-      <c r="D65" s="126"/>
-      <c r="E65" s="126"/>
-      <c r="F65" s="126"/>
-      <c r="G65" s="126"/>
-      <c r="H65" s="126"/>
-      <c r="I65" s="126"/>
-      <c r="J65" s="126"/>
-      <c r="K65" s="126"/>
-      <c r="L65" s="126"/>
-      <c r="M65" s="126"/>
-      <c r="N65" s="126"/>
-      <c r="O65" s="127"/>
+      <c r="C65" s="144"/>
+      <c r="D65" s="144"/>
+      <c r="E65" s="144"/>
+      <c r="F65" s="144"/>
+      <c r="G65" s="144"/>
+      <c r="H65" s="144"/>
+      <c r="I65" s="144"/>
+      <c r="J65" s="144"/>
+      <c r="K65" s="144"/>
+      <c r="L65" s="144"/>
+      <c r="M65" s="144"/>
+      <c r="N65" s="144"/>
+      <c r="O65" s="145"/>
       <c r="P65" s="17"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
@@ -4788,80 +4815,80 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="11"/>
-      <c r="B67" s="128" t="s">
+      <c r="B67" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="C67" s="129"/>
-      <c r="D67" s="129" t="s">
+      <c r="C67" s="133"/>
+      <c r="D67" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="E67" s="129"/>
-      <c r="F67" s="129" t="s">
+      <c r="E67" s="133"/>
+      <c r="F67" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="G67" s="129"/>
-      <c r="H67" s="129" t="s">
+      <c r="G67" s="133"/>
+      <c r="H67" s="133" t="s">
         <v>42</v>
       </c>
-      <c r="I67" s="129"/>
-      <c r="J67" s="129" t="s">
+      <c r="I67" s="133"/>
+      <c r="J67" s="133" t="s">
         <v>43</v>
       </c>
-      <c r="K67" s="129"/>
-      <c r="L67" s="129" t="s">
+      <c r="K67" s="133"/>
+      <c r="L67" s="133" t="s">
         <v>44</v>
       </c>
-      <c r="M67" s="129"/>
-      <c r="N67" s="129" t="s">
+      <c r="M67" s="133"/>
+      <c r="N67" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="O67" s="130"/>
+      <c r="O67" s="147"/>
       <c r="P67" s="17"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="11"/>
-      <c r="B68" s="104"/>
-      <c r="C68" s="105"/>
-      <c r="D68" s="105"/>
-      <c r="E68" s="105"/>
-      <c r="F68" s="105">
+      <c r="B68" s="122"/>
+      <c r="C68" s="123"/>
+      <c r="D68" s="123"/>
+      <c r="E68" s="123"/>
+      <c r="F68" s="123">
         <v>1</v>
       </c>
-      <c r="G68" s="105"/>
-      <c r="H68" s="105">
+      <c r="G68" s="123"/>
+      <c r="H68" s="123">
         <v>2</v>
       </c>
-      <c r="I68" s="105"/>
-      <c r="J68" s="105">
+      <c r="I68" s="123"/>
+      <c r="J68" s="123">
         <v>3</v>
       </c>
-      <c r="K68" s="105"/>
-      <c r="L68" s="105">
+      <c r="K68" s="123"/>
+      <c r="L68" s="123">
         <v>4</v>
       </c>
-      <c r="M68" s="105"/>
-      <c r="N68" s="105">
+      <c r="M68" s="123"/>
+      <c r="N68" s="123">
         <v>5</v>
       </c>
-      <c r="O68" s="106"/>
+      <c r="O68" s="134"/>
       <c r="P68" s="17"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="11"/>
       <c r="B69" s="45"/>
       <c r="C69" s="37"/>
-      <c r="D69" s="107"/>
-      <c r="E69" s="108"/>
-      <c r="F69" s="107"/>
-      <c r="G69" s="108"/>
-      <c r="H69" s="107"/>
-      <c r="I69" s="108"/>
-      <c r="J69" s="107"/>
-      <c r="K69" s="108"/>
-      <c r="L69" s="113"/>
-      <c r="M69" s="114"/>
-      <c r="N69" s="119"/>
-      <c r="O69" s="120"/>
+      <c r="D69" s="108"/>
+      <c r="E69" s="103"/>
+      <c r="F69" s="108"/>
+      <c r="G69" s="103"/>
+      <c r="H69" s="108"/>
+      <c r="I69" s="103"/>
+      <c r="J69" s="108"/>
+      <c r="K69" s="103"/>
+      <c r="L69" s="111"/>
+      <c r="M69" s="112"/>
+      <c r="N69" s="93"/>
+      <c r="O69" s="99"/>
       <c r="P69" s="17"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
@@ -4869,17 +4896,17 @@
       <c r="B70" s="46"/>
       <c r="C70" s="38"/>
       <c r="D70" s="109"/>
-      <c r="E70" s="110"/>
+      <c r="E70" s="105"/>
       <c r="F70" s="109"/>
-      <c r="G70" s="110"/>
+      <c r="G70" s="105"/>
       <c r="H70" s="109"/>
-      <c r="I70" s="110"/>
+      <c r="I70" s="105"/>
       <c r="J70" s="109"/>
-      <c r="K70" s="110"/>
-      <c r="L70" s="115"/>
-      <c r="M70" s="116"/>
-      <c r="N70" s="121"/>
-      <c r="O70" s="122"/>
+      <c r="K70" s="105"/>
+      <c r="L70" s="113"/>
+      <c r="M70" s="114"/>
+      <c r="N70" s="95"/>
+      <c r="O70" s="100"/>
       <c r="P70" s="17"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
@@ -4887,17 +4914,17 @@
       <c r="B71" s="46"/>
       <c r="C71" s="38"/>
       <c r="D71" s="109"/>
-      <c r="E71" s="110"/>
+      <c r="E71" s="105"/>
       <c r="F71" s="109"/>
-      <c r="G71" s="110"/>
+      <c r="G71" s="105"/>
       <c r="H71" s="109"/>
-      <c r="I71" s="110"/>
+      <c r="I71" s="105"/>
       <c r="J71" s="109"/>
-      <c r="K71" s="110"/>
-      <c r="L71" s="115"/>
-      <c r="M71" s="116"/>
-      <c r="N71" s="121"/>
-      <c r="O71" s="122"/>
+      <c r="K71" s="105"/>
+      <c r="L71" s="113"/>
+      <c r="M71" s="114"/>
+      <c r="N71" s="95"/>
+      <c r="O71" s="100"/>
       <c r="P71" s="17"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
@@ -4905,17 +4932,17 @@
       <c r="B72" s="46"/>
       <c r="C72" s="38"/>
       <c r="D72" s="109"/>
-      <c r="E72" s="110"/>
+      <c r="E72" s="105"/>
       <c r="F72" s="109"/>
-      <c r="G72" s="110"/>
+      <c r="G72" s="105"/>
       <c r="H72" s="109"/>
-      <c r="I72" s="110"/>
+      <c r="I72" s="105"/>
       <c r="J72" s="109"/>
-      <c r="K72" s="110"/>
-      <c r="L72" s="115"/>
-      <c r="M72" s="116"/>
-      <c r="N72" s="121"/>
-      <c r="O72" s="122"/>
+      <c r="K72" s="105"/>
+      <c r="L72" s="113"/>
+      <c r="M72" s="114"/>
+      <c r="N72" s="95"/>
+      <c r="O72" s="100"/>
       <c r="P72" s="17"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
@@ -4923,35 +4950,35 @@
       <c r="B73" s="46"/>
       <c r="C73" s="38"/>
       <c r="D73" s="109"/>
-      <c r="E73" s="110"/>
+      <c r="E73" s="105"/>
       <c r="F73" s="109"/>
-      <c r="G73" s="110"/>
+      <c r="G73" s="105"/>
       <c r="H73" s="109"/>
-      <c r="I73" s="110"/>
+      <c r="I73" s="105"/>
       <c r="J73" s="109"/>
-      <c r="K73" s="110"/>
-      <c r="L73" s="115"/>
-      <c r="M73" s="116"/>
-      <c r="N73" s="121"/>
-      <c r="O73" s="122"/>
+      <c r="K73" s="105"/>
+      <c r="L73" s="113"/>
+      <c r="M73" s="114"/>
+      <c r="N73" s="95"/>
+      <c r="O73" s="100"/>
       <c r="P73" s="17"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="11"/>
       <c r="B74" s="46"/>
       <c r="C74" s="38"/>
-      <c r="D74" s="111"/>
-      <c r="E74" s="112"/>
-      <c r="F74" s="111"/>
-      <c r="G74" s="112"/>
-      <c r="H74" s="111"/>
-      <c r="I74" s="112"/>
-      <c r="J74" s="111"/>
-      <c r="K74" s="112"/>
-      <c r="L74" s="117"/>
-      <c r="M74" s="118"/>
-      <c r="N74" s="123"/>
-      <c r="O74" s="124"/>
+      <c r="D74" s="110"/>
+      <c r="E74" s="107"/>
+      <c r="F74" s="110"/>
+      <c r="G74" s="107"/>
+      <c r="H74" s="110"/>
+      <c r="I74" s="107"/>
+      <c r="J74" s="110"/>
+      <c r="K74" s="107"/>
+      <c r="L74" s="115"/>
+      <c r="M74" s="116"/>
+      <c r="N74" s="97"/>
+      <c r="O74" s="101"/>
       <c r="P74" s="17"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
@@ -4974,52 +5001,52 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="11"/>
-      <c r="B76" s="104">
+      <c r="B76" s="122">
         <v>6</v>
       </c>
-      <c r="C76" s="105"/>
-      <c r="D76" s="105">
+      <c r="C76" s="123"/>
+      <c r="D76" s="123">
         <v>7</v>
       </c>
-      <c r="E76" s="105"/>
-      <c r="F76" s="105">
+      <c r="E76" s="123"/>
+      <c r="F76" s="123">
         <v>8</v>
       </c>
-      <c r="G76" s="105"/>
-      <c r="H76" s="105">
+      <c r="G76" s="123"/>
+      <c r="H76" s="123">
         <v>9</v>
       </c>
-      <c r="I76" s="105"/>
-      <c r="J76" s="105">
+      <c r="I76" s="123"/>
+      <c r="J76" s="123">
         <v>10</v>
       </c>
-      <c r="K76" s="105"/>
-      <c r="L76" s="105">
+      <c r="K76" s="123"/>
+      <c r="L76" s="123">
         <v>11</v>
       </c>
-      <c r="M76" s="105"/>
-      <c r="N76" s="105">
+      <c r="M76" s="123"/>
+      <c r="N76" s="123">
         <v>12</v>
       </c>
-      <c r="O76" s="106"/>
+      <c r="O76" s="134"/>
       <c r="P76" s="17"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="11"/>
       <c r="B77" s="47"/>
       <c r="C77" s="40"/>
-      <c r="D77" s="107"/>
-      <c r="E77" s="108"/>
-      <c r="F77" s="107"/>
-      <c r="G77" s="108"/>
-      <c r="H77" s="107"/>
-      <c r="I77" s="108"/>
-      <c r="J77" s="107"/>
-      <c r="K77" s="108"/>
-      <c r="L77" s="113"/>
-      <c r="M77" s="114"/>
-      <c r="N77" s="119"/>
-      <c r="O77" s="120"/>
+      <c r="D77" s="108"/>
+      <c r="E77" s="103"/>
+      <c r="F77" s="108"/>
+      <c r="G77" s="103"/>
+      <c r="H77" s="108"/>
+      <c r="I77" s="103"/>
+      <c r="J77" s="108"/>
+      <c r="K77" s="103"/>
+      <c r="L77" s="111"/>
+      <c r="M77" s="112"/>
+      <c r="N77" s="93"/>
+      <c r="O77" s="99"/>
       <c r="P77" s="17"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
@@ -5027,17 +5054,17 @@
       <c r="B78" s="47"/>
       <c r="C78" s="40"/>
       <c r="D78" s="109"/>
-      <c r="E78" s="110"/>
+      <c r="E78" s="105"/>
       <c r="F78" s="109"/>
-      <c r="G78" s="110"/>
+      <c r="G78" s="105"/>
       <c r="H78" s="109"/>
-      <c r="I78" s="110"/>
+      <c r="I78" s="105"/>
       <c r="J78" s="109"/>
-      <c r="K78" s="110"/>
-      <c r="L78" s="115"/>
-      <c r="M78" s="116"/>
-      <c r="N78" s="121"/>
-      <c r="O78" s="122"/>
+      <c r="K78" s="105"/>
+      <c r="L78" s="113"/>
+      <c r="M78" s="114"/>
+      <c r="N78" s="95"/>
+      <c r="O78" s="100"/>
       <c r="P78" s="17"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
@@ -5045,17 +5072,17 @@
       <c r="B79" s="47"/>
       <c r="C79" s="40"/>
       <c r="D79" s="109"/>
-      <c r="E79" s="110"/>
+      <c r="E79" s="105"/>
       <c r="F79" s="109"/>
-      <c r="G79" s="110"/>
+      <c r="G79" s="105"/>
       <c r="H79" s="109"/>
-      <c r="I79" s="110"/>
+      <c r="I79" s="105"/>
       <c r="J79" s="109"/>
-      <c r="K79" s="110"/>
-      <c r="L79" s="115"/>
-      <c r="M79" s="116"/>
-      <c r="N79" s="121"/>
-      <c r="O79" s="122"/>
+      <c r="K79" s="105"/>
+      <c r="L79" s="113"/>
+      <c r="M79" s="114"/>
+      <c r="N79" s="95"/>
+      <c r="O79" s="100"/>
       <c r="P79" s="17"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
@@ -5063,17 +5090,17 @@
       <c r="B80" s="47"/>
       <c r="C80" s="40"/>
       <c r="D80" s="109"/>
-      <c r="E80" s="110"/>
+      <c r="E80" s="105"/>
       <c r="F80" s="109"/>
-      <c r="G80" s="110"/>
+      <c r="G80" s="105"/>
       <c r="H80" s="109"/>
-      <c r="I80" s="110"/>
+      <c r="I80" s="105"/>
       <c r="J80" s="109"/>
-      <c r="K80" s="110"/>
-      <c r="L80" s="115"/>
-      <c r="M80" s="116"/>
-      <c r="N80" s="121"/>
-      <c r="O80" s="122"/>
+      <c r="K80" s="105"/>
+      <c r="L80" s="113"/>
+      <c r="M80" s="114"/>
+      <c r="N80" s="95"/>
+      <c r="O80" s="100"/>
       <c r="P80" s="17"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.3">
@@ -5081,35 +5108,35 @@
       <c r="B81" s="48"/>
       <c r="C81" s="41"/>
       <c r="D81" s="109"/>
-      <c r="E81" s="110"/>
+      <c r="E81" s="105"/>
       <c r="F81" s="109"/>
-      <c r="G81" s="110"/>
+      <c r="G81" s="105"/>
       <c r="H81" s="109"/>
-      <c r="I81" s="110"/>
+      <c r="I81" s="105"/>
       <c r="J81" s="109"/>
-      <c r="K81" s="110"/>
-      <c r="L81" s="115"/>
-      <c r="M81" s="116"/>
-      <c r="N81" s="121"/>
-      <c r="O81" s="122"/>
+      <c r="K81" s="105"/>
+      <c r="L81" s="113"/>
+      <c r="M81" s="114"/>
+      <c r="N81" s="95"/>
+      <c r="O81" s="100"/>
       <c r="P81" s="17"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="11"/>
       <c r="B82" s="46"/>
       <c r="C82" s="38"/>
-      <c r="D82" s="111"/>
-      <c r="E82" s="112"/>
-      <c r="F82" s="111"/>
-      <c r="G82" s="112"/>
-      <c r="H82" s="111"/>
-      <c r="I82" s="112"/>
-      <c r="J82" s="111"/>
-      <c r="K82" s="112"/>
-      <c r="L82" s="117"/>
-      <c r="M82" s="118"/>
-      <c r="N82" s="123"/>
-      <c r="O82" s="124"/>
+      <c r="D82" s="110"/>
+      <c r="E82" s="107"/>
+      <c r="F82" s="110"/>
+      <c r="G82" s="107"/>
+      <c r="H82" s="110"/>
+      <c r="I82" s="107"/>
+      <c r="J82" s="110"/>
+      <c r="K82" s="107"/>
+      <c r="L82" s="115"/>
+      <c r="M82" s="116"/>
+      <c r="N82" s="97"/>
+      <c r="O82" s="101"/>
       <c r="P82" s="17"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.3">
@@ -5132,52 +5159,52 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="11"/>
-      <c r="B84" s="136">
+      <c r="B84" s="124">
         <v>13</v>
       </c>
-      <c r="C84" s="137"/>
-      <c r="D84" s="131">
+      <c r="C84" s="125"/>
+      <c r="D84" s="118">
         <v>14</v>
       </c>
-      <c r="E84" s="131"/>
-      <c r="F84" s="131">
+      <c r="E84" s="118"/>
+      <c r="F84" s="118">
         <v>15</v>
       </c>
-      <c r="G84" s="131"/>
-      <c r="H84" s="131">
+      <c r="G84" s="118"/>
+      <c r="H84" s="118">
         <v>16</v>
       </c>
-      <c r="I84" s="131"/>
-      <c r="J84" s="131">
+      <c r="I84" s="118"/>
+      <c r="J84" s="118">
         <v>17</v>
       </c>
-      <c r="K84" s="131"/>
-      <c r="L84" s="131">
+      <c r="K84" s="118"/>
+      <c r="L84" s="118">
         <v>18</v>
       </c>
-      <c r="M84" s="131"/>
-      <c r="N84" s="131">
+      <c r="M84" s="118"/>
+      <c r="N84" s="118">
         <v>19</v>
       </c>
-      <c r="O84" s="135"/>
+      <c r="O84" s="121"/>
       <c r="P84" s="17"/>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="11"/>
       <c r="B85" s="47"/>
       <c r="C85" s="39"/>
-      <c r="D85" s="107"/>
-      <c r="E85" s="108"/>
-      <c r="F85" s="107"/>
-      <c r="G85" s="108"/>
-      <c r="H85" s="107"/>
-      <c r="I85" s="108"/>
-      <c r="J85" s="107"/>
-      <c r="K85" s="108"/>
-      <c r="L85" s="113"/>
-      <c r="M85" s="114"/>
-      <c r="N85" s="119"/>
-      <c r="O85" s="120"/>
+      <c r="D85" s="108"/>
+      <c r="E85" s="103"/>
+      <c r="F85" s="108"/>
+      <c r="G85" s="103"/>
+      <c r="H85" s="108"/>
+      <c r="I85" s="103"/>
+      <c r="J85" s="108"/>
+      <c r="K85" s="103"/>
+      <c r="L85" s="111"/>
+      <c r="M85" s="112"/>
+      <c r="N85" s="93"/>
+      <c r="O85" s="99"/>
       <c r="P85" s="17"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.3">
@@ -5185,17 +5212,17 @@
       <c r="B86" s="49"/>
       <c r="C86" s="42"/>
       <c r="D86" s="109"/>
-      <c r="E86" s="110"/>
+      <c r="E86" s="105"/>
       <c r="F86" s="109"/>
-      <c r="G86" s="110"/>
+      <c r="G86" s="105"/>
       <c r="H86" s="109"/>
-      <c r="I86" s="110"/>
+      <c r="I86" s="105"/>
       <c r="J86" s="109"/>
-      <c r="K86" s="110"/>
-      <c r="L86" s="115"/>
-      <c r="M86" s="116"/>
-      <c r="N86" s="121"/>
-      <c r="O86" s="122"/>
+      <c r="K86" s="105"/>
+      <c r="L86" s="113"/>
+      <c r="M86" s="114"/>
+      <c r="N86" s="95"/>
+      <c r="O86" s="100"/>
       <c r="P86" s="17"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.3">
@@ -5203,17 +5230,17 @@
       <c r="B87" s="49"/>
       <c r="C87" s="42"/>
       <c r="D87" s="109"/>
-      <c r="E87" s="110"/>
+      <c r="E87" s="105"/>
       <c r="F87" s="109"/>
-      <c r="G87" s="110"/>
+      <c r="G87" s="105"/>
       <c r="H87" s="109"/>
-      <c r="I87" s="110"/>
+      <c r="I87" s="105"/>
       <c r="J87" s="109"/>
-      <c r="K87" s="110"/>
-      <c r="L87" s="115"/>
-      <c r="M87" s="116"/>
-      <c r="N87" s="121"/>
-      <c r="O87" s="122"/>
+      <c r="K87" s="105"/>
+      <c r="L87" s="113"/>
+      <c r="M87" s="114"/>
+      <c r="N87" s="95"/>
+      <c r="O87" s="100"/>
       <c r="P87" s="17"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.3">
@@ -5221,17 +5248,17 @@
       <c r="B88" s="49"/>
       <c r="C88" s="42"/>
       <c r="D88" s="109"/>
-      <c r="E88" s="110"/>
+      <c r="E88" s="105"/>
       <c r="F88" s="109"/>
-      <c r="G88" s="110"/>
+      <c r="G88" s="105"/>
       <c r="H88" s="109"/>
-      <c r="I88" s="110"/>
+      <c r="I88" s="105"/>
       <c r="J88" s="109"/>
-      <c r="K88" s="110"/>
-      <c r="L88" s="115"/>
-      <c r="M88" s="116"/>
-      <c r="N88" s="121"/>
-      <c r="O88" s="122"/>
+      <c r="K88" s="105"/>
+      <c r="L88" s="113"/>
+      <c r="M88" s="114"/>
+      <c r="N88" s="95"/>
+      <c r="O88" s="100"/>
       <c r="P88" s="17"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.3">
@@ -5239,35 +5266,35 @@
       <c r="B89" s="50"/>
       <c r="C89" s="43"/>
       <c r="D89" s="109"/>
-      <c r="E89" s="110"/>
+      <c r="E89" s="105"/>
       <c r="F89" s="109"/>
-      <c r="G89" s="110"/>
+      <c r="G89" s="105"/>
       <c r="H89" s="109"/>
-      <c r="I89" s="110"/>
+      <c r="I89" s="105"/>
       <c r="J89" s="109"/>
-      <c r="K89" s="110"/>
-      <c r="L89" s="115"/>
-      <c r="M89" s="116"/>
-      <c r="N89" s="121"/>
-      <c r="O89" s="122"/>
+      <c r="K89" s="105"/>
+      <c r="L89" s="113"/>
+      <c r="M89" s="114"/>
+      <c r="N89" s="95"/>
+      <c r="O89" s="100"/>
       <c r="P89" s="17"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" s="11"/>
       <c r="B90" s="46"/>
       <c r="C90" s="38"/>
-      <c r="D90" s="111"/>
-      <c r="E90" s="112"/>
-      <c r="F90" s="111"/>
-      <c r="G90" s="112"/>
-      <c r="H90" s="111"/>
-      <c r="I90" s="112"/>
-      <c r="J90" s="111"/>
-      <c r="K90" s="112"/>
-      <c r="L90" s="117"/>
-      <c r="M90" s="118"/>
-      <c r="N90" s="123"/>
-      <c r="O90" s="124"/>
+      <c r="D90" s="110"/>
+      <c r="E90" s="107"/>
+      <c r="F90" s="110"/>
+      <c r="G90" s="107"/>
+      <c r="H90" s="110"/>
+      <c r="I90" s="107"/>
+      <c r="J90" s="110"/>
+      <c r="K90" s="107"/>
+      <c r="L90" s="115"/>
+      <c r="M90" s="116"/>
+      <c r="N90" s="97"/>
+      <c r="O90" s="101"/>
       <c r="P90" s="17"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.3">
@@ -5290,52 +5317,52 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="11"/>
-      <c r="B92" s="104">
+      <c r="B92" s="122">
         <v>20</v>
       </c>
-      <c r="C92" s="105"/>
-      <c r="D92" s="105">
+      <c r="C92" s="123"/>
+      <c r="D92" s="123">
         <v>21</v>
       </c>
-      <c r="E92" s="105"/>
-      <c r="F92" s="105">
+      <c r="E92" s="123"/>
+      <c r="F92" s="123">
         <v>22</v>
       </c>
-      <c r="G92" s="105"/>
-      <c r="H92" s="131">
+      <c r="G92" s="123"/>
+      <c r="H92" s="118">
         <v>23</v>
       </c>
-      <c r="I92" s="131"/>
-      <c r="J92" s="131">
+      <c r="I92" s="118"/>
+      <c r="J92" s="118">
         <v>24</v>
       </c>
-      <c r="K92" s="131"/>
-      <c r="L92" s="131">
+      <c r="K92" s="118"/>
+      <c r="L92" s="118">
         <v>25</v>
       </c>
-      <c r="M92" s="131"/>
-      <c r="N92" s="131">
+      <c r="M92" s="118"/>
+      <c r="N92" s="118">
         <v>26</v>
       </c>
-      <c r="O92" s="135"/>
+      <c r="O92" s="121"/>
       <c r="P92" s="17"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" s="11"/>
       <c r="B93" s="51"/>
       <c r="C93" s="39"/>
-      <c r="D93" s="107"/>
-      <c r="E93" s="108"/>
-      <c r="F93" s="107"/>
-      <c r="G93" s="108"/>
-      <c r="H93" s="107"/>
-      <c r="I93" s="108"/>
-      <c r="J93" s="107"/>
-      <c r="K93" s="108"/>
-      <c r="L93" s="113"/>
-      <c r="M93" s="114"/>
-      <c r="N93" s="119"/>
-      <c r="O93" s="120"/>
+      <c r="D93" s="108"/>
+      <c r="E93" s="103"/>
+      <c r="F93" s="108"/>
+      <c r="G93" s="103"/>
+      <c r="H93" s="108"/>
+      <c r="I93" s="103"/>
+      <c r="J93" s="108"/>
+      <c r="K93" s="103"/>
+      <c r="L93" s="111"/>
+      <c r="M93" s="112"/>
+      <c r="N93" s="93"/>
+      <c r="O93" s="99"/>
       <c r="P93" s="17"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.3">
@@ -5343,17 +5370,17 @@
       <c r="B94" s="48"/>
       <c r="C94" s="44"/>
       <c r="D94" s="109"/>
-      <c r="E94" s="110"/>
+      <c r="E94" s="105"/>
       <c r="F94" s="109"/>
-      <c r="G94" s="110"/>
+      <c r="G94" s="105"/>
       <c r="H94" s="109"/>
-      <c r="I94" s="110"/>
+      <c r="I94" s="105"/>
       <c r="J94" s="109"/>
-      <c r="K94" s="110"/>
-      <c r="L94" s="115"/>
-      <c r="M94" s="116"/>
-      <c r="N94" s="121"/>
-      <c r="O94" s="122"/>
+      <c r="K94" s="105"/>
+      <c r="L94" s="113"/>
+      <c r="M94" s="114"/>
+      <c r="N94" s="95"/>
+      <c r="O94" s="100"/>
       <c r="P94" s="17"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.3">
@@ -5361,17 +5388,17 @@
       <c r="B95" s="48"/>
       <c r="C95" s="44"/>
       <c r="D95" s="109"/>
-      <c r="E95" s="110"/>
+      <c r="E95" s="105"/>
       <c r="F95" s="109"/>
-      <c r="G95" s="110"/>
+      <c r="G95" s="105"/>
       <c r="H95" s="109"/>
-      <c r="I95" s="110"/>
+      <c r="I95" s="105"/>
       <c r="J95" s="109"/>
-      <c r="K95" s="110"/>
-      <c r="L95" s="115"/>
-      <c r="M95" s="116"/>
-      <c r="N95" s="121"/>
-      <c r="O95" s="122"/>
+      <c r="K95" s="105"/>
+      <c r="L95" s="113"/>
+      <c r="M95" s="114"/>
+      <c r="N95" s="95"/>
+      <c r="O95" s="100"/>
       <c r="P95" s="17"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.3">
@@ -5379,17 +5406,17 @@
       <c r="B96" s="48"/>
       <c r="C96" s="44"/>
       <c r="D96" s="109"/>
-      <c r="E96" s="110"/>
+      <c r="E96" s="105"/>
       <c r="F96" s="109"/>
-      <c r="G96" s="110"/>
+      <c r="G96" s="105"/>
       <c r="H96" s="109"/>
-      <c r="I96" s="110"/>
+      <c r="I96" s="105"/>
       <c r="J96" s="109"/>
-      <c r="K96" s="110"/>
-      <c r="L96" s="115"/>
-      <c r="M96" s="116"/>
-      <c r="N96" s="121"/>
-      <c r="O96" s="122"/>
+      <c r="K96" s="105"/>
+      <c r="L96" s="113"/>
+      <c r="M96" s="114"/>
+      <c r="N96" s="95"/>
+      <c r="O96" s="100"/>
       <c r="P96" s="17"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.3">
@@ -5397,35 +5424,35 @@
       <c r="B97" s="48"/>
       <c r="C97" s="44"/>
       <c r="D97" s="109"/>
-      <c r="E97" s="110"/>
+      <c r="E97" s="105"/>
       <c r="F97" s="109"/>
-      <c r="G97" s="110"/>
+      <c r="G97" s="105"/>
       <c r="H97" s="109"/>
-      <c r="I97" s="110"/>
+      <c r="I97" s="105"/>
       <c r="J97" s="109"/>
-      <c r="K97" s="110"/>
-      <c r="L97" s="115"/>
-      <c r="M97" s="116"/>
-      <c r="N97" s="121"/>
-      <c r="O97" s="122"/>
+      <c r="K97" s="105"/>
+      <c r="L97" s="113"/>
+      <c r="M97" s="114"/>
+      <c r="N97" s="95"/>
+      <c r="O97" s="100"/>
       <c r="P97" s="17"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="11"/>
       <c r="B98" s="46"/>
       <c r="C98" s="38"/>
-      <c r="D98" s="111"/>
-      <c r="E98" s="112"/>
-      <c r="F98" s="111"/>
-      <c r="G98" s="112"/>
-      <c r="H98" s="111"/>
-      <c r="I98" s="112"/>
-      <c r="J98" s="111"/>
-      <c r="K98" s="112"/>
-      <c r="L98" s="117"/>
-      <c r="M98" s="118"/>
-      <c r="N98" s="123"/>
-      <c r="O98" s="124"/>
+      <c r="D98" s="110"/>
+      <c r="E98" s="107"/>
+      <c r="F98" s="110"/>
+      <c r="G98" s="107"/>
+      <c r="H98" s="110"/>
+      <c r="I98" s="107"/>
+      <c r="J98" s="110"/>
+      <c r="K98" s="107"/>
+      <c r="L98" s="115"/>
+      <c r="M98" s="116"/>
+      <c r="N98" s="97"/>
+      <c r="O98" s="101"/>
       <c r="P98" s="17"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.3">
@@ -5448,135 +5475,135 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="11"/>
-      <c r="B100" s="104">
+      <c r="B100" s="122">
         <v>27</v>
       </c>
-      <c r="C100" s="105"/>
-      <c r="D100" s="105">
+      <c r="C100" s="123"/>
+      <c r="D100" s="123">
         <v>28</v>
       </c>
-      <c r="E100" s="105"/>
-      <c r="F100" s="105">
+      <c r="E100" s="123"/>
+      <c r="F100" s="123">
         <v>29</v>
       </c>
-      <c r="G100" s="105"/>
-      <c r="H100" s="131">
+      <c r="G100" s="123"/>
+      <c r="H100" s="118">
         <v>30</v>
       </c>
-      <c r="I100" s="131"/>
-      <c r="J100" s="105">
+      <c r="I100" s="118"/>
+      <c r="J100" s="123">
         <v>31</v>
       </c>
-      <c r="K100" s="105"/>
+      <c r="K100" s="123"/>
       <c r="O100" s="21"/>
       <c r="P100" s="17"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" s="11"/>
-      <c r="B101" s="132"/>
-      <c r="C101" s="108"/>
-      <c r="D101" s="107"/>
-      <c r="E101" s="108"/>
-      <c r="F101" s="107"/>
-      <c r="G101" s="108"/>
-      <c r="H101" s="107"/>
-      <c r="I101" s="108"/>
-      <c r="J101" s="107"/>
-      <c r="K101" s="108"/>
-      <c r="L101" s="113"/>
-      <c r="M101" s="114"/>
-      <c r="N101" s="119"/>
-      <c r="O101" s="120"/>
+      <c r="B101" s="102"/>
+      <c r="C101" s="103"/>
+      <c r="D101" s="108"/>
+      <c r="E101" s="103"/>
+      <c r="F101" s="108"/>
+      <c r="G101" s="103"/>
+      <c r="H101" s="108"/>
+      <c r="I101" s="103"/>
+      <c r="J101" s="108"/>
+      <c r="K101" s="103"/>
+      <c r="L101" s="111"/>
+      <c r="M101" s="112"/>
+      <c r="N101" s="93"/>
+      <c r="O101" s="99"/>
       <c r="P101" s="17"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="11"/>
-      <c r="B102" s="133"/>
-      <c r="C102" s="110"/>
+      <c r="B102" s="104"/>
+      <c r="C102" s="105"/>
       <c r="D102" s="109"/>
-      <c r="E102" s="110"/>
+      <c r="E102" s="105"/>
       <c r="F102" s="109"/>
-      <c r="G102" s="110"/>
+      <c r="G102" s="105"/>
       <c r="H102" s="109"/>
-      <c r="I102" s="110"/>
+      <c r="I102" s="105"/>
       <c r="J102" s="109"/>
-      <c r="K102" s="110"/>
-      <c r="L102" s="115"/>
-      <c r="M102" s="116"/>
-      <c r="N102" s="121"/>
-      <c r="O102" s="122"/>
+      <c r="K102" s="105"/>
+      <c r="L102" s="113"/>
+      <c r="M102" s="114"/>
+      <c r="N102" s="95"/>
+      <c r="O102" s="100"/>
       <c r="P102" s="17"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="11"/>
-      <c r="B103" s="133"/>
-      <c r="C103" s="110"/>
+      <c r="B103" s="104"/>
+      <c r="C103" s="105"/>
       <c r="D103" s="109"/>
-      <c r="E103" s="110"/>
+      <c r="E103" s="105"/>
       <c r="F103" s="109"/>
-      <c r="G103" s="110"/>
+      <c r="G103" s="105"/>
       <c r="H103" s="109"/>
-      <c r="I103" s="110"/>
+      <c r="I103" s="105"/>
       <c r="J103" s="109"/>
-      <c r="K103" s="110"/>
-      <c r="L103" s="115"/>
-      <c r="M103" s="116"/>
-      <c r="N103" s="121"/>
-      <c r="O103" s="122"/>
+      <c r="K103" s="105"/>
+      <c r="L103" s="113"/>
+      <c r="M103" s="114"/>
+      <c r="N103" s="95"/>
+      <c r="O103" s="100"/>
       <c r="P103" s="17"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="11"/>
-      <c r="B104" s="133"/>
-      <c r="C104" s="110"/>
+      <c r="B104" s="104"/>
+      <c r="C104" s="105"/>
       <c r="D104" s="109"/>
-      <c r="E104" s="110"/>
+      <c r="E104" s="105"/>
       <c r="F104" s="109"/>
-      <c r="G104" s="110"/>
+      <c r="G104" s="105"/>
       <c r="H104" s="109"/>
-      <c r="I104" s="110"/>
+      <c r="I104" s="105"/>
       <c r="J104" s="109"/>
-      <c r="K104" s="110"/>
-      <c r="L104" s="115"/>
-      <c r="M104" s="116"/>
-      <c r="N104" s="121"/>
-      <c r="O104" s="122"/>
+      <c r="K104" s="105"/>
+      <c r="L104" s="113"/>
+      <c r="M104" s="114"/>
+      <c r="N104" s="95"/>
+      <c r="O104" s="100"/>
       <c r="P104" s="17"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" s="11"/>
-      <c r="B105" s="133"/>
-      <c r="C105" s="110"/>
+      <c r="B105" s="104"/>
+      <c r="C105" s="105"/>
       <c r="D105" s="109"/>
-      <c r="E105" s="110"/>
+      <c r="E105" s="105"/>
       <c r="F105" s="109"/>
-      <c r="G105" s="110"/>
+      <c r="G105" s="105"/>
       <c r="H105" s="109"/>
-      <c r="I105" s="110"/>
+      <c r="I105" s="105"/>
       <c r="J105" s="109"/>
-      <c r="K105" s="110"/>
-      <c r="L105" s="115"/>
-      <c r="M105" s="116"/>
-      <c r="N105" s="121"/>
-      <c r="O105" s="122"/>
+      <c r="K105" s="105"/>
+      <c r="L105" s="113"/>
+      <c r="M105" s="114"/>
+      <c r="N105" s="95"/>
+      <c r="O105" s="100"/>
       <c r="P105" s="17"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" s="11"/>
-      <c r="B106" s="134"/>
-      <c r="C106" s="112"/>
-      <c r="D106" s="111"/>
-      <c r="E106" s="112"/>
-      <c r="F106" s="111"/>
-      <c r="G106" s="112"/>
-      <c r="H106" s="111"/>
-      <c r="I106" s="112"/>
-      <c r="J106" s="111"/>
-      <c r="K106" s="112"/>
-      <c r="L106" s="117"/>
-      <c r="M106" s="118"/>
-      <c r="N106" s="123"/>
-      <c r="O106" s="124"/>
+      <c r="B106" s="106"/>
+      <c r="C106" s="107"/>
+      <c r="D106" s="110"/>
+      <c r="E106" s="107"/>
+      <c r="F106" s="110"/>
+      <c r="G106" s="107"/>
+      <c r="H106" s="110"/>
+      <c r="I106" s="107"/>
+      <c r="J106" s="110"/>
+      <c r="K106" s="107"/>
+      <c r="L106" s="115"/>
+      <c r="M106" s="116"/>
+      <c r="N106" s="97"/>
+      <c r="O106" s="101"/>
       <c r="P106" s="17"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.3">
@@ -5606,22 +5633,22 @@
     <row r="109" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="110" spans="1:16" ht="33.75" x14ac:dyDescent="0.3">
       <c r="A110" s="11"/>
-      <c r="B110" s="125" t="s">
+      <c r="B110" s="143" t="s">
         <v>46</v>
       </c>
-      <c r="C110" s="126"/>
-      <c r="D110" s="126"/>
-      <c r="E110" s="126"/>
-      <c r="F110" s="126"/>
-      <c r="G110" s="126"/>
-      <c r="H110" s="126"/>
-      <c r="I110" s="126"/>
-      <c r="J110" s="126"/>
-      <c r="K110" s="126"/>
-      <c r="L110" s="126"/>
-      <c r="M110" s="126"/>
-      <c r="N110" s="126"/>
-      <c r="O110" s="127"/>
+      <c r="C110" s="144"/>
+      <c r="D110" s="144"/>
+      <c r="E110" s="144"/>
+      <c r="F110" s="144"/>
+      <c r="G110" s="144"/>
+      <c r="H110" s="144"/>
+      <c r="I110" s="144"/>
+      <c r="J110" s="144"/>
+      <c r="K110" s="144"/>
+      <c r="L110" s="144"/>
+      <c r="M110" s="144"/>
+      <c r="N110" s="144"/>
+      <c r="O110" s="145"/>
       <c r="P110" s="17"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.3">
@@ -5632,74 +5659,74 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" s="11"/>
-      <c r="B112" s="128" t="s">
+      <c r="B112" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="C112" s="129"/>
-      <c r="D112" s="129" t="s">
+      <c r="C112" s="133"/>
+      <c r="D112" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="E112" s="129"/>
-      <c r="F112" s="129" t="s">
+      <c r="E112" s="133"/>
+      <c r="F112" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="G112" s="129"/>
-      <c r="H112" s="129" t="s">
+      <c r="G112" s="133"/>
+      <c r="H112" s="133" t="s">
         <v>42</v>
       </c>
-      <c r="I112" s="129"/>
-      <c r="J112" s="129" t="s">
+      <c r="I112" s="133"/>
+      <c r="J112" s="133" t="s">
         <v>43</v>
       </c>
-      <c r="K112" s="129"/>
-      <c r="L112" s="129" t="s">
+      <c r="K112" s="133"/>
+      <c r="L112" s="133" t="s">
         <v>44</v>
       </c>
-      <c r="M112" s="129"/>
-      <c r="N112" s="129" t="s">
+      <c r="M112" s="133"/>
+      <c r="N112" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="O112" s="130"/>
+      <c r="O112" s="147"/>
       <c r="P112" s="17"/>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="11"/>
-      <c r="B113" s="104"/>
-      <c r="C113" s="105"/>
-      <c r="D113" s="105"/>
-      <c r="E113" s="105"/>
-      <c r="F113" s="105"/>
-      <c r="G113" s="105"/>
-      <c r="H113" s="105"/>
-      <c r="I113" s="105"/>
-      <c r="J113" s="105"/>
-      <c r="K113" s="105"/>
-      <c r="L113" s="105">
+      <c r="B113" s="122"/>
+      <c r="C113" s="123"/>
+      <c r="D113" s="123"/>
+      <c r="E113" s="123"/>
+      <c r="F113" s="123"/>
+      <c r="G113" s="123"/>
+      <c r="H113" s="123"/>
+      <c r="I113" s="123"/>
+      <c r="J113" s="123"/>
+      <c r="K113" s="123"/>
+      <c r="L113" s="123">
         <v>1</v>
       </c>
-      <c r="M113" s="105"/>
-      <c r="N113" s="105">
+      <c r="M113" s="123"/>
+      <c r="N113" s="123">
         <v>2</v>
       </c>
-      <c r="O113" s="106"/>
+      <c r="O113" s="134"/>
       <c r="P113" s="17"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" s="11"/>
       <c r="B114" s="45"/>
       <c r="C114" s="37"/>
-      <c r="D114" s="107"/>
-      <c r="E114" s="108"/>
-      <c r="F114" s="107"/>
-      <c r="G114" s="108"/>
-      <c r="H114" s="107"/>
-      <c r="I114" s="108"/>
-      <c r="J114" s="107"/>
-      <c r="K114" s="108"/>
-      <c r="L114" s="113"/>
-      <c r="M114" s="114"/>
-      <c r="N114" s="119"/>
-      <c r="O114" s="120"/>
+      <c r="D114" s="108"/>
+      <c r="E114" s="103"/>
+      <c r="F114" s="108"/>
+      <c r="G114" s="103"/>
+      <c r="H114" s="108"/>
+      <c r="I114" s="103"/>
+      <c r="J114" s="108"/>
+      <c r="K114" s="103"/>
+      <c r="L114" s="111"/>
+      <c r="M114" s="112"/>
+      <c r="N114" s="93"/>
+      <c r="O114" s="99"/>
       <c r="P114" s="17"/>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.3">
@@ -5707,17 +5734,17 @@
       <c r="B115" s="46"/>
       <c r="C115" s="38"/>
       <c r="D115" s="109"/>
-      <c r="E115" s="110"/>
+      <c r="E115" s="105"/>
       <c r="F115" s="109"/>
-      <c r="G115" s="110"/>
+      <c r="G115" s="105"/>
       <c r="H115" s="109"/>
-      <c r="I115" s="110"/>
+      <c r="I115" s="105"/>
       <c r="J115" s="109"/>
-      <c r="K115" s="110"/>
-      <c r="L115" s="115"/>
-      <c r="M115" s="116"/>
-      <c r="N115" s="121"/>
-      <c r="O115" s="122"/>
+      <c r="K115" s="105"/>
+      <c r="L115" s="113"/>
+      <c r="M115" s="114"/>
+      <c r="N115" s="95"/>
+      <c r="O115" s="100"/>
       <c r="P115" s="17"/>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.3">
@@ -5725,17 +5752,17 @@
       <c r="B116" s="46"/>
       <c r="C116" s="38"/>
       <c r="D116" s="109"/>
-      <c r="E116" s="110"/>
+      <c r="E116" s="105"/>
       <c r="F116" s="109"/>
-      <c r="G116" s="110"/>
+      <c r="G116" s="105"/>
       <c r="H116" s="109"/>
-      <c r="I116" s="110"/>
+      <c r="I116" s="105"/>
       <c r="J116" s="109"/>
-      <c r="K116" s="110"/>
-      <c r="L116" s="115"/>
-      <c r="M116" s="116"/>
-      <c r="N116" s="121"/>
-      <c r="O116" s="122"/>
+      <c r="K116" s="105"/>
+      <c r="L116" s="113"/>
+      <c r="M116" s="114"/>
+      <c r="N116" s="95"/>
+      <c r="O116" s="100"/>
       <c r="P116" s="17"/>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.3">
@@ -5743,17 +5770,17 @@
       <c r="B117" s="46"/>
       <c r="C117" s="38"/>
       <c r="D117" s="109"/>
-      <c r="E117" s="110"/>
+      <c r="E117" s="105"/>
       <c r="F117" s="109"/>
-      <c r="G117" s="110"/>
+      <c r="G117" s="105"/>
       <c r="H117" s="109"/>
-      <c r="I117" s="110"/>
+      <c r="I117" s="105"/>
       <c r="J117" s="109"/>
-      <c r="K117" s="110"/>
-      <c r="L117" s="115"/>
-      <c r="M117" s="116"/>
-      <c r="N117" s="121"/>
-      <c r="O117" s="122"/>
+      <c r="K117" s="105"/>
+      <c r="L117" s="113"/>
+      <c r="M117" s="114"/>
+      <c r="N117" s="95"/>
+      <c r="O117" s="100"/>
       <c r="P117" s="17"/>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.3">
@@ -5761,35 +5788,35 @@
       <c r="B118" s="46"/>
       <c r="C118" s="38"/>
       <c r="D118" s="109"/>
-      <c r="E118" s="110"/>
+      <c r="E118" s="105"/>
       <c r="F118" s="109"/>
-      <c r="G118" s="110"/>
+      <c r="G118" s="105"/>
       <c r="H118" s="109"/>
-      <c r="I118" s="110"/>
+      <c r="I118" s="105"/>
       <c r="J118" s="109"/>
-      <c r="K118" s="110"/>
-      <c r="L118" s="115"/>
-      <c r="M118" s="116"/>
-      <c r="N118" s="121"/>
-      <c r="O118" s="122"/>
+      <c r="K118" s="105"/>
+      <c r="L118" s="113"/>
+      <c r="M118" s="114"/>
+      <c r="N118" s="95"/>
+      <c r="O118" s="100"/>
       <c r="P118" s="17"/>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="11"/>
       <c r="B119" s="46"/>
       <c r="C119" s="38"/>
-      <c r="D119" s="111"/>
-      <c r="E119" s="112"/>
-      <c r="F119" s="111"/>
-      <c r="G119" s="112"/>
-      <c r="H119" s="111"/>
-      <c r="I119" s="112"/>
-      <c r="J119" s="111"/>
-      <c r="K119" s="112"/>
-      <c r="L119" s="117"/>
-      <c r="M119" s="118"/>
-      <c r="N119" s="123"/>
-      <c r="O119" s="124"/>
+      <c r="D119" s="110"/>
+      <c r="E119" s="107"/>
+      <c r="F119" s="110"/>
+      <c r="G119" s="107"/>
+      <c r="H119" s="110"/>
+      <c r="I119" s="107"/>
+      <c r="J119" s="110"/>
+      <c r="K119" s="107"/>
+      <c r="L119" s="115"/>
+      <c r="M119" s="116"/>
+      <c r="N119" s="97"/>
+      <c r="O119" s="101"/>
       <c r="P119" s="17"/>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.3">
@@ -5812,46 +5839,46 @@
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" s="11"/>
-      <c r="B121" s="104">
+      <c r="B121" s="122">
         <v>3</v>
       </c>
-      <c r="C121" s="105"/>
-      <c r="D121" s="105">
+      <c r="C121" s="123"/>
+      <c r="D121" s="123">
         <v>4</v>
       </c>
-      <c r="E121" s="105"/>
-      <c r="F121" s="105">
+      <c r="E121" s="123"/>
+      <c r="F121" s="123">
         <v>5</v>
       </c>
-      <c r="G121" s="105"/>
-      <c r="H121" s="105"/>
-      <c r="I121" s="105"/>
-      <c r="J121" s="105"/>
-      <c r="K121" s="105"/>
-      <c r="L121" s="105"/>
-      <c r="M121" s="105"/>
-      <c r="N121" s="105"/>
-      <c r="O121" s="106"/>
+      <c r="G121" s="123"/>
+      <c r="H121" s="123"/>
+      <c r="I121" s="123"/>
+      <c r="J121" s="123"/>
+      <c r="K121" s="123"/>
+      <c r="L121" s="123"/>
+      <c r="M121" s="123"/>
+      <c r="N121" s="123"/>
+      <c r="O121" s="134"/>
       <c r="P121" s="17"/>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="11"/>
       <c r="B122" s="47"/>
       <c r="C122" s="40"/>
-      <c r="D122" s="107" t="s">
+      <c r="D122" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="E122" s="108"/>
-      <c r="F122" s="107"/>
-      <c r="G122" s="108"/>
-      <c r="H122" s="107"/>
-      <c r="I122" s="108"/>
-      <c r="J122" s="107"/>
-      <c r="K122" s="108"/>
-      <c r="L122" s="113"/>
-      <c r="M122" s="114"/>
-      <c r="N122" s="119"/>
-      <c r="O122" s="120"/>
+      <c r="E122" s="103"/>
+      <c r="F122" s="108"/>
+      <c r="G122" s="103"/>
+      <c r="H122" s="108"/>
+      <c r="I122" s="103"/>
+      <c r="J122" s="108"/>
+      <c r="K122" s="103"/>
+      <c r="L122" s="111"/>
+      <c r="M122" s="112"/>
+      <c r="N122" s="93"/>
+      <c r="O122" s="99"/>
       <c r="P122" s="17"/>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.3">
@@ -5859,17 +5886,17 @@
       <c r="B123" s="47"/>
       <c r="C123" s="40"/>
       <c r="D123" s="109"/>
-      <c r="E123" s="110"/>
+      <c r="E123" s="105"/>
       <c r="F123" s="109"/>
-      <c r="G123" s="110"/>
+      <c r="G123" s="105"/>
       <c r="H123" s="109"/>
-      <c r="I123" s="110"/>
+      <c r="I123" s="105"/>
       <c r="J123" s="109"/>
-      <c r="K123" s="110"/>
-      <c r="L123" s="115"/>
-      <c r="M123" s="116"/>
-      <c r="N123" s="121"/>
-      <c r="O123" s="122"/>
+      <c r="K123" s="105"/>
+      <c r="L123" s="113"/>
+      <c r="M123" s="114"/>
+      <c r="N123" s="95"/>
+      <c r="O123" s="100"/>
       <c r="P123" s="17"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.3">
@@ -5877,17 +5904,17 @@
       <c r="B124" s="47"/>
       <c r="C124" s="40"/>
       <c r="D124" s="109"/>
-      <c r="E124" s="110"/>
+      <c r="E124" s="105"/>
       <c r="F124" s="109"/>
-      <c r="G124" s="110"/>
+      <c r="G124" s="105"/>
       <c r="H124" s="109"/>
-      <c r="I124" s="110"/>
+      <c r="I124" s="105"/>
       <c r="J124" s="109"/>
-      <c r="K124" s="110"/>
-      <c r="L124" s="115"/>
-      <c r="M124" s="116"/>
-      <c r="N124" s="121"/>
-      <c r="O124" s="122"/>
+      <c r="K124" s="105"/>
+      <c r="L124" s="113"/>
+      <c r="M124" s="114"/>
+      <c r="N124" s="95"/>
+      <c r="O124" s="100"/>
       <c r="P124" s="17"/>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.3">
@@ -5895,17 +5922,17 @@
       <c r="B125" s="47"/>
       <c r="C125" s="40"/>
       <c r="D125" s="109"/>
-      <c r="E125" s="110"/>
+      <c r="E125" s="105"/>
       <c r="F125" s="109"/>
-      <c r="G125" s="110"/>
+      <c r="G125" s="105"/>
       <c r="H125" s="109"/>
-      <c r="I125" s="110"/>
+      <c r="I125" s="105"/>
       <c r="J125" s="109"/>
-      <c r="K125" s="110"/>
-      <c r="L125" s="115"/>
-      <c r="M125" s="116"/>
-      <c r="N125" s="121"/>
-      <c r="O125" s="122"/>
+      <c r="K125" s="105"/>
+      <c r="L125" s="113"/>
+      <c r="M125" s="114"/>
+      <c r="N125" s="95"/>
+      <c r="O125" s="100"/>
       <c r="P125" s="17"/>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.3">
@@ -5913,45 +5940,45 @@
       <c r="B126" s="48"/>
       <c r="C126" s="41"/>
       <c r="D126" s="109"/>
-      <c r="E126" s="110"/>
+      <c r="E126" s="105"/>
       <c r="F126" s="109"/>
-      <c r="G126" s="110"/>
+      <c r="G126" s="105"/>
       <c r="H126" s="109"/>
-      <c r="I126" s="110"/>
+      <c r="I126" s="105"/>
       <c r="J126" s="109"/>
-      <c r="K126" s="110"/>
-      <c r="L126" s="115"/>
-      <c r="M126" s="116"/>
-      <c r="N126" s="121"/>
-      <c r="O126" s="122"/>
+      <c r="K126" s="105"/>
+      <c r="L126" s="113"/>
+      <c r="M126" s="114"/>
+      <c r="N126" s="95"/>
+      <c r="O126" s="100"/>
       <c r="P126" s="17"/>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" s="11"/>
       <c r="B127" s="46"/>
       <c r="C127" s="38"/>
-      <c r="D127" s="111"/>
-      <c r="E127" s="112"/>
-      <c r="F127" s="111"/>
-      <c r="G127" s="112"/>
-      <c r="H127" s="111"/>
-      <c r="I127" s="112"/>
-      <c r="J127" s="111"/>
-      <c r="K127" s="112"/>
-      <c r="L127" s="117"/>
-      <c r="M127" s="118"/>
-      <c r="N127" s="123"/>
-      <c r="O127" s="124"/>
+      <c r="D127" s="110"/>
+      <c r="E127" s="107"/>
+      <c r="F127" s="110"/>
+      <c r="G127" s="107"/>
+      <c r="H127" s="110"/>
+      <c r="I127" s="107"/>
+      <c r="J127" s="110"/>
+      <c r="K127" s="107"/>
+      <c r="L127" s="115"/>
+      <c r="M127" s="116"/>
+      <c r="N127" s="97"/>
+      <c r="O127" s="101"/>
       <c r="P127" s="17"/>
     </row>
     <row r="128" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="11"/>
       <c r="B128" s="55"/>
       <c r="C128" s="56"/>
-      <c r="D128" s="102" t="s">
+      <c r="D128" s="179" t="s">
         <v>48</v>
       </c>
-      <c r="E128" s="103"/>
+      <c r="E128" s="180"/>
       <c r="F128" s="57"/>
       <c r="G128" s="58"/>
       <c r="H128" s="57"/>
@@ -5981,72 +6008,146 @@
       <c r="O129" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="228">
-    <mergeCell ref="L57:M62"/>
-    <mergeCell ref="N57:O62"/>
-    <mergeCell ref="B57:C62"/>
-    <mergeCell ref="D57:E62"/>
-    <mergeCell ref="F57:G62"/>
-    <mergeCell ref="H57:I62"/>
-    <mergeCell ref="J57:K62"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="J49:K54"/>
-    <mergeCell ref="L49:M54"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="N41:O46"/>
-    <mergeCell ref="B41:C46"/>
-    <mergeCell ref="D41:E46"/>
-    <mergeCell ref="F41:G46"/>
-    <mergeCell ref="H41:I46"/>
-    <mergeCell ref="J41:K46"/>
-    <mergeCell ref="L41:M46"/>
-    <mergeCell ref="D49:E54"/>
-    <mergeCell ref="F49:G54"/>
-    <mergeCell ref="H49:I54"/>
-    <mergeCell ref="N49:O54"/>
-    <mergeCell ref="B49:C54"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="B33:C38"/>
-    <mergeCell ref="D33:E38"/>
-    <mergeCell ref="F33:G38"/>
-    <mergeCell ref="H33:I38"/>
-    <mergeCell ref="J33:K38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="L33:M38"/>
-    <mergeCell ref="N33:O38"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:O30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="B25:C30"/>
-    <mergeCell ref="D25:E30"/>
-    <mergeCell ref="L25:M26"/>
-    <mergeCell ref="L27:M28"/>
-    <mergeCell ref="D31:K31"/>
+  <mergeCells count="225">
+    <mergeCell ref="P13:U16"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="J121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="D122:E127"/>
+    <mergeCell ref="F122:G127"/>
+    <mergeCell ref="H122:I127"/>
+    <mergeCell ref="J122:K127"/>
+    <mergeCell ref="L122:M127"/>
+    <mergeCell ref="N122:O127"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="D114:E119"/>
+    <mergeCell ref="F114:G119"/>
+    <mergeCell ref="H114:I119"/>
+    <mergeCell ref="J114:K119"/>
+    <mergeCell ref="L114:M119"/>
+    <mergeCell ref="N114:O119"/>
+    <mergeCell ref="L101:M106"/>
+    <mergeCell ref="N101:O106"/>
+    <mergeCell ref="B110:O110"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="B101:C106"/>
+    <mergeCell ref="D101:E106"/>
+    <mergeCell ref="F101:G106"/>
+    <mergeCell ref="H101:I106"/>
+    <mergeCell ref="J101:K106"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="D93:E98"/>
+    <mergeCell ref="F93:G98"/>
+    <mergeCell ref="H93:I98"/>
+    <mergeCell ref="J93:K98"/>
+    <mergeCell ref="L93:M98"/>
+    <mergeCell ref="N93:O98"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="D85:E90"/>
+    <mergeCell ref="F85:G90"/>
+    <mergeCell ref="H85:I90"/>
+    <mergeCell ref="J85:K90"/>
+    <mergeCell ref="L85:M90"/>
+    <mergeCell ref="N85:O90"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="D77:E82"/>
+    <mergeCell ref="F77:G82"/>
+    <mergeCell ref="H77:I82"/>
+    <mergeCell ref="J77:K82"/>
+    <mergeCell ref="L77:M82"/>
+    <mergeCell ref="N77:O82"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="D69:E74"/>
+    <mergeCell ref="F69:G74"/>
+    <mergeCell ref="H69:I74"/>
+    <mergeCell ref="J69:K74"/>
+    <mergeCell ref="L69:M74"/>
+    <mergeCell ref="N69:O74"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="H47:O47"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B65:O65"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B21:O21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L6:M11"/>
+    <mergeCell ref="N6:O11"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B14:C18"/>
+    <mergeCell ref="D14:E18"/>
+    <mergeCell ref="J17:K18"/>
+    <mergeCell ref="J14:K16"/>
+    <mergeCell ref="L14:O18"/>
+    <mergeCell ref="H17:I17"/>
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
@@ -6071,145 +6172,68 @@
     <mergeCell ref="H6:I11"/>
     <mergeCell ref="J6:K11"/>
     <mergeCell ref="H14:I16"/>
-    <mergeCell ref="L6:M11"/>
-    <mergeCell ref="N6:O11"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B14:C18"/>
-    <mergeCell ref="D14:E18"/>
-    <mergeCell ref="J17:K18"/>
-    <mergeCell ref="J14:K16"/>
-    <mergeCell ref="L14:O18"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="H47:O47"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B65:O65"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B21:O21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="D69:E74"/>
-    <mergeCell ref="F69:G74"/>
-    <mergeCell ref="H69:I74"/>
-    <mergeCell ref="J69:K74"/>
-    <mergeCell ref="L69:M74"/>
-    <mergeCell ref="N69:O74"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="D77:E82"/>
-    <mergeCell ref="F77:G82"/>
-    <mergeCell ref="H77:I82"/>
-    <mergeCell ref="J77:K82"/>
-    <mergeCell ref="L77:M82"/>
-    <mergeCell ref="N77:O82"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="L84:M84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="D85:E90"/>
-    <mergeCell ref="F85:G90"/>
-    <mergeCell ref="H85:I90"/>
-    <mergeCell ref="J85:K90"/>
-    <mergeCell ref="L85:M90"/>
-    <mergeCell ref="N85:O90"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="L92:M92"/>
-    <mergeCell ref="N92:O92"/>
-    <mergeCell ref="D93:E98"/>
-    <mergeCell ref="F93:G98"/>
-    <mergeCell ref="H93:I98"/>
-    <mergeCell ref="J93:K98"/>
-    <mergeCell ref="L93:M98"/>
-    <mergeCell ref="N93:O98"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="B101:C106"/>
-    <mergeCell ref="D101:E106"/>
-    <mergeCell ref="F101:G106"/>
-    <mergeCell ref="H101:I106"/>
-    <mergeCell ref="J101:K106"/>
-    <mergeCell ref="J100:K100"/>
-    <mergeCell ref="F114:G119"/>
-    <mergeCell ref="H114:I119"/>
-    <mergeCell ref="J114:K119"/>
-    <mergeCell ref="L114:M119"/>
-    <mergeCell ref="N114:O119"/>
-    <mergeCell ref="L101:M106"/>
-    <mergeCell ref="N101:O106"/>
-    <mergeCell ref="B110:O110"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="J112:K112"/>
-    <mergeCell ref="L112:M112"/>
-    <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P13:U16"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="D128:E128"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="F121:G121"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="J121:K121"/>
-    <mergeCell ref="L121:M121"/>
-    <mergeCell ref="N121:O121"/>
-    <mergeCell ref="D122:E127"/>
-    <mergeCell ref="F122:G127"/>
-    <mergeCell ref="H122:I127"/>
-    <mergeCell ref="J122:K127"/>
-    <mergeCell ref="L122:M127"/>
-    <mergeCell ref="N122:O127"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="F113:G113"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="L113:M113"/>
-    <mergeCell ref="N113:O113"/>
-    <mergeCell ref="D114:E119"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="B25:C30"/>
+    <mergeCell ref="L25:M26"/>
+    <mergeCell ref="L27:M28"/>
+    <mergeCell ref="D31:K31"/>
+    <mergeCell ref="D25:K30"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="B33:C38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="L33:M38"/>
+    <mergeCell ref="N33:O38"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="D33:K38"/>
+    <mergeCell ref="J49:K54"/>
+    <mergeCell ref="L49:M54"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="N41:O46"/>
+    <mergeCell ref="B41:C46"/>
+    <mergeCell ref="D41:E46"/>
+    <mergeCell ref="F41:G46"/>
+    <mergeCell ref="H41:I46"/>
+    <mergeCell ref="J41:K46"/>
+    <mergeCell ref="L41:M46"/>
+    <mergeCell ref="D49:E54"/>
+    <mergeCell ref="F49:G54"/>
+    <mergeCell ref="H49:I54"/>
+    <mergeCell ref="N49:O54"/>
+    <mergeCell ref="B49:C54"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L57:M62"/>
+    <mergeCell ref="N57:O62"/>
+    <mergeCell ref="B57:C62"/>
+    <mergeCell ref="D57:E62"/>
+    <mergeCell ref="F57:G62"/>
+    <mergeCell ref="H57:I62"/>
+    <mergeCell ref="J57:K62"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:G56"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6247,7 +6271,7 @@
       <c r="E1" s="75"/>
       <c r="F1" s="75"/>
       <c r="G1" s="75"/>
-      <c r="H1" s="180" t="s">
+      <c r="H1" s="181" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6263,7 +6287,7 @@
       <c r="E2" s="75"/>
       <c r="F2" s="75"/>
       <c r="G2" s="75"/>
-      <c r="H2" s="181"/>
+      <c r="H2" s="182"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="76" t="s">
@@ -6489,7 +6513,7 @@
       <c r="E14" s="75"/>
       <c r="F14" s="75"/>
       <c r="G14" s="75"/>
-      <c r="H14" s="180" t="s">
+      <c r="H14" s="181" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6505,7 +6529,7 @@
       <c r="E15" s="75"/>
       <c r="F15" s="75"/>
       <c r="G15" s="75"/>
-      <c r="H15" s="181"/>
+      <c r="H15" s="182"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="76" t="s">
@@ -6597,7 +6621,7 @@
       <c r="E20" s="75"/>
       <c r="F20" s="75"/>
       <c r="G20" s="75"/>
-      <c r="H20" s="180" t="s">
+      <c r="H20" s="181" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6613,7 +6637,7 @@
       <c r="E21" s="75"/>
       <c r="F21" s="75"/>
       <c r="G21" s="75"/>
-      <c r="H21" s="181"/>
+      <c r="H21" s="182"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="76" t="s">
@@ -6698,7 +6722,7 @@
       <c r="E26" s="75"/>
       <c r="F26" s="75"/>
       <c r="G26" s="75"/>
-      <c r="H26" s="180" t="s">
+      <c r="H26" s="181" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6714,7 +6738,7 @@
       <c r="E27" s="75"/>
       <c r="F27" s="75"/>
       <c r="G27" s="75"/>
-      <c r="H27" s="181"/>
+      <c r="H27" s="182"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="76" t="s">
@@ -6842,7 +6866,7 @@
       </c>
       <c r="F33" s="77"/>
       <c r="G33" s="77"/>
-      <c r="H33" s="182" t="s">
+      <c r="H33" s="183" t="s">
         <v>120</v>
       </c>
     </row>
@@ -6864,7 +6888,7 @@
       </c>
       <c r="F34" s="77"/>
       <c r="G34" s="77"/>
-      <c r="H34" s="183"/>
+      <c r="H34" s="184"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="76">
@@ -6925,7 +6949,7 @@
       <c r="E38" s="75"/>
       <c r="F38" s="75"/>
       <c r="G38" s="75"/>
-      <c r="H38" s="180" t="s">
+      <c r="H38" s="181" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6941,7 +6965,7 @@
       <c r="E39" s="75"/>
       <c r="F39" s="75"/>
       <c r="G39" s="75"/>
-      <c r="H39" s="181"/>
+      <c r="H39" s="182"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="76" t="s">
@@ -7026,7 +7050,7 @@
       <c r="E44" s="75"/>
       <c r="F44" s="75"/>
       <c r="G44" s="75"/>
-      <c r="H44" s="180" t="s">
+      <c r="H44" s="181" t="s">
         <v>58</v>
       </c>
     </row>
@@ -7042,7 +7066,7 @@
       <c r="E45" s="75"/>
       <c r="F45" s="75"/>
       <c r="G45" s="75"/>
-      <c r="H45" s="181"/>
+      <c r="H45" s="182"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="76" t="s">
@@ -7191,7 +7215,7 @@
       <c r="E53" s="75"/>
       <c r="F53" s="75"/>
       <c r="G53" s="75"/>
-      <c r="H53" s="180" t="s">
+      <c r="H53" s="181" t="s">
         <v>58</v>
       </c>
     </row>
@@ -7207,7 +7231,7 @@
       <c r="E54" s="75"/>
       <c r="F54" s="75"/>
       <c r="G54" s="75"/>
-      <c r="H54" s="181"/>
+      <c r="H54" s="182"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="76" t="s">
@@ -7299,7 +7323,7 @@
       <c r="E59" s="75"/>
       <c r="F59" s="75"/>
       <c r="G59" s="75"/>
-      <c r="H59" s="180" t="s">
+      <c r="H59" s="181" t="s">
         <v>58</v>
       </c>
     </row>
@@ -7315,7 +7339,7 @@
       <c r="E60" s="75"/>
       <c r="F60" s="75"/>
       <c r="G60" s="75"/>
-      <c r="H60" s="181"/>
+      <c r="H60" s="182"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="76" t="s">
@@ -7400,7 +7424,7 @@
       <c r="E65" s="75"/>
       <c r="F65" s="75"/>
       <c r="G65" s="75"/>
-      <c r="H65" s="180" t="s">
+      <c r="H65" s="181" t="s">
         <v>58</v>
       </c>
     </row>
@@ -7416,7 +7440,7 @@
       <c r="E66" s="75"/>
       <c r="F66" s="75"/>
       <c r="G66" s="75"/>
-      <c r="H66" s="181"/>
+      <c r="H66" s="182"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="76" t="s">
@@ -7543,7 +7567,7 @@
       <c r="E73" s="75"/>
       <c r="F73" s="75"/>
       <c r="G73" s="75"/>
-      <c r="H73" s="180" t="s">
+      <c r="H73" s="181" t="s">
         <v>58</v>
       </c>
     </row>
@@ -7559,7 +7583,7 @@
       <c r="E74" s="75"/>
       <c r="F74" s="75"/>
       <c r="G74" s="75"/>
-      <c r="H74" s="181"/>
+      <c r="H74" s="182"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="76" t="s">
@@ -7741,7 +7765,7 @@
       <c r="E84" s="75"/>
       <c r="F84" s="75"/>
       <c r="G84" s="75"/>
-      <c r="H84" s="180" t="s">
+      <c r="H84" s="181" t="s">
         <v>58</v>
       </c>
     </row>
@@ -7757,7 +7781,7 @@
       <c r="E85" s="75"/>
       <c r="F85" s="75"/>
       <c r="G85" s="75"/>
-      <c r="H85" s="181"/>
+      <c r="H85" s="182"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="76" t="s">
@@ -8083,7 +8107,7 @@
       <c r="E101" s="75"/>
       <c r="F101" s="75"/>
       <c r="G101" s="75"/>
-      <c r="H101" s="180" t="s">
+      <c r="H101" s="181" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8099,7 +8123,7 @@
       <c r="E102" s="75"/>
       <c r="F102" s="75"/>
       <c r="G102" s="75"/>
-      <c r="H102" s="181"/>
+      <c r="H102" s="182"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="76" t="s">
@@ -8307,7 +8331,7 @@
       <c r="E113" s="75"/>
       <c r="F113" s="75"/>
       <c r="G113" s="75"/>
-      <c r="H113" s="180" t="s">
+      <c r="H113" s="181" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8323,7 +8347,7 @@
       <c r="E114" s="75"/>
       <c r="F114" s="75"/>
       <c r="G114" s="75"/>
-      <c r="H114" s="181"/>
+      <c r="H114" s="182"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="76" t="s">
@@ -8491,7 +8515,7 @@
       <c r="E123" s="75"/>
       <c r="F123" s="75"/>
       <c r="G123" s="75"/>
-      <c r="H123" s="180" t="s">
+      <c r="H123" s="181" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8507,7 +8531,7 @@
       <c r="E124" s="75"/>
       <c r="F124" s="75"/>
       <c r="G124" s="75"/>
-      <c r="H124" s="181"/>
+      <c r="H124" s="182"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="76" t="s">
@@ -8577,12 +8601,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="H33:H34"/>
     <mergeCell ref="H101:H102"/>
     <mergeCell ref="H113:H114"/>
     <mergeCell ref="H123:H124"/>
@@ -8592,6 +8610,12 @@
     <mergeCell ref="H65:H66"/>
     <mergeCell ref="H73:H74"/>
     <mergeCell ref="H84:H85"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="H33:H34"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8613,38 +8637,38 @@
   <sheetData>
     <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="184" t="s">
+      <c r="B2" s="185" t="s">
         <v>271</v>
       </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="187"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="95"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="187"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="188"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="95"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="187"/>
+      <c r="B4" s="174"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="188"/>
     </row>
     <row r="5" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="188"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="189"/>
-      <c r="G5" s="190"/>
+      <c r="B5" s="189"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="190"/>
+      <c r="G5" s="191"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="74"/>
@@ -8871,10 +8895,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8933,10 +8957,34 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="82" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B7" t="s">
-        <v>366</v>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="82" t="s">
+        <v>367</v>
+      </c>
+      <c r="B8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="82" t="s">
+        <v>369</v>
+      </c>
+      <c r="B9" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="82" t="s">
+        <v>371</v>
+      </c>
+      <c r="B10" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>

--- a/WAS계획서 및 일지.xlsx
+++ b/WAS계획서 및 일지.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="378">
   <si>
     <t>2019년 8월</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -1509,11 +1509,28 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>메인화면 틀 구현 완료, 사원등록/생산품등록/배송유무등록/생산재고등록 페이지 구현 시작</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>사원등록/생산품등록/배송유무등록/생산재고등록 페이지 구현</t>
+    <t>09월 07일</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송조회 화면 구현</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면 틀 구현 완료, 사원등록/생산품등록/배송조회/생산재고등록 페이지 구현 시작</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>09월 10일</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>사원등록/생산품등록/배송유무등록/생산재고등록 페이지 구현, 클래스 설계</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>사원등록/생산품등록/배송유무등록/생산재고등록 페이지 구현, 클래스 설계 설명서 작성, 메뉴부분 공통코드로 빼기</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2732,103 +2749,247 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="34" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="32" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2843,157 +3004,13 @@
     <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="32" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3057,6 +3074,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5362575</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1" descr="MINGW6C/e,UAS &#10;1@DESKTOP-HRCC2Km MINGU'64 /e/WAS (newnew) &#10;S git fetch origin master &#10;warning: redirecting to ht ps ://github. com/va14rs7ark/WAS/ &#10;remote: Enumerating objects: 46, done. &#10;remote: Counting objects: 100% (38/38), done. &#10;remote: Compressing objects: 100% (10/10) , done. &#10;remote: Total 22 (delta 9), reused 19 (delta 8), &#10;Unpacking objects: 100% (22/22), done. &#10;From http://github. com/va14rs7ark/WAS &#10;pack-reused O &#10;* branch &#10;master &#10;80d84b4.. 7d57005 master &#10;FETCH_HEAD &#10;-&gt; origin/master &#10;1@DESKTOP-HRCC2Km MINGU'64 /e/WAS (newnew) &#10;S git log &#10;conunit 80d84b4c87eb2a61f7cd4ee81b28ae274ebf4bbb (HEAD &#10;Author: 33sdkkfgiws &lt;hwhwk2kagmaiI . com:• &#10;Fri sep 6 16:38:16 2019 +0900 &#10;Date: &#10;01 &#10;commit aooc89f3567e13e011b3465c8bb2ec4d755791e7 &#10;-&gt; newnew, &#10;Author : &#10;Date: &#10;va14rs7ark &#10;Fri sep 6 16:17:00 2019 +0900 &#10;classé&gt;l pojo-spring A &#10;commit 10596c043125d173eb220de62ab457f2e1309e91 &#10;Author: 33sdkkfgiws &lt;hwhwk2kagmaiI . com:• &#10;Fri sep 6 16:10:48 2019 +0900 &#10;Date: &#10;view main.jsp and wasÄ &#10;corm i t &#10;946c13579d3eb870cff81292daa3fe30d9ebe201 &#10;a386a8a 9c618cb &#10;Merge: &#10;Author: I I I I I kkkkkmwwwx' &#10;Fri sep 6 2019 +0900 &#10;Date: &#10;1@DESKTOP-HRCC2Km /e/WAS (newnew) &#10;S git merge origin/master &#10;updating 80d84b4.. 7d57005 &#10;Fast-forward &#10;.. / target/m2e-wtp/web-resources/META-INF/MANIFEST. MF &#10;2 files changed, I insertion(+), I deletion (-) &#10;master) &#10;-&gt; 16295 bytes &#10;create mode 100644 &#10;xlsx&quot; &#10;1@DESKTOP-HRCC2Km MINGU'64 /e/WAS (newnew) &#10;S git log &#10;conunit 7d570058f6399ed62ce92c7ac54406687049ebfI (HEAD -&gt; newnew, origin/master) &#10;Author: va14rs7ark 60977272+va14rs7ark@users.noreply.github. com:• &#10;Fri sep 6 20:09:27 2019 +0900 &#10;Date: &#10;Add files via upload &#10;corm i t &#10;Merge: &#10;Author : &#10;Date: &#10;4b823da5439093e736d739d014029b90fac565de &#10;oa87011 80d84b4 &#10;name &#10;Fri sep 6 18:32:05 2019 +0900 &#10;conunit 80d84b4c87eb2a61f7cd4ee81b28ae274ebf4bbb (master) &#10;Author: 33sdkkfgiws &lt;hwhwk2kagmaiI . com:• &#10;Fri sep 6 16:38:16 2019 +0900 &#10;Date: &#10;01 &#10;commit aooc89f3567e13e011b3465c8bb2ec4d755791e7 &#10;Author : &#10;Date: &#10;va14rs7ark &#10;Fri sep 6 16:17:00 2019 +0900 &#10;1@DESKTOP-HRCC2Km MINGU'64 /e/WAS (newnew) &#10;S git add . &#10;1@DESKTOP-HRCC2Km MINGU'64 /e/WAS (newnew) &#10;S git convnit -m&quot; N &#10;Cnewnew 65c74f7] 01 &#10;I file changed, O insertions(+), O deletions (-) &#10;rewrite &#10;247\200.x1sx&quot; (77%) &#10;1@DESKTOP-HRCC2Km MINGU'64 /e/WAS (newnew) &#10;S git log &#10;commit 65c74f7b8d83c3ccc88e85819cdb9937ba7c368c (HEAD &#10;Author: 33sdkkfgiws &lt;hwhwk2kagmaiI . com:• &#10;Date: &#10;Mon sep 9 14:46:18 2019 +0900 &#10;Tl 01 &#10;-&gt; newnew) &#10;conunit 7d570058f6399ed62ce92c7ac54406687049ebfI (origin/master) &#10;Author: va14rs7ark 60977272+va14rs7ark@users. noreply. github. com:• &#10;Date: &#10;Fri sep 6 2019 +0900 &#10;Add files via upload &#10;corm i t &#10;Merge : &#10;Author : &#10;Date: &#10;4b823da5439093e736d739d014029b90fac565de &#10;oa87011 80d84b4 &#10;name . com:• &#10;Fri sep 6 18:32:05 2019 +0900 &#10;conunit 80d84b4c87eb2a61f7cd4ee81b28ae274ebf4bbb (master) &#10;Author: 33sdkkfgiws &lt;hwhwk2kagmaiI . com:• &#10;Fri sep 6 16:38:16 2019 +0900 &#10;Date: &#10;1@DESKTOP-HRCC2Km MINQ'64 /e/WAS (newnew) &#10;S git checkout master &#10;Switched to branch 'mas er' &#10;1@DESKTOP-HRCC2Km MINGW64 /e/WAS (master) &#10;S git merge newnew &#10;Updating 80d84b4.. 65c74f7 &#10;Fast-forward &#10;..\234 &#10;... 13\234\354\240\200\354\204\244\353\252\205. xlsx&quot; &#10;.. /m2e-wtp/web-resources/META-1NF/MANIFEST. MF &#10;3 files changed, I insertion(+), I deletion (-) &#10;-&gt; 40710 bytes &#10;40615 &#10;-&gt; 16295 bytes &#10;create mode 100644 &#10;1@DESKTOP-HRCC2Km MINGR64 /e/WAS (master) &#10;S git push origin master &#10;warning: redirecting to https://github. com/va14rs7ark/WAS/ &#10;Enumerating objects: 5, done. &#10;Counting objects: 100% (5/5), done. &#10;Delta compression using up to 4 threads &#10;Compressing objects: 100% (3/3), done. &#10;Writing objects: 100% (3/3), 35.06 Kia 17.53 Mi8/s, done. &#10;Total 3 (delta I), reused O (delta O) &#10;remote: Resolving deltas: 100% (1/1), completed with I local object. &#10;To http://github. com/va14rs7ark/WAS &#10;7d57005.. 65c74f7 master -&gt; master &#10;1@DESKTOP-HRCC2Km MINQ'S4 /e/WAS (master) &#10;S git checkout newnew &#10;Switched to branch ' newnew' &#10;1@DESKTOP-HRCC2Km MINGU'64 /e/WAS (newnew) &#10;S git log &#10;commit 65c74f7b8d83c3ccc88e85819cdb9937ba7c368c (HEAD &#10;master) &#10;Author: 33sdkkfgiws &#10;Date: &#10;Mon sep 9 14:46:18 2019 +0900 &#10;Tl 01 &#10;commit 7d570058f6399ed62ce92c7ac54406687049ebf1 &#10;-&gt; newnew, &#10;ori gi n/master , &#10;Author: va14rs7ark 60977272+va14rs7ark@users. noreply. github. com:• &#10;Fri sep 6 20:09:27 2019 +0900 &#10;Date: &#10;Add files via upload &#10;corm i t &#10;Merge : &#10;Author : &#10;Date: &#10;corm i t &#10;Author : &#10;4b823da5439093e736d739d014029b90fac565de &#10;oa87011 80d84b4 &#10;name . com:• &#10;Fri sep 6 18:32:05 2019 +0900 &#10;80d84b4c87eb2a61f7cd4ee81b28ae274ebf4bbb &#10;33sdkkfgiws &lt;hwhwk2 &#10;ail . com:• "/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1866900" y="23793450"/>
+          <a:ext cx="5343525" cy="22545675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3495,22 +3572,22 @@
     </row>
     <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="144"/>
-      <c r="N2" s="144"/>
-      <c r="O2" s="145"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="128"/>
       <c r="P2" s="17"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
@@ -3521,178 +3598,178 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133" t="s">
+      <c r="C4" s="130"/>
+      <c r="D4" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133" t="s">
+      <c r="E4" s="130"/>
+      <c r="F4" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="133"/>
-      <c r="H4" s="133" t="s">
+      <c r="G4" s="130"/>
+      <c r="H4" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133" t="s">
+      <c r="I4" s="130"/>
+      <c r="J4" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="133"/>
-      <c r="L4" s="133" t="s">
+      <c r="K4" s="130"/>
+      <c r="L4" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="133"/>
-      <c r="N4" s="133" t="s">
+      <c r="M4" s="130"/>
+      <c r="N4" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="147"/>
+      <c r="O4" s="131"/>
       <c r="P4" s="17"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
-      <c r="B5" s="122">
+      <c r="B5" s="105">
         <v>18</v>
       </c>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123">
+      <c r="C5" s="106"/>
+      <c r="D5" s="106">
         <v>19</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123">
+      <c r="E5" s="106"/>
+      <c r="F5" s="106">
         <v>20</v>
       </c>
-      <c r="G5" s="123"/>
-      <c r="H5" s="118">
+      <c r="G5" s="106"/>
+      <c r="H5" s="132">
         <v>21</v>
       </c>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118">
+      <c r="I5" s="132"/>
+      <c r="J5" s="132">
         <v>22</v>
       </c>
-      <c r="K5" s="118"/>
-      <c r="L5" s="118">
+      <c r="K5" s="132"/>
+      <c r="L5" s="132">
         <v>23</v>
       </c>
-      <c r="M5" s="118"/>
-      <c r="N5" s="118">
+      <c r="M5" s="132"/>
+      <c r="N5" s="132">
         <v>24</v>
       </c>
-      <c r="O5" s="121"/>
+      <c r="O5" s="136"/>
       <c r="P5" s="17"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
-      <c r="B6" s="102"/>
-      <c r="C6" s="103"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="109"/>
       <c r="D6" s="108"/>
-      <c r="E6" s="103"/>
+      <c r="E6" s="109"/>
       <c r="F6" s="108"/>
-      <c r="G6" s="103"/>
+      <c r="G6" s="109"/>
       <c r="H6" s="108"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="111" t="s">
+      <c r="I6" s="109"/>
+      <c r="J6" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="112"/>
-      <c r="L6" s="93" t="s">
+      <c r="K6" s="115"/>
+      <c r="L6" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="94"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="99"/>
+      <c r="M6" s="149"/>
+      <c r="N6" s="120"/>
+      <c r="O6" s="121"/>
       <c r="P6" s="17"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
-      <c r="B7" s="104"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="95"/>
-      <c r="O7" s="100"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="122"/>
+      <c r="M7" s="150"/>
+      <c r="N7" s="122"/>
+      <c r="O7" s="123"/>
       <c r="P7" s="17"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="113"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="96"/>
-      <c r="N8" s="95"/>
-      <c r="O8" s="100"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="122"/>
+      <c r="M8" s="150"/>
+      <c r="N8" s="122"/>
+      <c r="O8" s="123"/>
       <c r="P8" s="17"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
-      <c r="B9" s="104"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="113"/>
-      <c r="K9" s="114"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="95"/>
-      <c r="O9" s="100"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="122"/>
+      <c r="M9" s="150"/>
+      <c r="N9" s="122"/>
+      <c r="O9" s="123"/>
       <c r="P9" s="17"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="100"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="150"/>
+      <c r="N10" s="122"/>
+      <c r="O10" s="123"/>
       <c r="P10" s="17"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
-      <c r="B11" s="106"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="97"/>
-      <c r="M11" s="98"/>
-      <c r="N11" s="97"/>
-      <c r="O11" s="101"/>
+      <c r="B11" s="135"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="124"/>
+      <c r="M11" s="151"/>
+      <c r="N11" s="124"/>
+      <c r="O11" s="125"/>
       <c r="P11" s="17"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -3705,196 +3782,196 @@
       <c r="G12" s="9"/>
       <c r="H12" s="8"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="154" t="s">
+      <c r="J12" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="155"/>
-      <c r="L12" s="155"/>
-      <c r="M12" s="156"/>
+      <c r="K12" s="153"/>
+      <c r="L12" s="153"/>
+      <c r="M12" s="154"/>
       <c r="N12" s="10"/>
       <c r="O12" s="23"/>
       <c r="P12" s="17"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
-      <c r="B13" s="157">
+      <c r="B13" s="155">
         <v>25</v>
       </c>
-      <c r="C13" s="158"/>
-      <c r="D13" s="158">
+      <c r="C13" s="156"/>
+      <c r="D13" s="156">
         <v>26</v>
       </c>
-      <c r="E13" s="158"/>
-      <c r="F13" s="158">
+      <c r="E13" s="156"/>
+      <c r="F13" s="156">
         <v>27</v>
       </c>
-      <c r="G13" s="158"/>
-      <c r="H13" s="150">
+      <c r="G13" s="156"/>
+      <c r="H13" s="157">
         <v>28</v>
       </c>
-      <c r="I13" s="150"/>
-      <c r="J13" s="150">
+      <c r="I13" s="157"/>
+      <c r="J13" s="157">
         <v>29</v>
       </c>
-      <c r="K13" s="150"/>
-      <c r="L13" s="150">
+      <c r="K13" s="157"/>
+      <c r="L13" s="157">
         <v>30</v>
       </c>
-      <c r="M13" s="150"/>
-      <c r="N13" s="150">
+      <c r="M13" s="157"/>
+      <c r="N13" s="157">
         <v>31</v>
       </c>
-      <c r="O13" s="151"/>
-      <c r="P13" s="171" t="s">
+      <c r="O13" s="168"/>
+      <c r="P13" s="93" t="s">
         <v>271</v>
       </c>
-      <c r="Q13" s="172"/>
-      <c r="R13" s="172"/>
-      <c r="S13" s="172"/>
-      <c r="T13" s="172"/>
-      <c r="U13" s="173"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="94"/>
+      <c r="U13" s="95"/>
     </row>
     <row r="14" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
-      <c r="B14" s="102"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="148" t="s">
+      <c r="B14" s="133"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="103"/>
-      <c r="F14" s="148" t="s">
+      <c r="E14" s="109"/>
+      <c r="F14" s="158" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="135"/>
-      <c r="H14" s="152" t="s">
+      <c r="G14" s="161"/>
+      <c r="H14" s="159" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="152"/>
-      <c r="J14" s="152" t="s">
+      <c r="I14" s="159"/>
+      <c r="J14" s="159" t="s">
         <v>276</v>
       </c>
-      <c r="K14" s="152"/>
-      <c r="L14" s="135" t="s">
+      <c r="K14" s="159"/>
+      <c r="L14" s="161" t="s">
         <v>359</v>
       </c>
-      <c r="M14" s="135"/>
-      <c r="N14" s="135"/>
-      <c r="O14" s="136"/>
-      <c r="P14" s="174"/>
-      <c r="Q14" s="159"/>
-      <c r="R14" s="159"/>
-      <c r="S14" s="159"/>
-      <c r="T14" s="159"/>
-      <c r="U14" s="175"/>
+      <c r="M14" s="161"/>
+      <c r="N14" s="161"/>
+      <c r="O14" s="162"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="97"/>
+      <c r="R14" s="97"/>
+      <c r="S14" s="97"/>
+      <c r="T14" s="97"/>
+      <c r="U14" s="98"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
-      <c r="B15" s="104"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="149"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="153"/>
-      <c r="I15" s="153"/>
-      <c r="J15" s="153"/>
-      <c r="K15" s="153"/>
-      <c r="L15" s="137"/>
-      <c r="M15" s="137"/>
-      <c r="N15" s="137"/>
-      <c r="O15" s="138"/>
-      <c r="P15" s="174"/>
-      <c r="Q15" s="159"/>
-      <c r="R15" s="159"/>
-      <c r="S15" s="159"/>
-      <c r="T15" s="159"/>
-      <c r="U15" s="175"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="160"/>
+      <c r="I15" s="160"/>
+      <c r="J15" s="160"/>
+      <c r="K15" s="160"/>
+      <c r="L15" s="163"/>
+      <c r="M15" s="163"/>
+      <c r="N15" s="163"/>
+      <c r="O15" s="164"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="97"/>
+      <c r="R15" s="97"/>
+      <c r="S15" s="97"/>
+      <c r="T15" s="97"/>
+      <c r="U15" s="98"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
-      <c r="B16" s="104"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="149"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="153"/>
-      <c r="K16" s="153"/>
-      <c r="L16" s="137"/>
-      <c r="M16" s="137"/>
-      <c r="N16" s="137"/>
-      <c r="O16" s="138"/>
-      <c r="P16" s="176"/>
-      <c r="Q16" s="160"/>
-      <c r="R16" s="160"/>
-      <c r="S16" s="160"/>
-      <c r="T16" s="160"/>
-      <c r="U16" s="177"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="163"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="160"/>
+      <c r="J16" s="160"/>
+      <c r="K16" s="160"/>
+      <c r="L16" s="163"/>
+      <c r="M16" s="163"/>
+      <c r="N16" s="163"/>
+      <c r="O16" s="164"/>
+      <c r="P16" s="99"/>
+      <c r="Q16" s="100"/>
+      <c r="R16" s="100"/>
+      <c r="S16" s="100"/>
+      <c r="T16" s="100"/>
+      <c r="U16" s="101"/>
     </row>
     <row r="17" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
-      <c r="B17" s="104"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="153" t="s">
+      <c r="B17" s="134"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="167"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="I17" s="153"/>
-      <c r="J17" s="159" t="s">
+      <c r="I17" s="160"/>
+      <c r="J17" s="97" t="s">
         <v>360</v>
       </c>
-      <c r="K17" s="159"/>
-      <c r="L17" s="137"/>
-      <c r="M17" s="137"/>
-      <c r="N17" s="137"/>
-      <c r="O17" s="138"/>
+      <c r="K17" s="97"/>
+      <c r="L17" s="163"/>
+      <c r="M17" s="163"/>
+      <c r="N17" s="163"/>
+      <c r="O17" s="164"/>
       <c r="P17" s="17"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
-      <c r="B18" s="104"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="149"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="178" t="s">
+      <c r="B18" s="134"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="102" t="s">
         <v>280</v>
       </c>
-      <c r="I18" s="178"/>
-      <c r="J18" s="160"/>
-      <c r="K18" s="160"/>
-      <c r="L18" s="139"/>
-      <c r="M18" s="139"/>
-      <c r="N18" s="139"/>
-      <c r="O18" s="140"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="165"/>
+      <c r="M18" s="165"/>
+      <c r="N18" s="165"/>
+      <c r="O18" s="166"/>
       <c r="P18" s="17"/>
     </row>
     <row r="19" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
       <c r="B19" s="24"/>
       <c r="C19" s="25"/>
-      <c r="D19" s="161" t="s">
+      <c r="D19" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="162"/>
-      <c r="F19" s="162"/>
-      <c r="G19" s="162"/>
-      <c r="H19" s="163" t="s">
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="141" t="s">
         <v>51</v>
       </c>
-      <c r="I19" s="163"/>
-      <c r="J19" s="163"/>
-      <c r="K19" s="163"/>
-      <c r="L19" s="163"/>
-      <c r="M19" s="163"/>
-      <c r="N19" s="163"/>
-      <c r="O19" s="164"/>
+      <c r="I19" s="141"/>
+      <c r="J19" s="141"/>
+      <c r="K19" s="141"/>
+      <c r="L19" s="141"/>
+      <c r="M19" s="141"/>
+      <c r="N19" s="141"/>
+      <c r="O19" s="142"/>
       <c r="P19" s="17"/>
     </row>
     <row r="20" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3915,22 +3992,22 @@
     </row>
     <row r="21" spans="1:16" ht="33.75" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
-      <c r="B21" s="143" t="s">
+      <c r="B21" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="144"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="144"/>
-      <c r="J21" s="144"/>
-      <c r="K21" s="144"/>
-      <c r="L21" s="144"/>
-      <c r="M21" s="144"/>
-      <c r="N21" s="144"/>
-      <c r="O21" s="145"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="127"/>
+      <c r="I21" s="127"/>
+      <c r="J21" s="127"/>
+      <c r="K21" s="127"/>
+      <c r="L21" s="127"/>
+      <c r="M21" s="127"/>
+      <c r="N21" s="127"/>
+      <c r="O21" s="128"/>
       <c r="P21" s="17"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -3941,196 +4018,196 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
-      <c r="B23" s="146" t="s">
+      <c r="B23" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="133"/>
-      <c r="D23" s="133" t="s">
+      <c r="C23" s="130"/>
+      <c r="D23" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="133"/>
-      <c r="F23" s="133" t="s">
+      <c r="E23" s="130"/>
+      <c r="F23" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="133"/>
-      <c r="H23" s="133" t="s">
+      <c r="G23" s="130"/>
+      <c r="H23" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="I23" s="133"/>
-      <c r="J23" s="133" t="s">
+      <c r="I23" s="130"/>
+      <c r="J23" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="K23" s="133"/>
-      <c r="L23" s="133" t="s">
+      <c r="K23" s="130"/>
+      <c r="L23" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="M23" s="133"/>
-      <c r="N23" s="133" t="s">
+      <c r="M23" s="130"/>
+      <c r="N23" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="O23" s="147"/>
+      <c r="O23" s="131"/>
       <c r="P23" s="17"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
-      <c r="B24" s="122">
+      <c r="B24" s="105">
         <v>1</v>
       </c>
-      <c r="C24" s="123"/>
-      <c r="D24" s="123">
+      <c r="C24" s="106"/>
+      <c r="D24" s="106">
         <v>2</v>
       </c>
-      <c r="E24" s="123"/>
-      <c r="F24" s="123">
+      <c r="E24" s="106"/>
+      <c r="F24" s="106">
         <v>3</v>
       </c>
-      <c r="G24" s="123"/>
-      <c r="H24" s="123">
+      <c r="G24" s="106"/>
+      <c r="H24" s="106">
         <v>4</v>
       </c>
-      <c r="I24" s="123"/>
-      <c r="J24" s="123">
+      <c r="I24" s="106"/>
+      <c r="J24" s="106">
         <v>5</v>
       </c>
-      <c r="K24" s="123"/>
-      <c r="L24" s="123">
+      <c r="K24" s="106"/>
+      <c r="L24" s="106">
         <v>6</v>
       </c>
-      <c r="M24" s="123"/>
-      <c r="N24" s="123">
+      <c r="M24" s="106"/>
+      <c r="N24" s="106">
         <v>7</v>
       </c>
-      <c r="O24" s="134"/>
+      <c r="O24" s="107"/>
       <c r="P24" s="17"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
-      <c r="B25" s="102"/>
-      <c r="C25" s="103"/>
+      <c r="B25" s="133"/>
+      <c r="C25" s="109"/>
       <c r="D25" s="108" t="s">
         <v>358</v>
       </c>
-      <c r="E25" s="130"/>
-      <c r="F25" s="130"/>
-      <c r="G25" s="130"/>
-      <c r="H25" s="130"/>
-      <c r="I25" s="130"/>
-      <c r="J25" s="130"/>
-      <c r="K25" s="130"/>
-      <c r="L25" s="130" t="s">
+      <c r="E25" s="169"/>
+      <c r="F25" s="169"/>
+      <c r="G25" s="169"/>
+      <c r="H25" s="169"/>
+      <c r="I25" s="169"/>
+      <c r="J25" s="169"/>
+      <c r="K25" s="169"/>
+      <c r="L25" s="169" t="s">
         <v>363</v>
       </c>
-      <c r="M25" s="130"/>
-      <c r="N25" s="135"/>
-      <c r="O25" s="136"/>
+      <c r="M25" s="169"/>
+      <c r="N25" s="161"/>
+      <c r="O25" s="162"/>
       <c r="P25" s="17"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
-      <c r="B26" s="104"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="131"/>
-      <c r="F26" s="131"/>
-      <c r="G26" s="131"/>
-      <c r="H26" s="131"/>
-      <c r="I26" s="131"/>
-      <c r="J26" s="131"/>
-      <c r="K26" s="131"/>
-      <c r="L26" s="131"/>
-      <c r="M26" s="131"/>
-      <c r="N26" s="137"/>
-      <c r="O26" s="138"/>
+      <c r="B26" s="134"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="170"/>
+      <c r="F26" s="170"/>
+      <c r="G26" s="170"/>
+      <c r="H26" s="170"/>
+      <c r="I26" s="170"/>
+      <c r="J26" s="170"/>
+      <c r="K26" s="170"/>
+      <c r="L26" s="170"/>
+      <c r="M26" s="170"/>
+      <c r="N26" s="163"/>
+      <c r="O26" s="164"/>
       <c r="P26" s="17"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
-      <c r="B27" s="104"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="131"/>
-      <c r="F27" s="131"/>
-      <c r="G27" s="131"/>
-      <c r="H27" s="131"/>
-      <c r="I27" s="131"/>
-      <c r="J27" s="131"/>
-      <c r="K27" s="131"/>
-      <c r="L27" s="137" t="s">
+      <c r="B27" s="134"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="170"/>
+      <c r="F27" s="170"/>
+      <c r="G27" s="170"/>
+      <c r="H27" s="170"/>
+      <c r="I27" s="170"/>
+      <c r="J27" s="170"/>
+      <c r="K27" s="170"/>
+      <c r="L27" s="163" t="s">
         <v>364</v>
       </c>
-      <c r="M27" s="137"/>
-      <c r="N27" s="137"/>
-      <c r="O27" s="138"/>
+      <c r="M27" s="163"/>
+      <c r="N27" s="163"/>
+      <c r="O27" s="164"/>
       <c r="P27" s="17"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
-      <c r="B28" s="104"/>
-      <c r="C28" s="105"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="131"/>
-      <c r="F28" s="131"/>
-      <c r="G28" s="131"/>
-      <c r="H28" s="131"/>
-      <c r="I28" s="131"/>
-      <c r="J28" s="131"/>
-      <c r="K28" s="131"/>
-      <c r="L28" s="137"/>
-      <c r="M28" s="137"/>
-      <c r="N28" s="137"/>
-      <c r="O28" s="138"/>
+      <c r="B28" s="134"/>
+      <c r="C28" s="111"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="170"/>
+      <c r="F28" s="170"/>
+      <c r="G28" s="170"/>
+      <c r="H28" s="170"/>
+      <c r="I28" s="170"/>
+      <c r="J28" s="170"/>
+      <c r="K28" s="170"/>
+      <c r="L28" s="163"/>
+      <c r="M28" s="163"/>
+      <c r="N28" s="163"/>
+      <c r="O28" s="164"/>
       <c r="P28" s="17"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="131"/>
-      <c r="F29" s="131"/>
-      <c r="G29" s="131"/>
-      <c r="H29" s="131"/>
-      <c r="I29" s="131"/>
-      <c r="J29" s="131"/>
-      <c r="K29" s="131"/>
+      <c r="B29" s="134"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="170"/>
+      <c r="F29" s="170"/>
+      <c r="G29" s="170"/>
+      <c r="H29" s="170"/>
+      <c r="I29" s="170"/>
+      <c r="J29" s="170"/>
+      <c r="K29" s="170"/>
       <c r="L29" s="89"/>
       <c r="M29" s="89"/>
-      <c r="N29" s="137"/>
-      <c r="O29" s="138"/>
+      <c r="N29" s="163"/>
+      <c r="O29" s="164"/>
       <c r="P29" s="17"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
-      <c r="B30" s="106"/>
-      <c r="C30" s="107"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="132"/>
-      <c r="F30" s="132"/>
-      <c r="G30" s="132"/>
-      <c r="H30" s="132"/>
-      <c r="I30" s="132"/>
-      <c r="J30" s="132"/>
-      <c r="K30" s="132"/>
+      <c r="B30" s="135"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="173"/>
+      <c r="F30" s="173"/>
+      <c r="G30" s="173"/>
+      <c r="H30" s="173"/>
+      <c r="I30" s="173"/>
+      <c r="J30" s="173"/>
+      <c r="K30" s="173"/>
       <c r="L30" s="90"/>
       <c r="M30" s="90"/>
-      <c r="N30" s="139"/>
-      <c r="O30" s="140"/>
+      <c r="N30" s="165"/>
+      <c r="O30" s="166"/>
       <c r="P30" s="17"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="27"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="141" t="s">
+      <c r="D31" s="171" t="s">
         <v>362</v>
       </c>
-      <c r="E31" s="142"/>
-      <c r="F31" s="142"/>
-      <c r="G31" s="142"/>
-      <c r="H31" s="142"/>
-      <c r="I31" s="142"/>
-      <c r="J31" s="142"/>
-      <c r="K31" s="142"/>
+      <c r="E31" s="172"/>
+      <c r="F31" s="172"/>
+      <c r="G31" s="172"/>
+      <c r="H31" s="172"/>
+      <c r="I31" s="172"/>
+      <c r="J31" s="172"/>
+      <c r="K31" s="172"/>
       <c r="L31" s="91"/>
       <c r="M31" s="91"/>
       <c r="N31" s="91"/>
@@ -4139,310 +4216,310 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
-      <c r="B32" s="122">
+      <c r="B32" s="105">
         <v>8</v>
       </c>
-      <c r="C32" s="123"/>
-      <c r="D32" s="123">
+      <c r="C32" s="106"/>
+      <c r="D32" s="106">
         <v>9</v>
       </c>
-      <c r="E32" s="123"/>
-      <c r="F32" s="123">
+      <c r="E32" s="106"/>
+      <c r="F32" s="106">
         <v>10</v>
       </c>
-      <c r="G32" s="123"/>
-      <c r="H32" s="123">
+      <c r="G32" s="106"/>
+      <c r="H32" s="106">
         <v>11</v>
       </c>
-      <c r="I32" s="123"/>
-      <c r="J32" s="123">
+      <c r="I32" s="106"/>
+      <c r="J32" s="106">
         <v>12</v>
       </c>
-      <c r="K32" s="123"/>
-      <c r="L32" s="123">
+      <c r="K32" s="106"/>
+      <c r="L32" s="106">
         <v>13</v>
       </c>
-      <c r="M32" s="123"/>
-      <c r="N32" s="123">
+      <c r="M32" s="106"/>
+      <c r="N32" s="106">
         <v>14</v>
       </c>
-      <c r="O32" s="134"/>
+      <c r="O32" s="107"/>
       <c r="P32" s="17"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
-      <c r="B33" s="102"/>
-      <c r="C33" s="103"/>
+      <c r="B33" s="133"/>
+      <c r="C33" s="109"/>
       <c r="D33" s="108" t="s">
         <v>365</v>
       </c>
-      <c r="E33" s="130"/>
-      <c r="F33" s="130"/>
-      <c r="G33" s="130"/>
-      <c r="H33" s="130"/>
-      <c r="I33" s="130"/>
-      <c r="J33" s="130"/>
-      <c r="K33" s="103"/>
-      <c r="L33" s="93" t="s">
+      <c r="E33" s="169"/>
+      <c r="F33" s="169"/>
+      <c r="G33" s="169"/>
+      <c r="H33" s="169"/>
+      <c r="I33" s="169"/>
+      <c r="J33" s="169"/>
+      <c r="K33" s="109"/>
+      <c r="L33" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="M33" s="94"/>
-      <c r="N33" s="93" t="s">
+      <c r="M33" s="149"/>
+      <c r="N33" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="O33" s="99"/>
+      <c r="O33" s="121"/>
       <c r="P33" s="17"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
-      <c r="B34" s="104"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="131"/>
-      <c r="F34" s="131"/>
-      <c r="G34" s="131"/>
-      <c r="H34" s="131"/>
-      <c r="I34" s="131"/>
-      <c r="J34" s="131"/>
-      <c r="K34" s="105"/>
-      <c r="L34" s="95"/>
-      <c r="M34" s="96"/>
-      <c r="N34" s="95"/>
-      <c r="O34" s="100"/>
+      <c r="B34" s="134"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="110"/>
+      <c r="E34" s="170"/>
+      <c r="F34" s="170"/>
+      <c r="G34" s="170"/>
+      <c r="H34" s="170"/>
+      <c r="I34" s="170"/>
+      <c r="J34" s="170"/>
+      <c r="K34" s="111"/>
+      <c r="L34" s="122"/>
+      <c r="M34" s="150"/>
+      <c r="N34" s="122"/>
+      <c r="O34" s="123"/>
       <c r="P34" s="17"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
-      <c r="B35" s="104"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="109"/>
-      <c r="E35" s="131"/>
-      <c r="F35" s="131"/>
-      <c r="G35" s="131"/>
-      <c r="H35" s="131"/>
-      <c r="I35" s="131"/>
-      <c r="J35" s="131"/>
-      <c r="K35" s="105"/>
-      <c r="L35" s="95"/>
-      <c r="M35" s="96"/>
-      <c r="N35" s="95"/>
-      <c r="O35" s="100"/>
+      <c r="B35" s="134"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="170"/>
+      <c r="F35" s="170"/>
+      <c r="G35" s="170"/>
+      <c r="H35" s="170"/>
+      <c r="I35" s="170"/>
+      <c r="J35" s="170"/>
+      <c r="K35" s="111"/>
+      <c r="L35" s="122"/>
+      <c r="M35" s="150"/>
+      <c r="N35" s="122"/>
+      <c r="O35" s="123"/>
       <c r="P35" s="17"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
-      <c r="B36" s="104"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="109"/>
-      <c r="E36" s="131"/>
-      <c r="F36" s="131"/>
-      <c r="G36" s="131"/>
-      <c r="H36" s="131"/>
-      <c r="I36" s="131"/>
-      <c r="J36" s="131"/>
-      <c r="K36" s="105"/>
-      <c r="L36" s="95"/>
-      <c r="M36" s="96"/>
-      <c r="N36" s="95"/>
-      <c r="O36" s="100"/>
+      <c r="B36" s="134"/>
+      <c r="C36" s="111"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="170"/>
+      <c r="F36" s="170"/>
+      <c r="G36" s="170"/>
+      <c r="H36" s="170"/>
+      <c r="I36" s="170"/>
+      <c r="J36" s="170"/>
+      <c r="K36" s="111"/>
+      <c r="L36" s="122"/>
+      <c r="M36" s="150"/>
+      <c r="N36" s="122"/>
+      <c r="O36" s="123"/>
       <c r="P36" s="17"/>
     </row>
     <row r="37" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
-      <c r="B37" s="104"/>
-      <c r="C37" s="105"/>
-      <c r="D37" s="109"/>
-      <c r="E37" s="131"/>
-      <c r="F37" s="131"/>
-      <c r="G37" s="131"/>
-      <c r="H37" s="131"/>
-      <c r="I37" s="131"/>
-      <c r="J37" s="131"/>
-      <c r="K37" s="105"/>
-      <c r="L37" s="95"/>
-      <c r="M37" s="96"/>
-      <c r="N37" s="95"/>
-      <c r="O37" s="100"/>
+      <c r="B37" s="134"/>
+      <c r="C37" s="111"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="170"/>
+      <c r="F37" s="170"/>
+      <c r="G37" s="170"/>
+      <c r="H37" s="170"/>
+      <c r="I37" s="170"/>
+      <c r="J37" s="170"/>
+      <c r="K37" s="111"/>
+      <c r="L37" s="122"/>
+      <c r="M37" s="150"/>
+      <c r="N37" s="122"/>
+      <c r="O37" s="123"/>
       <c r="P37" s="17"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
-      <c r="B38" s="106"/>
-      <c r="C38" s="107"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="132"/>
-      <c r="F38" s="132"/>
-      <c r="G38" s="132"/>
-      <c r="H38" s="132"/>
-      <c r="I38" s="132"/>
-      <c r="J38" s="132"/>
-      <c r="K38" s="107"/>
-      <c r="L38" s="97"/>
-      <c r="M38" s="98"/>
-      <c r="N38" s="97"/>
-      <c r="O38" s="101"/>
+      <c r="B38" s="135"/>
+      <c r="C38" s="113"/>
+      <c r="D38" s="112"/>
+      <c r="E38" s="173"/>
+      <c r="F38" s="173"/>
+      <c r="G38" s="173"/>
+      <c r="H38" s="173"/>
+      <c r="I38" s="173"/>
+      <c r="J38" s="173"/>
+      <c r="K38" s="113"/>
+      <c r="L38" s="124"/>
+      <c r="M38" s="151"/>
+      <c r="N38" s="124"/>
+      <c r="O38" s="125"/>
       <c r="P38" s="17"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="B39" s="27"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="128" t="s">
+      <c r="D39" s="176" t="s">
         <v>52</v>
       </c>
-      <c r="E39" s="129"/>
-      <c r="F39" s="129"/>
-      <c r="G39" s="129"/>
-      <c r="H39" s="129"/>
-      <c r="I39" s="129"/>
-      <c r="J39" s="129"/>
-      <c r="K39" s="129"/>
+      <c r="E39" s="177"/>
+      <c r="F39" s="177"/>
+      <c r="G39" s="177"/>
+      <c r="H39" s="177"/>
+      <c r="I39" s="177"/>
+      <c r="J39" s="177"/>
+      <c r="K39" s="177"/>
       <c r="L39" s="35"/>
       <c r="M39" s="36"/>
-      <c r="N39" s="126" t="s">
+      <c r="N39" s="174" t="s">
         <v>34</v>
       </c>
-      <c r="O39" s="127"/>
+      <c r="O39" s="175"/>
       <c r="P39" s="17"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
-      <c r="B40" s="124">
+      <c r="B40" s="137">
         <v>15</v>
       </c>
-      <c r="C40" s="125"/>
-      <c r="D40" s="118">
+      <c r="C40" s="138"/>
+      <c r="D40" s="132">
         <v>16</v>
       </c>
-      <c r="E40" s="118"/>
-      <c r="F40" s="118">
+      <c r="E40" s="132"/>
+      <c r="F40" s="132">
         <v>17</v>
       </c>
-      <c r="G40" s="118"/>
-      <c r="H40" s="118">
+      <c r="G40" s="132"/>
+      <c r="H40" s="132">
         <v>18</v>
       </c>
-      <c r="I40" s="118"/>
-      <c r="J40" s="118">
+      <c r="I40" s="132"/>
+      <c r="J40" s="132">
         <v>19</v>
       </c>
-      <c r="K40" s="118"/>
-      <c r="L40" s="118">
+      <c r="K40" s="132"/>
+      <c r="L40" s="132">
         <v>20</v>
       </c>
-      <c r="M40" s="118"/>
-      <c r="N40" s="118">
+      <c r="M40" s="132"/>
+      <c r="N40" s="132">
         <v>21</v>
       </c>
-      <c r="O40" s="121"/>
+      <c r="O40" s="136"/>
       <c r="P40" s="17"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
-      <c r="B41" s="102"/>
-      <c r="C41" s="103"/>
+      <c r="B41" s="133"/>
+      <c r="C41" s="109"/>
       <c r="D41" s="108"/>
-      <c r="E41" s="103"/>
+      <c r="E41" s="109"/>
       <c r="F41" s="108"/>
-      <c r="G41" s="103"/>
+      <c r="G41" s="109"/>
       <c r="H41" s="108"/>
-      <c r="I41" s="103"/>
-      <c r="J41" s="111"/>
-      <c r="K41" s="112"/>
-      <c r="L41" s="93"/>
-      <c r="M41" s="94"/>
-      <c r="N41" s="93"/>
-      <c r="O41" s="99"/>
+      <c r="I41" s="109"/>
+      <c r="J41" s="114"/>
+      <c r="K41" s="115"/>
+      <c r="L41" s="120"/>
+      <c r="M41" s="149"/>
+      <c r="N41" s="120"/>
+      <c r="O41" s="121"/>
       <c r="P41" s="17"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
-      <c r="B42" s="104"/>
-      <c r="C42" s="105"/>
-      <c r="D42" s="109"/>
-      <c r="E42" s="105"/>
-      <c r="F42" s="109"/>
-      <c r="G42" s="105"/>
-      <c r="H42" s="109"/>
-      <c r="I42" s="105"/>
-      <c r="J42" s="113"/>
-      <c r="K42" s="114"/>
-      <c r="L42" s="95"/>
-      <c r="M42" s="96"/>
-      <c r="N42" s="95"/>
-      <c r="O42" s="100"/>
+      <c r="B42" s="134"/>
+      <c r="C42" s="111"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="111"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="111"/>
+      <c r="H42" s="110"/>
+      <c r="I42" s="111"/>
+      <c r="J42" s="116"/>
+      <c r="K42" s="117"/>
+      <c r="L42" s="122"/>
+      <c r="M42" s="150"/>
+      <c r="N42" s="122"/>
+      <c r="O42" s="123"/>
       <c r="P42" s="17"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
-      <c r="B43" s="104"/>
-      <c r="C43" s="105"/>
-      <c r="D43" s="109"/>
-      <c r="E43" s="105"/>
-      <c r="F43" s="109"/>
-      <c r="G43" s="105"/>
-      <c r="H43" s="109"/>
-      <c r="I43" s="105"/>
-      <c r="J43" s="113"/>
-      <c r="K43" s="114"/>
-      <c r="L43" s="95"/>
-      <c r="M43" s="96"/>
-      <c r="N43" s="95"/>
-      <c r="O43" s="100"/>
+      <c r="B43" s="134"/>
+      <c r="C43" s="111"/>
+      <c r="D43" s="110"/>
+      <c r="E43" s="111"/>
+      <c r="F43" s="110"/>
+      <c r="G43" s="111"/>
+      <c r="H43" s="110"/>
+      <c r="I43" s="111"/>
+      <c r="J43" s="116"/>
+      <c r="K43" s="117"/>
+      <c r="L43" s="122"/>
+      <c r="M43" s="150"/>
+      <c r="N43" s="122"/>
+      <c r="O43" s="123"/>
       <c r="P43" s="17"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
-      <c r="B44" s="104"/>
-      <c r="C44" s="105"/>
-      <c r="D44" s="109"/>
-      <c r="E44" s="105"/>
-      <c r="F44" s="109"/>
-      <c r="G44" s="105"/>
-      <c r="H44" s="109"/>
-      <c r="I44" s="105"/>
-      <c r="J44" s="113"/>
-      <c r="K44" s="114"/>
-      <c r="L44" s="95"/>
-      <c r="M44" s="96"/>
-      <c r="N44" s="95"/>
-      <c r="O44" s="100"/>
+      <c r="B44" s="134"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="110"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="110"/>
+      <c r="G44" s="111"/>
+      <c r="H44" s="110"/>
+      <c r="I44" s="111"/>
+      <c r="J44" s="116"/>
+      <c r="K44" s="117"/>
+      <c r="L44" s="122"/>
+      <c r="M44" s="150"/>
+      <c r="N44" s="122"/>
+      <c r="O44" s="123"/>
       <c r="P44" s="17"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
-      <c r="B45" s="104"/>
-      <c r="C45" s="105"/>
-      <c r="D45" s="109"/>
-      <c r="E45" s="105"/>
-      <c r="F45" s="109"/>
-      <c r="G45" s="105"/>
-      <c r="H45" s="109"/>
-      <c r="I45" s="105"/>
-      <c r="J45" s="113"/>
-      <c r="K45" s="114"/>
-      <c r="L45" s="95"/>
-      <c r="M45" s="96"/>
-      <c r="N45" s="95"/>
-      <c r="O45" s="100"/>
+      <c r="B45" s="134"/>
+      <c r="C45" s="111"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="111"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="111"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="111"/>
+      <c r="J45" s="116"/>
+      <c r="K45" s="117"/>
+      <c r="L45" s="122"/>
+      <c r="M45" s="150"/>
+      <c r="N45" s="122"/>
+      <c r="O45" s="123"/>
       <c r="P45" s="17"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="11"/>
-      <c r="B46" s="106"/>
-      <c r="C46" s="107"/>
-      <c r="D46" s="110"/>
-      <c r="E46" s="107"/>
-      <c r="F46" s="110"/>
-      <c r="G46" s="107"/>
-      <c r="H46" s="110"/>
-      <c r="I46" s="107"/>
-      <c r="J46" s="115"/>
-      <c r="K46" s="116"/>
-      <c r="L46" s="97"/>
-      <c r="M46" s="98"/>
-      <c r="N46" s="97"/>
-      <c r="O46" s="101"/>
+      <c r="B46" s="135"/>
+      <c r="C46" s="113"/>
+      <c r="D46" s="112"/>
+      <c r="E46" s="113"/>
+      <c r="F46" s="112"/>
+      <c r="G46" s="113"/>
+      <c r="H46" s="112"/>
+      <c r="I46" s="113"/>
+      <c r="J46" s="118"/>
+      <c r="K46" s="119"/>
+      <c r="L46" s="124"/>
+      <c r="M46" s="151"/>
+      <c r="N46" s="124"/>
+      <c r="O46" s="125"/>
       <c r="P46" s="17"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
@@ -4451,172 +4528,172 @@
       <c r="C47" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="165" t="s">
+      <c r="D47" s="143" t="s">
         <v>53</v>
       </c>
-      <c r="E47" s="166"/>
-      <c r="F47" s="166"/>
-      <c r="G47" s="166"/>
-      <c r="H47" s="167" t="s">
+      <c r="E47" s="144"/>
+      <c r="F47" s="144"/>
+      <c r="G47" s="144"/>
+      <c r="H47" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="I47" s="167"/>
-      <c r="J47" s="167"/>
-      <c r="K47" s="167"/>
-      <c r="L47" s="167"/>
-      <c r="M47" s="167"/>
-      <c r="N47" s="167"/>
-      <c r="O47" s="168"/>
+      <c r="I47" s="145"/>
+      <c r="J47" s="145"/>
+      <c r="K47" s="145"/>
+      <c r="L47" s="145"/>
+      <c r="M47" s="145"/>
+      <c r="N47" s="145"/>
+      <c r="O47" s="146"/>
       <c r="P47" s="17"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
-      <c r="B48" s="122">
+      <c r="B48" s="105">
         <v>22</v>
       </c>
-      <c r="C48" s="123"/>
-      <c r="D48" s="123">
+      <c r="C48" s="106"/>
+      <c r="D48" s="106">
         <v>23</v>
       </c>
-      <c r="E48" s="123"/>
-      <c r="F48" s="123">
+      <c r="E48" s="106"/>
+      <c r="F48" s="106">
         <v>24</v>
       </c>
-      <c r="G48" s="123"/>
-      <c r="H48" s="118">
+      <c r="G48" s="106"/>
+      <c r="H48" s="132">
         <v>25</v>
       </c>
-      <c r="I48" s="118"/>
-      <c r="J48" s="118">
+      <c r="I48" s="132"/>
+      <c r="J48" s="132">
         <v>26</v>
       </c>
-      <c r="K48" s="118"/>
-      <c r="L48" s="118">
+      <c r="K48" s="132"/>
+      <c r="L48" s="132">
         <v>27</v>
       </c>
-      <c r="M48" s="118"/>
-      <c r="N48" s="118">
+      <c r="M48" s="132"/>
+      <c r="N48" s="132">
         <v>20</v>
       </c>
-      <c r="O48" s="121"/>
+      <c r="O48" s="136"/>
       <c r="P48" s="17"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="11"/>
-      <c r="B49" s="102"/>
-      <c r="C49" s="103"/>
+      <c r="B49" s="133"/>
+      <c r="C49" s="109"/>
       <c r="D49" s="108"/>
-      <c r="E49" s="103"/>
+      <c r="E49" s="109"/>
       <c r="F49" s="108"/>
-      <c r="G49" s="103"/>
+      <c r="G49" s="109"/>
       <c r="H49" s="108"/>
-      <c r="I49" s="103"/>
-      <c r="J49" s="111"/>
-      <c r="K49" s="112"/>
-      <c r="L49" s="93"/>
-      <c r="M49" s="94"/>
-      <c r="N49" s="93"/>
-      <c r="O49" s="99"/>
+      <c r="I49" s="109"/>
+      <c r="J49" s="114"/>
+      <c r="K49" s="115"/>
+      <c r="L49" s="120"/>
+      <c r="M49" s="149"/>
+      <c r="N49" s="120"/>
+      <c r="O49" s="121"/>
       <c r="P49" s="17"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="11"/>
-      <c r="B50" s="104"/>
-      <c r="C50" s="105"/>
-      <c r="D50" s="109"/>
-      <c r="E50" s="105"/>
-      <c r="F50" s="109"/>
-      <c r="G50" s="105"/>
-      <c r="H50" s="109"/>
-      <c r="I50" s="105"/>
-      <c r="J50" s="113"/>
-      <c r="K50" s="114"/>
-      <c r="L50" s="95"/>
-      <c r="M50" s="96"/>
-      <c r="N50" s="95"/>
-      <c r="O50" s="100"/>
+      <c r="B50" s="134"/>
+      <c r="C50" s="111"/>
+      <c r="D50" s="110"/>
+      <c r="E50" s="111"/>
+      <c r="F50" s="110"/>
+      <c r="G50" s="111"/>
+      <c r="H50" s="110"/>
+      <c r="I50" s="111"/>
+      <c r="J50" s="116"/>
+      <c r="K50" s="117"/>
+      <c r="L50" s="122"/>
+      <c r="M50" s="150"/>
+      <c r="N50" s="122"/>
+      <c r="O50" s="123"/>
       <c r="P50" s="17"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="11"/>
-      <c r="B51" s="104"/>
-      <c r="C51" s="105"/>
-      <c r="D51" s="109"/>
-      <c r="E51" s="105"/>
-      <c r="F51" s="109"/>
-      <c r="G51" s="105"/>
-      <c r="H51" s="109"/>
-      <c r="I51" s="105"/>
-      <c r="J51" s="113"/>
-      <c r="K51" s="114"/>
-      <c r="L51" s="95"/>
-      <c r="M51" s="96"/>
-      <c r="N51" s="95"/>
-      <c r="O51" s="100"/>
+      <c r="B51" s="134"/>
+      <c r="C51" s="111"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="111"/>
+      <c r="F51" s="110"/>
+      <c r="G51" s="111"/>
+      <c r="H51" s="110"/>
+      <c r="I51" s="111"/>
+      <c r="J51" s="116"/>
+      <c r="K51" s="117"/>
+      <c r="L51" s="122"/>
+      <c r="M51" s="150"/>
+      <c r="N51" s="122"/>
+      <c r="O51" s="123"/>
       <c r="P51" s="17"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="11"/>
-      <c r="B52" s="104"/>
-      <c r="C52" s="105"/>
-      <c r="D52" s="109"/>
-      <c r="E52" s="105"/>
-      <c r="F52" s="109"/>
-      <c r="G52" s="105"/>
-      <c r="H52" s="109"/>
-      <c r="I52" s="105"/>
-      <c r="J52" s="113"/>
-      <c r="K52" s="114"/>
-      <c r="L52" s="95"/>
-      <c r="M52" s="96"/>
-      <c r="N52" s="95"/>
-      <c r="O52" s="100"/>
+      <c r="B52" s="134"/>
+      <c r="C52" s="111"/>
+      <c r="D52" s="110"/>
+      <c r="E52" s="111"/>
+      <c r="F52" s="110"/>
+      <c r="G52" s="111"/>
+      <c r="H52" s="110"/>
+      <c r="I52" s="111"/>
+      <c r="J52" s="116"/>
+      <c r="K52" s="117"/>
+      <c r="L52" s="122"/>
+      <c r="M52" s="150"/>
+      <c r="N52" s="122"/>
+      <c r="O52" s="123"/>
       <c r="P52" s="17"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="11"/>
-      <c r="B53" s="104"/>
-      <c r="C53" s="105"/>
-      <c r="D53" s="109"/>
-      <c r="E53" s="105"/>
-      <c r="F53" s="109"/>
-      <c r="G53" s="105"/>
-      <c r="H53" s="109"/>
-      <c r="I53" s="105"/>
-      <c r="J53" s="113"/>
-      <c r="K53" s="114"/>
-      <c r="L53" s="95"/>
-      <c r="M53" s="96"/>
-      <c r="N53" s="95"/>
-      <c r="O53" s="100"/>
+      <c r="B53" s="134"/>
+      <c r="C53" s="111"/>
+      <c r="D53" s="110"/>
+      <c r="E53" s="111"/>
+      <c r="F53" s="110"/>
+      <c r="G53" s="111"/>
+      <c r="H53" s="110"/>
+      <c r="I53" s="111"/>
+      <c r="J53" s="116"/>
+      <c r="K53" s="117"/>
+      <c r="L53" s="122"/>
+      <c r="M53" s="150"/>
+      <c r="N53" s="122"/>
+      <c r="O53" s="123"/>
       <c r="P53" s="17"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="11"/>
-      <c r="B54" s="106"/>
-      <c r="C54" s="107"/>
-      <c r="D54" s="110"/>
-      <c r="E54" s="107"/>
-      <c r="F54" s="110"/>
-      <c r="G54" s="107"/>
-      <c r="H54" s="110"/>
-      <c r="I54" s="107"/>
-      <c r="J54" s="115"/>
-      <c r="K54" s="116"/>
-      <c r="L54" s="97"/>
-      <c r="M54" s="98"/>
-      <c r="N54" s="97"/>
-      <c r="O54" s="101"/>
+      <c r="B54" s="135"/>
+      <c r="C54" s="113"/>
+      <c r="D54" s="112"/>
+      <c r="E54" s="113"/>
+      <c r="F54" s="112"/>
+      <c r="G54" s="113"/>
+      <c r="H54" s="112"/>
+      <c r="I54" s="113"/>
+      <c r="J54" s="118"/>
+      <c r="K54" s="119"/>
+      <c r="L54" s="124"/>
+      <c r="M54" s="151"/>
+      <c r="N54" s="124"/>
+      <c r="O54" s="125"/>
       <c r="P54" s="17"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="11"/>
       <c r="B55" s="22"/>
       <c r="C55" s="3"/>
-      <c r="D55" s="169"/>
-      <c r="E55" s="167"/>
-      <c r="F55" s="167"/>
-      <c r="G55" s="170"/>
+      <c r="D55" s="147"/>
+      <c r="E55" s="145"/>
+      <c r="F55" s="145"/>
+      <c r="G55" s="148"/>
       <c r="H55" s="2"/>
       <c r="I55" s="3"/>
       <c r="J55" s="4"/>
@@ -4629,128 +4706,128 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="11"/>
-      <c r="B56" s="117">
+      <c r="B56" s="180">
         <v>28</v>
       </c>
-      <c r="C56" s="118"/>
-      <c r="D56" s="118">
+      <c r="C56" s="132"/>
+      <c r="D56" s="132">
         <v>29</v>
       </c>
-      <c r="E56" s="118"/>
-      <c r="F56" s="118">
+      <c r="E56" s="132"/>
+      <c r="F56" s="132">
         <v>30</v>
       </c>
-      <c r="G56" s="118"/>
-      <c r="N56" s="119"/>
-      <c r="O56" s="120"/>
+      <c r="G56" s="132"/>
+      <c r="N56" s="178"/>
+      <c r="O56" s="179"/>
       <c r="P56" s="17"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="11"/>
-      <c r="B57" s="102"/>
-      <c r="C57" s="103"/>
+      <c r="B57" s="133"/>
+      <c r="C57" s="109"/>
       <c r="D57" s="108"/>
-      <c r="E57" s="103"/>
+      <c r="E57" s="109"/>
       <c r="F57" s="108"/>
-      <c r="G57" s="103"/>
+      <c r="G57" s="109"/>
       <c r="H57" s="108"/>
-      <c r="I57" s="103"/>
-      <c r="J57" s="111"/>
-      <c r="K57" s="112"/>
-      <c r="L57" s="93"/>
-      <c r="M57" s="94"/>
-      <c r="N57" s="93"/>
-      <c r="O57" s="99"/>
+      <c r="I57" s="109"/>
+      <c r="J57" s="114"/>
+      <c r="K57" s="115"/>
+      <c r="L57" s="120"/>
+      <c r="M57" s="149"/>
+      <c r="N57" s="120"/>
+      <c r="O57" s="121"/>
       <c r="P57" s="17"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="11"/>
-      <c r="B58" s="104"/>
-      <c r="C58" s="105"/>
-      <c r="D58" s="109"/>
-      <c r="E58" s="105"/>
-      <c r="F58" s="109"/>
-      <c r="G58" s="105"/>
-      <c r="H58" s="109"/>
-      <c r="I58" s="105"/>
-      <c r="J58" s="113"/>
-      <c r="K58" s="114"/>
-      <c r="L58" s="95"/>
-      <c r="M58" s="96"/>
-      <c r="N58" s="95"/>
-      <c r="O58" s="100"/>
+      <c r="B58" s="134"/>
+      <c r="C58" s="111"/>
+      <c r="D58" s="110"/>
+      <c r="E58" s="111"/>
+      <c r="F58" s="110"/>
+      <c r="G58" s="111"/>
+      <c r="H58" s="110"/>
+      <c r="I58" s="111"/>
+      <c r="J58" s="116"/>
+      <c r="K58" s="117"/>
+      <c r="L58" s="122"/>
+      <c r="M58" s="150"/>
+      <c r="N58" s="122"/>
+      <c r="O58" s="123"/>
       <c r="P58" s="17"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="11"/>
-      <c r="B59" s="104"/>
-      <c r="C59" s="105"/>
-      <c r="D59" s="109"/>
-      <c r="E59" s="105"/>
-      <c r="F59" s="109"/>
-      <c r="G59" s="105"/>
-      <c r="H59" s="109"/>
-      <c r="I59" s="105"/>
-      <c r="J59" s="113"/>
-      <c r="K59" s="114"/>
-      <c r="L59" s="95"/>
-      <c r="M59" s="96"/>
-      <c r="N59" s="95"/>
-      <c r="O59" s="100"/>
+      <c r="B59" s="134"/>
+      <c r="C59" s="111"/>
+      <c r="D59" s="110"/>
+      <c r="E59" s="111"/>
+      <c r="F59" s="110"/>
+      <c r="G59" s="111"/>
+      <c r="H59" s="110"/>
+      <c r="I59" s="111"/>
+      <c r="J59" s="116"/>
+      <c r="K59" s="117"/>
+      <c r="L59" s="122"/>
+      <c r="M59" s="150"/>
+      <c r="N59" s="122"/>
+      <c r="O59" s="123"/>
       <c r="P59" s="17"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="11"/>
-      <c r="B60" s="104"/>
-      <c r="C60" s="105"/>
-      <c r="D60" s="109"/>
-      <c r="E60" s="105"/>
-      <c r="F60" s="109"/>
-      <c r="G60" s="105"/>
-      <c r="H60" s="109"/>
-      <c r="I60" s="105"/>
-      <c r="J60" s="113"/>
-      <c r="K60" s="114"/>
-      <c r="L60" s="95"/>
-      <c r="M60" s="96"/>
-      <c r="N60" s="95"/>
-      <c r="O60" s="100"/>
+      <c r="B60" s="134"/>
+      <c r="C60" s="111"/>
+      <c r="D60" s="110"/>
+      <c r="E60" s="111"/>
+      <c r="F60" s="110"/>
+      <c r="G60" s="111"/>
+      <c r="H60" s="110"/>
+      <c r="I60" s="111"/>
+      <c r="J60" s="116"/>
+      <c r="K60" s="117"/>
+      <c r="L60" s="122"/>
+      <c r="M60" s="150"/>
+      <c r="N60" s="122"/>
+      <c r="O60" s="123"/>
       <c r="P60" s="17"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="11"/>
-      <c r="B61" s="104"/>
-      <c r="C61" s="105"/>
-      <c r="D61" s="109"/>
-      <c r="E61" s="105"/>
-      <c r="F61" s="109"/>
-      <c r="G61" s="105"/>
-      <c r="H61" s="109"/>
-      <c r="I61" s="105"/>
-      <c r="J61" s="113"/>
-      <c r="K61" s="114"/>
-      <c r="L61" s="95"/>
-      <c r="M61" s="96"/>
-      <c r="N61" s="95"/>
-      <c r="O61" s="100"/>
+      <c r="B61" s="134"/>
+      <c r="C61" s="111"/>
+      <c r="D61" s="110"/>
+      <c r="E61" s="111"/>
+      <c r="F61" s="110"/>
+      <c r="G61" s="111"/>
+      <c r="H61" s="110"/>
+      <c r="I61" s="111"/>
+      <c r="J61" s="116"/>
+      <c r="K61" s="117"/>
+      <c r="L61" s="122"/>
+      <c r="M61" s="150"/>
+      <c r="N61" s="122"/>
+      <c r="O61" s="123"/>
       <c r="P61" s="17"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="11"/>
-      <c r="B62" s="106"/>
-      <c r="C62" s="107"/>
-      <c r="D62" s="110"/>
-      <c r="E62" s="107"/>
-      <c r="F62" s="110"/>
-      <c r="G62" s="107"/>
-      <c r="H62" s="110"/>
-      <c r="I62" s="107"/>
-      <c r="J62" s="115"/>
-      <c r="K62" s="116"/>
-      <c r="L62" s="97"/>
-      <c r="M62" s="98"/>
-      <c r="N62" s="97"/>
-      <c r="O62" s="101"/>
+      <c r="B62" s="135"/>
+      <c r="C62" s="113"/>
+      <c r="D62" s="112"/>
+      <c r="E62" s="113"/>
+      <c r="F62" s="112"/>
+      <c r="G62" s="113"/>
+      <c r="H62" s="112"/>
+      <c r="I62" s="113"/>
+      <c r="J62" s="118"/>
+      <c r="K62" s="119"/>
+      <c r="L62" s="124"/>
+      <c r="M62" s="151"/>
+      <c r="N62" s="124"/>
+      <c r="O62" s="125"/>
       <c r="P62" s="17"/>
     </row>
     <row r="63" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4789,22 +4866,22 @@
     </row>
     <row r="65" spans="1:16" ht="33.75" x14ac:dyDescent="0.3">
       <c r="A65" s="11"/>
-      <c r="B65" s="143" t="s">
+      <c r="B65" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="C65" s="144"/>
-      <c r="D65" s="144"/>
-      <c r="E65" s="144"/>
-      <c r="F65" s="144"/>
-      <c r="G65" s="144"/>
-      <c r="H65" s="144"/>
-      <c r="I65" s="144"/>
-      <c r="J65" s="144"/>
-      <c r="K65" s="144"/>
-      <c r="L65" s="144"/>
-      <c r="M65" s="144"/>
-      <c r="N65" s="144"/>
-      <c r="O65" s="145"/>
+      <c r="C65" s="127"/>
+      <c r="D65" s="127"/>
+      <c r="E65" s="127"/>
+      <c r="F65" s="127"/>
+      <c r="G65" s="127"/>
+      <c r="H65" s="127"/>
+      <c r="I65" s="127"/>
+      <c r="J65" s="127"/>
+      <c r="K65" s="127"/>
+      <c r="L65" s="127"/>
+      <c r="M65" s="127"/>
+      <c r="N65" s="127"/>
+      <c r="O65" s="128"/>
       <c r="P65" s="17"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
@@ -4815,62 +4892,62 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="11"/>
-      <c r="B67" s="146" t="s">
+      <c r="B67" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="C67" s="133"/>
-      <c r="D67" s="133" t="s">
+      <c r="C67" s="130"/>
+      <c r="D67" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="E67" s="133"/>
-      <c r="F67" s="133" t="s">
+      <c r="E67" s="130"/>
+      <c r="F67" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="G67" s="133"/>
-      <c r="H67" s="133" t="s">
+      <c r="G67" s="130"/>
+      <c r="H67" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="I67" s="133"/>
-      <c r="J67" s="133" t="s">
+      <c r="I67" s="130"/>
+      <c r="J67" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="K67" s="133"/>
-      <c r="L67" s="133" t="s">
+      <c r="K67" s="130"/>
+      <c r="L67" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="M67" s="133"/>
-      <c r="N67" s="133" t="s">
+      <c r="M67" s="130"/>
+      <c r="N67" s="130" t="s">
         <v>45</v>
       </c>
-      <c r="O67" s="147"/>
+      <c r="O67" s="131"/>
       <c r="P67" s="17"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="11"/>
-      <c r="B68" s="122"/>
-      <c r="C68" s="123"/>
-      <c r="D68" s="123"/>
-      <c r="E68" s="123"/>
-      <c r="F68" s="123">
+      <c r="B68" s="105"/>
+      <c r="C68" s="106"/>
+      <c r="D68" s="106"/>
+      <c r="E68" s="106"/>
+      <c r="F68" s="106">
         <v>1</v>
       </c>
-      <c r="G68" s="123"/>
-      <c r="H68" s="123">
+      <c r="G68" s="106"/>
+      <c r="H68" s="106">
         <v>2</v>
       </c>
-      <c r="I68" s="123"/>
-      <c r="J68" s="123">
+      <c r="I68" s="106"/>
+      <c r="J68" s="106">
         <v>3</v>
       </c>
-      <c r="K68" s="123"/>
-      <c r="L68" s="123">
+      <c r="K68" s="106"/>
+      <c r="L68" s="106">
         <v>4</v>
       </c>
-      <c r="M68" s="123"/>
-      <c r="N68" s="123">
+      <c r="M68" s="106"/>
+      <c r="N68" s="106">
         <v>5</v>
       </c>
-      <c r="O68" s="134"/>
+      <c r="O68" s="107"/>
       <c r="P68" s="17"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
@@ -4878,107 +4955,107 @@
       <c r="B69" s="45"/>
       <c r="C69" s="37"/>
       <c r="D69" s="108"/>
-      <c r="E69" s="103"/>
+      <c r="E69" s="109"/>
       <c r="F69" s="108"/>
-      <c r="G69" s="103"/>
+      <c r="G69" s="109"/>
       <c r="H69" s="108"/>
-      <c r="I69" s="103"/>
+      <c r="I69" s="109"/>
       <c r="J69" s="108"/>
-      <c r="K69" s="103"/>
-      <c r="L69" s="111"/>
-      <c r="M69" s="112"/>
-      <c r="N69" s="93"/>
-      <c r="O69" s="99"/>
+      <c r="K69" s="109"/>
+      <c r="L69" s="114"/>
+      <c r="M69" s="115"/>
+      <c r="N69" s="120"/>
+      <c r="O69" s="121"/>
       <c r="P69" s="17"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
       <c r="B70" s="46"/>
       <c r="C70" s="38"/>
-      <c r="D70" s="109"/>
-      <c r="E70" s="105"/>
-      <c r="F70" s="109"/>
-      <c r="G70" s="105"/>
-      <c r="H70" s="109"/>
-      <c r="I70" s="105"/>
-      <c r="J70" s="109"/>
-      <c r="K70" s="105"/>
-      <c r="L70" s="113"/>
-      <c r="M70" s="114"/>
-      <c r="N70" s="95"/>
-      <c r="O70" s="100"/>
+      <c r="D70" s="110"/>
+      <c r="E70" s="111"/>
+      <c r="F70" s="110"/>
+      <c r="G70" s="111"/>
+      <c r="H70" s="110"/>
+      <c r="I70" s="111"/>
+      <c r="J70" s="110"/>
+      <c r="K70" s="111"/>
+      <c r="L70" s="116"/>
+      <c r="M70" s="117"/>
+      <c r="N70" s="122"/>
+      <c r="O70" s="123"/>
       <c r="P70" s="17"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="11"/>
       <c r="B71" s="46"/>
       <c r="C71" s="38"/>
-      <c r="D71" s="109"/>
-      <c r="E71" s="105"/>
-      <c r="F71" s="109"/>
-      <c r="G71" s="105"/>
-      <c r="H71" s="109"/>
-      <c r="I71" s="105"/>
-      <c r="J71" s="109"/>
-      <c r="K71" s="105"/>
-      <c r="L71" s="113"/>
-      <c r="M71" s="114"/>
-      <c r="N71" s="95"/>
-      <c r="O71" s="100"/>
+      <c r="D71" s="110"/>
+      <c r="E71" s="111"/>
+      <c r="F71" s="110"/>
+      <c r="G71" s="111"/>
+      <c r="H71" s="110"/>
+      <c r="I71" s="111"/>
+      <c r="J71" s="110"/>
+      <c r="K71" s="111"/>
+      <c r="L71" s="116"/>
+      <c r="M71" s="117"/>
+      <c r="N71" s="122"/>
+      <c r="O71" s="123"/>
       <c r="P71" s="17"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="11"/>
       <c r="B72" s="46"/>
       <c r="C72" s="38"/>
-      <c r="D72" s="109"/>
-      <c r="E72" s="105"/>
-      <c r="F72" s="109"/>
-      <c r="G72" s="105"/>
-      <c r="H72" s="109"/>
-      <c r="I72" s="105"/>
-      <c r="J72" s="109"/>
-      <c r="K72" s="105"/>
-      <c r="L72" s="113"/>
-      <c r="M72" s="114"/>
-      <c r="N72" s="95"/>
-      <c r="O72" s="100"/>
+      <c r="D72" s="110"/>
+      <c r="E72" s="111"/>
+      <c r="F72" s="110"/>
+      <c r="G72" s="111"/>
+      <c r="H72" s="110"/>
+      <c r="I72" s="111"/>
+      <c r="J72" s="110"/>
+      <c r="K72" s="111"/>
+      <c r="L72" s="116"/>
+      <c r="M72" s="117"/>
+      <c r="N72" s="122"/>
+      <c r="O72" s="123"/>
       <c r="P72" s="17"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="11"/>
       <c r="B73" s="46"/>
       <c r="C73" s="38"/>
-      <c r="D73" s="109"/>
-      <c r="E73" s="105"/>
-      <c r="F73" s="109"/>
-      <c r="G73" s="105"/>
-      <c r="H73" s="109"/>
-      <c r="I73" s="105"/>
-      <c r="J73" s="109"/>
-      <c r="K73" s="105"/>
-      <c r="L73" s="113"/>
-      <c r="M73" s="114"/>
-      <c r="N73" s="95"/>
-      <c r="O73" s="100"/>
+      <c r="D73" s="110"/>
+      <c r="E73" s="111"/>
+      <c r="F73" s="110"/>
+      <c r="G73" s="111"/>
+      <c r="H73" s="110"/>
+      <c r="I73" s="111"/>
+      <c r="J73" s="110"/>
+      <c r="K73" s="111"/>
+      <c r="L73" s="116"/>
+      <c r="M73" s="117"/>
+      <c r="N73" s="122"/>
+      <c r="O73" s="123"/>
       <c r="P73" s="17"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="11"/>
       <c r="B74" s="46"/>
       <c r="C74" s="38"/>
-      <c r="D74" s="110"/>
-      <c r="E74" s="107"/>
-      <c r="F74" s="110"/>
-      <c r="G74" s="107"/>
-      <c r="H74" s="110"/>
-      <c r="I74" s="107"/>
-      <c r="J74" s="110"/>
-      <c r="K74" s="107"/>
-      <c r="L74" s="115"/>
-      <c r="M74" s="116"/>
-      <c r="N74" s="97"/>
-      <c r="O74" s="101"/>
+      <c r="D74" s="112"/>
+      <c r="E74" s="113"/>
+      <c r="F74" s="112"/>
+      <c r="G74" s="113"/>
+      <c r="H74" s="112"/>
+      <c r="I74" s="113"/>
+      <c r="J74" s="112"/>
+      <c r="K74" s="113"/>
+      <c r="L74" s="118"/>
+      <c r="M74" s="119"/>
+      <c r="N74" s="124"/>
+      <c r="O74" s="125"/>
       <c r="P74" s="17"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
@@ -5001,34 +5078,34 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="11"/>
-      <c r="B76" s="122">
+      <c r="B76" s="105">
         <v>6</v>
       </c>
-      <c r="C76" s="123"/>
-      <c r="D76" s="123">
+      <c r="C76" s="106"/>
+      <c r="D76" s="106">
         <v>7</v>
       </c>
-      <c r="E76" s="123"/>
-      <c r="F76" s="123">
+      <c r="E76" s="106"/>
+      <c r="F76" s="106">
         <v>8</v>
       </c>
-      <c r="G76" s="123"/>
-      <c r="H76" s="123">
+      <c r="G76" s="106"/>
+      <c r="H76" s="106">
         <v>9</v>
       </c>
-      <c r="I76" s="123"/>
-      <c r="J76" s="123">
+      <c r="I76" s="106"/>
+      <c r="J76" s="106">
         <v>10</v>
       </c>
-      <c r="K76" s="123"/>
-      <c r="L76" s="123">
+      <c r="K76" s="106"/>
+      <c r="L76" s="106">
         <v>11</v>
       </c>
-      <c r="M76" s="123"/>
-      <c r="N76" s="123">
+      <c r="M76" s="106"/>
+      <c r="N76" s="106">
         <v>12</v>
       </c>
-      <c r="O76" s="134"/>
+      <c r="O76" s="107"/>
       <c r="P76" s="17"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
@@ -5036,107 +5113,107 @@
       <c r="B77" s="47"/>
       <c r="C77" s="40"/>
       <c r="D77" s="108"/>
-      <c r="E77" s="103"/>
+      <c r="E77" s="109"/>
       <c r="F77" s="108"/>
-      <c r="G77" s="103"/>
+      <c r="G77" s="109"/>
       <c r="H77" s="108"/>
-      <c r="I77" s="103"/>
+      <c r="I77" s="109"/>
       <c r="J77" s="108"/>
-      <c r="K77" s="103"/>
-      <c r="L77" s="111"/>
-      <c r="M77" s="112"/>
-      <c r="N77" s="93"/>
-      <c r="O77" s="99"/>
+      <c r="K77" s="109"/>
+      <c r="L77" s="114"/>
+      <c r="M77" s="115"/>
+      <c r="N77" s="120"/>
+      <c r="O77" s="121"/>
       <c r="P77" s="17"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="11"/>
       <c r="B78" s="47"/>
       <c r="C78" s="40"/>
-      <c r="D78" s="109"/>
-      <c r="E78" s="105"/>
-      <c r="F78" s="109"/>
-      <c r="G78" s="105"/>
-      <c r="H78" s="109"/>
-      <c r="I78" s="105"/>
-      <c r="J78" s="109"/>
-      <c r="K78" s="105"/>
-      <c r="L78" s="113"/>
-      <c r="M78" s="114"/>
-      <c r="N78" s="95"/>
-      <c r="O78" s="100"/>
+      <c r="D78" s="110"/>
+      <c r="E78" s="111"/>
+      <c r="F78" s="110"/>
+      <c r="G78" s="111"/>
+      <c r="H78" s="110"/>
+      <c r="I78" s="111"/>
+      <c r="J78" s="110"/>
+      <c r="K78" s="111"/>
+      <c r="L78" s="116"/>
+      <c r="M78" s="117"/>
+      <c r="N78" s="122"/>
+      <c r="O78" s="123"/>
       <c r="P78" s="17"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="11"/>
       <c r="B79" s="47"/>
       <c r="C79" s="40"/>
-      <c r="D79" s="109"/>
-      <c r="E79" s="105"/>
-      <c r="F79" s="109"/>
-      <c r="G79" s="105"/>
-      <c r="H79" s="109"/>
-      <c r="I79" s="105"/>
-      <c r="J79" s="109"/>
-      <c r="K79" s="105"/>
-      <c r="L79" s="113"/>
-      <c r="M79" s="114"/>
-      <c r="N79" s="95"/>
-      <c r="O79" s="100"/>
+      <c r="D79" s="110"/>
+      <c r="E79" s="111"/>
+      <c r="F79" s="110"/>
+      <c r="G79" s="111"/>
+      <c r="H79" s="110"/>
+      <c r="I79" s="111"/>
+      <c r="J79" s="110"/>
+      <c r="K79" s="111"/>
+      <c r="L79" s="116"/>
+      <c r="M79" s="117"/>
+      <c r="N79" s="122"/>
+      <c r="O79" s="123"/>
       <c r="P79" s="17"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="11"/>
       <c r="B80" s="47"/>
       <c r="C80" s="40"/>
-      <c r="D80" s="109"/>
-      <c r="E80" s="105"/>
-      <c r="F80" s="109"/>
-      <c r="G80" s="105"/>
-      <c r="H80" s="109"/>
-      <c r="I80" s="105"/>
-      <c r="J80" s="109"/>
-      <c r="K80" s="105"/>
-      <c r="L80" s="113"/>
-      <c r="M80" s="114"/>
-      <c r="N80" s="95"/>
-      <c r="O80" s="100"/>
+      <c r="D80" s="110"/>
+      <c r="E80" s="111"/>
+      <c r="F80" s="110"/>
+      <c r="G80" s="111"/>
+      <c r="H80" s="110"/>
+      <c r="I80" s="111"/>
+      <c r="J80" s="110"/>
+      <c r="K80" s="111"/>
+      <c r="L80" s="116"/>
+      <c r="M80" s="117"/>
+      <c r="N80" s="122"/>
+      <c r="O80" s="123"/>
       <c r="P80" s="17"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="11"/>
       <c r="B81" s="48"/>
       <c r="C81" s="41"/>
-      <c r="D81" s="109"/>
-      <c r="E81" s="105"/>
-      <c r="F81" s="109"/>
-      <c r="G81" s="105"/>
-      <c r="H81" s="109"/>
-      <c r="I81" s="105"/>
-      <c r="J81" s="109"/>
-      <c r="K81" s="105"/>
-      <c r="L81" s="113"/>
-      <c r="M81" s="114"/>
-      <c r="N81" s="95"/>
-      <c r="O81" s="100"/>
+      <c r="D81" s="110"/>
+      <c r="E81" s="111"/>
+      <c r="F81" s="110"/>
+      <c r="G81" s="111"/>
+      <c r="H81" s="110"/>
+      <c r="I81" s="111"/>
+      <c r="J81" s="110"/>
+      <c r="K81" s="111"/>
+      <c r="L81" s="116"/>
+      <c r="M81" s="117"/>
+      <c r="N81" s="122"/>
+      <c r="O81" s="123"/>
       <c r="P81" s="17"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="11"/>
       <c r="B82" s="46"/>
       <c r="C82" s="38"/>
-      <c r="D82" s="110"/>
-      <c r="E82" s="107"/>
-      <c r="F82" s="110"/>
-      <c r="G82" s="107"/>
-      <c r="H82" s="110"/>
-      <c r="I82" s="107"/>
-      <c r="J82" s="110"/>
-      <c r="K82" s="107"/>
-      <c r="L82" s="115"/>
-      <c r="M82" s="116"/>
-      <c r="N82" s="97"/>
-      <c r="O82" s="101"/>
+      <c r="D82" s="112"/>
+      <c r="E82" s="113"/>
+      <c r="F82" s="112"/>
+      <c r="G82" s="113"/>
+      <c r="H82" s="112"/>
+      <c r="I82" s="113"/>
+      <c r="J82" s="112"/>
+      <c r="K82" s="113"/>
+      <c r="L82" s="118"/>
+      <c r="M82" s="119"/>
+      <c r="N82" s="124"/>
+      <c r="O82" s="125"/>
       <c r="P82" s="17"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.3">
@@ -5159,34 +5236,34 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="11"/>
-      <c r="B84" s="124">
+      <c r="B84" s="137">
         <v>13</v>
       </c>
-      <c r="C84" s="125"/>
-      <c r="D84" s="118">
+      <c r="C84" s="138"/>
+      <c r="D84" s="132">
         <v>14</v>
       </c>
-      <c r="E84" s="118"/>
-      <c r="F84" s="118">
+      <c r="E84" s="132"/>
+      <c r="F84" s="132">
         <v>15</v>
       </c>
-      <c r="G84" s="118"/>
-      <c r="H84" s="118">
+      <c r="G84" s="132"/>
+      <c r="H84" s="132">
         <v>16</v>
       </c>
-      <c r="I84" s="118"/>
-      <c r="J84" s="118">
+      <c r="I84" s="132"/>
+      <c r="J84" s="132">
         <v>17</v>
       </c>
-      <c r="K84" s="118"/>
-      <c r="L84" s="118">
+      <c r="K84" s="132"/>
+      <c r="L84" s="132">
         <v>18</v>
       </c>
-      <c r="M84" s="118"/>
-      <c r="N84" s="118">
+      <c r="M84" s="132"/>
+      <c r="N84" s="132">
         <v>19</v>
       </c>
-      <c r="O84" s="121"/>
+      <c r="O84" s="136"/>
       <c r="P84" s="17"/>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.3">
@@ -5194,107 +5271,107 @@
       <c r="B85" s="47"/>
       <c r="C85" s="39"/>
       <c r="D85" s="108"/>
-      <c r="E85" s="103"/>
+      <c r="E85" s="109"/>
       <c r="F85" s="108"/>
-      <c r="G85" s="103"/>
+      <c r="G85" s="109"/>
       <c r="H85" s="108"/>
-      <c r="I85" s="103"/>
+      <c r="I85" s="109"/>
       <c r="J85" s="108"/>
-      <c r="K85" s="103"/>
-      <c r="L85" s="111"/>
-      <c r="M85" s="112"/>
-      <c r="N85" s="93"/>
-      <c r="O85" s="99"/>
+      <c r="K85" s="109"/>
+      <c r="L85" s="114"/>
+      <c r="M85" s="115"/>
+      <c r="N85" s="120"/>
+      <c r="O85" s="121"/>
       <c r="P85" s="17"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="11"/>
       <c r="B86" s="49"/>
       <c r="C86" s="42"/>
-      <c r="D86" s="109"/>
-      <c r="E86" s="105"/>
-      <c r="F86" s="109"/>
-      <c r="G86" s="105"/>
-      <c r="H86" s="109"/>
-      <c r="I86" s="105"/>
-      <c r="J86" s="109"/>
-      <c r="K86" s="105"/>
-      <c r="L86" s="113"/>
-      <c r="M86" s="114"/>
-      <c r="N86" s="95"/>
-      <c r="O86" s="100"/>
+      <c r="D86" s="110"/>
+      <c r="E86" s="111"/>
+      <c r="F86" s="110"/>
+      <c r="G86" s="111"/>
+      <c r="H86" s="110"/>
+      <c r="I86" s="111"/>
+      <c r="J86" s="110"/>
+      <c r="K86" s="111"/>
+      <c r="L86" s="116"/>
+      <c r="M86" s="117"/>
+      <c r="N86" s="122"/>
+      <c r="O86" s="123"/>
       <c r="P86" s="17"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="11"/>
       <c r="B87" s="49"/>
       <c r="C87" s="42"/>
-      <c r="D87" s="109"/>
-      <c r="E87" s="105"/>
-      <c r="F87" s="109"/>
-      <c r="G87" s="105"/>
-      <c r="H87" s="109"/>
-      <c r="I87" s="105"/>
-      <c r="J87" s="109"/>
-      <c r="K87" s="105"/>
-      <c r="L87" s="113"/>
-      <c r="M87" s="114"/>
-      <c r="N87" s="95"/>
-      <c r="O87" s="100"/>
+      <c r="D87" s="110"/>
+      <c r="E87" s="111"/>
+      <c r="F87" s="110"/>
+      <c r="G87" s="111"/>
+      <c r="H87" s="110"/>
+      <c r="I87" s="111"/>
+      <c r="J87" s="110"/>
+      <c r="K87" s="111"/>
+      <c r="L87" s="116"/>
+      <c r="M87" s="117"/>
+      <c r="N87" s="122"/>
+      <c r="O87" s="123"/>
       <c r="P87" s="17"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="11"/>
       <c r="B88" s="49"/>
       <c r="C88" s="42"/>
-      <c r="D88" s="109"/>
-      <c r="E88" s="105"/>
-      <c r="F88" s="109"/>
-      <c r="G88" s="105"/>
-      <c r="H88" s="109"/>
-      <c r="I88" s="105"/>
-      <c r="J88" s="109"/>
-      <c r="K88" s="105"/>
-      <c r="L88" s="113"/>
-      <c r="M88" s="114"/>
-      <c r="N88" s="95"/>
-      <c r="O88" s="100"/>
+      <c r="D88" s="110"/>
+      <c r="E88" s="111"/>
+      <c r="F88" s="110"/>
+      <c r="G88" s="111"/>
+      <c r="H88" s="110"/>
+      <c r="I88" s="111"/>
+      <c r="J88" s="110"/>
+      <c r="K88" s="111"/>
+      <c r="L88" s="116"/>
+      <c r="M88" s="117"/>
+      <c r="N88" s="122"/>
+      <c r="O88" s="123"/>
       <c r="P88" s="17"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" s="11"/>
       <c r="B89" s="50"/>
       <c r="C89" s="43"/>
-      <c r="D89" s="109"/>
-      <c r="E89" s="105"/>
-      <c r="F89" s="109"/>
-      <c r="G89" s="105"/>
-      <c r="H89" s="109"/>
-      <c r="I89" s="105"/>
-      <c r="J89" s="109"/>
-      <c r="K89" s="105"/>
-      <c r="L89" s="113"/>
-      <c r="M89" s="114"/>
-      <c r="N89" s="95"/>
-      <c r="O89" s="100"/>
+      <c r="D89" s="110"/>
+      <c r="E89" s="111"/>
+      <c r="F89" s="110"/>
+      <c r="G89" s="111"/>
+      <c r="H89" s="110"/>
+      <c r="I89" s="111"/>
+      <c r="J89" s="110"/>
+      <c r="K89" s="111"/>
+      <c r="L89" s="116"/>
+      <c r="M89" s="117"/>
+      <c r="N89" s="122"/>
+      <c r="O89" s="123"/>
       <c r="P89" s="17"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" s="11"/>
       <c r="B90" s="46"/>
       <c r="C90" s="38"/>
-      <c r="D90" s="110"/>
-      <c r="E90" s="107"/>
-      <c r="F90" s="110"/>
-      <c r="G90" s="107"/>
-      <c r="H90" s="110"/>
-      <c r="I90" s="107"/>
-      <c r="J90" s="110"/>
-      <c r="K90" s="107"/>
-      <c r="L90" s="115"/>
-      <c r="M90" s="116"/>
-      <c r="N90" s="97"/>
-      <c r="O90" s="101"/>
+      <c r="D90" s="112"/>
+      <c r="E90" s="113"/>
+      <c r="F90" s="112"/>
+      <c r="G90" s="113"/>
+      <c r="H90" s="112"/>
+      <c r="I90" s="113"/>
+      <c r="J90" s="112"/>
+      <c r="K90" s="113"/>
+      <c r="L90" s="118"/>
+      <c r="M90" s="119"/>
+      <c r="N90" s="124"/>
+      <c r="O90" s="125"/>
       <c r="P90" s="17"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.3">
@@ -5317,34 +5394,34 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="11"/>
-      <c r="B92" s="122">
+      <c r="B92" s="105">
         <v>20</v>
       </c>
-      <c r="C92" s="123"/>
-      <c r="D92" s="123">
+      <c r="C92" s="106"/>
+      <c r="D92" s="106">
         <v>21</v>
       </c>
-      <c r="E92" s="123"/>
-      <c r="F92" s="123">
+      <c r="E92" s="106"/>
+      <c r="F92" s="106">
         <v>22</v>
       </c>
-      <c r="G92" s="123"/>
-      <c r="H92" s="118">
+      <c r="G92" s="106"/>
+      <c r="H92" s="132">
         <v>23</v>
       </c>
-      <c r="I92" s="118"/>
-      <c r="J92" s="118">
+      <c r="I92" s="132"/>
+      <c r="J92" s="132">
         <v>24</v>
       </c>
-      <c r="K92" s="118"/>
-      <c r="L92" s="118">
+      <c r="K92" s="132"/>
+      <c r="L92" s="132">
         <v>25</v>
       </c>
-      <c r="M92" s="118"/>
-      <c r="N92" s="118">
+      <c r="M92" s="132"/>
+      <c r="N92" s="132">
         <v>26</v>
       </c>
-      <c r="O92" s="121"/>
+      <c r="O92" s="136"/>
       <c r="P92" s="17"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.3">
@@ -5352,107 +5429,107 @@
       <c r="B93" s="51"/>
       <c r="C93" s="39"/>
       <c r="D93" s="108"/>
-      <c r="E93" s="103"/>
+      <c r="E93" s="109"/>
       <c r="F93" s="108"/>
-      <c r="G93" s="103"/>
+      <c r="G93" s="109"/>
       <c r="H93" s="108"/>
-      <c r="I93" s="103"/>
+      <c r="I93" s="109"/>
       <c r="J93" s="108"/>
-      <c r="K93" s="103"/>
-      <c r="L93" s="111"/>
-      <c r="M93" s="112"/>
-      <c r="N93" s="93"/>
-      <c r="O93" s="99"/>
+      <c r="K93" s="109"/>
+      <c r="L93" s="114"/>
+      <c r="M93" s="115"/>
+      <c r="N93" s="120"/>
+      <c r="O93" s="121"/>
       <c r="P93" s="17"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" s="11"/>
       <c r="B94" s="48"/>
       <c r="C94" s="44"/>
-      <c r="D94" s="109"/>
-      <c r="E94" s="105"/>
-      <c r="F94" s="109"/>
-      <c r="G94" s="105"/>
-      <c r="H94" s="109"/>
-      <c r="I94" s="105"/>
-      <c r="J94" s="109"/>
-      <c r="K94" s="105"/>
-      <c r="L94" s="113"/>
-      <c r="M94" s="114"/>
-      <c r="N94" s="95"/>
-      <c r="O94" s="100"/>
+      <c r="D94" s="110"/>
+      <c r="E94" s="111"/>
+      <c r="F94" s="110"/>
+      <c r="G94" s="111"/>
+      <c r="H94" s="110"/>
+      <c r="I94" s="111"/>
+      <c r="J94" s="110"/>
+      <c r="K94" s="111"/>
+      <c r="L94" s="116"/>
+      <c r="M94" s="117"/>
+      <c r="N94" s="122"/>
+      <c r="O94" s="123"/>
       <c r="P94" s="17"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" s="11"/>
       <c r="B95" s="48"/>
       <c r="C95" s="44"/>
-      <c r="D95" s="109"/>
-      <c r="E95" s="105"/>
-      <c r="F95" s="109"/>
-      <c r="G95" s="105"/>
-      <c r="H95" s="109"/>
-      <c r="I95" s="105"/>
-      <c r="J95" s="109"/>
-      <c r="K95" s="105"/>
-      <c r="L95" s="113"/>
-      <c r="M95" s="114"/>
-      <c r="N95" s="95"/>
-      <c r="O95" s="100"/>
+      <c r="D95" s="110"/>
+      <c r="E95" s="111"/>
+      <c r="F95" s="110"/>
+      <c r="G95" s="111"/>
+      <c r="H95" s="110"/>
+      <c r="I95" s="111"/>
+      <c r="J95" s="110"/>
+      <c r="K95" s="111"/>
+      <c r="L95" s="116"/>
+      <c r="M95" s="117"/>
+      <c r="N95" s="122"/>
+      <c r="O95" s="123"/>
       <c r="P95" s="17"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" s="11"/>
       <c r="B96" s="48"/>
       <c r="C96" s="44"/>
-      <c r="D96" s="109"/>
-      <c r="E96" s="105"/>
-      <c r="F96" s="109"/>
-      <c r="G96" s="105"/>
-      <c r="H96" s="109"/>
-      <c r="I96" s="105"/>
-      <c r="J96" s="109"/>
-      <c r="K96" s="105"/>
-      <c r="L96" s="113"/>
-      <c r="M96" s="114"/>
-      <c r="N96" s="95"/>
-      <c r="O96" s="100"/>
+      <c r="D96" s="110"/>
+      <c r="E96" s="111"/>
+      <c r="F96" s="110"/>
+      <c r="G96" s="111"/>
+      <c r="H96" s="110"/>
+      <c r="I96" s="111"/>
+      <c r="J96" s="110"/>
+      <c r="K96" s="111"/>
+      <c r="L96" s="116"/>
+      <c r="M96" s="117"/>
+      <c r="N96" s="122"/>
+      <c r="O96" s="123"/>
       <c r="P96" s="17"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="11"/>
       <c r="B97" s="48"/>
       <c r="C97" s="44"/>
-      <c r="D97" s="109"/>
-      <c r="E97" s="105"/>
-      <c r="F97" s="109"/>
-      <c r="G97" s="105"/>
-      <c r="H97" s="109"/>
-      <c r="I97" s="105"/>
-      <c r="J97" s="109"/>
-      <c r="K97" s="105"/>
-      <c r="L97" s="113"/>
-      <c r="M97" s="114"/>
-      <c r="N97" s="95"/>
-      <c r="O97" s="100"/>
+      <c r="D97" s="110"/>
+      <c r="E97" s="111"/>
+      <c r="F97" s="110"/>
+      <c r="G97" s="111"/>
+      <c r="H97" s="110"/>
+      <c r="I97" s="111"/>
+      <c r="J97" s="110"/>
+      <c r="K97" s="111"/>
+      <c r="L97" s="116"/>
+      <c r="M97" s="117"/>
+      <c r="N97" s="122"/>
+      <c r="O97" s="123"/>
       <c r="P97" s="17"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="11"/>
       <c r="B98" s="46"/>
       <c r="C98" s="38"/>
-      <c r="D98" s="110"/>
-      <c r="E98" s="107"/>
-      <c r="F98" s="110"/>
-      <c r="G98" s="107"/>
-      <c r="H98" s="110"/>
-      <c r="I98" s="107"/>
-      <c r="J98" s="110"/>
-      <c r="K98" s="107"/>
-      <c r="L98" s="115"/>
-      <c r="M98" s="116"/>
-      <c r="N98" s="97"/>
-      <c r="O98" s="101"/>
+      <c r="D98" s="112"/>
+      <c r="E98" s="113"/>
+      <c r="F98" s="112"/>
+      <c r="G98" s="113"/>
+      <c r="H98" s="112"/>
+      <c r="I98" s="113"/>
+      <c r="J98" s="112"/>
+      <c r="K98" s="113"/>
+      <c r="L98" s="118"/>
+      <c r="M98" s="119"/>
+      <c r="N98" s="124"/>
+      <c r="O98" s="125"/>
       <c r="P98" s="17"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.3">
@@ -5475,135 +5552,135 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="11"/>
-      <c r="B100" s="122">
+      <c r="B100" s="105">
         <v>27</v>
       </c>
-      <c r="C100" s="123"/>
-      <c r="D100" s="123">
+      <c r="C100" s="106"/>
+      <c r="D100" s="106">
         <v>28</v>
       </c>
-      <c r="E100" s="123"/>
-      <c r="F100" s="123">
+      <c r="E100" s="106"/>
+      <c r="F100" s="106">
         <v>29</v>
       </c>
-      <c r="G100" s="123"/>
-      <c r="H100" s="118">
+      <c r="G100" s="106"/>
+      <c r="H100" s="132">
         <v>30</v>
       </c>
-      <c r="I100" s="118"/>
-      <c r="J100" s="123">
+      <c r="I100" s="132"/>
+      <c r="J100" s="106">
         <v>31</v>
       </c>
-      <c r="K100" s="123"/>
+      <c r="K100" s="106"/>
       <c r="O100" s="21"/>
       <c r="P100" s="17"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" s="11"/>
-      <c r="B101" s="102"/>
-      <c r="C101" s="103"/>
+      <c r="B101" s="133"/>
+      <c r="C101" s="109"/>
       <c r="D101" s="108"/>
-      <c r="E101" s="103"/>
+      <c r="E101" s="109"/>
       <c r="F101" s="108"/>
-      <c r="G101" s="103"/>
+      <c r="G101" s="109"/>
       <c r="H101" s="108"/>
-      <c r="I101" s="103"/>
+      <c r="I101" s="109"/>
       <c r="J101" s="108"/>
-      <c r="K101" s="103"/>
-      <c r="L101" s="111"/>
-      <c r="M101" s="112"/>
-      <c r="N101" s="93"/>
-      <c r="O101" s="99"/>
+      <c r="K101" s="109"/>
+      <c r="L101" s="114"/>
+      <c r="M101" s="115"/>
+      <c r="N101" s="120"/>
+      <c r="O101" s="121"/>
       <c r="P101" s="17"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="11"/>
-      <c r="B102" s="104"/>
-      <c r="C102" s="105"/>
-      <c r="D102" s="109"/>
-      <c r="E102" s="105"/>
-      <c r="F102" s="109"/>
-      <c r="G102" s="105"/>
-      <c r="H102" s="109"/>
-      <c r="I102" s="105"/>
-      <c r="J102" s="109"/>
-      <c r="K102" s="105"/>
-      <c r="L102" s="113"/>
-      <c r="M102" s="114"/>
-      <c r="N102" s="95"/>
-      <c r="O102" s="100"/>
+      <c r="B102" s="134"/>
+      <c r="C102" s="111"/>
+      <c r="D102" s="110"/>
+      <c r="E102" s="111"/>
+      <c r="F102" s="110"/>
+      <c r="G102" s="111"/>
+      <c r="H102" s="110"/>
+      <c r="I102" s="111"/>
+      <c r="J102" s="110"/>
+      <c r="K102" s="111"/>
+      <c r="L102" s="116"/>
+      <c r="M102" s="117"/>
+      <c r="N102" s="122"/>
+      <c r="O102" s="123"/>
       <c r="P102" s="17"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="11"/>
-      <c r="B103" s="104"/>
-      <c r="C103" s="105"/>
-      <c r="D103" s="109"/>
-      <c r="E103" s="105"/>
-      <c r="F103" s="109"/>
-      <c r="G103" s="105"/>
-      <c r="H103" s="109"/>
-      <c r="I103" s="105"/>
-      <c r="J103" s="109"/>
-      <c r="K103" s="105"/>
-      <c r="L103" s="113"/>
-      <c r="M103" s="114"/>
-      <c r="N103" s="95"/>
-      <c r="O103" s="100"/>
+      <c r="B103" s="134"/>
+      <c r="C103" s="111"/>
+      <c r="D103" s="110"/>
+      <c r="E103" s="111"/>
+      <c r="F103" s="110"/>
+      <c r="G103" s="111"/>
+      <c r="H103" s="110"/>
+      <c r="I103" s="111"/>
+      <c r="J103" s="110"/>
+      <c r="K103" s="111"/>
+      <c r="L103" s="116"/>
+      <c r="M103" s="117"/>
+      <c r="N103" s="122"/>
+      <c r="O103" s="123"/>
       <c r="P103" s="17"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="11"/>
-      <c r="B104" s="104"/>
-      <c r="C104" s="105"/>
-      <c r="D104" s="109"/>
-      <c r="E104" s="105"/>
-      <c r="F104" s="109"/>
-      <c r="G104" s="105"/>
-      <c r="H104" s="109"/>
-      <c r="I104" s="105"/>
-      <c r="J104" s="109"/>
-      <c r="K104" s="105"/>
-      <c r="L104" s="113"/>
-      <c r="M104" s="114"/>
-      <c r="N104" s="95"/>
-      <c r="O104" s="100"/>
+      <c r="B104" s="134"/>
+      <c r="C104" s="111"/>
+      <c r="D104" s="110"/>
+      <c r="E104" s="111"/>
+      <c r="F104" s="110"/>
+      <c r="G104" s="111"/>
+      <c r="H104" s="110"/>
+      <c r="I104" s="111"/>
+      <c r="J104" s="110"/>
+      <c r="K104" s="111"/>
+      <c r="L104" s="116"/>
+      <c r="M104" s="117"/>
+      <c r="N104" s="122"/>
+      <c r="O104" s="123"/>
       <c r="P104" s="17"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" s="11"/>
-      <c r="B105" s="104"/>
-      <c r="C105" s="105"/>
-      <c r="D105" s="109"/>
-      <c r="E105" s="105"/>
-      <c r="F105" s="109"/>
-      <c r="G105" s="105"/>
-      <c r="H105" s="109"/>
-      <c r="I105" s="105"/>
-      <c r="J105" s="109"/>
-      <c r="K105" s="105"/>
-      <c r="L105" s="113"/>
-      <c r="M105" s="114"/>
-      <c r="N105" s="95"/>
-      <c r="O105" s="100"/>
+      <c r="B105" s="134"/>
+      <c r="C105" s="111"/>
+      <c r="D105" s="110"/>
+      <c r="E105" s="111"/>
+      <c r="F105" s="110"/>
+      <c r="G105" s="111"/>
+      <c r="H105" s="110"/>
+      <c r="I105" s="111"/>
+      <c r="J105" s="110"/>
+      <c r="K105" s="111"/>
+      <c r="L105" s="116"/>
+      <c r="M105" s="117"/>
+      <c r="N105" s="122"/>
+      <c r="O105" s="123"/>
       <c r="P105" s="17"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" s="11"/>
-      <c r="B106" s="106"/>
-      <c r="C106" s="107"/>
-      <c r="D106" s="110"/>
-      <c r="E106" s="107"/>
-      <c r="F106" s="110"/>
-      <c r="G106" s="107"/>
-      <c r="H106" s="110"/>
-      <c r="I106" s="107"/>
-      <c r="J106" s="110"/>
-      <c r="K106" s="107"/>
-      <c r="L106" s="115"/>
-      <c r="M106" s="116"/>
-      <c r="N106" s="97"/>
-      <c r="O106" s="101"/>
+      <c r="B106" s="135"/>
+      <c r="C106" s="113"/>
+      <c r="D106" s="112"/>
+      <c r="E106" s="113"/>
+      <c r="F106" s="112"/>
+      <c r="G106" s="113"/>
+      <c r="H106" s="112"/>
+      <c r="I106" s="113"/>
+      <c r="J106" s="112"/>
+      <c r="K106" s="113"/>
+      <c r="L106" s="118"/>
+      <c r="M106" s="119"/>
+      <c r="N106" s="124"/>
+      <c r="O106" s="125"/>
       <c r="P106" s="17"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.3">
@@ -5633,22 +5710,22 @@
     <row r="109" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="110" spans="1:16" ht="33.75" x14ac:dyDescent="0.3">
       <c r="A110" s="11"/>
-      <c r="B110" s="143" t="s">
+      <c r="B110" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="C110" s="144"/>
-      <c r="D110" s="144"/>
-      <c r="E110" s="144"/>
-      <c r="F110" s="144"/>
-      <c r="G110" s="144"/>
-      <c r="H110" s="144"/>
-      <c r="I110" s="144"/>
-      <c r="J110" s="144"/>
-      <c r="K110" s="144"/>
-      <c r="L110" s="144"/>
-      <c r="M110" s="144"/>
-      <c r="N110" s="144"/>
-      <c r="O110" s="145"/>
+      <c r="C110" s="127"/>
+      <c r="D110" s="127"/>
+      <c r="E110" s="127"/>
+      <c r="F110" s="127"/>
+      <c r="G110" s="127"/>
+      <c r="H110" s="127"/>
+      <c r="I110" s="127"/>
+      <c r="J110" s="127"/>
+      <c r="K110" s="127"/>
+      <c r="L110" s="127"/>
+      <c r="M110" s="127"/>
+      <c r="N110" s="127"/>
+      <c r="O110" s="128"/>
       <c r="P110" s="17"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.3">
@@ -5659,56 +5736,56 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" s="11"/>
-      <c r="B112" s="146" t="s">
+      <c r="B112" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="C112" s="133"/>
-      <c r="D112" s="133" t="s">
+      <c r="C112" s="130"/>
+      <c r="D112" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="E112" s="133"/>
-      <c r="F112" s="133" t="s">
+      <c r="E112" s="130"/>
+      <c r="F112" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="G112" s="133"/>
-      <c r="H112" s="133" t="s">
+      <c r="G112" s="130"/>
+      <c r="H112" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="I112" s="133"/>
-      <c r="J112" s="133" t="s">
+      <c r="I112" s="130"/>
+      <c r="J112" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="K112" s="133"/>
-      <c r="L112" s="133" t="s">
+      <c r="K112" s="130"/>
+      <c r="L112" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="M112" s="133"/>
-      <c r="N112" s="133" t="s">
+      <c r="M112" s="130"/>
+      <c r="N112" s="130" t="s">
         <v>45</v>
       </c>
-      <c r="O112" s="147"/>
+      <c r="O112" s="131"/>
       <c r="P112" s="17"/>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="11"/>
-      <c r="B113" s="122"/>
-      <c r="C113" s="123"/>
-      <c r="D113" s="123"/>
-      <c r="E113" s="123"/>
-      <c r="F113" s="123"/>
-      <c r="G113" s="123"/>
-      <c r="H113" s="123"/>
-      <c r="I113" s="123"/>
-      <c r="J113" s="123"/>
-      <c r="K113" s="123"/>
-      <c r="L113" s="123">
+      <c r="B113" s="105"/>
+      <c r="C113" s="106"/>
+      <c r="D113" s="106"/>
+      <c r="E113" s="106"/>
+      <c r="F113" s="106"/>
+      <c r="G113" s="106"/>
+      <c r="H113" s="106"/>
+      <c r="I113" s="106"/>
+      <c r="J113" s="106"/>
+      <c r="K113" s="106"/>
+      <c r="L113" s="106">
         <v>1</v>
       </c>
-      <c r="M113" s="123"/>
-      <c r="N113" s="123">
+      <c r="M113" s="106"/>
+      <c r="N113" s="106">
         <v>2</v>
       </c>
-      <c r="O113" s="134"/>
+      <c r="O113" s="107"/>
       <c r="P113" s="17"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.3">
@@ -5716,107 +5793,107 @@
       <c r="B114" s="45"/>
       <c r="C114" s="37"/>
       <c r="D114" s="108"/>
-      <c r="E114" s="103"/>
+      <c r="E114" s="109"/>
       <c r="F114" s="108"/>
-      <c r="G114" s="103"/>
+      <c r="G114" s="109"/>
       <c r="H114" s="108"/>
-      <c r="I114" s="103"/>
+      <c r="I114" s="109"/>
       <c r="J114" s="108"/>
-      <c r="K114" s="103"/>
-      <c r="L114" s="111"/>
-      <c r="M114" s="112"/>
-      <c r="N114" s="93"/>
-      <c r="O114" s="99"/>
+      <c r="K114" s="109"/>
+      <c r="L114" s="114"/>
+      <c r="M114" s="115"/>
+      <c r="N114" s="120"/>
+      <c r="O114" s="121"/>
       <c r="P114" s="17"/>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" s="11"/>
       <c r="B115" s="46"/>
       <c r="C115" s="38"/>
-      <c r="D115" s="109"/>
-      <c r="E115" s="105"/>
-      <c r="F115" s="109"/>
-      <c r="G115" s="105"/>
-      <c r="H115" s="109"/>
-      <c r="I115" s="105"/>
-      <c r="J115" s="109"/>
-      <c r="K115" s="105"/>
-      <c r="L115" s="113"/>
-      <c r="M115" s="114"/>
-      <c r="N115" s="95"/>
-      <c r="O115" s="100"/>
+      <c r="D115" s="110"/>
+      <c r="E115" s="111"/>
+      <c r="F115" s="110"/>
+      <c r="G115" s="111"/>
+      <c r="H115" s="110"/>
+      <c r="I115" s="111"/>
+      <c r="J115" s="110"/>
+      <c r="K115" s="111"/>
+      <c r="L115" s="116"/>
+      <c r="M115" s="117"/>
+      <c r="N115" s="122"/>
+      <c r="O115" s="123"/>
       <c r="P115" s="17"/>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" s="11"/>
       <c r="B116" s="46"/>
       <c r="C116" s="38"/>
-      <c r="D116" s="109"/>
-      <c r="E116" s="105"/>
-      <c r="F116" s="109"/>
-      <c r="G116" s="105"/>
-      <c r="H116" s="109"/>
-      <c r="I116" s="105"/>
-      <c r="J116" s="109"/>
-      <c r="K116" s="105"/>
-      <c r="L116" s="113"/>
-      <c r="M116" s="114"/>
-      <c r="N116" s="95"/>
-      <c r="O116" s="100"/>
+      <c r="D116" s="110"/>
+      <c r="E116" s="111"/>
+      <c r="F116" s="110"/>
+      <c r="G116" s="111"/>
+      <c r="H116" s="110"/>
+      <c r="I116" s="111"/>
+      <c r="J116" s="110"/>
+      <c r="K116" s="111"/>
+      <c r="L116" s="116"/>
+      <c r="M116" s="117"/>
+      <c r="N116" s="122"/>
+      <c r="O116" s="123"/>
       <c r="P116" s="17"/>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" s="11"/>
       <c r="B117" s="46"/>
       <c r="C117" s="38"/>
-      <c r="D117" s="109"/>
-      <c r="E117" s="105"/>
-      <c r="F117" s="109"/>
-      <c r="G117" s="105"/>
-      <c r="H117" s="109"/>
-      <c r="I117" s="105"/>
-      <c r="J117" s="109"/>
-      <c r="K117" s="105"/>
-      <c r="L117" s="113"/>
-      <c r="M117" s="114"/>
-      <c r="N117" s="95"/>
-      <c r="O117" s="100"/>
+      <c r="D117" s="110"/>
+      <c r="E117" s="111"/>
+      <c r="F117" s="110"/>
+      <c r="G117" s="111"/>
+      <c r="H117" s="110"/>
+      <c r="I117" s="111"/>
+      <c r="J117" s="110"/>
+      <c r="K117" s="111"/>
+      <c r="L117" s="116"/>
+      <c r="M117" s="117"/>
+      <c r="N117" s="122"/>
+      <c r="O117" s="123"/>
       <c r="P117" s="17"/>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" s="11"/>
       <c r="B118" s="46"/>
       <c r="C118" s="38"/>
-      <c r="D118" s="109"/>
-      <c r="E118" s="105"/>
-      <c r="F118" s="109"/>
-      <c r="G118" s="105"/>
-      <c r="H118" s="109"/>
-      <c r="I118" s="105"/>
-      <c r="J118" s="109"/>
-      <c r="K118" s="105"/>
-      <c r="L118" s="113"/>
-      <c r="M118" s="114"/>
-      <c r="N118" s="95"/>
-      <c r="O118" s="100"/>
+      <c r="D118" s="110"/>
+      <c r="E118" s="111"/>
+      <c r="F118" s="110"/>
+      <c r="G118" s="111"/>
+      <c r="H118" s="110"/>
+      <c r="I118" s="111"/>
+      <c r="J118" s="110"/>
+      <c r="K118" s="111"/>
+      <c r="L118" s="116"/>
+      <c r="M118" s="117"/>
+      <c r="N118" s="122"/>
+      <c r="O118" s="123"/>
       <c r="P118" s="17"/>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="11"/>
       <c r="B119" s="46"/>
       <c r="C119" s="38"/>
-      <c r="D119" s="110"/>
-      <c r="E119" s="107"/>
-      <c r="F119" s="110"/>
-      <c r="G119" s="107"/>
-      <c r="H119" s="110"/>
-      <c r="I119" s="107"/>
-      <c r="J119" s="110"/>
-      <c r="K119" s="107"/>
-      <c r="L119" s="115"/>
-      <c r="M119" s="116"/>
-      <c r="N119" s="97"/>
-      <c r="O119" s="101"/>
+      <c r="D119" s="112"/>
+      <c r="E119" s="113"/>
+      <c r="F119" s="112"/>
+      <c r="G119" s="113"/>
+      <c r="H119" s="112"/>
+      <c r="I119" s="113"/>
+      <c r="J119" s="112"/>
+      <c r="K119" s="113"/>
+      <c r="L119" s="118"/>
+      <c r="M119" s="119"/>
+      <c r="N119" s="124"/>
+      <c r="O119" s="125"/>
       <c r="P119" s="17"/>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.3">
@@ -5839,26 +5916,26 @@
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" s="11"/>
-      <c r="B121" s="122">
+      <c r="B121" s="105">
         <v>3</v>
       </c>
-      <c r="C121" s="123"/>
-      <c r="D121" s="123">
+      <c r="C121" s="106"/>
+      <c r="D121" s="106">
         <v>4</v>
       </c>
-      <c r="E121" s="123"/>
-      <c r="F121" s="123">
+      <c r="E121" s="106"/>
+      <c r="F121" s="106">
         <v>5</v>
       </c>
-      <c r="G121" s="123"/>
-      <c r="H121" s="123"/>
-      <c r="I121" s="123"/>
-      <c r="J121" s="123"/>
-      <c r="K121" s="123"/>
-      <c r="L121" s="123"/>
-      <c r="M121" s="123"/>
-      <c r="N121" s="123"/>
-      <c r="O121" s="134"/>
+      <c r="G121" s="106"/>
+      <c r="H121" s="106"/>
+      <c r="I121" s="106"/>
+      <c r="J121" s="106"/>
+      <c r="K121" s="106"/>
+      <c r="L121" s="106"/>
+      <c r="M121" s="106"/>
+      <c r="N121" s="106"/>
+      <c r="O121" s="107"/>
       <c r="P121" s="17"/>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.3">
@@ -5868,117 +5945,117 @@
       <c r="D122" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="E122" s="103"/>
+      <c r="E122" s="109"/>
       <c r="F122" s="108"/>
-      <c r="G122" s="103"/>
+      <c r="G122" s="109"/>
       <c r="H122" s="108"/>
-      <c r="I122" s="103"/>
+      <c r="I122" s="109"/>
       <c r="J122" s="108"/>
-      <c r="K122" s="103"/>
-      <c r="L122" s="111"/>
-      <c r="M122" s="112"/>
-      <c r="N122" s="93"/>
-      <c r="O122" s="99"/>
+      <c r="K122" s="109"/>
+      <c r="L122" s="114"/>
+      <c r="M122" s="115"/>
+      <c r="N122" s="120"/>
+      <c r="O122" s="121"/>
       <c r="P122" s="17"/>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" s="11"/>
       <c r="B123" s="47"/>
       <c r="C123" s="40"/>
-      <c r="D123" s="109"/>
-      <c r="E123" s="105"/>
-      <c r="F123" s="109"/>
-      <c r="G123" s="105"/>
-      <c r="H123" s="109"/>
-      <c r="I123" s="105"/>
-      <c r="J123" s="109"/>
-      <c r="K123" s="105"/>
-      <c r="L123" s="113"/>
-      <c r="M123" s="114"/>
-      <c r="N123" s="95"/>
-      <c r="O123" s="100"/>
+      <c r="D123" s="110"/>
+      <c r="E123" s="111"/>
+      <c r="F123" s="110"/>
+      <c r="G123" s="111"/>
+      <c r="H123" s="110"/>
+      <c r="I123" s="111"/>
+      <c r="J123" s="110"/>
+      <c r="K123" s="111"/>
+      <c r="L123" s="116"/>
+      <c r="M123" s="117"/>
+      <c r="N123" s="122"/>
+      <c r="O123" s="123"/>
       <c r="P123" s="17"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" s="11"/>
       <c r="B124" s="47"/>
       <c r="C124" s="40"/>
-      <c r="D124" s="109"/>
-      <c r="E124" s="105"/>
-      <c r="F124" s="109"/>
-      <c r="G124" s="105"/>
-      <c r="H124" s="109"/>
-      <c r="I124" s="105"/>
-      <c r="J124" s="109"/>
-      <c r="K124" s="105"/>
-      <c r="L124" s="113"/>
-      <c r="M124" s="114"/>
-      <c r="N124" s="95"/>
-      <c r="O124" s="100"/>
+      <c r="D124" s="110"/>
+      <c r="E124" s="111"/>
+      <c r="F124" s="110"/>
+      <c r="G124" s="111"/>
+      <c r="H124" s="110"/>
+      <c r="I124" s="111"/>
+      <c r="J124" s="110"/>
+      <c r="K124" s="111"/>
+      <c r="L124" s="116"/>
+      <c r="M124" s="117"/>
+      <c r="N124" s="122"/>
+      <c r="O124" s="123"/>
       <c r="P124" s="17"/>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" s="11"/>
       <c r="B125" s="47"/>
       <c r="C125" s="40"/>
-      <c r="D125" s="109"/>
-      <c r="E125" s="105"/>
-      <c r="F125" s="109"/>
-      <c r="G125" s="105"/>
-      <c r="H125" s="109"/>
-      <c r="I125" s="105"/>
-      <c r="J125" s="109"/>
-      <c r="K125" s="105"/>
-      <c r="L125" s="113"/>
-      <c r="M125" s="114"/>
-      <c r="N125" s="95"/>
-      <c r="O125" s="100"/>
+      <c r="D125" s="110"/>
+      <c r="E125" s="111"/>
+      <c r="F125" s="110"/>
+      <c r="G125" s="111"/>
+      <c r="H125" s="110"/>
+      <c r="I125" s="111"/>
+      <c r="J125" s="110"/>
+      <c r="K125" s="111"/>
+      <c r="L125" s="116"/>
+      <c r="M125" s="117"/>
+      <c r="N125" s="122"/>
+      <c r="O125" s="123"/>
       <c r="P125" s="17"/>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" s="11"/>
       <c r="B126" s="48"/>
       <c r="C126" s="41"/>
-      <c r="D126" s="109"/>
-      <c r="E126" s="105"/>
-      <c r="F126" s="109"/>
-      <c r="G126" s="105"/>
-      <c r="H126" s="109"/>
-      <c r="I126" s="105"/>
-      <c r="J126" s="109"/>
-      <c r="K126" s="105"/>
-      <c r="L126" s="113"/>
-      <c r="M126" s="114"/>
-      <c r="N126" s="95"/>
-      <c r="O126" s="100"/>
+      <c r="D126" s="110"/>
+      <c r="E126" s="111"/>
+      <c r="F126" s="110"/>
+      <c r="G126" s="111"/>
+      <c r="H126" s="110"/>
+      <c r="I126" s="111"/>
+      <c r="J126" s="110"/>
+      <c r="K126" s="111"/>
+      <c r="L126" s="116"/>
+      <c r="M126" s="117"/>
+      <c r="N126" s="122"/>
+      <c r="O126" s="123"/>
       <c r="P126" s="17"/>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" s="11"/>
       <c r="B127" s="46"/>
       <c r="C127" s="38"/>
-      <c r="D127" s="110"/>
-      <c r="E127" s="107"/>
-      <c r="F127" s="110"/>
-      <c r="G127" s="107"/>
-      <c r="H127" s="110"/>
-      <c r="I127" s="107"/>
-      <c r="J127" s="110"/>
-      <c r="K127" s="107"/>
-      <c r="L127" s="115"/>
-      <c r="M127" s="116"/>
-      <c r="N127" s="97"/>
-      <c r="O127" s="101"/>
+      <c r="D127" s="112"/>
+      <c r="E127" s="113"/>
+      <c r="F127" s="112"/>
+      <c r="G127" s="113"/>
+      <c r="H127" s="112"/>
+      <c r="I127" s="113"/>
+      <c r="J127" s="112"/>
+      <c r="K127" s="113"/>
+      <c r="L127" s="118"/>
+      <c r="M127" s="119"/>
+      <c r="N127" s="124"/>
+      <c r="O127" s="125"/>
       <c r="P127" s="17"/>
     </row>
     <row r="128" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="11"/>
       <c r="B128" s="55"/>
       <c r="C128" s="56"/>
-      <c r="D128" s="179" t="s">
+      <c r="D128" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="E128" s="180"/>
+      <c r="E128" s="104"/>
       <c r="F128" s="57"/>
       <c r="G128" s="58"/>
       <c r="H128" s="57"/>
@@ -6009,6 +6086,207 @@
     </row>
   </sheetData>
   <mergeCells count="225">
+    <mergeCell ref="L57:M62"/>
+    <mergeCell ref="N57:O62"/>
+    <mergeCell ref="B57:C62"/>
+    <mergeCell ref="D57:E62"/>
+    <mergeCell ref="F57:G62"/>
+    <mergeCell ref="H57:I62"/>
+    <mergeCell ref="J57:K62"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="J49:K54"/>
+    <mergeCell ref="L49:M54"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="N41:O46"/>
+    <mergeCell ref="B41:C46"/>
+    <mergeCell ref="D41:E46"/>
+    <mergeCell ref="F41:G46"/>
+    <mergeCell ref="H41:I46"/>
+    <mergeCell ref="J41:K46"/>
+    <mergeCell ref="L41:M46"/>
+    <mergeCell ref="D49:E54"/>
+    <mergeCell ref="F49:G54"/>
+    <mergeCell ref="H49:I54"/>
+    <mergeCell ref="N49:O54"/>
+    <mergeCell ref="B49:C54"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="B33:C38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="L33:M38"/>
+    <mergeCell ref="N33:O38"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="D33:K38"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="B25:C30"/>
+    <mergeCell ref="L25:M26"/>
+    <mergeCell ref="L27:M28"/>
+    <mergeCell ref="D31:K31"/>
+    <mergeCell ref="D25:K30"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="F14:G18"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="B6:C11"/>
+    <mergeCell ref="D6:E11"/>
+    <mergeCell ref="F6:G11"/>
+    <mergeCell ref="H6:I11"/>
+    <mergeCell ref="J6:K11"/>
+    <mergeCell ref="H14:I16"/>
+    <mergeCell ref="L6:M11"/>
+    <mergeCell ref="N6:O11"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B14:C18"/>
+    <mergeCell ref="D14:E18"/>
+    <mergeCell ref="J17:K18"/>
+    <mergeCell ref="J14:K16"/>
+    <mergeCell ref="L14:O18"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="H47:O47"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B65:O65"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B21:O21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="D69:E74"/>
+    <mergeCell ref="F69:G74"/>
+    <mergeCell ref="H69:I74"/>
+    <mergeCell ref="J69:K74"/>
+    <mergeCell ref="L69:M74"/>
+    <mergeCell ref="N69:O74"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="D77:E82"/>
+    <mergeCell ref="F77:G82"/>
+    <mergeCell ref="H77:I82"/>
+    <mergeCell ref="J77:K82"/>
+    <mergeCell ref="L77:M82"/>
+    <mergeCell ref="N77:O82"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="D85:E90"/>
+    <mergeCell ref="F85:G90"/>
+    <mergeCell ref="H85:I90"/>
+    <mergeCell ref="J85:K90"/>
+    <mergeCell ref="L85:M90"/>
+    <mergeCell ref="N85:O90"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="D93:E98"/>
+    <mergeCell ref="F93:G98"/>
+    <mergeCell ref="H93:I98"/>
+    <mergeCell ref="J93:K98"/>
+    <mergeCell ref="L93:M98"/>
+    <mergeCell ref="N93:O98"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="B101:C106"/>
+    <mergeCell ref="D101:E106"/>
+    <mergeCell ref="F101:G106"/>
+    <mergeCell ref="H101:I106"/>
+    <mergeCell ref="J101:K106"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="F114:G119"/>
+    <mergeCell ref="H114:I119"/>
+    <mergeCell ref="J114:K119"/>
+    <mergeCell ref="L114:M119"/>
+    <mergeCell ref="N114:O119"/>
+    <mergeCell ref="L101:M106"/>
+    <mergeCell ref="N101:O106"/>
+    <mergeCell ref="B110:O110"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
     <mergeCell ref="P13:U16"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="D128:E128"/>
@@ -6033,207 +6311,6 @@
     <mergeCell ref="L113:M113"/>
     <mergeCell ref="N113:O113"/>
     <mergeCell ref="D114:E119"/>
-    <mergeCell ref="F114:G119"/>
-    <mergeCell ref="H114:I119"/>
-    <mergeCell ref="J114:K119"/>
-    <mergeCell ref="L114:M119"/>
-    <mergeCell ref="N114:O119"/>
-    <mergeCell ref="L101:M106"/>
-    <mergeCell ref="N101:O106"/>
-    <mergeCell ref="B110:O110"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="J112:K112"/>
-    <mergeCell ref="L112:M112"/>
-    <mergeCell ref="N112:O112"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="B101:C106"/>
-    <mergeCell ref="D101:E106"/>
-    <mergeCell ref="F101:G106"/>
-    <mergeCell ref="H101:I106"/>
-    <mergeCell ref="J101:K106"/>
-    <mergeCell ref="J100:K100"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="L92:M92"/>
-    <mergeCell ref="N92:O92"/>
-    <mergeCell ref="D93:E98"/>
-    <mergeCell ref="F93:G98"/>
-    <mergeCell ref="H93:I98"/>
-    <mergeCell ref="J93:K98"/>
-    <mergeCell ref="L93:M98"/>
-    <mergeCell ref="N93:O98"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="L84:M84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="D85:E90"/>
-    <mergeCell ref="F85:G90"/>
-    <mergeCell ref="H85:I90"/>
-    <mergeCell ref="J85:K90"/>
-    <mergeCell ref="L85:M90"/>
-    <mergeCell ref="N85:O90"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="D77:E82"/>
-    <mergeCell ref="F77:G82"/>
-    <mergeCell ref="H77:I82"/>
-    <mergeCell ref="J77:K82"/>
-    <mergeCell ref="L77:M82"/>
-    <mergeCell ref="N77:O82"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="D69:E74"/>
-    <mergeCell ref="F69:G74"/>
-    <mergeCell ref="H69:I74"/>
-    <mergeCell ref="J69:K74"/>
-    <mergeCell ref="L69:M74"/>
-    <mergeCell ref="N69:O74"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="H47:O47"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B65:O65"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B21:O21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L6:M11"/>
-    <mergeCell ref="N6:O11"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B14:C18"/>
-    <mergeCell ref="D14:E18"/>
-    <mergeCell ref="J17:K18"/>
-    <mergeCell ref="J14:K16"/>
-    <mergeCell ref="L14:O18"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="F14:G18"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="B6:C11"/>
-    <mergeCell ref="D6:E11"/>
-    <mergeCell ref="F6:G11"/>
-    <mergeCell ref="H6:I11"/>
-    <mergeCell ref="J6:K11"/>
-    <mergeCell ref="H14:I16"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:O30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="B25:C30"/>
-    <mergeCell ref="L25:M26"/>
-    <mergeCell ref="L27:M28"/>
-    <mergeCell ref="D31:K31"/>
-    <mergeCell ref="D25:K30"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="B33:C38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="L33:M38"/>
-    <mergeCell ref="N33:O38"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="D33:K38"/>
-    <mergeCell ref="J49:K54"/>
-    <mergeCell ref="L49:M54"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="N41:O46"/>
-    <mergeCell ref="B41:C46"/>
-    <mergeCell ref="D41:E46"/>
-    <mergeCell ref="F41:G46"/>
-    <mergeCell ref="H41:I46"/>
-    <mergeCell ref="J41:K46"/>
-    <mergeCell ref="L41:M46"/>
-    <mergeCell ref="D49:E54"/>
-    <mergeCell ref="F49:G54"/>
-    <mergeCell ref="H49:I54"/>
-    <mergeCell ref="N49:O54"/>
-    <mergeCell ref="B49:C54"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="L57:M62"/>
-    <mergeCell ref="N57:O62"/>
-    <mergeCell ref="B57:C62"/>
-    <mergeCell ref="D57:E62"/>
-    <mergeCell ref="F57:G62"/>
-    <mergeCell ref="H57:I62"/>
-    <mergeCell ref="J57:K62"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:G56"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8601,6 +8678,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="H33:H34"/>
     <mergeCell ref="H101:H102"/>
     <mergeCell ref="H113:H114"/>
     <mergeCell ref="H123:H124"/>
@@ -8610,12 +8693,6 @@
     <mergeCell ref="H65:H66"/>
     <mergeCell ref="H73:H74"/>
     <mergeCell ref="H84:H85"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="H33:H34"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8647,19 +8724,19 @@
       <c r="G2" s="187"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="174"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
       <c r="G3" s="188"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="174"/>
-      <c r="C4" s="159"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="159"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
       <c r="G4" s="188"/>
     </row>
     <row r="5" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -8895,10 +8972,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8976,15 +9053,31 @@
         <v>369</v>
       </c>
       <c r="B9" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="82" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B10" t="s">
         <v>373</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="82" t="s">
+        <v>371</v>
+      </c>
+      <c r="B11" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="82" t="s">
+        <v>375</v>
+      </c>
+      <c r="B12" t="s">
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -8997,8 +9090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9756,5 +9849,7 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/WAS계획서 및 일지.xlsx
+++ b/WAS계획서 및 일지.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="28035" windowHeight="12345" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="28035" windowHeight="12345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="역할분담" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="381">
   <si>
     <t>2019년 8월</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -1530,6 +1530,18 @@
   </si>
   <si>
     <t>사원등록/생산품등록/배송유무등록/생산재고등록 페이지 구현, 클래스 설계 설명서 작성, 메뉴부분 공통코드로 빼기</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>09월 11일</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>09월 12일</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>사원등록(우편번호 검색기)/생산품등록/배송유무등록/생산재고등록 페이지 구현, 클래스 설계</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2749,6 +2761,240 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="34" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="34" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="32" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2761,16 +3007,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2783,234 +3023,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="32" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="34" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3535,9 +3547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V129"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Z35" sqref="Z35"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3572,22 +3582,22 @@
     </row>
     <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="128"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="144"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="145"/>
       <c r="P2" s="17"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
@@ -3598,178 +3608,178 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
-      <c r="B4" s="129" t="s">
+      <c r="B4" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130" t="s">
+      <c r="C4" s="133"/>
+      <c r="D4" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130" t="s">
+      <c r="E4" s="133"/>
+      <c r="F4" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130" t="s">
+      <c r="G4" s="133"/>
+      <c r="H4" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130" t="s">
+      <c r="I4" s="133"/>
+      <c r="J4" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="130"/>
-      <c r="L4" s="130" t="s">
+      <c r="K4" s="133"/>
+      <c r="L4" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="130"/>
-      <c r="N4" s="130" t="s">
+      <c r="M4" s="133"/>
+      <c r="N4" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="131"/>
+      <c r="O4" s="147"/>
       <c r="P4" s="17"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
-      <c r="B5" s="105">
+      <c r="B5" s="122">
         <v>18</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106">
+      <c r="C5" s="123"/>
+      <c r="D5" s="123">
         <v>19</v>
       </c>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106">
+      <c r="E5" s="123"/>
+      <c r="F5" s="123">
         <v>20</v>
       </c>
-      <c r="G5" s="106"/>
-      <c r="H5" s="132">
+      <c r="G5" s="123"/>
+      <c r="H5" s="118">
         <v>21</v>
       </c>
-      <c r="I5" s="132"/>
-      <c r="J5" s="132">
+      <c r="I5" s="118"/>
+      <c r="J5" s="118">
         <v>22</v>
       </c>
-      <c r="K5" s="132"/>
-      <c r="L5" s="132">
+      <c r="K5" s="118"/>
+      <c r="L5" s="118">
         <v>23</v>
       </c>
-      <c r="M5" s="132"/>
-      <c r="N5" s="132">
+      <c r="M5" s="118"/>
+      <c r="N5" s="118">
         <v>24</v>
       </c>
-      <c r="O5" s="136"/>
+      <c r="O5" s="121"/>
       <c r="P5" s="17"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
-      <c r="B6" s="133"/>
-      <c r="C6" s="109"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="103"/>
       <c r="D6" s="108"/>
-      <c r="E6" s="109"/>
+      <c r="E6" s="103"/>
       <c r="F6" s="108"/>
-      <c r="G6" s="109"/>
+      <c r="G6" s="103"/>
       <c r="H6" s="108"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="114" t="s">
+      <c r="I6" s="103"/>
+      <c r="J6" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="115"/>
-      <c r="L6" s="120" t="s">
+      <c r="K6" s="112"/>
+      <c r="L6" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="149"/>
-      <c r="N6" s="120"/>
-      <c r="O6" s="121"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="99"/>
       <c r="P6" s="17"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
-      <c r="B7" s="134"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="122"/>
-      <c r="M7" s="150"/>
-      <c r="N7" s="122"/>
-      <c r="O7" s="123"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="113"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="100"/>
       <c r="P7" s="17"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
-      <c r="B8" s="134"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="117"/>
-      <c r="L8" s="122"/>
-      <c r="M8" s="150"/>
-      <c r="N8" s="122"/>
-      <c r="O8" s="123"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="100"/>
       <c r="P8" s="17"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
-      <c r="B9" s="134"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="122"/>
-      <c r="M9" s="150"/>
-      <c r="N9" s="122"/>
-      <c r="O9" s="123"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="113"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="100"/>
       <c r="P9" s="17"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
-      <c r="B10" s="134"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="122"/>
-      <c r="M10" s="150"/>
-      <c r="N10" s="122"/>
-      <c r="O10" s="123"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="100"/>
       <c r="P10" s="17"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
-      <c r="B11" s="135"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="119"/>
-      <c r="L11" s="124"/>
-      <c r="M11" s="151"/>
-      <c r="N11" s="124"/>
-      <c r="O11" s="125"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="116"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="98"/>
+      <c r="N11" s="97"/>
+      <c r="O11" s="101"/>
       <c r="P11" s="17"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -3782,196 +3792,196 @@
       <c r="G12" s="9"/>
       <c r="H12" s="8"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="152" t="s">
+      <c r="J12" s="154" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="153"/>
-      <c r="L12" s="153"/>
-      <c r="M12" s="154"/>
+      <c r="K12" s="155"/>
+      <c r="L12" s="155"/>
+      <c r="M12" s="156"/>
       <c r="N12" s="10"/>
       <c r="O12" s="23"/>
       <c r="P12" s="17"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
-      <c r="B13" s="155">
+      <c r="B13" s="157">
         <v>25</v>
       </c>
-      <c r="C13" s="156"/>
-      <c r="D13" s="156">
+      <c r="C13" s="158"/>
+      <c r="D13" s="158">
         <v>26</v>
       </c>
-      <c r="E13" s="156"/>
-      <c r="F13" s="156">
+      <c r="E13" s="158"/>
+      <c r="F13" s="158">
         <v>27</v>
       </c>
-      <c r="G13" s="156"/>
-      <c r="H13" s="157">
+      <c r="G13" s="158"/>
+      <c r="H13" s="150">
         <v>28</v>
       </c>
-      <c r="I13" s="157"/>
-      <c r="J13" s="157">
+      <c r="I13" s="150"/>
+      <c r="J13" s="150">
         <v>29</v>
       </c>
-      <c r="K13" s="157"/>
-      <c r="L13" s="157">
+      <c r="K13" s="150"/>
+      <c r="L13" s="150">
         <v>30</v>
       </c>
-      <c r="M13" s="157"/>
-      <c r="N13" s="157">
+      <c r="M13" s="150"/>
+      <c r="N13" s="150">
         <v>31</v>
       </c>
-      <c r="O13" s="168"/>
-      <c r="P13" s="93" t="s">
+      <c r="O13" s="151"/>
+      <c r="P13" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="94"/>
-      <c r="S13" s="94"/>
-      <c r="T13" s="94"/>
-      <c r="U13" s="95"/>
+      <c r="Q13" s="172"/>
+      <c r="R13" s="172"/>
+      <c r="S13" s="172"/>
+      <c r="T13" s="172"/>
+      <c r="U13" s="173"/>
     </row>
     <row r="14" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
-      <c r="B14" s="133"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="158" t="s">
+      <c r="B14" s="102"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="109"/>
-      <c r="F14" s="158" t="s">
+      <c r="E14" s="103"/>
+      <c r="F14" s="148" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="161"/>
-      <c r="H14" s="159" t="s">
+      <c r="G14" s="135"/>
+      <c r="H14" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="159"/>
-      <c r="J14" s="159" t="s">
+      <c r="I14" s="152"/>
+      <c r="J14" s="152" t="s">
         <v>276</v>
       </c>
-      <c r="K14" s="159"/>
-      <c r="L14" s="161" t="s">
+      <c r="K14" s="152"/>
+      <c r="L14" s="135" t="s">
         <v>359</v>
       </c>
-      <c r="M14" s="161"/>
-      <c r="N14" s="161"/>
-      <c r="O14" s="162"/>
-      <c r="P14" s="96"/>
-      <c r="Q14" s="97"/>
-      <c r="R14" s="97"/>
-      <c r="S14" s="97"/>
-      <c r="T14" s="97"/>
-      <c r="U14" s="98"/>
+      <c r="M14" s="135"/>
+      <c r="N14" s="135"/>
+      <c r="O14" s="136"/>
+      <c r="P14" s="174"/>
+      <c r="Q14" s="159"/>
+      <c r="R14" s="159"/>
+      <c r="S14" s="159"/>
+      <c r="T14" s="159"/>
+      <c r="U14" s="175"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
-      <c r="B15" s="134"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="160"/>
-      <c r="I15" s="160"/>
-      <c r="J15" s="160"/>
-      <c r="K15" s="160"/>
-      <c r="L15" s="163"/>
-      <c r="M15" s="163"/>
-      <c r="N15" s="163"/>
-      <c r="O15" s="164"/>
-      <c r="P15" s="96"/>
-      <c r="Q15" s="97"/>
-      <c r="R15" s="97"/>
-      <c r="S15" s="97"/>
-      <c r="T15" s="97"/>
-      <c r="U15" s="98"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="153"/>
+      <c r="I15" s="153"/>
+      <c r="J15" s="153"/>
+      <c r="K15" s="153"/>
+      <c r="L15" s="137"/>
+      <c r="M15" s="137"/>
+      <c r="N15" s="137"/>
+      <c r="O15" s="138"/>
+      <c r="P15" s="174"/>
+      <c r="Q15" s="159"/>
+      <c r="R15" s="159"/>
+      <c r="S15" s="159"/>
+      <c r="T15" s="159"/>
+      <c r="U15" s="175"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
-      <c r="B16" s="134"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="163"/>
-      <c r="H16" s="160"/>
-      <c r="I16" s="160"/>
-      <c r="J16" s="160"/>
-      <c r="K16" s="160"/>
-      <c r="L16" s="163"/>
-      <c r="M16" s="163"/>
-      <c r="N16" s="163"/>
-      <c r="O16" s="164"/>
-      <c r="P16" s="99"/>
-      <c r="Q16" s="100"/>
-      <c r="R16" s="100"/>
-      <c r="S16" s="100"/>
-      <c r="T16" s="100"/>
-      <c r="U16" s="101"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="149"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="137"/>
+      <c r="M16" s="137"/>
+      <c r="N16" s="137"/>
+      <c r="O16" s="138"/>
+      <c r="P16" s="176"/>
+      <c r="Q16" s="160"/>
+      <c r="R16" s="160"/>
+      <c r="S16" s="160"/>
+      <c r="T16" s="160"/>
+      <c r="U16" s="177"/>
     </row>
     <row r="17" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
-      <c r="B17" s="134"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="163"/>
-      <c r="H17" s="160" t="s">
+      <c r="B17" s="104"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="153" t="s">
         <v>54</v>
       </c>
-      <c r="I17" s="160"/>
-      <c r="J17" s="97" t="s">
+      <c r="I17" s="153"/>
+      <c r="J17" s="159" t="s">
         <v>360</v>
       </c>
-      <c r="K17" s="97"/>
-      <c r="L17" s="163"/>
-      <c r="M17" s="163"/>
-      <c r="N17" s="163"/>
-      <c r="O17" s="164"/>
+      <c r="K17" s="159"/>
+      <c r="L17" s="137"/>
+      <c r="M17" s="137"/>
+      <c r="N17" s="137"/>
+      <c r="O17" s="138"/>
       <c r="P17" s="17"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
-      <c r="B18" s="134"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="163"/>
-      <c r="H18" s="102" t="s">
+      <c r="B18" s="104"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="149"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="178" t="s">
         <v>280</v>
       </c>
-      <c r="I18" s="102"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="165"/>
-      <c r="M18" s="165"/>
-      <c r="N18" s="165"/>
-      <c r="O18" s="166"/>
+      <c r="I18" s="178"/>
+      <c r="J18" s="160"/>
+      <c r="K18" s="160"/>
+      <c r="L18" s="139"/>
+      <c r="M18" s="139"/>
+      <c r="N18" s="139"/>
+      <c r="O18" s="140"/>
       <c r="P18" s="17"/>
     </row>
     <row r="19" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
       <c r="B19" s="24"/>
       <c r="C19" s="25"/>
-      <c r="D19" s="139" t="s">
+      <c r="D19" s="161" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="141" t="s">
+      <c r="E19" s="162"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="162"/>
+      <c r="H19" s="163" t="s">
         <v>51</v>
       </c>
-      <c r="I19" s="141"/>
-      <c r="J19" s="141"/>
-      <c r="K19" s="141"/>
-      <c r="L19" s="141"/>
-      <c r="M19" s="141"/>
-      <c r="N19" s="141"/>
-      <c r="O19" s="142"/>
+      <c r="I19" s="163"/>
+      <c r="J19" s="163"/>
+      <c r="K19" s="163"/>
+      <c r="L19" s="163"/>
+      <c r="M19" s="163"/>
+      <c r="N19" s="163"/>
+      <c r="O19" s="164"/>
       <c r="P19" s="17"/>
     </row>
     <row r="20" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3992,22 +4002,22 @@
     </row>
     <row r="21" spans="1:16" ht="33.75" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
-      <c r="B21" s="126" t="s">
+      <c r="B21" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="127"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="127"/>
-      <c r="H21" s="127"/>
-      <c r="I21" s="127"/>
-      <c r="J21" s="127"/>
-      <c r="K21" s="127"/>
-      <c r="L21" s="127"/>
-      <c r="M21" s="127"/>
-      <c r="N21" s="127"/>
-      <c r="O21" s="128"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="144"/>
+      <c r="J21" s="144"/>
+      <c r="K21" s="144"/>
+      <c r="L21" s="144"/>
+      <c r="M21" s="144"/>
+      <c r="N21" s="144"/>
+      <c r="O21" s="145"/>
       <c r="P21" s="17"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -4018,196 +4028,196 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
-      <c r="B23" s="129" t="s">
+      <c r="B23" s="146" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="130"/>
-      <c r="D23" s="130" t="s">
+      <c r="C23" s="133"/>
+      <c r="D23" s="133" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="130"/>
-      <c r="F23" s="130" t="s">
+      <c r="E23" s="133"/>
+      <c r="F23" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="130"/>
-      <c r="H23" s="130" t="s">
+      <c r="G23" s="133"/>
+      <c r="H23" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="I23" s="130"/>
-      <c r="J23" s="130" t="s">
+      <c r="I23" s="133"/>
+      <c r="J23" s="133" t="s">
         <v>28</v>
       </c>
-      <c r="K23" s="130"/>
-      <c r="L23" s="130" t="s">
+      <c r="K23" s="133"/>
+      <c r="L23" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="M23" s="130"/>
-      <c r="N23" s="130" t="s">
+      <c r="M23" s="133"/>
+      <c r="N23" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="O23" s="131"/>
+      <c r="O23" s="147"/>
       <c r="P23" s="17"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
-      <c r="B24" s="105">
+      <c r="B24" s="122">
         <v>1</v>
       </c>
-      <c r="C24" s="106"/>
-      <c r="D24" s="106">
+      <c r="C24" s="123"/>
+      <c r="D24" s="123">
         <v>2</v>
       </c>
-      <c r="E24" s="106"/>
-      <c r="F24" s="106">
+      <c r="E24" s="123"/>
+      <c r="F24" s="123">
         <v>3</v>
       </c>
-      <c r="G24" s="106"/>
-      <c r="H24" s="106">
+      <c r="G24" s="123"/>
+      <c r="H24" s="123">
         <v>4</v>
       </c>
-      <c r="I24" s="106"/>
-      <c r="J24" s="106">
+      <c r="I24" s="123"/>
+      <c r="J24" s="123">
         <v>5</v>
       </c>
-      <c r="K24" s="106"/>
-      <c r="L24" s="106">
+      <c r="K24" s="123"/>
+      <c r="L24" s="123">
         <v>6</v>
       </c>
-      <c r="M24" s="106"/>
-      <c r="N24" s="106">
+      <c r="M24" s="123"/>
+      <c r="N24" s="123">
         <v>7</v>
       </c>
-      <c r="O24" s="107"/>
+      <c r="O24" s="134"/>
       <c r="P24" s="17"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
-      <c r="B25" s="133"/>
-      <c r="C25" s="109"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="103"/>
       <c r="D25" s="108" t="s">
         <v>358</v>
       </c>
-      <c r="E25" s="169"/>
-      <c r="F25" s="169"/>
-      <c r="G25" s="169"/>
-      <c r="H25" s="169"/>
-      <c r="I25" s="169"/>
-      <c r="J25" s="169"/>
-      <c r="K25" s="169"/>
-      <c r="L25" s="169" t="s">
+      <c r="E25" s="130"/>
+      <c r="F25" s="130"/>
+      <c r="G25" s="130"/>
+      <c r="H25" s="130"/>
+      <c r="I25" s="130"/>
+      <c r="J25" s="130"/>
+      <c r="K25" s="130"/>
+      <c r="L25" s="130" t="s">
         <v>363</v>
       </c>
-      <c r="M25" s="169"/>
-      <c r="N25" s="161"/>
-      <c r="O25" s="162"/>
+      <c r="M25" s="130"/>
+      <c r="N25" s="135"/>
+      <c r="O25" s="136"/>
       <c r="P25" s="17"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
-      <c r="B26" s="134"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="170"/>
-      <c r="F26" s="170"/>
-      <c r="G26" s="170"/>
-      <c r="H26" s="170"/>
-      <c r="I26" s="170"/>
-      <c r="J26" s="170"/>
-      <c r="K26" s="170"/>
-      <c r="L26" s="170"/>
-      <c r="M26" s="170"/>
-      <c r="N26" s="163"/>
-      <c r="O26" s="164"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="131"/>
+      <c r="F26" s="131"/>
+      <c r="G26" s="131"/>
+      <c r="H26" s="131"/>
+      <c r="I26" s="131"/>
+      <c r="J26" s="131"/>
+      <c r="K26" s="131"/>
+      <c r="L26" s="131"/>
+      <c r="M26" s="131"/>
+      <c r="N26" s="137"/>
+      <c r="O26" s="138"/>
       <c r="P26" s="17"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
-      <c r="B27" s="134"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="170"/>
-      <c r="F27" s="170"/>
-      <c r="G27" s="170"/>
-      <c r="H27" s="170"/>
-      <c r="I27" s="170"/>
-      <c r="J27" s="170"/>
-      <c r="K27" s="170"/>
-      <c r="L27" s="163" t="s">
+      <c r="B27" s="104"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="131"/>
+      <c r="H27" s="131"/>
+      <c r="I27" s="131"/>
+      <c r="J27" s="131"/>
+      <c r="K27" s="131"/>
+      <c r="L27" s="137" t="s">
         <v>364</v>
       </c>
-      <c r="M27" s="163"/>
-      <c r="N27" s="163"/>
-      <c r="O27" s="164"/>
+      <c r="M27" s="137"/>
+      <c r="N27" s="137"/>
+      <c r="O27" s="138"/>
       <c r="P27" s="17"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
-      <c r="B28" s="134"/>
-      <c r="C28" s="111"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="170"/>
-      <c r="F28" s="170"/>
-      <c r="G28" s="170"/>
-      <c r="H28" s="170"/>
-      <c r="I28" s="170"/>
-      <c r="J28" s="170"/>
-      <c r="K28" s="170"/>
-      <c r="L28" s="163"/>
-      <c r="M28" s="163"/>
-      <c r="N28" s="163"/>
-      <c r="O28" s="164"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="131"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="131"/>
+      <c r="J28" s="131"/>
+      <c r="K28" s="131"/>
+      <c r="L28" s="137"/>
+      <c r="M28" s="137"/>
+      <c r="N28" s="137"/>
+      <c r="O28" s="138"/>
       <c r="P28" s="17"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
-      <c r="B29" s="134"/>
-      <c r="C29" s="111"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="170"/>
-      <c r="F29" s="170"/>
-      <c r="G29" s="170"/>
-      <c r="H29" s="170"/>
-      <c r="I29" s="170"/>
-      <c r="J29" s="170"/>
-      <c r="K29" s="170"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="131"/>
+      <c r="K29" s="131"/>
       <c r="L29" s="89"/>
       <c r="M29" s="89"/>
-      <c r="N29" s="163"/>
-      <c r="O29" s="164"/>
+      <c r="N29" s="137"/>
+      <c r="O29" s="138"/>
       <c r="P29" s="17"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
-      <c r="B30" s="135"/>
-      <c r="C30" s="113"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="173"/>
-      <c r="G30" s="173"/>
-      <c r="H30" s="173"/>
-      <c r="I30" s="173"/>
-      <c r="J30" s="173"/>
-      <c r="K30" s="173"/>
+      <c r="B30" s="106"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="132"/>
+      <c r="F30" s="132"/>
+      <c r="G30" s="132"/>
+      <c r="H30" s="132"/>
+      <c r="I30" s="132"/>
+      <c r="J30" s="132"/>
+      <c r="K30" s="132"/>
       <c r="L30" s="90"/>
       <c r="M30" s="90"/>
-      <c r="N30" s="165"/>
-      <c r="O30" s="166"/>
+      <c r="N30" s="139"/>
+      <c r="O30" s="140"/>
       <c r="P30" s="17"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="27"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="171" t="s">
+      <c r="D31" s="141" t="s">
         <v>362</v>
       </c>
-      <c r="E31" s="172"/>
-      <c r="F31" s="172"/>
-      <c r="G31" s="172"/>
-      <c r="H31" s="172"/>
-      <c r="I31" s="172"/>
-      <c r="J31" s="172"/>
-      <c r="K31" s="172"/>
+      <c r="E31" s="142"/>
+      <c r="F31" s="142"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="142"/>
+      <c r="I31" s="142"/>
+      <c r="J31" s="142"/>
+      <c r="K31" s="142"/>
       <c r="L31" s="91"/>
       <c r="M31" s="91"/>
       <c r="N31" s="91"/>
@@ -4216,310 +4226,310 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
-      <c r="B32" s="105">
+      <c r="B32" s="122">
         <v>8</v>
       </c>
-      <c r="C32" s="106"/>
-      <c r="D32" s="106">
+      <c r="C32" s="123"/>
+      <c r="D32" s="123">
         <v>9</v>
       </c>
-      <c r="E32" s="106"/>
-      <c r="F32" s="106">
+      <c r="E32" s="123"/>
+      <c r="F32" s="123">
         <v>10</v>
       </c>
-      <c r="G32" s="106"/>
-      <c r="H32" s="106">
+      <c r="G32" s="123"/>
+      <c r="H32" s="123">
         <v>11</v>
       </c>
-      <c r="I32" s="106"/>
-      <c r="J32" s="106">
+      <c r="I32" s="123"/>
+      <c r="J32" s="123">
         <v>12</v>
       </c>
-      <c r="K32" s="106"/>
-      <c r="L32" s="106">
+      <c r="K32" s="123"/>
+      <c r="L32" s="123">
         <v>13</v>
       </c>
-      <c r="M32" s="106"/>
-      <c r="N32" s="106">
+      <c r="M32" s="123"/>
+      <c r="N32" s="123">
         <v>14</v>
       </c>
-      <c r="O32" s="107"/>
+      <c r="O32" s="134"/>
       <c r="P32" s="17"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
-      <c r="B33" s="133"/>
-      <c r="C33" s="109"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="103"/>
       <c r="D33" s="108" t="s">
         <v>365</v>
       </c>
-      <c r="E33" s="169"/>
-      <c r="F33" s="169"/>
-      <c r="G33" s="169"/>
-      <c r="H33" s="169"/>
-      <c r="I33" s="169"/>
-      <c r="J33" s="169"/>
-      <c r="K33" s="109"/>
-      <c r="L33" s="120" t="s">
+      <c r="E33" s="130"/>
+      <c r="F33" s="130"/>
+      <c r="G33" s="130"/>
+      <c r="H33" s="130"/>
+      <c r="I33" s="130"/>
+      <c r="J33" s="130"/>
+      <c r="K33" s="103"/>
+      <c r="L33" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="M33" s="149"/>
-      <c r="N33" s="120" t="s">
+      <c r="M33" s="94"/>
+      <c r="N33" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="O33" s="121"/>
+      <c r="O33" s="99"/>
       <c r="P33" s="17"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
-      <c r="B34" s="134"/>
-      <c r="C34" s="111"/>
-      <c r="D34" s="110"/>
-      <c r="E34" s="170"/>
-      <c r="F34" s="170"/>
-      <c r="G34" s="170"/>
-      <c r="H34" s="170"/>
-      <c r="I34" s="170"/>
-      <c r="J34" s="170"/>
-      <c r="K34" s="111"/>
-      <c r="L34" s="122"/>
-      <c r="M34" s="150"/>
-      <c r="N34" s="122"/>
-      <c r="O34" s="123"/>
+      <c r="B34" s="104"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="131"/>
+      <c r="F34" s="131"/>
+      <c r="G34" s="131"/>
+      <c r="H34" s="131"/>
+      <c r="I34" s="131"/>
+      <c r="J34" s="131"/>
+      <c r="K34" s="105"/>
+      <c r="L34" s="95"/>
+      <c r="M34" s="96"/>
+      <c r="N34" s="95"/>
+      <c r="O34" s="100"/>
       <c r="P34" s="17"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
-      <c r="B35" s="134"/>
-      <c r="C35" s="111"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="170"/>
-      <c r="F35" s="170"/>
-      <c r="G35" s="170"/>
-      <c r="H35" s="170"/>
-      <c r="I35" s="170"/>
-      <c r="J35" s="170"/>
-      <c r="K35" s="111"/>
-      <c r="L35" s="122"/>
-      <c r="M35" s="150"/>
-      <c r="N35" s="122"/>
-      <c r="O35" s="123"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="131"/>
+      <c r="F35" s="131"/>
+      <c r="G35" s="131"/>
+      <c r="H35" s="131"/>
+      <c r="I35" s="131"/>
+      <c r="J35" s="131"/>
+      <c r="K35" s="105"/>
+      <c r="L35" s="95"/>
+      <c r="M35" s="96"/>
+      <c r="N35" s="95"/>
+      <c r="O35" s="100"/>
       <c r="P35" s="17"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
-      <c r="B36" s="134"/>
-      <c r="C36" s="111"/>
-      <c r="D36" s="110"/>
-      <c r="E36" s="170"/>
-      <c r="F36" s="170"/>
-      <c r="G36" s="170"/>
-      <c r="H36" s="170"/>
-      <c r="I36" s="170"/>
-      <c r="J36" s="170"/>
-      <c r="K36" s="111"/>
-      <c r="L36" s="122"/>
-      <c r="M36" s="150"/>
-      <c r="N36" s="122"/>
-      <c r="O36" s="123"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="109"/>
+      <c r="E36" s="131"/>
+      <c r="F36" s="131"/>
+      <c r="G36" s="131"/>
+      <c r="H36" s="131"/>
+      <c r="I36" s="131"/>
+      <c r="J36" s="131"/>
+      <c r="K36" s="105"/>
+      <c r="L36" s="95"/>
+      <c r="M36" s="96"/>
+      <c r="N36" s="95"/>
+      <c r="O36" s="100"/>
       <c r="P36" s="17"/>
     </row>
     <row r="37" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
-      <c r="B37" s="134"/>
-      <c r="C37" s="111"/>
-      <c r="D37" s="110"/>
-      <c r="E37" s="170"/>
-      <c r="F37" s="170"/>
-      <c r="G37" s="170"/>
-      <c r="H37" s="170"/>
-      <c r="I37" s="170"/>
-      <c r="J37" s="170"/>
-      <c r="K37" s="111"/>
-      <c r="L37" s="122"/>
-      <c r="M37" s="150"/>
-      <c r="N37" s="122"/>
-      <c r="O37" s="123"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="109"/>
+      <c r="E37" s="131"/>
+      <c r="F37" s="131"/>
+      <c r="G37" s="131"/>
+      <c r="H37" s="131"/>
+      <c r="I37" s="131"/>
+      <c r="J37" s="131"/>
+      <c r="K37" s="105"/>
+      <c r="L37" s="95"/>
+      <c r="M37" s="96"/>
+      <c r="N37" s="95"/>
+      <c r="O37" s="100"/>
       <c r="P37" s="17"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
-      <c r="B38" s="135"/>
-      <c r="C38" s="113"/>
-      <c r="D38" s="112"/>
-      <c r="E38" s="173"/>
-      <c r="F38" s="173"/>
-      <c r="G38" s="173"/>
-      <c r="H38" s="173"/>
-      <c r="I38" s="173"/>
-      <c r="J38" s="173"/>
-      <c r="K38" s="113"/>
-      <c r="L38" s="124"/>
-      <c r="M38" s="151"/>
-      <c r="N38" s="124"/>
-      <c r="O38" s="125"/>
+      <c r="B38" s="106"/>
+      <c r="C38" s="107"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="132"/>
+      <c r="F38" s="132"/>
+      <c r="G38" s="132"/>
+      <c r="H38" s="132"/>
+      <c r="I38" s="132"/>
+      <c r="J38" s="132"/>
+      <c r="K38" s="107"/>
+      <c r="L38" s="97"/>
+      <c r="M38" s="98"/>
+      <c r="N38" s="97"/>
+      <c r="O38" s="101"/>
       <c r="P38" s="17"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="B39" s="27"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="176" t="s">
+      <c r="D39" s="128" t="s">
         <v>52</v>
       </c>
-      <c r="E39" s="177"/>
-      <c r="F39" s="177"/>
-      <c r="G39" s="177"/>
-      <c r="H39" s="177"/>
-      <c r="I39" s="177"/>
-      <c r="J39" s="177"/>
-      <c r="K39" s="177"/>
+      <c r="E39" s="129"/>
+      <c r="F39" s="129"/>
+      <c r="G39" s="129"/>
+      <c r="H39" s="129"/>
+      <c r="I39" s="129"/>
+      <c r="J39" s="129"/>
+      <c r="K39" s="129"/>
       <c r="L39" s="35"/>
       <c r="M39" s="36"/>
-      <c r="N39" s="174" t="s">
+      <c r="N39" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="O39" s="175"/>
+      <c r="O39" s="127"/>
       <c r="P39" s="17"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
-      <c r="B40" s="137">
+      <c r="B40" s="124">
         <v>15</v>
       </c>
-      <c r="C40" s="138"/>
-      <c r="D40" s="132">
+      <c r="C40" s="125"/>
+      <c r="D40" s="118">
         <v>16</v>
       </c>
-      <c r="E40" s="132"/>
-      <c r="F40" s="132">
+      <c r="E40" s="118"/>
+      <c r="F40" s="118">
         <v>17</v>
       </c>
-      <c r="G40" s="132"/>
-      <c r="H40" s="132">
+      <c r="G40" s="118"/>
+      <c r="H40" s="118">
         <v>18</v>
       </c>
-      <c r="I40" s="132"/>
-      <c r="J40" s="132">
+      <c r="I40" s="118"/>
+      <c r="J40" s="118">
         <v>19</v>
       </c>
-      <c r="K40" s="132"/>
-      <c r="L40" s="132">
+      <c r="K40" s="118"/>
+      <c r="L40" s="118">
         <v>20</v>
       </c>
-      <c r="M40" s="132"/>
-      <c r="N40" s="132">
+      <c r="M40" s="118"/>
+      <c r="N40" s="118">
         <v>21</v>
       </c>
-      <c r="O40" s="136"/>
+      <c r="O40" s="121"/>
       <c r="P40" s="17"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
-      <c r="B41" s="133"/>
-      <c r="C41" s="109"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="103"/>
       <c r="D41" s="108"/>
-      <c r="E41" s="109"/>
+      <c r="E41" s="103"/>
       <c r="F41" s="108"/>
-      <c r="G41" s="109"/>
+      <c r="G41" s="103"/>
       <c r="H41" s="108"/>
-      <c r="I41" s="109"/>
-      <c r="J41" s="114"/>
-      <c r="K41" s="115"/>
-      <c r="L41" s="120"/>
-      <c r="M41" s="149"/>
-      <c r="N41" s="120"/>
-      <c r="O41" s="121"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="111"/>
+      <c r="K41" s="112"/>
+      <c r="L41" s="93"/>
+      <c r="M41" s="94"/>
+      <c r="N41" s="93"/>
+      <c r="O41" s="99"/>
       <c r="P41" s="17"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
-      <c r="B42" s="134"/>
-      <c r="C42" s="111"/>
-      <c r="D42" s="110"/>
-      <c r="E42" s="111"/>
-      <c r="F42" s="110"/>
-      <c r="G42" s="111"/>
-      <c r="H42" s="110"/>
-      <c r="I42" s="111"/>
-      <c r="J42" s="116"/>
-      <c r="K42" s="117"/>
-      <c r="L42" s="122"/>
-      <c r="M42" s="150"/>
-      <c r="N42" s="122"/>
-      <c r="O42" s="123"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="105"/>
+      <c r="D42" s="109"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="109"/>
+      <c r="G42" s="105"/>
+      <c r="H42" s="109"/>
+      <c r="I42" s="105"/>
+      <c r="J42" s="113"/>
+      <c r="K42" s="114"/>
+      <c r="L42" s="95"/>
+      <c r="M42" s="96"/>
+      <c r="N42" s="95"/>
+      <c r="O42" s="100"/>
       <c r="P42" s="17"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
-      <c r="B43" s="134"/>
-      <c r="C43" s="111"/>
-      <c r="D43" s="110"/>
-      <c r="E43" s="111"/>
-      <c r="F43" s="110"/>
-      <c r="G43" s="111"/>
-      <c r="H43" s="110"/>
-      <c r="I43" s="111"/>
-      <c r="J43" s="116"/>
-      <c r="K43" s="117"/>
-      <c r="L43" s="122"/>
-      <c r="M43" s="150"/>
-      <c r="N43" s="122"/>
-      <c r="O43" s="123"/>
+      <c r="B43" s="104"/>
+      <c r="C43" s="105"/>
+      <c r="D43" s="109"/>
+      <c r="E43" s="105"/>
+      <c r="F43" s="109"/>
+      <c r="G43" s="105"/>
+      <c r="H43" s="109"/>
+      <c r="I43" s="105"/>
+      <c r="J43" s="113"/>
+      <c r="K43" s="114"/>
+      <c r="L43" s="95"/>
+      <c r="M43" s="96"/>
+      <c r="N43" s="95"/>
+      <c r="O43" s="100"/>
       <c r="P43" s="17"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
-      <c r="B44" s="134"/>
-      <c r="C44" s="111"/>
-      <c r="D44" s="110"/>
-      <c r="E44" s="111"/>
-      <c r="F44" s="110"/>
-      <c r="G44" s="111"/>
-      <c r="H44" s="110"/>
-      <c r="I44" s="111"/>
-      <c r="J44" s="116"/>
-      <c r="K44" s="117"/>
-      <c r="L44" s="122"/>
-      <c r="M44" s="150"/>
-      <c r="N44" s="122"/>
-      <c r="O44" s="123"/>
+      <c r="B44" s="104"/>
+      <c r="C44" s="105"/>
+      <c r="D44" s="109"/>
+      <c r="E44" s="105"/>
+      <c r="F44" s="109"/>
+      <c r="G44" s="105"/>
+      <c r="H44" s="109"/>
+      <c r="I44" s="105"/>
+      <c r="J44" s="113"/>
+      <c r="K44" s="114"/>
+      <c r="L44" s="95"/>
+      <c r="M44" s="96"/>
+      <c r="N44" s="95"/>
+      <c r="O44" s="100"/>
       <c r="P44" s="17"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
-      <c r="B45" s="134"/>
-      <c r="C45" s="111"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="111"/>
-      <c r="F45" s="110"/>
-      <c r="G45" s="111"/>
-      <c r="H45" s="110"/>
-      <c r="I45" s="111"/>
-      <c r="J45" s="116"/>
-      <c r="K45" s="117"/>
-      <c r="L45" s="122"/>
-      <c r="M45" s="150"/>
-      <c r="N45" s="122"/>
-      <c r="O45" s="123"/>
+      <c r="B45" s="104"/>
+      <c r="C45" s="105"/>
+      <c r="D45" s="109"/>
+      <c r="E45" s="105"/>
+      <c r="F45" s="109"/>
+      <c r="G45" s="105"/>
+      <c r="H45" s="109"/>
+      <c r="I45" s="105"/>
+      <c r="J45" s="113"/>
+      <c r="K45" s="114"/>
+      <c r="L45" s="95"/>
+      <c r="M45" s="96"/>
+      <c r="N45" s="95"/>
+      <c r="O45" s="100"/>
       <c r="P45" s="17"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="11"/>
-      <c r="B46" s="135"/>
-      <c r="C46" s="113"/>
-      <c r="D46" s="112"/>
-      <c r="E46" s="113"/>
-      <c r="F46" s="112"/>
-      <c r="G46" s="113"/>
-      <c r="H46" s="112"/>
-      <c r="I46" s="113"/>
-      <c r="J46" s="118"/>
-      <c r="K46" s="119"/>
-      <c r="L46" s="124"/>
-      <c r="M46" s="151"/>
-      <c r="N46" s="124"/>
-      <c r="O46" s="125"/>
+      <c r="B46" s="106"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="110"/>
+      <c r="E46" s="107"/>
+      <c r="F46" s="110"/>
+      <c r="G46" s="107"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="107"/>
+      <c r="J46" s="115"/>
+      <c r="K46" s="116"/>
+      <c r="L46" s="97"/>
+      <c r="M46" s="98"/>
+      <c r="N46" s="97"/>
+      <c r="O46" s="101"/>
       <c r="P46" s="17"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
@@ -4528,172 +4538,172 @@
       <c r="C47" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="143" t="s">
+      <c r="D47" s="165" t="s">
         <v>53</v>
       </c>
-      <c r="E47" s="144"/>
-      <c r="F47" s="144"/>
-      <c r="G47" s="144"/>
-      <c r="H47" s="145" t="s">
+      <c r="E47" s="166"/>
+      <c r="F47" s="166"/>
+      <c r="G47" s="166"/>
+      <c r="H47" s="167" t="s">
         <v>37</v>
       </c>
-      <c r="I47" s="145"/>
-      <c r="J47" s="145"/>
-      <c r="K47" s="145"/>
-      <c r="L47" s="145"/>
-      <c r="M47" s="145"/>
-      <c r="N47" s="145"/>
-      <c r="O47" s="146"/>
+      <c r="I47" s="167"/>
+      <c r="J47" s="167"/>
+      <c r="K47" s="167"/>
+      <c r="L47" s="167"/>
+      <c r="M47" s="167"/>
+      <c r="N47" s="167"/>
+      <c r="O47" s="168"/>
       <c r="P47" s="17"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
-      <c r="B48" s="105">
+      <c r="B48" s="122">
         <v>22</v>
       </c>
-      <c r="C48" s="106"/>
-      <c r="D48" s="106">
+      <c r="C48" s="123"/>
+      <c r="D48" s="123">
         <v>23</v>
       </c>
-      <c r="E48" s="106"/>
-      <c r="F48" s="106">
+      <c r="E48" s="123"/>
+      <c r="F48" s="123">
         <v>24</v>
       </c>
-      <c r="G48" s="106"/>
-      <c r="H48" s="132">
+      <c r="G48" s="123"/>
+      <c r="H48" s="118">
         <v>25</v>
       </c>
-      <c r="I48" s="132"/>
-      <c r="J48" s="132">
+      <c r="I48" s="118"/>
+      <c r="J48" s="118">
         <v>26</v>
       </c>
-      <c r="K48" s="132"/>
-      <c r="L48" s="132">
+      <c r="K48" s="118"/>
+      <c r="L48" s="118">
         <v>27</v>
       </c>
-      <c r="M48" s="132"/>
-      <c r="N48" s="132">
+      <c r="M48" s="118"/>
+      <c r="N48" s="118">
         <v>20</v>
       </c>
-      <c r="O48" s="136"/>
+      <c r="O48" s="121"/>
       <c r="P48" s="17"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="11"/>
-      <c r="B49" s="133"/>
-      <c r="C49" s="109"/>
+      <c r="B49" s="102"/>
+      <c r="C49" s="103"/>
       <c r="D49" s="108"/>
-      <c r="E49" s="109"/>
+      <c r="E49" s="103"/>
       <c r="F49" s="108"/>
-      <c r="G49" s="109"/>
+      <c r="G49" s="103"/>
       <c r="H49" s="108"/>
-      <c r="I49" s="109"/>
-      <c r="J49" s="114"/>
-      <c r="K49" s="115"/>
-      <c r="L49" s="120"/>
-      <c r="M49" s="149"/>
-      <c r="N49" s="120"/>
-      <c r="O49" s="121"/>
+      <c r="I49" s="103"/>
+      <c r="J49" s="111"/>
+      <c r="K49" s="112"/>
+      <c r="L49" s="93"/>
+      <c r="M49" s="94"/>
+      <c r="N49" s="93"/>
+      <c r="O49" s="99"/>
       <c r="P49" s="17"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="11"/>
-      <c r="B50" s="134"/>
-      <c r="C50" s="111"/>
-      <c r="D50" s="110"/>
-      <c r="E50" s="111"/>
-      <c r="F50" s="110"/>
-      <c r="G50" s="111"/>
-      <c r="H50" s="110"/>
-      <c r="I50" s="111"/>
-      <c r="J50" s="116"/>
-      <c r="K50" s="117"/>
-      <c r="L50" s="122"/>
-      <c r="M50" s="150"/>
-      <c r="N50" s="122"/>
-      <c r="O50" s="123"/>
+      <c r="B50" s="104"/>
+      <c r="C50" s="105"/>
+      <c r="D50" s="109"/>
+      <c r="E50" s="105"/>
+      <c r="F50" s="109"/>
+      <c r="G50" s="105"/>
+      <c r="H50" s="109"/>
+      <c r="I50" s="105"/>
+      <c r="J50" s="113"/>
+      <c r="K50" s="114"/>
+      <c r="L50" s="95"/>
+      <c r="M50" s="96"/>
+      <c r="N50" s="95"/>
+      <c r="O50" s="100"/>
       <c r="P50" s="17"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="11"/>
-      <c r="B51" s="134"/>
-      <c r="C51" s="111"/>
-      <c r="D51" s="110"/>
-      <c r="E51" s="111"/>
-      <c r="F51" s="110"/>
-      <c r="G51" s="111"/>
-      <c r="H51" s="110"/>
-      <c r="I51" s="111"/>
-      <c r="J51" s="116"/>
-      <c r="K51" s="117"/>
-      <c r="L51" s="122"/>
-      <c r="M51" s="150"/>
-      <c r="N51" s="122"/>
-      <c r="O51" s="123"/>
+      <c r="B51" s="104"/>
+      <c r="C51" s="105"/>
+      <c r="D51" s="109"/>
+      <c r="E51" s="105"/>
+      <c r="F51" s="109"/>
+      <c r="G51" s="105"/>
+      <c r="H51" s="109"/>
+      <c r="I51" s="105"/>
+      <c r="J51" s="113"/>
+      <c r="K51" s="114"/>
+      <c r="L51" s="95"/>
+      <c r="M51" s="96"/>
+      <c r="N51" s="95"/>
+      <c r="O51" s="100"/>
       <c r="P51" s="17"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="11"/>
-      <c r="B52" s="134"/>
-      <c r="C52" s="111"/>
-      <c r="D52" s="110"/>
-      <c r="E52" s="111"/>
-      <c r="F52" s="110"/>
-      <c r="G52" s="111"/>
-      <c r="H52" s="110"/>
-      <c r="I52" s="111"/>
-      <c r="J52" s="116"/>
-      <c r="K52" s="117"/>
-      <c r="L52" s="122"/>
-      <c r="M52" s="150"/>
-      <c r="N52" s="122"/>
-      <c r="O52" s="123"/>
+      <c r="B52" s="104"/>
+      <c r="C52" s="105"/>
+      <c r="D52" s="109"/>
+      <c r="E52" s="105"/>
+      <c r="F52" s="109"/>
+      <c r="G52" s="105"/>
+      <c r="H52" s="109"/>
+      <c r="I52" s="105"/>
+      <c r="J52" s="113"/>
+      <c r="K52" s="114"/>
+      <c r="L52" s="95"/>
+      <c r="M52" s="96"/>
+      <c r="N52" s="95"/>
+      <c r="O52" s="100"/>
       <c r="P52" s="17"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="11"/>
-      <c r="B53" s="134"/>
-      <c r="C53" s="111"/>
-      <c r="D53" s="110"/>
-      <c r="E53" s="111"/>
-      <c r="F53" s="110"/>
-      <c r="G53" s="111"/>
-      <c r="H53" s="110"/>
-      <c r="I53" s="111"/>
-      <c r="J53" s="116"/>
-      <c r="K53" s="117"/>
-      <c r="L53" s="122"/>
-      <c r="M53" s="150"/>
-      <c r="N53" s="122"/>
-      <c r="O53" s="123"/>
+      <c r="B53" s="104"/>
+      <c r="C53" s="105"/>
+      <c r="D53" s="109"/>
+      <c r="E53" s="105"/>
+      <c r="F53" s="109"/>
+      <c r="G53" s="105"/>
+      <c r="H53" s="109"/>
+      <c r="I53" s="105"/>
+      <c r="J53" s="113"/>
+      <c r="K53" s="114"/>
+      <c r="L53" s="95"/>
+      <c r="M53" s="96"/>
+      <c r="N53" s="95"/>
+      <c r="O53" s="100"/>
       <c r="P53" s="17"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="11"/>
-      <c r="B54" s="135"/>
-      <c r="C54" s="113"/>
-      <c r="D54" s="112"/>
-      <c r="E54" s="113"/>
-      <c r="F54" s="112"/>
-      <c r="G54" s="113"/>
-      <c r="H54" s="112"/>
-      <c r="I54" s="113"/>
-      <c r="J54" s="118"/>
-      <c r="K54" s="119"/>
-      <c r="L54" s="124"/>
-      <c r="M54" s="151"/>
-      <c r="N54" s="124"/>
-      <c r="O54" s="125"/>
+      <c r="B54" s="106"/>
+      <c r="C54" s="107"/>
+      <c r="D54" s="110"/>
+      <c r="E54" s="107"/>
+      <c r="F54" s="110"/>
+      <c r="G54" s="107"/>
+      <c r="H54" s="110"/>
+      <c r="I54" s="107"/>
+      <c r="J54" s="115"/>
+      <c r="K54" s="116"/>
+      <c r="L54" s="97"/>
+      <c r="M54" s="98"/>
+      <c r="N54" s="97"/>
+      <c r="O54" s="101"/>
       <c r="P54" s="17"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="11"/>
       <c r="B55" s="22"/>
       <c r="C55" s="3"/>
-      <c r="D55" s="147"/>
-      <c r="E55" s="145"/>
-      <c r="F55" s="145"/>
-      <c r="G55" s="148"/>
+      <c r="D55" s="169"/>
+      <c r="E55" s="167"/>
+      <c r="F55" s="167"/>
+      <c r="G55" s="170"/>
       <c r="H55" s="2"/>
       <c r="I55" s="3"/>
       <c r="J55" s="4"/>
@@ -4706,128 +4716,128 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="11"/>
-      <c r="B56" s="180">
+      <c r="B56" s="117">
         <v>28</v>
       </c>
-      <c r="C56" s="132"/>
-      <c r="D56" s="132">
+      <c r="C56" s="118"/>
+      <c r="D56" s="118">
         <v>29</v>
       </c>
-      <c r="E56" s="132"/>
-      <c r="F56" s="132">
+      <c r="E56" s="118"/>
+      <c r="F56" s="118">
         <v>30</v>
       </c>
-      <c r="G56" s="132"/>
-      <c r="N56" s="178"/>
-      <c r="O56" s="179"/>
+      <c r="G56" s="118"/>
+      <c r="N56" s="119"/>
+      <c r="O56" s="120"/>
       <c r="P56" s="17"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="11"/>
-      <c r="B57" s="133"/>
-      <c r="C57" s="109"/>
+      <c r="B57" s="102"/>
+      <c r="C57" s="103"/>
       <c r="D57" s="108"/>
-      <c r="E57" s="109"/>
+      <c r="E57" s="103"/>
       <c r="F57" s="108"/>
-      <c r="G57" s="109"/>
+      <c r="G57" s="103"/>
       <c r="H57" s="108"/>
-      <c r="I57" s="109"/>
-      <c r="J57" s="114"/>
-      <c r="K57" s="115"/>
-      <c r="L57" s="120"/>
-      <c r="M57" s="149"/>
-      <c r="N57" s="120"/>
-      <c r="O57" s="121"/>
+      <c r="I57" s="103"/>
+      <c r="J57" s="111"/>
+      <c r="K57" s="112"/>
+      <c r="L57" s="93"/>
+      <c r="M57" s="94"/>
+      <c r="N57" s="93"/>
+      <c r="O57" s="99"/>
       <c r="P57" s="17"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="11"/>
-      <c r="B58" s="134"/>
-      <c r="C58" s="111"/>
-      <c r="D58" s="110"/>
-      <c r="E58" s="111"/>
-      <c r="F58" s="110"/>
-      <c r="G58" s="111"/>
-      <c r="H58" s="110"/>
-      <c r="I58" s="111"/>
-      <c r="J58" s="116"/>
-      <c r="K58" s="117"/>
-      <c r="L58" s="122"/>
-      <c r="M58" s="150"/>
-      <c r="N58" s="122"/>
-      <c r="O58" s="123"/>
+      <c r="B58" s="104"/>
+      <c r="C58" s="105"/>
+      <c r="D58" s="109"/>
+      <c r="E58" s="105"/>
+      <c r="F58" s="109"/>
+      <c r="G58" s="105"/>
+      <c r="H58" s="109"/>
+      <c r="I58" s="105"/>
+      <c r="J58" s="113"/>
+      <c r="K58" s="114"/>
+      <c r="L58" s="95"/>
+      <c r="M58" s="96"/>
+      <c r="N58" s="95"/>
+      <c r="O58" s="100"/>
       <c r="P58" s="17"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="11"/>
-      <c r="B59" s="134"/>
-      <c r="C59" s="111"/>
-      <c r="D59" s="110"/>
-      <c r="E59" s="111"/>
-      <c r="F59" s="110"/>
-      <c r="G59" s="111"/>
-      <c r="H59" s="110"/>
-      <c r="I59" s="111"/>
-      <c r="J59" s="116"/>
-      <c r="K59" s="117"/>
-      <c r="L59" s="122"/>
-      <c r="M59" s="150"/>
-      <c r="N59" s="122"/>
-      <c r="O59" s="123"/>
+      <c r="B59" s="104"/>
+      <c r="C59" s="105"/>
+      <c r="D59" s="109"/>
+      <c r="E59" s="105"/>
+      <c r="F59" s="109"/>
+      <c r="G59" s="105"/>
+      <c r="H59" s="109"/>
+      <c r="I59" s="105"/>
+      <c r="J59" s="113"/>
+      <c r="K59" s="114"/>
+      <c r="L59" s="95"/>
+      <c r="M59" s="96"/>
+      <c r="N59" s="95"/>
+      <c r="O59" s="100"/>
       <c r="P59" s="17"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="11"/>
-      <c r="B60" s="134"/>
-      <c r="C60" s="111"/>
-      <c r="D60" s="110"/>
-      <c r="E60" s="111"/>
-      <c r="F60" s="110"/>
-      <c r="G60" s="111"/>
-      <c r="H60" s="110"/>
-      <c r="I60" s="111"/>
-      <c r="J60" s="116"/>
-      <c r="K60" s="117"/>
-      <c r="L60" s="122"/>
-      <c r="M60" s="150"/>
-      <c r="N60" s="122"/>
-      <c r="O60" s="123"/>
+      <c r="B60" s="104"/>
+      <c r="C60" s="105"/>
+      <c r="D60" s="109"/>
+      <c r="E60" s="105"/>
+      <c r="F60" s="109"/>
+      <c r="G60" s="105"/>
+      <c r="H60" s="109"/>
+      <c r="I60" s="105"/>
+      <c r="J60" s="113"/>
+      <c r="K60" s="114"/>
+      <c r="L60" s="95"/>
+      <c r="M60" s="96"/>
+      <c r="N60" s="95"/>
+      <c r="O60" s="100"/>
       <c r="P60" s="17"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="11"/>
-      <c r="B61" s="134"/>
-      <c r="C61" s="111"/>
-      <c r="D61" s="110"/>
-      <c r="E61" s="111"/>
-      <c r="F61" s="110"/>
-      <c r="G61" s="111"/>
-      <c r="H61" s="110"/>
-      <c r="I61" s="111"/>
-      <c r="J61" s="116"/>
-      <c r="K61" s="117"/>
-      <c r="L61" s="122"/>
-      <c r="M61" s="150"/>
-      <c r="N61" s="122"/>
-      <c r="O61" s="123"/>
+      <c r="B61" s="104"/>
+      <c r="C61" s="105"/>
+      <c r="D61" s="109"/>
+      <c r="E61" s="105"/>
+      <c r="F61" s="109"/>
+      <c r="G61" s="105"/>
+      <c r="H61" s="109"/>
+      <c r="I61" s="105"/>
+      <c r="J61" s="113"/>
+      <c r="K61" s="114"/>
+      <c r="L61" s="95"/>
+      <c r="M61" s="96"/>
+      <c r="N61" s="95"/>
+      <c r="O61" s="100"/>
       <c r="P61" s="17"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="11"/>
-      <c r="B62" s="135"/>
-      <c r="C62" s="113"/>
-      <c r="D62" s="112"/>
-      <c r="E62" s="113"/>
-      <c r="F62" s="112"/>
-      <c r="G62" s="113"/>
-      <c r="H62" s="112"/>
-      <c r="I62" s="113"/>
-      <c r="J62" s="118"/>
-      <c r="K62" s="119"/>
-      <c r="L62" s="124"/>
-      <c r="M62" s="151"/>
-      <c r="N62" s="124"/>
-      <c r="O62" s="125"/>
+      <c r="B62" s="106"/>
+      <c r="C62" s="107"/>
+      <c r="D62" s="110"/>
+      <c r="E62" s="107"/>
+      <c r="F62" s="110"/>
+      <c r="G62" s="107"/>
+      <c r="H62" s="110"/>
+      <c r="I62" s="107"/>
+      <c r="J62" s="115"/>
+      <c r="K62" s="116"/>
+      <c r="L62" s="97"/>
+      <c r="M62" s="98"/>
+      <c r="N62" s="97"/>
+      <c r="O62" s="101"/>
       <c r="P62" s="17"/>
     </row>
     <row r="63" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4866,22 +4876,22 @@
     </row>
     <row r="65" spans="1:16" ht="33.75" x14ac:dyDescent="0.3">
       <c r="A65" s="11"/>
-      <c r="B65" s="126" t="s">
+      <c r="B65" s="143" t="s">
         <v>38</v>
       </c>
-      <c r="C65" s="127"/>
-      <c r="D65" s="127"/>
-      <c r="E65" s="127"/>
-      <c r="F65" s="127"/>
-      <c r="G65" s="127"/>
-      <c r="H65" s="127"/>
-      <c r="I65" s="127"/>
-      <c r="J65" s="127"/>
-      <c r="K65" s="127"/>
-      <c r="L65" s="127"/>
-      <c r="M65" s="127"/>
-      <c r="N65" s="127"/>
-      <c r="O65" s="128"/>
+      <c r="C65" s="144"/>
+      <c r="D65" s="144"/>
+      <c r="E65" s="144"/>
+      <c r="F65" s="144"/>
+      <c r="G65" s="144"/>
+      <c r="H65" s="144"/>
+      <c r="I65" s="144"/>
+      <c r="J65" s="144"/>
+      <c r="K65" s="144"/>
+      <c r="L65" s="144"/>
+      <c r="M65" s="144"/>
+      <c r="N65" s="144"/>
+      <c r="O65" s="145"/>
       <c r="P65" s="17"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
@@ -4892,62 +4902,62 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="11"/>
-      <c r="B67" s="129" t="s">
+      <c r="B67" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="C67" s="130"/>
-      <c r="D67" s="130" t="s">
+      <c r="C67" s="133"/>
+      <c r="D67" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="E67" s="130"/>
-      <c r="F67" s="130" t="s">
+      <c r="E67" s="133"/>
+      <c r="F67" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="G67" s="130"/>
-      <c r="H67" s="130" t="s">
+      <c r="G67" s="133"/>
+      <c r="H67" s="133" t="s">
         <v>42</v>
       </c>
-      <c r="I67" s="130"/>
-      <c r="J67" s="130" t="s">
+      <c r="I67" s="133"/>
+      <c r="J67" s="133" t="s">
         <v>43</v>
       </c>
-      <c r="K67" s="130"/>
-      <c r="L67" s="130" t="s">
+      <c r="K67" s="133"/>
+      <c r="L67" s="133" t="s">
         <v>44</v>
       </c>
-      <c r="M67" s="130"/>
-      <c r="N67" s="130" t="s">
+      <c r="M67" s="133"/>
+      <c r="N67" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="O67" s="131"/>
+      <c r="O67" s="147"/>
       <c r="P67" s="17"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="11"/>
-      <c r="B68" s="105"/>
-      <c r="C68" s="106"/>
-      <c r="D68" s="106"/>
-      <c r="E68" s="106"/>
-      <c r="F68" s="106">
+      <c r="B68" s="122"/>
+      <c r="C68" s="123"/>
+      <c r="D68" s="123"/>
+      <c r="E68" s="123"/>
+      <c r="F68" s="123">
         <v>1</v>
       </c>
-      <c r="G68" s="106"/>
-      <c r="H68" s="106">
+      <c r="G68" s="123"/>
+      <c r="H68" s="123">
         <v>2</v>
       </c>
-      <c r="I68" s="106"/>
-      <c r="J68" s="106">
+      <c r="I68" s="123"/>
+      <c r="J68" s="123">
         <v>3</v>
       </c>
-      <c r="K68" s="106"/>
-      <c r="L68" s="106">
+      <c r="K68" s="123"/>
+      <c r="L68" s="123">
         <v>4</v>
       </c>
-      <c r="M68" s="106"/>
-      <c r="N68" s="106">
+      <c r="M68" s="123"/>
+      <c r="N68" s="123">
         <v>5</v>
       </c>
-      <c r="O68" s="107"/>
+      <c r="O68" s="134"/>
       <c r="P68" s="17"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
@@ -4955,107 +4965,107 @@
       <c r="B69" s="45"/>
       <c r="C69" s="37"/>
       <c r="D69" s="108"/>
-      <c r="E69" s="109"/>
+      <c r="E69" s="103"/>
       <c r="F69" s="108"/>
-      <c r="G69" s="109"/>
+      <c r="G69" s="103"/>
       <c r="H69" s="108"/>
-      <c r="I69" s="109"/>
+      <c r="I69" s="103"/>
       <c r="J69" s="108"/>
-      <c r="K69" s="109"/>
-      <c r="L69" s="114"/>
-      <c r="M69" s="115"/>
-      <c r="N69" s="120"/>
-      <c r="O69" s="121"/>
+      <c r="K69" s="103"/>
+      <c r="L69" s="111"/>
+      <c r="M69" s="112"/>
+      <c r="N69" s="93"/>
+      <c r="O69" s="99"/>
       <c r="P69" s="17"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
       <c r="B70" s="46"/>
       <c r="C70" s="38"/>
-      <c r="D70" s="110"/>
-      <c r="E70" s="111"/>
-      <c r="F70" s="110"/>
-      <c r="G70" s="111"/>
-      <c r="H70" s="110"/>
-      <c r="I70" s="111"/>
-      <c r="J70" s="110"/>
-      <c r="K70" s="111"/>
-      <c r="L70" s="116"/>
-      <c r="M70" s="117"/>
-      <c r="N70" s="122"/>
-      <c r="O70" s="123"/>
+      <c r="D70" s="109"/>
+      <c r="E70" s="105"/>
+      <c r="F70" s="109"/>
+      <c r="G70" s="105"/>
+      <c r="H70" s="109"/>
+      <c r="I70" s="105"/>
+      <c r="J70" s="109"/>
+      <c r="K70" s="105"/>
+      <c r="L70" s="113"/>
+      <c r="M70" s="114"/>
+      <c r="N70" s="95"/>
+      <c r="O70" s="100"/>
       <c r="P70" s="17"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="11"/>
       <c r="B71" s="46"/>
       <c r="C71" s="38"/>
-      <c r="D71" s="110"/>
-      <c r="E71" s="111"/>
-      <c r="F71" s="110"/>
-      <c r="G71" s="111"/>
-      <c r="H71" s="110"/>
-      <c r="I71" s="111"/>
-      <c r="J71" s="110"/>
-      <c r="K71" s="111"/>
-      <c r="L71" s="116"/>
-      <c r="M71" s="117"/>
-      <c r="N71" s="122"/>
-      <c r="O71" s="123"/>
+      <c r="D71" s="109"/>
+      <c r="E71" s="105"/>
+      <c r="F71" s="109"/>
+      <c r="G71" s="105"/>
+      <c r="H71" s="109"/>
+      <c r="I71" s="105"/>
+      <c r="J71" s="109"/>
+      <c r="K71" s="105"/>
+      <c r="L71" s="113"/>
+      <c r="M71" s="114"/>
+      <c r="N71" s="95"/>
+      <c r="O71" s="100"/>
       <c r="P71" s="17"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="11"/>
       <c r="B72" s="46"/>
       <c r="C72" s="38"/>
-      <c r="D72" s="110"/>
-      <c r="E72" s="111"/>
-      <c r="F72" s="110"/>
-      <c r="G72" s="111"/>
-      <c r="H72" s="110"/>
-      <c r="I72" s="111"/>
-      <c r="J72" s="110"/>
-      <c r="K72" s="111"/>
-      <c r="L72" s="116"/>
-      <c r="M72" s="117"/>
-      <c r="N72" s="122"/>
-      <c r="O72" s="123"/>
+      <c r="D72" s="109"/>
+      <c r="E72" s="105"/>
+      <c r="F72" s="109"/>
+      <c r="G72" s="105"/>
+      <c r="H72" s="109"/>
+      <c r="I72" s="105"/>
+      <c r="J72" s="109"/>
+      <c r="K72" s="105"/>
+      <c r="L72" s="113"/>
+      <c r="M72" s="114"/>
+      <c r="N72" s="95"/>
+      <c r="O72" s="100"/>
       <c r="P72" s="17"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="11"/>
       <c r="B73" s="46"/>
       <c r="C73" s="38"/>
-      <c r="D73" s="110"/>
-      <c r="E73" s="111"/>
-      <c r="F73" s="110"/>
-      <c r="G73" s="111"/>
-      <c r="H73" s="110"/>
-      <c r="I73" s="111"/>
-      <c r="J73" s="110"/>
-      <c r="K73" s="111"/>
-      <c r="L73" s="116"/>
-      <c r="M73" s="117"/>
-      <c r="N73" s="122"/>
-      <c r="O73" s="123"/>
+      <c r="D73" s="109"/>
+      <c r="E73" s="105"/>
+      <c r="F73" s="109"/>
+      <c r="G73" s="105"/>
+      <c r="H73" s="109"/>
+      <c r="I73" s="105"/>
+      <c r="J73" s="109"/>
+      <c r="K73" s="105"/>
+      <c r="L73" s="113"/>
+      <c r="M73" s="114"/>
+      <c r="N73" s="95"/>
+      <c r="O73" s="100"/>
       <c r="P73" s="17"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="11"/>
       <c r="B74" s="46"/>
       <c r="C74" s="38"/>
-      <c r="D74" s="112"/>
-      <c r="E74" s="113"/>
-      <c r="F74" s="112"/>
-      <c r="G74" s="113"/>
-      <c r="H74" s="112"/>
-      <c r="I74" s="113"/>
-      <c r="J74" s="112"/>
-      <c r="K74" s="113"/>
-      <c r="L74" s="118"/>
-      <c r="M74" s="119"/>
-      <c r="N74" s="124"/>
-      <c r="O74" s="125"/>
+      <c r="D74" s="110"/>
+      <c r="E74" s="107"/>
+      <c r="F74" s="110"/>
+      <c r="G74" s="107"/>
+      <c r="H74" s="110"/>
+      <c r="I74" s="107"/>
+      <c r="J74" s="110"/>
+      <c r="K74" s="107"/>
+      <c r="L74" s="115"/>
+      <c r="M74" s="116"/>
+      <c r="N74" s="97"/>
+      <c r="O74" s="101"/>
       <c r="P74" s="17"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
@@ -5078,34 +5088,34 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="11"/>
-      <c r="B76" s="105">
+      <c r="B76" s="122">
         <v>6</v>
       </c>
-      <c r="C76" s="106"/>
-      <c r="D76" s="106">
+      <c r="C76" s="123"/>
+      <c r="D76" s="123">
         <v>7</v>
       </c>
-      <c r="E76" s="106"/>
-      <c r="F76" s="106">
+      <c r="E76" s="123"/>
+      <c r="F76" s="123">
         <v>8</v>
       </c>
-      <c r="G76" s="106"/>
-      <c r="H76" s="106">
+      <c r="G76" s="123"/>
+      <c r="H76" s="123">
         <v>9</v>
       </c>
-      <c r="I76" s="106"/>
-      <c r="J76" s="106">
+      <c r="I76" s="123"/>
+      <c r="J76" s="123">
         <v>10</v>
       </c>
-      <c r="K76" s="106"/>
-      <c r="L76" s="106">
+      <c r="K76" s="123"/>
+      <c r="L76" s="123">
         <v>11</v>
       </c>
-      <c r="M76" s="106"/>
-      <c r="N76" s="106">
+      <c r="M76" s="123"/>
+      <c r="N76" s="123">
         <v>12</v>
       </c>
-      <c r="O76" s="107"/>
+      <c r="O76" s="134"/>
       <c r="P76" s="17"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
@@ -5113,107 +5123,107 @@
       <c r="B77" s="47"/>
       <c r="C77" s="40"/>
       <c r="D77" s="108"/>
-      <c r="E77" s="109"/>
+      <c r="E77" s="103"/>
       <c r="F77" s="108"/>
-      <c r="G77" s="109"/>
+      <c r="G77" s="103"/>
       <c r="H77" s="108"/>
-      <c r="I77" s="109"/>
+      <c r="I77" s="103"/>
       <c r="J77" s="108"/>
-      <c r="K77" s="109"/>
-      <c r="L77" s="114"/>
-      <c r="M77" s="115"/>
-      <c r="N77" s="120"/>
-      <c r="O77" s="121"/>
+      <c r="K77" s="103"/>
+      <c r="L77" s="111"/>
+      <c r="M77" s="112"/>
+      <c r="N77" s="93"/>
+      <c r="O77" s="99"/>
       <c r="P77" s="17"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="11"/>
       <c r="B78" s="47"/>
       <c r="C78" s="40"/>
-      <c r="D78" s="110"/>
-      <c r="E78" s="111"/>
-      <c r="F78" s="110"/>
-      <c r="G78" s="111"/>
-      <c r="H78" s="110"/>
-      <c r="I78" s="111"/>
-      <c r="J78" s="110"/>
-      <c r="K78" s="111"/>
-      <c r="L78" s="116"/>
-      <c r="M78" s="117"/>
-      <c r="N78" s="122"/>
-      <c r="O78" s="123"/>
+      <c r="D78" s="109"/>
+      <c r="E78" s="105"/>
+      <c r="F78" s="109"/>
+      <c r="G78" s="105"/>
+      <c r="H78" s="109"/>
+      <c r="I78" s="105"/>
+      <c r="J78" s="109"/>
+      <c r="K78" s="105"/>
+      <c r="L78" s="113"/>
+      <c r="M78" s="114"/>
+      <c r="N78" s="95"/>
+      <c r="O78" s="100"/>
       <c r="P78" s="17"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="11"/>
       <c r="B79" s="47"/>
       <c r="C79" s="40"/>
-      <c r="D79" s="110"/>
-      <c r="E79" s="111"/>
-      <c r="F79" s="110"/>
-      <c r="G79" s="111"/>
-      <c r="H79" s="110"/>
-      <c r="I79" s="111"/>
-      <c r="J79" s="110"/>
-      <c r="K79" s="111"/>
-      <c r="L79" s="116"/>
-      <c r="M79" s="117"/>
-      <c r="N79" s="122"/>
-      <c r="O79" s="123"/>
+      <c r="D79" s="109"/>
+      <c r="E79" s="105"/>
+      <c r="F79" s="109"/>
+      <c r="G79" s="105"/>
+      <c r="H79" s="109"/>
+      <c r="I79" s="105"/>
+      <c r="J79" s="109"/>
+      <c r="K79" s="105"/>
+      <c r="L79" s="113"/>
+      <c r="M79" s="114"/>
+      <c r="N79" s="95"/>
+      <c r="O79" s="100"/>
       <c r="P79" s="17"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="11"/>
       <c r="B80" s="47"/>
       <c r="C80" s="40"/>
-      <c r="D80" s="110"/>
-      <c r="E80" s="111"/>
-      <c r="F80" s="110"/>
-      <c r="G80" s="111"/>
-      <c r="H80" s="110"/>
-      <c r="I80" s="111"/>
-      <c r="J80" s="110"/>
-      <c r="K80" s="111"/>
-      <c r="L80" s="116"/>
-      <c r="M80" s="117"/>
-      <c r="N80" s="122"/>
-      <c r="O80" s="123"/>
+      <c r="D80" s="109"/>
+      <c r="E80" s="105"/>
+      <c r="F80" s="109"/>
+      <c r="G80" s="105"/>
+      <c r="H80" s="109"/>
+      <c r="I80" s="105"/>
+      <c r="J80" s="109"/>
+      <c r="K80" s="105"/>
+      <c r="L80" s="113"/>
+      <c r="M80" s="114"/>
+      <c r="N80" s="95"/>
+      <c r="O80" s="100"/>
       <c r="P80" s="17"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="11"/>
       <c r="B81" s="48"/>
       <c r="C81" s="41"/>
-      <c r="D81" s="110"/>
-      <c r="E81" s="111"/>
-      <c r="F81" s="110"/>
-      <c r="G81" s="111"/>
-      <c r="H81" s="110"/>
-      <c r="I81" s="111"/>
-      <c r="J81" s="110"/>
-      <c r="K81" s="111"/>
-      <c r="L81" s="116"/>
-      <c r="M81" s="117"/>
-      <c r="N81" s="122"/>
-      <c r="O81" s="123"/>
+      <c r="D81" s="109"/>
+      <c r="E81" s="105"/>
+      <c r="F81" s="109"/>
+      <c r="G81" s="105"/>
+      <c r="H81" s="109"/>
+      <c r="I81" s="105"/>
+      <c r="J81" s="109"/>
+      <c r="K81" s="105"/>
+      <c r="L81" s="113"/>
+      <c r="M81" s="114"/>
+      <c r="N81" s="95"/>
+      <c r="O81" s="100"/>
       <c r="P81" s="17"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="11"/>
       <c r="B82" s="46"/>
       <c r="C82" s="38"/>
-      <c r="D82" s="112"/>
-      <c r="E82" s="113"/>
-      <c r="F82" s="112"/>
-      <c r="G82" s="113"/>
-      <c r="H82" s="112"/>
-      <c r="I82" s="113"/>
-      <c r="J82" s="112"/>
-      <c r="K82" s="113"/>
-      <c r="L82" s="118"/>
-      <c r="M82" s="119"/>
-      <c r="N82" s="124"/>
-      <c r="O82" s="125"/>
+      <c r="D82" s="110"/>
+      <c r="E82" s="107"/>
+      <c r="F82" s="110"/>
+      <c r="G82" s="107"/>
+      <c r="H82" s="110"/>
+      <c r="I82" s="107"/>
+      <c r="J82" s="110"/>
+      <c r="K82" s="107"/>
+      <c r="L82" s="115"/>
+      <c r="M82" s="116"/>
+      <c r="N82" s="97"/>
+      <c r="O82" s="101"/>
       <c r="P82" s="17"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.3">
@@ -5236,34 +5246,34 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="11"/>
-      <c r="B84" s="137">
+      <c r="B84" s="124">
         <v>13</v>
       </c>
-      <c r="C84" s="138"/>
-      <c r="D84" s="132">
+      <c r="C84" s="125"/>
+      <c r="D84" s="118">
         <v>14</v>
       </c>
-      <c r="E84" s="132"/>
-      <c r="F84" s="132">
+      <c r="E84" s="118"/>
+      <c r="F84" s="118">
         <v>15</v>
       </c>
-      <c r="G84" s="132"/>
-      <c r="H84" s="132">
+      <c r="G84" s="118"/>
+      <c r="H84" s="118">
         <v>16</v>
       </c>
-      <c r="I84" s="132"/>
-      <c r="J84" s="132">
+      <c r="I84" s="118"/>
+      <c r="J84" s="118">
         <v>17</v>
       </c>
-      <c r="K84" s="132"/>
-      <c r="L84" s="132">
+      <c r="K84" s="118"/>
+      <c r="L84" s="118">
         <v>18</v>
       </c>
-      <c r="M84" s="132"/>
-      <c r="N84" s="132">
+      <c r="M84" s="118"/>
+      <c r="N84" s="118">
         <v>19</v>
       </c>
-      <c r="O84" s="136"/>
+      <c r="O84" s="121"/>
       <c r="P84" s="17"/>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.3">
@@ -5271,107 +5281,107 @@
       <c r="B85" s="47"/>
       <c r="C85" s="39"/>
       <c r="D85" s="108"/>
-      <c r="E85" s="109"/>
+      <c r="E85" s="103"/>
       <c r="F85" s="108"/>
-      <c r="G85" s="109"/>
+      <c r="G85" s="103"/>
       <c r="H85" s="108"/>
-      <c r="I85" s="109"/>
+      <c r="I85" s="103"/>
       <c r="J85" s="108"/>
-      <c r="K85" s="109"/>
-      <c r="L85" s="114"/>
-      <c r="M85" s="115"/>
-      <c r="N85" s="120"/>
-      <c r="O85" s="121"/>
+      <c r="K85" s="103"/>
+      <c r="L85" s="111"/>
+      <c r="M85" s="112"/>
+      <c r="N85" s="93"/>
+      <c r="O85" s="99"/>
       <c r="P85" s="17"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="11"/>
       <c r="B86" s="49"/>
       <c r="C86" s="42"/>
-      <c r="D86" s="110"/>
-      <c r="E86" s="111"/>
-      <c r="F86" s="110"/>
-      <c r="G86" s="111"/>
-      <c r="H86" s="110"/>
-      <c r="I86" s="111"/>
-      <c r="J86" s="110"/>
-      <c r="K86" s="111"/>
-      <c r="L86" s="116"/>
-      <c r="M86" s="117"/>
-      <c r="N86" s="122"/>
-      <c r="O86" s="123"/>
+      <c r="D86" s="109"/>
+      <c r="E86" s="105"/>
+      <c r="F86" s="109"/>
+      <c r="G86" s="105"/>
+      <c r="H86" s="109"/>
+      <c r="I86" s="105"/>
+      <c r="J86" s="109"/>
+      <c r="K86" s="105"/>
+      <c r="L86" s="113"/>
+      <c r="M86" s="114"/>
+      <c r="N86" s="95"/>
+      <c r="O86" s="100"/>
       <c r="P86" s="17"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="11"/>
       <c r="B87" s="49"/>
       <c r="C87" s="42"/>
-      <c r="D87" s="110"/>
-      <c r="E87" s="111"/>
-      <c r="F87" s="110"/>
-      <c r="G87" s="111"/>
-      <c r="H87" s="110"/>
-      <c r="I87" s="111"/>
-      <c r="J87" s="110"/>
-      <c r="K87" s="111"/>
-      <c r="L87" s="116"/>
-      <c r="M87" s="117"/>
-      <c r="N87" s="122"/>
-      <c r="O87" s="123"/>
+      <c r="D87" s="109"/>
+      <c r="E87" s="105"/>
+      <c r="F87" s="109"/>
+      <c r="G87" s="105"/>
+      <c r="H87" s="109"/>
+      <c r="I87" s="105"/>
+      <c r="J87" s="109"/>
+      <c r="K87" s="105"/>
+      <c r="L87" s="113"/>
+      <c r="M87" s="114"/>
+      <c r="N87" s="95"/>
+      <c r="O87" s="100"/>
       <c r="P87" s="17"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="11"/>
       <c r="B88" s="49"/>
       <c r="C88" s="42"/>
-      <c r="D88" s="110"/>
-      <c r="E88" s="111"/>
-      <c r="F88" s="110"/>
-      <c r="G88" s="111"/>
-      <c r="H88" s="110"/>
-      <c r="I88" s="111"/>
-      <c r="J88" s="110"/>
-      <c r="K88" s="111"/>
-      <c r="L88" s="116"/>
-      <c r="M88" s="117"/>
-      <c r="N88" s="122"/>
-      <c r="O88" s="123"/>
+      <c r="D88" s="109"/>
+      <c r="E88" s="105"/>
+      <c r="F88" s="109"/>
+      <c r="G88" s="105"/>
+      <c r="H88" s="109"/>
+      <c r="I88" s="105"/>
+      <c r="J88" s="109"/>
+      <c r="K88" s="105"/>
+      <c r="L88" s="113"/>
+      <c r="M88" s="114"/>
+      <c r="N88" s="95"/>
+      <c r="O88" s="100"/>
       <c r="P88" s="17"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" s="11"/>
       <c r="B89" s="50"/>
       <c r="C89" s="43"/>
-      <c r="D89" s="110"/>
-      <c r="E89" s="111"/>
-      <c r="F89" s="110"/>
-      <c r="G89" s="111"/>
-      <c r="H89" s="110"/>
-      <c r="I89" s="111"/>
-      <c r="J89" s="110"/>
-      <c r="K89" s="111"/>
-      <c r="L89" s="116"/>
-      <c r="M89" s="117"/>
-      <c r="N89" s="122"/>
-      <c r="O89" s="123"/>
+      <c r="D89" s="109"/>
+      <c r="E89" s="105"/>
+      <c r="F89" s="109"/>
+      <c r="G89" s="105"/>
+      <c r="H89" s="109"/>
+      <c r="I89" s="105"/>
+      <c r="J89" s="109"/>
+      <c r="K89" s="105"/>
+      <c r="L89" s="113"/>
+      <c r="M89" s="114"/>
+      <c r="N89" s="95"/>
+      <c r="O89" s="100"/>
       <c r="P89" s="17"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" s="11"/>
       <c r="B90" s="46"/>
       <c r="C90" s="38"/>
-      <c r="D90" s="112"/>
-      <c r="E90" s="113"/>
-      <c r="F90" s="112"/>
-      <c r="G90" s="113"/>
-      <c r="H90" s="112"/>
-      <c r="I90" s="113"/>
-      <c r="J90" s="112"/>
-      <c r="K90" s="113"/>
-      <c r="L90" s="118"/>
-      <c r="M90" s="119"/>
-      <c r="N90" s="124"/>
-      <c r="O90" s="125"/>
+      <c r="D90" s="110"/>
+      <c r="E90" s="107"/>
+      <c r="F90" s="110"/>
+      <c r="G90" s="107"/>
+      <c r="H90" s="110"/>
+      <c r="I90" s="107"/>
+      <c r="J90" s="110"/>
+      <c r="K90" s="107"/>
+      <c r="L90" s="115"/>
+      <c r="M90" s="116"/>
+      <c r="N90" s="97"/>
+      <c r="O90" s="101"/>
       <c r="P90" s="17"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.3">
@@ -5394,34 +5404,34 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="11"/>
-      <c r="B92" s="105">
+      <c r="B92" s="122">
         <v>20</v>
       </c>
-      <c r="C92" s="106"/>
-      <c r="D92" s="106">
+      <c r="C92" s="123"/>
+      <c r="D92" s="123">
         <v>21</v>
       </c>
-      <c r="E92" s="106"/>
-      <c r="F92" s="106">
+      <c r="E92" s="123"/>
+      <c r="F92" s="123">
         <v>22</v>
       </c>
-      <c r="G92" s="106"/>
-      <c r="H92" s="132">
+      <c r="G92" s="123"/>
+      <c r="H92" s="118">
         <v>23</v>
       </c>
-      <c r="I92" s="132"/>
-      <c r="J92" s="132">
+      <c r="I92" s="118"/>
+      <c r="J92" s="118">
         <v>24</v>
       </c>
-      <c r="K92" s="132"/>
-      <c r="L92" s="132">
+      <c r="K92" s="118"/>
+      <c r="L92" s="118">
         <v>25</v>
       </c>
-      <c r="M92" s="132"/>
-      <c r="N92" s="132">
+      <c r="M92" s="118"/>
+      <c r="N92" s="118">
         <v>26</v>
       </c>
-      <c r="O92" s="136"/>
+      <c r="O92" s="121"/>
       <c r="P92" s="17"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.3">
@@ -5429,107 +5439,107 @@
       <c r="B93" s="51"/>
       <c r="C93" s="39"/>
       <c r="D93" s="108"/>
-      <c r="E93" s="109"/>
+      <c r="E93" s="103"/>
       <c r="F93" s="108"/>
-      <c r="G93" s="109"/>
+      <c r="G93" s="103"/>
       <c r="H93" s="108"/>
-      <c r="I93" s="109"/>
+      <c r="I93" s="103"/>
       <c r="J93" s="108"/>
-      <c r="K93" s="109"/>
-      <c r="L93" s="114"/>
-      <c r="M93" s="115"/>
-      <c r="N93" s="120"/>
-      <c r="O93" s="121"/>
+      <c r="K93" s="103"/>
+      <c r="L93" s="111"/>
+      <c r="M93" s="112"/>
+      <c r="N93" s="93"/>
+      <c r="O93" s="99"/>
       <c r="P93" s="17"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" s="11"/>
       <c r="B94" s="48"/>
       <c r="C94" s="44"/>
-      <c r="D94" s="110"/>
-      <c r="E94" s="111"/>
-      <c r="F94" s="110"/>
-      <c r="G94" s="111"/>
-      <c r="H94" s="110"/>
-      <c r="I94" s="111"/>
-      <c r="J94" s="110"/>
-      <c r="K94" s="111"/>
-      <c r="L94" s="116"/>
-      <c r="M94" s="117"/>
-      <c r="N94" s="122"/>
-      <c r="O94" s="123"/>
+      <c r="D94" s="109"/>
+      <c r="E94" s="105"/>
+      <c r="F94" s="109"/>
+      <c r="G94" s="105"/>
+      <c r="H94" s="109"/>
+      <c r="I94" s="105"/>
+      <c r="J94" s="109"/>
+      <c r="K94" s="105"/>
+      <c r="L94" s="113"/>
+      <c r="M94" s="114"/>
+      <c r="N94" s="95"/>
+      <c r="O94" s="100"/>
       <c r="P94" s="17"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" s="11"/>
       <c r="B95" s="48"/>
       <c r="C95" s="44"/>
-      <c r="D95" s="110"/>
-      <c r="E95" s="111"/>
-      <c r="F95" s="110"/>
-      <c r="G95" s="111"/>
-      <c r="H95" s="110"/>
-      <c r="I95" s="111"/>
-      <c r="J95" s="110"/>
-      <c r="K95" s="111"/>
-      <c r="L95" s="116"/>
-      <c r="M95" s="117"/>
-      <c r="N95" s="122"/>
-      <c r="O95" s="123"/>
+      <c r="D95" s="109"/>
+      <c r="E95" s="105"/>
+      <c r="F95" s="109"/>
+      <c r="G95" s="105"/>
+      <c r="H95" s="109"/>
+      <c r="I95" s="105"/>
+      <c r="J95" s="109"/>
+      <c r="K95" s="105"/>
+      <c r="L95" s="113"/>
+      <c r="M95" s="114"/>
+      <c r="N95" s="95"/>
+      <c r="O95" s="100"/>
       <c r="P95" s="17"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" s="11"/>
       <c r="B96" s="48"/>
       <c r="C96" s="44"/>
-      <c r="D96" s="110"/>
-      <c r="E96" s="111"/>
-      <c r="F96" s="110"/>
-      <c r="G96" s="111"/>
-      <c r="H96" s="110"/>
-      <c r="I96" s="111"/>
-      <c r="J96" s="110"/>
-      <c r="K96" s="111"/>
-      <c r="L96" s="116"/>
-      <c r="M96" s="117"/>
-      <c r="N96" s="122"/>
-      <c r="O96" s="123"/>
+      <c r="D96" s="109"/>
+      <c r="E96" s="105"/>
+      <c r="F96" s="109"/>
+      <c r="G96" s="105"/>
+      <c r="H96" s="109"/>
+      <c r="I96" s="105"/>
+      <c r="J96" s="109"/>
+      <c r="K96" s="105"/>
+      <c r="L96" s="113"/>
+      <c r="M96" s="114"/>
+      <c r="N96" s="95"/>
+      <c r="O96" s="100"/>
       <c r="P96" s="17"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="11"/>
       <c r="B97" s="48"/>
       <c r="C97" s="44"/>
-      <c r="D97" s="110"/>
-      <c r="E97" s="111"/>
-      <c r="F97" s="110"/>
-      <c r="G97" s="111"/>
-      <c r="H97" s="110"/>
-      <c r="I97" s="111"/>
-      <c r="J97" s="110"/>
-      <c r="K97" s="111"/>
-      <c r="L97" s="116"/>
-      <c r="M97" s="117"/>
-      <c r="N97" s="122"/>
-      <c r="O97" s="123"/>
+      <c r="D97" s="109"/>
+      <c r="E97" s="105"/>
+      <c r="F97" s="109"/>
+      <c r="G97" s="105"/>
+      <c r="H97" s="109"/>
+      <c r="I97" s="105"/>
+      <c r="J97" s="109"/>
+      <c r="K97" s="105"/>
+      <c r="L97" s="113"/>
+      <c r="M97" s="114"/>
+      <c r="N97" s="95"/>
+      <c r="O97" s="100"/>
       <c r="P97" s="17"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="11"/>
       <c r="B98" s="46"/>
       <c r="C98" s="38"/>
-      <c r="D98" s="112"/>
-      <c r="E98" s="113"/>
-      <c r="F98" s="112"/>
-      <c r="G98" s="113"/>
-      <c r="H98" s="112"/>
-      <c r="I98" s="113"/>
-      <c r="J98" s="112"/>
-      <c r="K98" s="113"/>
-      <c r="L98" s="118"/>
-      <c r="M98" s="119"/>
-      <c r="N98" s="124"/>
-      <c r="O98" s="125"/>
+      <c r="D98" s="110"/>
+      <c r="E98" s="107"/>
+      <c r="F98" s="110"/>
+      <c r="G98" s="107"/>
+      <c r="H98" s="110"/>
+      <c r="I98" s="107"/>
+      <c r="J98" s="110"/>
+      <c r="K98" s="107"/>
+      <c r="L98" s="115"/>
+      <c r="M98" s="116"/>
+      <c r="N98" s="97"/>
+      <c r="O98" s="101"/>
       <c r="P98" s="17"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.3">
@@ -5552,135 +5562,135 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="11"/>
-      <c r="B100" s="105">
+      <c r="B100" s="122">
         <v>27</v>
       </c>
-      <c r="C100" s="106"/>
-      <c r="D100" s="106">
+      <c r="C100" s="123"/>
+      <c r="D100" s="123">
         <v>28</v>
       </c>
-      <c r="E100" s="106"/>
-      <c r="F100" s="106">
+      <c r="E100" s="123"/>
+      <c r="F100" s="123">
         <v>29</v>
       </c>
-      <c r="G100" s="106"/>
-      <c r="H100" s="132">
+      <c r="G100" s="123"/>
+      <c r="H100" s="118">
         <v>30</v>
       </c>
-      <c r="I100" s="132"/>
-      <c r="J100" s="106">
+      <c r="I100" s="118"/>
+      <c r="J100" s="123">
         <v>31</v>
       </c>
-      <c r="K100" s="106"/>
+      <c r="K100" s="123"/>
       <c r="O100" s="21"/>
       <c r="P100" s="17"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" s="11"/>
-      <c r="B101" s="133"/>
-      <c r="C101" s="109"/>
+      <c r="B101" s="102"/>
+      <c r="C101" s="103"/>
       <c r="D101" s="108"/>
-      <c r="E101" s="109"/>
+      <c r="E101" s="103"/>
       <c r="F101" s="108"/>
-      <c r="G101" s="109"/>
+      <c r="G101" s="103"/>
       <c r="H101" s="108"/>
-      <c r="I101" s="109"/>
+      <c r="I101" s="103"/>
       <c r="J101" s="108"/>
-      <c r="K101" s="109"/>
-      <c r="L101" s="114"/>
-      <c r="M101" s="115"/>
-      <c r="N101" s="120"/>
-      <c r="O101" s="121"/>
+      <c r="K101" s="103"/>
+      <c r="L101" s="111"/>
+      <c r="M101" s="112"/>
+      <c r="N101" s="93"/>
+      <c r="O101" s="99"/>
       <c r="P101" s="17"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="11"/>
-      <c r="B102" s="134"/>
-      <c r="C102" s="111"/>
-      <c r="D102" s="110"/>
-      <c r="E102" s="111"/>
-      <c r="F102" s="110"/>
-      <c r="G102" s="111"/>
-      <c r="H102" s="110"/>
-      <c r="I102" s="111"/>
-      <c r="J102" s="110"/>
-      <c r="K102" s="111"/>
-      <c r="L102" s="116"/>
-      <c r="M102" s="117"/>
-      <c r="N102" s="122"/>
-      <c r="O102" s="123"/>
+      <c r="B102" s="104"/>
+      <c r="C102" s="105"/>
+      <c r="D102" s="109"/>
+      <c r="E102" s="105"/>
+      <c r="F102" s="109"/>
+      <c r="G102" s="105"/>
+      <c r="H102" s="109"/>
+      <c r="I102" s="105"/>
+      <c r="J102" s="109"/>
+      <c r="K102" s="105"/>
+      <c r="L102" s="113"/>
+      <c r="M102" s="114"/>
+      <c r="N102" s="95"/>
+      <c r="O102" s="100"/>
       <c r="P102" s="17"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="11"/>
-      <c r="B103" s="134"/>
-      <c r="C103" s="111"/>
-      <c r="D103" s="110"/>
-      <c r="E103" s="111"/>
-      <c r="F103" s="110"/>
-      <c r="G103" s="111"/>
-      <c r="H103" s="110"/>
-      <c r="I103" s="111"/>
-      <c r="J103" s="110"/>
-      <c r="K103" s="111"/>
-      <c r="L103" s="116"/>
-      <c r="M103" s="117"/>
-      <c r="N103" s="122"/>
-      <c r="O103" s="123"/>
+      <c r="B103" s="104"/>
+      <c r="C103" s="105"/>
+      <c r="D103" s="109"/>
+      <c r="E103" s="105"/>
+      <c r="F103" s="109"/>
+      <c r="G103" s="105"/>
+      <c r="H103" s="109"/>
+      <c r="I103" s="105"/>
+      <c r="J103" s="109"/>
+      <c r="K103" s="105"/>
+      <c r="L103" s="113"/>
+      <c r="M103" s="114"/>
+      <c r="N103" s="95"/>
+      <c r="O103" s="100"/>
       <c r="P103" s="17"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="11"/>
-      <c r="B104" s="134"/>
-      <c r="C104" s="111"/>
-      <c r="D104" s="110"/>
-      <c r="E104" s="111"/>
-      <c r="F104" s="110"/>
-      <c r="G104" s="111"/>
-      <c r="H104" s="110"/>
-      <c r="I104" s="111"/>
-      <c r="J104" s="110"/>
-      <c r="K104" s="111"/>
-      <c r="L104" s="116"/>
-      <c r="M104" s="117"/>
-      <c r="N104" s="122"/>
-      <c r="O104" s="123"/>
+      <c r="B104" s="104"/>
+      <c r="C104" s="105"/>
+      <c r="D104" s="109"/>
+      <c r="E104" s="105"/>
+      <c r="F104" s="109"/>
+      <c r="G104" s="105"/>
+      <c r="H104" s="109"/>
+      <c r="I104" s="105"/>
+      <c r="J104" s="109"/>
+      <c r="K104" s="105"/>
+      <c r="L104" s="113"/>
+      <c r="M104" s="114"/>
+      <c r="N104" s="95"/>
+      <c r="O104" s="100"/>
       <c r="P104" s="17"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" s="11"/>
-      <c r="B105" s="134"/>
-      <c r="C105" s="111"/>
-      <c r="D105" s="110"/>
-      <c r="E105" s="111"/>
-      <c r="F105" s="110"/>
-      <c r="G105" s="111"/>
-      <c r="H105" s="110"/>
-      <c r="I105" s="111"/>
-      <c r="J105" s="110"/>
-      <c r="K105" s="111"/>
-      <c r="L105" s="116"/>
-      <c r="M105" s="117"/>
-      <c r="N105" s="122"/>
-      <c r="O105" s="123"/>
+      <c r="B105" s="104"/>
+      <c r="C105" s="105"/>
+      <c r="D105" s="109"/>
+      <c r="E105" s="105"/>
+      <c r="F105" s="109"/>
+      <c r="G105" s="105"/>
+      <c r="H105" s="109"/>
+      <c r="I105" s="105"/>
+      <c r="J105" s="109"/>
+      <c r="K105" s="105"/>
+      <c r="L105" s="113"/>
+      <c r="M105" s="114"/>
+      <c r="N105" s="95"/>
+      <c r="O105" s="100"/>
       <c r="P105" s="17"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" s="11"/>
-      <c r="B106" s="135"/>
-      <c r="C106" s="113"/>
-      <c r="D106" s="112"/>
-      <c r="E106" s="113"/>
-      <c r="F106" s="112"/>
-      <c r="G106" s="113"/>
-      <c r="H106" s="112"/>
-      <c r="I106" s="113"/>
-      <c r="J106" s="112"/>
-      <c r="K106" s="113"/>
-      <c r="L106" s="118"/>
-      <c r="M106" s="119"/>
-      <c r="N106" s="124"/>
-      <c r="O106" s="125"/>
+      <c r="B106" s="106"/>
+      <c r="C106" s="107"/>
+      <c r="D106" s="110"/>
+      <c r="E106" s="107"/>
+      <c r="F106" s="110"/>
+      <c r="G106" s="107"/>
+      <c r="H106" s="110"/>
+      <c r="I106" s="107"/>
+      <c r="J106" s="110"/>
+      <c r="K106" s="107"/>
+      <c r="L106" s="115"/>
+      <c r="M106" s="116"/>
+      <c r="N106" s="97"/>
+      <c r="O106" s="101"/>
       <c r="P106" s="17"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.3">
@@ -5710,22 +5720,22 @@
     <row r="109" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="110" spans="1:16" ht="33.75" x14ac:dyDescent="0.3">
       <c r="A110" s="11"/>
-      <c r="B110" s="126" t="s">
+      <c r="B110" s="143" t="s">
         <v>46</v>
       </c>
-      <c r="C110" s="127"/>
-      <c r="D110" s="127"/>
-      <c r="E110" s="127"/>
-      <c r="F110" s="127"/>
-      <c r="G110" s="127"/>
-      <c r="H110" s="127"/>
-      <c r="I110" s="127"/>
-      <c r="J110" s="127"/>
-      <c r="K110" s="127"/>
-      <c r="L110" s="127"/>
-      <c r="M110" s="127"/>
-      <c r="N110" s="127"/>
-      <c r="O110" s="128"/>
+      <c r="C110" s="144"/>
+      <c r="D110" s="144"/>
+      <c r="E110" s="144"/>
+      <c r="F110" s="144"/>
+      <c r="G110" s="144"/>
+      <c r="H110" s="144"/>
+      <c r="I110" s="144"/>
+      <c r="J110" s="144"/>
+      <c r="K110" s="144"/>
+      <c r="L110" s="144"/>
+      <c r="M110" s="144"/>
+      <c r="N110" s="144"/>
+      <c r="O110" s="145"/>
       <c r="P110" s="17"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.3">
@@ -5736,56 +5746,56 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" s="11"/>
-      <c r="B112" s="129" t="s">
+      <c r="B112" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="C112" s="130"/>
-      <c r="D112" s="130" t="s">
+      <c r="C112" s="133"/>
+      <c r="D112" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="E112" s="130"/>
-      <c r="F112" s="130" t="s">
+      <c r="E112" s="133"/>
+      <c r="F112" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="G112" s="130"/>
-      <c r="H112" s="130" t="s">
+      <c r="G112" s="133"/>
+      <c r="H112" s="133" t="s">
         <v>42</v>
       </c>
-      <c r="I112" s="130"/>
-      <c r="J112" s="130" t="s">
+      <c r="I112" s="133"/>
+      <c r="J112" s="133" t="s">
         <v>43</v>
       </c>
-      <c r="K112" s="130"/>
-      <c r="L112" s="130" t="s">
+      <c r="K112" s="133"/>
+      <c r="L112" s="133" t="s">
         <v>44</v>
       </c>
-      <c r="M112" s="130"/>
-      <c r="N112" s="130" t="s">
+      <c r="M112" s="133"/>
+      <c r="N112" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="O112" s="131"/>
+      <c r="O112" s="147"/>
       <c r="P112" s="17"/>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="11"/>
-      <c r="B113" s="105"/>
-      <c r="C113" s="106"/>
-      <c r="D113" s="106"/>
-      <c r="E113" s="106"/>
-      <c r="F113" s="106"/>
-      <c r="G113" s="106"/>
-      <c r="H113" s="106"/>
-      <c r="I113" s="106"/>
-      <c r="J113" s="106"/>
-      <c r="K113" s="106"/>
-      <c r="L113" s="106">
+      <c r="B113" s="122"/>
+      <c r="C113" s="123"/>
+      <c r="D113" s="123"/>
+      <c r="E113" s="123"/>
+      <c r="F113" s="123"/>
+      <c r="G113" s="123"/>
+      <c r="H113" s="123"/>
+      <c r="I113" s="123"/>
+      <c r="J113" s="123"/>
+      <c r="K113" s="123"/>
+      <c r="L113" s="123">
         <v>1</v>
       </c>
-      <c r="M113" s="106"/>
-      <c r="N113" s="106">
+      <c r="M113" s="123"/>
+      <c r="N113" s="123">
         <v>2</v>
       </c>
-      <c r="O113" s="107"/>
+      <c r="O113" s="134"/>
       <c r="P113" s="17"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.3">
@@ -5793,107 +5803,107 @@
       <c r="B114" s="45"/>
       <c r="C114" s="37"/>
       <c r="D114" s="108"/>
-      <c r="E114" s="109"/>
+      <c r="E114" s="103"/>
       <c r="F114" s="108"/>
-      <c r="G114" s="109"/>
+      <c r="G114" s="103"/>
       <c r="H114" s="108"/>
-      <c r="I114" s="109"/>
+      <c r="I114" s="103"/>
       <c r="J114" s="108"/>
-      <c r="K114" s="109"/>
-      <c r="L114" s="114"/>
-      <c r="M114" s="115"/>
-      <c r="N114" s="120"/>
-      <c r="O114" s="121"/>
+      <c r="K114" s="103"/>
+      <c r="L114" s="111"/>
+      <c r="M114" s="112"/>
+      <c r="N114" s="93"/>
+      <c r="O114" s="99"/>
       <c r="P114" s="17"/>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" s="11"/>
       <c r="B115" s="46"/>
       <c r="C115" s="38"/>
-      <c r="D115" s="110"/>
-      <c r="E115" s="111"/>
-      <c r="F115" s="110"/>
-      <c r="G115" s="111"/>
-      <c r="H115" s="110"/>
-      <c r="I115" s="111"/>
-      <c r="J115" s="110"/>
-      <c r="K115" s="111"/>
-      <c r="L115" s="116"/>
-      <c r="M115" s="117"/>
-      <c r="N115" s="122"/>
-      <c r="O115" s="123"/>
+      <c r="D115" s="109"/>
+      <c r="E115" s="105"/>
+      <c r="F115" s="109"/>
+      <c r="G115" s="105"/>
+      <c r="H115" s="109"/>
+      <c r="I115" s="105"/>
+      <c r="J115" s="109"/>
+      <c r="K115" s="105"/>
+      <c r="L115" s="113"/>
+      <c r="M115" s="114"/>
+      <c r="N115" s="95"/>
+      <c r="O115" s="100"/>
       <c r="P115" s="17"/>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" s="11"/>
       <c r="B116" s="46"/>
       <c r="C116" s="38"/>
-      <c r="D116" s="110"/>
-      <c r="E116" s="111"/>
-      <c r="F116" s="110"/>
-      <c r="G116" s="111"/>
-      <c r="H116" s="110"/>
-      <c r="I116" s="111"/>
-      <c r="J116" s="110"/>
-      <c r="K116" s="111"/>
-      <c r="L116" s="116"/>
-      <c r="M116" s="117"/>
-      <c r="N116" s="122"/>
-      <c r="O116" s="123"/>
+      <c r="D116" s="109"/>
+      <c r="E116" s="105"/>
+      <c r="F116" s="109"/>
+      <c r="G116" s="105"/>
+      <c r="H116" s="109"/>
+      <c r="I116" s="105"/>
+      <c r="J116" s="109"/>
+      <c r="K116" s="105"/>
+      <c r="L116" s="113"/>
+      <c r="M116" s="114"/>
+      <c r="N116" s="95"/>
+      <c r="O116" s="100"/>
       <c r="P116" s="17"/>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" s="11"/>
       <c r="B117" s="46"/>
       <c r="C117" s="38"/>
-      <c r="D117" s="110"/>
-      <c r="E117" s="111"/>
-      <c r="F117" s="110"/>
-      <c r="G117" s="111"/>
-      <c r="H117" s="110"/>
-      <c r="I117" s="111"/>
-      <c r="J117" s="110"/>
-      <c r="K117" s="111"/>
-      <c r="L117" s="116"/>
-      <c r="M117" s="117"/>
-      <c r="N117" s="122"/>
-      <c r="O117" s="123"/>
+      <c r="D117" s="109"/>
+      <c r="E117" s="105"/>
+      <c r="F117" s="109"/>
+      <c r="G117" s="105"/>
+      <c r="H117" s="109"/>
+      <c r="I117" s="105"/>
+      <c r="J117" s="109"/>
+      <c r="K117" s="105"/>
+      <c r="L117" s="113"/>
+      <c r="M117" s="114"/>
+      <c r="N117" s="95"/>
+      <c r="O117" s="100"/>
       <c r="P117" s="17"/>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" s="11"/>
       <c r="B118" s="46"/>
       <c r="C118" s="38"/>
-      <c r="D118" s="110"/>
-      <c r="E118" s="111"/>
-      <c r="F118" s="110"/>
-      <c r="G118" s="111"/>
-      <c r="H118" s="110"/>
-      <c r="I118" s="111"/>
-      <c r="J118" s="110"/>
-      <c r="K118" s="111"/>
-      <c r="L118" s="116"/>
-      <c r="M118" s="117"/>
-      <c r="N118" s="122"/>
-      <c r="O118" s="123"/>
+      <c r="D118" s="109"/>
+      <c r="E118" s="105"/>
+      <c r="F118" s="109"/>
+      <c r="G118" s="105"/>
+      <c r="H118" s="109"/>
+      <c r="I118" s="105"/>
+      <c r="J118" s="109"/>
+      <c r="K118" s="105"/>
+      <c r="L118" s="113"/>
+      <c r="M118" s="114"/>
+      <c r="N118" s="95"/>
+      <c r="O118" s="100"/>
       <c r="P118" s="17"/>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="11"/>
       <c r="B119" s="46"/>
       <c r="C119" s="38"/>
-      <c r="D119" s="112"/>
-      <c r="E119" s="113"/>
-      <c r="F119" s="112"/>
-      <c r="G119" s="113"/>
-      <c r="H119" s="112"/>
-      <c r="I119" s="113"/>
-      <c r="J119" s="112"/>
-      <c r="K119" s="113"/>
-      <c r="L119" s="118"/>
-      <c r="M119" s="119"/>
-      <c r="N119" s="124"/>
-      <c r="O119" s="125"/>
+      <c r="D119" s="110"/>
+      <c r="E119" s="107"/>
+      <c r="F119" s="110"/>
+      <c r="G119" s="107"/>
+      <c r="H119" s="110"/>
+      <c r="I119" s="107"/>
+      <c r="J119" s="110"/>
+      <c r="K119" s="107"/>
+      <c r="L119" s="115"/>
+      <c r="M119" s="116"/>
+      <c r="N119" s="97"/>
+      <c r="O119" s="101"/>
       <c r="P119" s="17"/>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.3">
@@ -5916,26 +5926,26 @@
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" s="11"/>
-      <c r="B121" s="105">
+      <c r="B121" s="122">
         <v>3</v>
       </c>
-      <c r="C121" s="106"/>
-      <c r="D121" s="106">
+      <c r="C121" s="123"/>
+      <c r="D121" s="123">
         <v>4</v>
       </c>
-      <c r="E121" s="106"/>
-      <c r="F121" s="106">
+      <c r="E121" s="123"/>
+      <c r="F121" s="123">
         <v>5</v>
       </c>
-      <c r="G121" s="106"/>
-      <c r="H121" s="106"/>
-      <c r="I121" s="106"/>
-      <c r="J121" s="106"/>
-      <c r="K121" s="106"/>
-      <c r="L121" s="106"/>
-      <c r="M121" s="106"/>
-      <c r="N121" s="106"/>
-      <c r="O121" s="107"/>
+      <c r="G121" s="123"/>
+      <c r="H121" s="123"/>
+      <c r="I121" s="123"/>
+      <c r="J121" s="123"/>
+      <c r="K121" s="123"/>
+      <c r="L121" s="123"/>
+      <c r="M121" s="123"/>
+      <c r="N121" s="123"/>
+      <c r="O121" s="134"/>
       <c r="P121" s="17"/>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.3">
@@ -5945,117 +5955,117 @@
       <c r="D122" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="E122" s="109"/>
+      <c r="E122" s="103"/>
       <c r="F122" s="108"/>
-      <c r="G122" s="109"/>
+      <c r="G122" s="103"/>
       <c r="H122" s="108"/>
-      <c r="I122" s="109"/>
+      <c r="I122" s="103"/>
       <c r="J122" s="108"/>
-      <c r="K122" s="109"/>
-      <c r="L122" s="114"/>
-      <c r="M122" s="115"/>
-      <c r="N122" s="120"/>
-      <c r="O122" s="121"/>
+      <c r="K122" s="103"/>
+      <c r="L122" s="111"/>
+      <c r="M122" s="112"/>
+      <c r="N122" s="93"/>
+      <c r="O122" s="99"/>
       <c r="P122" s="17"/>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" s="11"/>
       <c r="B123" s="47"/>
       <c r="C123" s="40"/>
-      <c r="D123" s="110"/>
-      <c r="E123" s="111"/>
-      <c r="F123" s="110"/>
-      <c r="G123" s="111"/>
-      <c r="H123" s="110"/>
-      <c r="I123" s="111"/>
-      <c r="J123" s="110"/>
-      <c r="K123" s="111"/>
-      <c r="L123" s="116"/>
-      <c r="M123" s="117"/>
-      <c r="N123" s="122"/>
-      <c r="O123" s="123"/>
+      <c r="D123" s="109"/>
+      <c r="E123" s="105"/>
+      <c r="F123" s="109"/>
+      <c r="G123" s="105"/>
+      <c r="H123" s="109"/>
+      <c r="I123" s="105"/>
+      <c r="J123" s="109"/>
+      <c r="K123" s="105"/>
+      <c r="L123" s="113"/>
+      <c r="M123" s="114"/>
+      <c r="N123" s="95"/>
+      <c r="O123" s="100"/>
       <c r="P123" s="17"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" s="11"/>
       <c r="B124" s="47"/>
       <c r="C124" s="40"/>
-      <c r="D124" s="110"/>
-      <c r="E124" s="111"/>
-      <c r="F124" s="110"/>
-      <c r="G124" s="111"/>
-      <c r="H124" s="110"/>
-      <c r="I124" s="111"/>
-      <c r="J124" s="110"/>
-      <c r="K124" s="111"/>
-      <c r="L124" s="116"/>
-      <c r="M124" s="117"/>
-      <c r="N124" s="122"/>
-      <c r="O124" s="123"/>
+      <c r="D124" s="109"/>
+      <c r="E124" s="105"/>
+      <c r="F124" s="109"/>
+      <c r="G124" s="105"/>
+      <c r="H124" s="109"/>
+      <c r="I124" s="105"/>
+      <c r="J124" s="109"/>
+      <c r="K124" s="105"/>
+      <c r="L124" s="113"/>
+      <c r="M124" s="114"/>
+      <c r="N124" s="95"/>
+      <c r="O124" s="100"/>
       <c r="P124" s="17"/>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" s="11"/>
       <c r="B125" s="47"/>
       <c r="C125" s="40"/>
-      <c r="D125" s="110"/>
-      <c r="E125" s="111"/>
-      <c r="F125" s="110"/>
-      <c r="G125" s="111"/>
-      <c r="H125" s="110"/>
-      <c r="I125" s="111"/>
-      <c r="J125" s="110"/>
-      <c r="K125" s="111"/>
-      <c r="L125" s="116"/>
-      <c r="M125" s="117"/>
-      <c r="N125" s="122"/>
-      <c r="O125" s="123"/>
+      <c r="D125" s="109"/>
+      <c r="E125" s="105"/>
+      <c r="F125" s="109"/>
+      <c r="G125" s="105"/>
+      <c r="H125" s="109"/>
+      <c r="I125" s="105"/>
+      <c r="J125" s="109"/>
+      <c r="K125" s="105"/>
+      <c r="L125" s="113"/>
+      <c r="M125" s="114"/>
+      <c r="N125" s="95"/>
+      <c r="O125" s="100"/>
       <c r="P125" s="17"/>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" s="11"/>
       <c r="B126" s="48"/>
       <c r="C126" s="41"/>
-      <c r="D126" s="110"/>
-      <c r="E126" s="111"/>
-      <c r="F126" s="110"/>
-      <c r="G126" s="111"/>
-      <c r="H126" s="110"/>
-      <c r="I126" s="111"/>
-      <c r="J126" s="110"/>
-      <c r="K126" s="111"/>
-      <c r="L126" s="116"/>
-      <c r="M126" s="117"/>
-      <c r="N126" s="122"/>
-      <c r="O126" s="123"/>
+      <c r="D126" s="109"/>
+      <c r="E126" s="105"/>
+      <c r="F126" s="109"/>
+      <c r="G126" s="105"/>
+      <c r="H126" s="109"/>
+      <c r="I126" s="105"/>
+      <c r="J126" s="109"/>
+      <c r="K126" s="105"/>
+      <c r="L126" s="113"/>
+      <c r="M126" s="114"/>
+      <c r="N126" s="95"/>
+      <c r="O126" s="100"/>
       <c r="P126" s="17"/>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" s="11"/>
       <c r="B127" s="46"/>
       <c r="C127" s="38"/>
-      <c r="D127" s="112"/>
-      <c r="E127" s="113"/>
-      <c r="F127" s="112"/>
-      <c r="G127" s="113"/>
-      <c r="H127" s="112"/>
-      <c r="I127" s="113"/>
-      <c r="J127" s="112"/>
-      <c r="K127" s="113"/>
-      <c r="L127" s="118"/>
-      <c r="M127" s="119"/>
-      <c r="N127" s="124"/>
-      <c r="O127" s="125"/>
+      <c r="D127" s="110"/>
+      <c r="E127" s="107"/>
+      <c r="F127" s="110"/>
+      <c r="G127" s="107"/>
+      <c r="H127" s="110"/>
+      <c r="I127" s="107"/>
+      <c r="J127" s="110"/>
+      <c r="K127" s="107"/>
+      <c r="L127" s="115"/>
+      <c r="M127" s="116"/>
+      <c r="N127" s="97"/>
+      <c r="O127" s="101"/>
       <c r="P127" s="17"/>
     </row>
     <row r="128" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="11"/>
       <c r="B128" s="55"/>
       <c r="C128" s="56"/>
-      <c r="D128" s="103" t="s">
+      <c r="D128" s="179" t="s">
         <v>48</v>
       </c>
-      <c r="E128" s="104"/>
+      <c r="E128" s="180"/>
       <c r="F128" s="57"/>
       <c r="G128" s="58"/>
       <c r="H128" s="57"/>
@@ -6086,68 +6096,145 @@
     </row>
   </sheetData>
   <mergeCells count="225">
-    <mergeCell ref="L57:M62"/>
-    <mergeCell ref="N57:O62"/>
-    <mergeCell ref="B57:C62"/>
-    <mergeCell ref="D57:E62"/>
-    <mergeCell ref="F57:G62"/>
-    <mergeCell ref="H57:I62"/>
-    <mergeCell ref="J57:K62"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="J49:K54"/>
-    <mergeCell ref="L49:M54"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="N41:O46"/>
-    <mergeCell ref="B41:C46"/>
-    <mergeCell ref="D41:E46"/>
-    <mergeCell ref="F41:G46"/>
-    <mergeCell ref="H41:I46"/>
-    <mergeCell ref="J41:K46"/>
-    <mergeCell ref="L41:M46"/>
-    <mergeCell ref="D49:E54"/>
-    <mergeCell ref="F49:G54"/>
-    <mergeCell ref="H49:I54"/>
-    <mergeCell ref="N49:O54"/>
-    <mergeCell ref="B49:C54"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="B33:C38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="L33:M38"/>
-    <mergeCell ref="N33:O38"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="D33:K38"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:O30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="B25:C30"/>
-    <mergeCell ref="L25:M26"/>
-    <mergeCell ref="L27:M28"/>
-    <mergeCell ref="D31:K31"/>
-    <mergeCell ref="D25:K30"/>
+    <mergeCell ref="P13:U16"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="J121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="D122:E127"/>
+    <mergeCell ref="F122:G127"/>
+    <mergeCell ref="H122:I127"/>
+    <mergeCell ref="J122:K127"/>
+    <mergeCell ref="L122:M127"/>
+    <mergeCell ref="N122:O127"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="D114:E119"/>
+    <mergeCell ref="F114:G119"/>
+    <mergeCell ref="H114:I119"/>
+    <mergeCell ref="J114:K119"/>
+    <mergeCell ref="L114:M119"/>
+    <mergeCell ref="N114:O119"/>
+    <mergeCell ref="L101:M106"/>
+    <mergeCell ref="N101:O106"/>
+    <mergeCell ref="B110:O110"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="B101:C106"/>
+    <mergeCell ref="D101:E106"/>
+    <mergeCell ref="F101:G106"/>
+    <mergeCell ref="H101:I106"/>
+    <mergeCell ref="J101:K106"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="D93:E98"/>
+    <mergeCell ref="F93:G98"/>
+    <mergeCell ref="H93:I98"/>
+    <mergeCell ref="J93:K98"/>
+    <mergeCell ref="L93:M98"/>
+    <mergeCell ref="N93:O98"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="D85:E90"/>
+    <mergeCell ref="F85:G90"/>
+    <mergeCell ref="H85:I90"/>
+    <mergeCell ref="J85:K90"/>
+    <mergeCell ref="L85:M90"/>
+    <mergeCell ref="N85:O90"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="D77:E82"/>
+    <mergeCell ref="F77:G82"/>
+    <mergeCell ref="H77:I82"/>
+    <mergeCell ref="J77:K82"/>
+    <mergeCell ref="L77:M82"/>
+    <mergeCell ref="N77:O82"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="D69:E74"/>
+    <mergeCell ref="F69:G74"/>
+    <mergeCell ref="H69:I74"/>
+    <mergeCell ref="J69:K74"/>
+    <mergeCell ref="L69:M74"/>
+    <mergeCell ref="N69:O74"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="H47:O47"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B65:O65"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B21:O21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L6:M11"/>
+    <mergeCell ref="N6:O11"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B14:C18"/>
+    <mergeCell ref="D14:E18"/>
+    <mergeCell ref="J17:K18"/>
+    <mergeCell ref="J14:K16"/>
+    <mergeCell ref="L14:O18"/>
+    <mergeCell ref="H17:I17"/>
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
@@ -6172,145 +6259,68 @@
     <mergeCell ref="H6:I11"/>
     <mergeCell ref="J6:K11"/>
     <mergeCell ref="H14:I16"/>
-    <mergeCell ref="L6:M11"/>
-    <mergeCell ref="N6:O11"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B14:C18"/>
-    <mergeCell ref="D14:E18"/>
-    <mergeCell ref="J17:K18"/>
-    <mergeCell ref="J14:K16"/>
-    <mergeCell ref="L14:O18"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="H47:O47"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B65:O65"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B21:O21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="D69:E74"/>
-    <mergeCell ref="F69:G74"/>
-    <mergeCell ref="H69:I74"/>
-    <mergeCell ref="J69:K74"/>
-    <mergeCell ref="L69:M74"/>
-    <mergeCell ref="N69:O74"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="D77:E82"/>
-    <mergeCell ref="F77:G82"/>
-    <mergeCell ref="H77:I82"/>
-    <mergeCell ref="J77:K82"/>
-    <mergeCell ref="L77:M82"/>
-    <mergeCell ref="N77:O82"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="L84:M84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="D85:E90"/>
-    <mergeCell ref="F85:G90"/>
-    <mergeCell ref="H85:I90"/>
-    <mergeCell ref="J85:K90"/>
-    <mergeCell ref="L85:M90"/>
-    <mergeCell ref="N85:O90"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="L92:M92"/>
-    <mergeCell ref="N92:O92"/>
-    <mergeCell ref="D93:E98"/>
-    <mergeCell ref="F93:G98"/>
-    <mergeCell ref="H93:I98"/>
-    <mergeCell ref="J93:K98"/>
-    <mergeCell ref="L93:M98"/>
-    <mergeCell ref="N93:O98"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="B101:C106"/>
-    <mergeCell ref="D101:E106"/>
-    <mergeCell ref="F101:G106"/>
-    <mergeCell ref="H101:I106"/>
-    <mergeCell ref="J101:K106"/>
-    <mergeCell ref="J100:K100"/>
-    <mergeCell ref="F114:G119"/>
-    <mergeCell ref="H114:I119"/>
-    <mergeCell ref="J114:K119"/>
-    <mergeCell ref="L114:M119"/>
-    <mergeCell ref="N114:O119"/>
-    <mergeCell ref="L101:M106"/>
-    <mergeCell ref="N101:O106"/>
-    <mergeCell ref="B110:O110"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="J112:K112"/>
-    <mergeCell ref="L112:M112"/>
-    <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P13:U16"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="D128:E128"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="F121:G121"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="J121:K121"/>
-    <mergeCell ref="L121:M121"/>
-    <mergeCell ref="N121:O121"/>
-    <mergeCell ref="D122:E127"/>
-    <mergeCell ref="F122:G127"/>
-    <mergeCell ref="H122:I127"/>
-    <mergeCell ref="J122:K127"/>
-    <mergeCell ref="L122:M127"/>
-    <mergeCell ref="N122:O127"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="F113:G113"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="L113:M113"/>
-    <mergeCell ref="N113:O113"/>
-    <mergeCell ref="D114:E119"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="B25:C30"/>
+    <mergeCell ref="L25:M26"/>
+    <mergeCell ref="L27:M28"/>
+    <mergeCell ref="D31:K31"/>
+    <mergeCell ref="D25:K30"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="B33:C38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="L33:M38"/>
+    <mergeCell ref="N33:O38"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="D33:K38"/>
+    <mergeCell ref="J49:K54"/>
+    <mergeCell ref="L49:M54"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="N41:O46"/>
+    <mergeCell ref="B41:C46"/>
+    <mergeCell ref="D41:E46"/>
+    <mergeCell ref="F41:G46"/>
+    <mergeCell ref="H41:I46"/>
+    <mergeCell ref="J41:K46"/>
+    <mergeCell ref="L41:M46"/>
+    <mergeCell ref="D49:E54"/>
+    <mergeCell ref="F49:G54"/>
+    <mergeCell ref="H49:I54"/>
+    <mergeCell ref="N49:O54"/>
+    <mergeCell ref="B49:C54"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L57:M62"/>
+    <mergeCell ref="N57:O62"/>
+    <mergeCell ref="B57:C62"/>
+    <mergeCell ref="D57:E62"/>
+    <mergeCell ref="F57:G62"/>
+    <mergeCell ref="H57:I62"/>
+    <mergeCell ref="J57:K62"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:G56"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8678,12 +8688,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="H33:H34"/>
     <mergeCell ref="H101:H102"/>
     <mergeCell ref="H113:H114"/>
     <mergeCell ref="H123:H124"/>
@@ -8693,6 +8697,12 @@
     <mergeCell ref="H65:H66"/>
     <mergeCell ref="H73:H74"/>
     <mergeCell ref="H84:H85"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="H33:H34"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8724,19 +8734,19 @@
       <c r="G2" s="187"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="96"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
       <c r="G3" s="188"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="96"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
+      <c r="B4" s="174"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
       <c r="G4" s="188"/>
     </row>
     <row r="5" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -8972,10 +8982,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9080,6 +9090,22 @@
         <v>377</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="82" t="s">
+        <v>378</v>
+      </c>
+      <c r="B13" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="82" t="s">
+        <v>379</v>
+      </c>
+      <c r="B14" t="s">
+        <v>380</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9090,7 +9116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
+    <sheetView topLeftCell="A66" workbookViewId="0">
       <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>

--- a/WAS계획서 및 일지.xlsx
+++ b/WAS계획서 및 일지.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="28035" windowHeight="12345" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="28035" windowHeight="12345" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="역할분담" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="383">
   <si>
     <t>2019년 8월</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -158,15 +158,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>1차 목표 달성 회의</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>추석연휴</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 목표 달성, 개선점 피드백 회의/ 2차 목표 설정</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1481,10 +1473,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>사원등록/생산품등록/배송유무등록/생산재고등록 페이지 구현</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>09월 04일</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1542,6 +1530,26 @@
   </si>
   <si>
     <t>사원등록(우편번호 검색기)/생산품등록/배송유무등록/생산재고등록 페이지 구현, 클래스 설계</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재까지 진행사항 보고 및 스터디</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">사원등록/생산품등록/배송유무등록/생산재고등록 페이지 구현 및 클래스 설계 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>09월 13일</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>사원등록/생산품등록/배송유무등록/생산재고등록 페이지 구현, 클래스 설계</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재까지 DB설계 및 클래스 설계 설명/스터디, 사원등록 화면 구현 완료, 생산품등록/배송유무등록/생산재고등록 페이지 구현, 클래스 설계, 메뉴바 변경</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2761,131 +2769,209 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="34" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="32" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="34" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2905,124 +2991,40 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="32" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3057,6 +3059,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="34" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -3547,7 +3555,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V129"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39:K39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3582,22 +3592,22 @@
     </row>
     <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="144"/>
-      <c r="N2" s="144"/>
-      <c r="O2" s="145"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="128"/>
       <c r="P2" s="17"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
@@ -3608,178 +3618,178 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133" t="s">
+      <c r="C4" s="130"/>
+      <c r="D4" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133" t="s">
+      <c r="E4" s="130"/>
+      <c r="F4" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="133"/>
-      <c r="H4" s="133" t="s">
+      <c r="G4" s="130"/>
+      <c r="H4" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133" t="s">
+      <c r="I4" s="130"/>
+      <c r="J4" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="133"/>
-      <c r="L4" s="133" t="s">
+      <c r="K4" s="130"/>
+      <c r="L4" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="133"/>
-      <c r="N4" s="133" t="s">
+      <c r="M4" s="130"/>
+      <c r="N4" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="147"/>
+      <c r="O4" s="131"/>
       <c r="P4" s="17"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
-      <c r="B5" s="122">
+      <c r="B5" s="105">
         <v>18</v>
       </c>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123">
+      <c r="C5" s="106"/>
+      <c r="D5" s="106">
         <v>19</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123">
+      <c r="E5" s="106"/>
+      <c r="F5" s="106">
         <v>20</v>
       </c>
-      <c r="G5" s="123"/>
-      <c r="H5" s="118">
+      <c r="G5" s="106"/>
+      <c r="H5" s="132">
         <v>21</v>
       </c>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118">
+      <c r="I5" s="132"/>
+      <c r="J5" s="132">
         <v>22</v>
       </c>
-      <c r="K5" s="118"/>
-      <c r="L5" s="118">
+      <c r="K5" s="132"/>
+      <c r="L5" s="132">
         <v>23</v>
       </c>
-      <c r="M5" s="118"/>
-      <c r="N5" s="118">
+      <c r="M5" s="132"/>
+      <c r="N5" s="132">
         <v>24</v>
       </c>
-      <c r="O5" s="121"/>
+      <c r="O5" s="136"/>
       <c r="P5" s="17"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
-      <c r="B6" s="102"/>
-      <c r="C6" s="103"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="109"/>
       <c r="D6" s="108"/>
-      <c r="E6" s="103"/>
+      <c r="E6" s="109"/>
       <c r="F6" s="108"/>
-      <c r="G6" s="103"/>
+      <c r="G6" s="109"/>
       <c r="H6" s="108"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="111" t="s">
+      <c r="I6" s="109"/>
+      <c r="J6" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="112"/>
-      <c r="L6" s="93" t="s">
+      <c r="K6" s="115"/>
+      <c r="L6" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="94"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="99"/>
+      <c r="M6" s="149"/>
+      <c r="N6" s="120"/>
+      <c r="O6" s="121"/>
       <c r="P6" s="17"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
-      <c r="B7" s="104"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="95"/>
-      <c r="O7" s="100"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="122"/>
+      <c r="M7" s="150"/>
+      <c r="N7" s="122"/>
+      <c r="O7" s="123"/>
       <c r="P7" s="17"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="113"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="96"/>
-      <c r="N8" s="95"/>
-      <c r="O8" s="100"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="122"/>
+      <c r="M8" s="150"/>
+      <c r="N8" s="122"/>
+      <c r="O8" s="123"/>
       <c r="P8" s="17"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
-      <c r="B9" s="104"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="113"/>
-      <c r="K9" s="114"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="95"/>
-      <c r="O9" s="100"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="122"/>
+      <c r="M9" s="150"/>
+      <c r="N9" s="122"/>
+      <c r="O9" s="123"/>
       <c r="P9" s="17"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="100"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="150"/>
+      <c r="N10" s="122"/>
+      <c r="O10" s="123"/>
       <c r="P10" s="17"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
-      <c r="B11" s="106"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="97"/>
-      <c r="M11" s="98"/>
-      <c r="N11" s="97"/>
-      <c r="O11" s="101"/>
+      <c r="B11" s="135"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="124"/>
+      <c r="M11" s="151"/>
+      <c r="N11" s="124"/>
+      <c r="O11" s="125"/>
       <c r="P11" s="17"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -3792,196 +3802,196 @@
       <c r="G12" s="9"/>
       <c r="H12" s="8"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="154" t="s">
+      <c r="J12" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="155"/>
-      <c r="L12" s="155"/>
-      <c r="M12" s="156"/>
+      <c r="K12" s="153"/>
+      <c r="L12" s="153"/>
+      <c r="M12" s="154"/>
       <c r="N12" s="10"/>
       <c r="O12" s="23"/>
       <c r="P12" s="17"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
-      <c r="B13" s="157">
+      <c r="B13" s="155">
         <v>25</v>
       </c>
-      <c r="C13" s="158"/>
-      <c r="D13" s="158">
+      <c r="C13" s="156"/>
+      <c r="D13" s="156">
         <v>26</v>
       </c>
-      <c r="E13" s="158"/>
-      <c r="F13" s="158">
+      <c r="E13" s="156"/>
+      <c r="F13" s="156">
         <v>27</v>
       </c>
-      <c r="G13" s="158"/>
-      <c r="H13" s="150">
+      <c r="G13" s="156"/>
+      <c r="H13" s="157">
         <v>28</v>
       </c>
-      <c r="I13" s="150"/>
-      <c r="J13" s="150">
+      <c r="I13" s="157"/>
+      <c r="J13" s="157">
         <v>29</v>
       </c>
-      <c r="K13" s="150"/>
-      <c r="L13" s="150">
+      <c r="K13" s="157"/>
+      <c r="L13" s="157">
         <v>30</v>
       </c>
-      <c r="M13" s="150"/>
-      <c r="N13" s="150">
+      <c r="M13" s="157"/>
+      <c r="N13" s="157">
         <v>31</v>
       </c>
-      <c r="O13" s="151"/>
-      <c r="P13" s="171" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q13" s="172"/>
-      <c r="R13" s="172"/>
-      <c r="S13" s="172"/>
-      <c r="T13" s="172"/>
-      <c r="U13" s="173"/>
+      <c r="O13" s="168"/>
+      <c r="P13" s="93" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="94"/>
+      <c r="U13" s="95"/>
     </row>
     <row r="14" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
-      <c r="B14" s="102"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="148" t="s">
+      <c r="B14" s="133"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="103"/>
-      <c r="F14" s="148" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="135"/>
-      <c r="H14" s="152" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="152"/>
-      <c r="J14" s="152" t="s">
-        <v>276</v>
-      </c>
-      <c r="K14" s="152"/>
-      <c r="L14" s="135" t="s">
-        <v>359</v>
-      </c>
-      <c r="M14" s="135"/>
-      <c r="N14" s="135"/>
-      <c r="O14" s="136"/>
-      <c r="P14" s="174"/>
-      <c r="Q14" s="159"/>
-      <c r="R14" s="159"/>
-      <c r="S14" s="159"/>
-      <c r="T14" s="159"/>
-      <c r="U14" s="175"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="158" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="161"/>
+      <c r="H14" s="159" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="159"/>
+      <c r="J14" s="159" t="s">
+        <v>274</v>
+      </c>
+      <c r="K14" s="159"/>
+      <c r="L14" s="161" t="s">
+        <v>357</v>
+      </c>
+      <c r="M14" s="161"/>
+      <c r="N14" s="161"/>
+      <c r="O14" s="162"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="97"/>
+      <c r="R14" s="97"/>
+      <c r="S14" s="97"/>
+      <c r="T14" s="97"/>
+      <c r="U14" s="98"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
-      <c r="B15" s="104"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="149"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="153"/>
-      <c r="I15" s="153"/>
-      <c r="J15" s="153"/>
-      <c r="K15" s="153"/>
-      <c r="L15" s="137"/>
-      <c r="M15" s="137"/>
-      <c r="N15" s="137"/>
-      <c r="O15" s="138"/>
-      <c r="P15" s="174"/>
-      <c r="Q15" s="159"/>
-      <c r="R15" s="159"/>
-      <c r="S15" s="159"/>
-      <c r="T15" s="159"/>
-      <c r="U15" s="175"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="160"/>
+      <c r="I15" s="160"/>
+      <c r="J15" s="160"/>
+      <c r="K15" s="160"/>
+      <c r="L15" s="163"/>
+      <c r="M15" s="163"/>
+      <c r="N15" s="163"/>
+      <c r="O15" s="164"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="97"/>
+      <c r="R15" s="97"/>
+      <c r="S15" s="97"/>
+      <c r="T15" s="97"/>
+      <c r="U15" s="98"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
-      <c r="B16" s="104"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="149"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="153"/>
-      <c r="K16" s="153"/>
-      <c r="L16" s="137"/>
-      <c r="M16" s="137"/>
-      <c r="N16" s="137"/>
-      <c r="O16" s="138"/>
-      <c r="P16" s="176"/>
-      <c r="Q16" s="160"/>
-      <c r="R16" s="160"/>
-      <c r="S16" s="160"/>
-      <c r="T16" s="160"/>
-      <c r="U16" s="177"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="163"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="160"/>
+      <c r="J16" s="160"/>
+      <c r="K16" s="160"/>
+      <c r="L16" s="163"/>
+      <c r="M16" s="163"/>
+      <c r="N16" s="163"/>
+      <c r="O16" s="164"/>
+      <c r="P16" s="99"/>
+      <c r="Q16" s="100"/>
+      <c r="R16" s="100"/>
+      <c r="S16" s="100"/>
+      <c r="T16" s="100"/>
+      <c r="U16" s="101"/>
     </row>
     <row r="17" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
-      <c r="B17" s="104"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="153" t="s">
-        <v>54</v>
-      </c>
-      <c r="I17" s="153"/>
-      <c r="J17" s="159" t="s">
-        <v>360</v>
-      </c>
-      <c r="K17" s="159"/>
-      <c r="L17" s="137"/>
-      <c r="M17" s="137"/>
-      <c r="N17" s="137"/>
-      <c r="O17" s="138"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="167"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="160" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="160"/>
+      <c r="J17" s="97" t="s">
+        <v>358</v>
+      </c>
+      <c r="K17" s="97"/>
+      <c r="L17" s="163"/>
+      <c r="M17" s="163"/>
+      <c r="N17" s="163"/>
+      <c r="O17" s="164"/>
       <c r="P17" s="17"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
-      <c r="B18" s="104"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="149"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="178" t="s">
-        <v>280</v>
-      </c>
-      <c r="I18" s="178"/>
-      <c r="J18" s="160"/>
-      <c r="K18" s="160"/>
-      <c r="L18" s="139"/>
-      <c r="M18" s="139"/>
-      <c r="N18" s="139"/>
-      <c r="O18" s="140"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="102" t="s">
+        <v>278</v>
+      </c>
+      <c r="I18" s="102"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="165"/>
+      <c r="M18" s="165"/>
+      <c r="N18" s="165"/>
+      <c r="O18" s="166"/>
       <c r="P18" s="17"/>
     </row>
     <row r="19" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
       <c r="B19" s="24"/>
       <c r="C19" s="25"/>
-      <c r="D19" s="161" t="s">
+      <c r="D19" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="162"/>
-      <c r="F19" s="162"/>
-      <c r="G19" s="162"/>
-      <c r="H19" s="163" t="s">
-        <v>51</v>
-      </c>
-      <c r="I19" s="163"/>
-      <c r="J19" s="163"/>
-      <c r="K19" s="163"/>
-      <c r="L19" s="163"/>
-      <c r="M19" s="163"/>
-      <c r="N19" s="163"/>
-      <c r="O19" s="164"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="141" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="141"/>
+      <c r="J19" s="141"/>
+      <c r="K19" s="141"/>
+      <c r="L19" s="141"/>
+      <c r="M19" s="141"/>
+      <c r="N19" s="141"/>
+      <c r="O19" s="142"/>
       <c r="P19" s="17"/>
     </row>
     <row r="20" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4002,22 +4012,22 @@
     </row>
     <row r="21" spans="1:16" ht="33.75" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
-      <c r="B21" s="143" t="s">
+      <c r="B21" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="144"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="144"/>
-      <c r="J21" s="144"/>
-      <c r="K21" s="144"/>
-      <c r="L21" s="144"/>
-      <c r="M21" s="144"/>
-      <c r="N21" s="144"/>
-      <c r="O21" s="145"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="127"/>
+      <c r="I21" s="127"/>
+      <c r="J21" s="127"/>
+      <c r="K21" s="127"/>
+      <c r="L21" s="127"/>
+      <c r="M21" s="127"/>
+      <c r="N21" s="127"/>
+      <c r="O21" s="128"/>
       <c r="P21" s="17"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -4028,196 +4038,196 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
-      <c r="B23" s="146" t="s">
+      <c r="B23" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="133"/>
-      <c r="D23" s="133" t="s">
+      <c r="C23" s="130"/>
+      <c r="D23" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="133"/>
-      <c r="F23" s="133" t="s">
+      <c r="E23" s="130"/>
+      <c r="F23" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="133"/>
-      <c r="H23" s="133" t="s">
+      <c r="G23" s="130"/>
+      <c r="H23" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="I23" s="133"/>
-      <c r="J23" s="133" t="s">
+      <c r="I23" s="130"/>
+      <c r="J23" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="K23" s="133"/>
-      <c r="L23" s="133" t="s">
+      <c r="K23" s="130"/>
+      <c r="L23" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="M23" s="133"/>
-      <c r="N23" s="133" t="s">
+      <c r="M23" s="130"/>
+      <c r="N23" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="O23" s="147"/>
+      <c r="O23" s="131"/>
       <c r="P23" s="17"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
-      <c r="B24" s="122">
+      <c r="B24" s="105">
         <v>1</v>
       </c>
-      <c r="C24" s="123"/>
-      <c r="D24" s="123">
+      <c r="C24" s="106"/>
+      <c r="D24" s="106">
         <v>2</v>
       </c>
-      <c r="E24" s="123"/>
-      <c r="F24" s="123">
+      <c r="E24" s="106"/>
+      <c r="F24" s="106">
         <v>3</v>
       </c>
-      <c r="G24" s="123"/>
-      <c r="H24" s="123">
+      <c r="G24" s="106"/>
+      <c r="H24" s="106">
         <v>4</v>
       </c>
-      <c r="I24" s="123"/>
-      <c r="J24" s="123">
+      <c r="I24" s="106"/>
+      <c r="J24" s="106">
         <v>5</v>
       </c>
-      <c r="K24" s="123"/>
-      <c r="L24" s="123">
+      <c r="K24" s="106"/>
+      <c r="L24" s="106">
         <v>6</v>
       </c>
-      <c r="M24" s="123"/>
-      <c r="N24" s="123">
+      <c r="M24" s="106"/>
+      <c r="N24" s="106">
         <v>7</v>
       </c>
-      <c r="O24" s="134"/>
+      <c r="O24" s="107"/>
       <c r="P24" s="17"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
-      <c r="B25" s="102"/>
-      <c r="C25" s="103"/>
+      <c r="B25" s="133"/>
+      <c r="C25" s="109"/>
       <c r="D25" s="108" t="s">
-        <v>358</v>
-      </c>
-      <c r="E25" s="130"/>
-      <c r="F25" s="130"/>
-      <c r="G25" s="130"/>
-      <c r="H25" s="130"/>
-      <c r="I25" s="130"/>
-      <c r="J25" s="130"/>
-      <c r="K25" s="130"/>
-      <c r="L25" s="130" t="s">
-        <v>363</v>
-      </c>
-      <c r="M25" s="130"/>
-      <c r="N25" s="135"/>
-      <c r="O25" s="136"/>
+        <v>356</v>
+      </c>
+      <c r="E25" s="169"/>
+      <c r="F25" s="169"/>
+      <c r="G25" s="169"/>
+      <c r="H25" s="169"/>
+      <c r="I25" s="169"/>
+      <c r="J25" s="169"/>
+      <c r="K25" s="169"/>
+      <c r="L25" s="169" t="s">
+        <v>361</v>
+      </c>
+      <c r="M25" s="169"/>
+      <c r="N25" s="161"/>
+      <c r="O25" s="162"/>
       <c r="P25" s="17"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
-      <c r="B26" s="104"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="131"/>
-      <c r="F26" s="131"/>
-      <c r="G26" s="131"/>
-      <c r="H26" s="131"/>
-      <c r="I26" s="131"/>
-      <c r="J26" s="131"/>
-      <c r="K26" s="131"/>
-      <c r="L26" s="131"/>
-      <c r="M26" s="131"/>
-      <c r="N26" s="137"/>
-      <c r="O26" s="138"/>
+      <c r="B26" s="134"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="170"/>
+      <c r="F26" s="170"/>
+      <c r="G26" s="170"/>
+      <c r="H26" s="170"/>
+      <c r="I26" s="170"/>
+      <c r="J26" s="170"/>
+      <c r="K26" s="170"/>
+      <c r="L26" s="170"/>
+      <c r="M26" s="170"/>
+      <c r="N26" s="163"/>
+      <c r="O26" s="164"/>
       <c r="P26" s="17"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
-      <c r="B27" s="104"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="131"/>
-      <c r="F27" s="131"/>
-      <c r="G27" s="131"/>
-      <c r="H27" s="131"/>
-      <c r="I27" s="131"/>
-      <c r="J27" s="131"/>
-      <c r="K27" s="131"/>
-      <c r="L27" s="137" t="s">
-        <v>364</v>
-      </c>
-      <c r="M27" s="137"/>
-      <c r="N27" s="137"/>
-      <c r="O27" s="138"/>
+      <c r="B27" s="134"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="170"/>
+      <c r="F27" s="170"/>
+      <c r="G27" s="170"/>
+      <c r="H27" s="170"/>
+      <c r="I27" s="170"/>
+      <c r="J27" s="170"/>
+      <c r="K27" s="170"/>
+      <c r="L27" s="163" t="s">
+        <v>362</v>
+      </c>
+      <c r="M27" s="163"/>
+      <c r="N27" s="163"/>
+      <c r="O27" s="164"/>
       <c r="P27" s="17"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
-      <c r="B28" s="104"/>
-      <c r="C28" s="105"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="131"/>
-      <c r="F28" s="131"/>
-      <c r="G28" s="131"/>
-      <c r="H28" s="131"/>
-      <c r="I28" s="131"/>
-      <c r="J28" s="131"/>
-      <c r="K28" s="131"/>
-      <c r="L28" s="137"/>
-      <c r="M28" s="137"/>
-      <c r="N28" s="137"/>
-      <c r="O28" s="138"/>
+      <c r="B28" s="134"/>
+      <c r="C28" s="111"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="170"/>
+      <c r="F28" s="170"/>
+      <c r="G28" s="170"/>
+      <c r="H28" s="170"/>
+      <c r="I28" s="170"/>
+      <c r="J28" s="170"/>
+      <c r="K28" s="170"/>
+      <c r="L28" s="163"/>
+      <c r="M28" s="163"/>
+      <c r="N28" s="163"/>
+      <c r="O28" s="164"/>
       <c r="P28" s="17"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="131"/>
-      <c r="F29" s="131"/>
-      <c r="G29" s="131"/>
-      <c r="H29" s="131"/>
-      <c r="I29" s="131"/>
-      <c r="J29" s="131"/>
-      <c r="K29" s="131"/>
+      <c r="B29" s="134"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="170"/>
+      <c r="F29" s="170"/>
+      <c r="G29" s="170"/>
+      <c r="H29" s="170"/>
+      <c r="I29" s="170"/>
+      <c r="J29" s="170"/>
+      <c r="K29" s="170"/>
       <c r="L29" s="89"/>
       <c r="M29" s="89"/>
-      <c r="N29" s="137"/>
-      <c r="O29" s="138"/>
+      <c r="N29" s="163"/>
+      <c r="O29" s="164"/>
       <c r="P29" s="17"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
-      <c r="B30" s="106"/>
-      <c r="C30" s="107"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="132"/>
-      <c r="F30" s="132"/>
-      <c r="G30" s="132"/>
-      <c r="H30" s="132"/>
-      <c r="I30" s="132"/>
-      <c r="J30" s="132"/>
-      <c r="K30" s="132"/>
+      <c r="B30" s="135"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="173"/>
+      <c r="F30" s="173"/>
+      <c r="G30" s="173"/>
+      <c r="H30" s="173"/>
+      <c r="I30" s="173"/>
+      <c r="J30" s="173"/>
+      <c r="K30" s="173"/>
       <c r="L30" s="90"/>
       <c r="M30" s="90"/>
-      <c r="N30" s="139"/>
-      <c r="O30" s="140"/>
+      <c r="N30" s="165"/>
+      <c r="O30" s="166"/>
       <c r="P30" s="17"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="27"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="141" t="s">
-        <v>362</v>
-      </c>
-      <c r="E31" s="142"/>
-      <c r="F31" s="142"/>
-      <c r="G31" s="142"/>
-      <c r="H31" s="142"/>
-      <c r="I31" s="142"/>
-      <c r="J31" s="142"/>
-      <c r="K31" s="142"/>
+      <c r="D31" s="171" t="s">
+        <v>360</v>
+      </c>
+      <c r="E31" s="172"/>
+      <c r="F31" s="172"/>
+      <c r="G31" s="172"/>
+      <c r="H31" s="172"/>
+      <c r="I31" s="172"/>
+      <c r="J31" s="172"/>
+      <c r="K31" s="172"/>
       <c r="L31" s="91"/>
       <c r="M31" s="91"/>
       <c r="N31" s="91"/>
@@ -4226,310 +4236,308 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
-      <c r="B32" s="122">
+      <c r="B32" s="105">
         <v>8</v>
       </c>
-      <c r="C32" s="123"/>
-      <c r="D32" s="123">
+      <c r="C32" s="106"/>
+      <c r="D32" s="106">
         <v>9</v>
       </c>
-      <c r="E32" s="123"/>
-      <c r="F32" s="123">
+      <c r="E32" s="106"/>
+      <c r="F32" s="106">
         <v>10</v>
       </c>
-      <c r="G32" s="123"/>
-      <c r="H32" s="123">
+      <c r="G32" s="106"/>
+      <c r="H32" s="106">
         <v>11</v>
       </c>
-      <c r="I32" s="123"/>
-      <c r="J32" s="123">
+      <c r="I32" s="106"/>
+      <c r="J32" s="106">
         <v>12</v>
       </c>
-      <c r="K32" s="123"/>
-      <c r="L32" s="123">
+      <c r="K32" s="106"/>
+      <c r="L32" s="106">
         <v>13</v>
       </c>
-      <c r="M32" s="123"/>
-      <c r="N32" s="123">
+      <c r="M32" s="106"/>
+      <c r="N32" s="106">
         <v>14</v>
       </c>
-      <c r="O32" s="134"/>
+      <c r="O32" s="107"/>
       <c r="P32" s="17"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
-      <c r="B33" s="102"/>
-      <c r="C33" s="103"/>
+      <c r="B33" s="133"/>
+      <c r="C33" s="109"/>
       <c r="D33" s="108" t="s">
-        <v>365</v>
-      </c>
-      <c r="E33" s="130"/>
-      <c r="F33" s="130"/>
-      <c r="G33" s="130"/>
-      <c r="H33" s="130"/>
-      <c r="I33" s="130"/>
-      <c r="J33" s="130"/>
-      <c r="K33" s="103"/>
-      <c r="L33" s="93" t="s">
-        <v>35</v>
-      </c>
-      <c r="M33" s="94"/>
-      <c r="N33" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="O33" s="99"/>
+        <v>379</v>
+      </c>
+      <c r="E33" s="169"/>
+      <c r="F33" s="169"/>
+      <c r="G33" s="169"/>
+      <c r="H33" s="169"/>
+      <c r="I33" s="169"/>
+      <c r="J33" s="169"/>
+      <c r="K33" s="109"/>
+      <c r="L33" s="120" t="s">
+        <v>34</v>
+      </c>
+      <c r="M33" s="149"/>
+      <c r="N33" s="120" t="s">
+        <v>378</v>
+      </c>
+      <c r="O33" s="121"/>
       <c r="P33" s="17"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
-      <c r="B34" s="104"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="131"/>
-      <c r="F34" s="131"/>
-      <c r="G34" s="131"/>
-      <c r="H34" s="131"/>
-      <c r="I34" s="131"/>
-      <c r="J34" s="131"/>
-      <c r="K34" s="105"/>
-      <c r="L34" s="95"/>
-      <c r="M34" s="96"/>
-      <c r="N34" s="95"/>
-      <c r="O34" s="100"/>
+      <c r="B34" s="134"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="110"/>
+      <c r="E34" s="170"/>
+      <c r="F34" s="170"/>
+      <c r="G34" s="170"/>
+      <c r="H34" s="170"/>
+      <c r="I34" s="170"/>
+      <c r="J34" s="170"/>
+      <c r="K34" s="111"/>
+      <c r="L34" s="122"/>
+      <c r="M34" s="150"/>
+      <c r="N34" s="122"/>
+      <c r="O34" s="123"/>
       <c r="P34" s="17"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
-      <c r="B35" s="104"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="109"/>
-      <c r="E35" s="131"/>
-      <c r="F35" s="131"/>
-      <c r="G35" s="131"/>
-      <c r="H35" s="131"/>
-      <c r="I35" s="131"/>
-      <c r="J35" s="131"/>
-      <c r="K35" s="105"/>
-      <c r="L35" s="95"/>
-      <c r="M35" s="96"/>
-      <c r="N35" s="95"/>
-      <c r="O35" s="100"/>
+      <c r="B35" s="134"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="170"/>
+      <c r="F35" s="170"/>
+      <c r="G35" s="170"/>
+      <c r="H35" s="170"/>
+      <c r="I35" s="170"/>
+      <c r="J35" s="170"/>
+      <c r="K35" s="111"/>
+      <c r="L35" s="122"/>
+      <c r="M35" s="150"/>
+      <c r="N35" s="122"/>
+      <c r="O35" s="123"/>
       <c r="P35" s="17"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
-      <c r="B36" s="104"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="109"/>
-      <c r="E36" s="131"/>
-      <c r="F36" s="131"/>
-      <c r="G36" s="131"/>
-      <c r="H36" s="131"/>
-      <c r="I36" s="131"/>
-      <c r="J36" s="131"/>
-      <c r="K36" s="105"/>
-      <c r="L36" s="95"/>
-      <c r="M36" s="96"/>
-      <c r="N36" s="95"/>
-      <c r="O36" s="100"/>
+      <c r="B36" s="134"/>
+      <c r="C36" s="111"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="170"/>
+      <c r="F36" s="170"/>
+      <c r="G36" s="170"/>
+      <c r="H36" s="170"/>
+      <c r="I36" s="170"/>
+      <c r="J36" s="170"/>
+      <c r="K36" s="111"/>
+      <c r="L36" s="122"/>
+      <c r="M36" s="150"/>
+      <c r="N36" s="122"/>
+      <c r="O36" s="123"/>
       <c r="P36" s="17"/>
     </row>
     <row r="37" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
-      <c r="B37" s="104"/>
-      <c r="C37" s="105"/>
-      <c r="D37" s="109"/>
-      <c r="E37" s="131"/>
-      <c r="F37" s="131"/>
-      <c r="G37" s="131"/>
-      <c r="H37" s="131"/>
-      <c r="I37" s="131"/>
-      <c r="J37" s="131"/>
-      <c r="K37" s="105"/>
-      <c r="L37" s="95"/>
-      <c r="M37" s="96"/>
-      <c r="N37" s="95"/>
-      <c r="O37" s="100"/>
+      <c r="B37" s="134"/>
+      <c r="C37" s="111"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="170"/>
+      <c r="F37" s="170"/>
+      <c r="G37" s="170"/>
+      <c r="H37" s="170"/>
+      <c r="I37" s="170"/>
+      <c r="J37" s="170"/>
+      <c r="K37" s="111"/>
+      <c r="L37" s="122"/>
+      <c r="M37" s="150"/>
+      <c r="N37" s="122"/>
+      <c r="O37" s="123"/>
       <c r="P37" s="17"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
-      <c r="B38" s="106"/>
-      <c r="C38" s="107"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="132"/>
-      <c r="F38" s="132"/>
-      <c r="G38" s="132"/>
-      <c r="H38" s="132"/>
-      <c r="I38" s="132"/>
-      <c r="J38" s="132"/>
-      <c r="K38" s="107"/>
-      <c r="L38" s="97"/>
-      <c r="M38" s="98"/>
-      <c r="N38" s="97"/>
-      <c r="O38" s="101"/>
+      <c r="B38" s="135"/>
+      <c r="C38" s="113"/>
+      <c r="D38" s="112"/>
+      <c r="E38" s="173"/>
+      <c r="F38" s="173"/>
+      <c r="G38" s="173"/>
+      <c r="H38" s="173"/>
+      <c r="I38" s="173"/>
+      <c r="J38" s="173"/>
+      <c r="K38" s="113"/>
+      <c r="L38" s="124"/>
+      <c r="M38" s="151"/>
+      <c r="N38" s="124"/>
+      <c r="O38" s="125"/>
       <c r="P38" s="17"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="B39" s="27"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="128" t="s">
-        <v>52</v>
-      </c>
-      <c r="E39" s="129"/>
-      <c r="F39" s="129"/>
-      <c r="G39" s="129"/>
-      <c r="H39" s="129"/>
-      <c r="I39" s="129"/>
-      <c r="J39" s="129"/>
-      <c r="K39" s="129"/>
+      <c r="D39" s="174" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="175"/>
+      <c r="F39" s="175"/>
+      <c r="G39" s="175"/>
+      <c r="H39" s="175"/>
+      <c r="I39" s="175"/>
+      <c r="J39" s="175"/>
+      <c r="K39" s="175"/>
       <c r="L39" s="35"/>
       <c r="M39" s="36"/>
-      <c r="N39" s="126" t="s">
-        <v>34</v>
-      </c>
-      <c r="O39" s="127"/>
+      <c r="N39" s="190"/>
+      <c r="O39" s="191"/>
       <c r="P39" s="17"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
-      <c r="B40" s="124">
+      <c r="B40" s="137">
         <v>15</v>
       </c>
-      <c r="C40" s="125"/>
-      <c r="D40" s="118">
+      <c r="C40" s="138"/>
+      <c r="D40" s="132">
         <v>16</v>
       </c>
-      <c r="E40" s="118"/>
-      <c r="F40" s="118">
+      <c r="E40" s="132"/>
+      <c r="F40" s="132">
         <v>17</v>
       </c>
-      <c r="G40" s="118"/>
-      <c r="H40" s="118">
+      <c r="G40" s="132"/>
+      <c r="H40" s="132">
         <v>18</v>
       </c>
-      <c r="I40" s="118"/>
-      <c r="J40" s="118">
+      <c r="I40" s="132"/>
+      <c r="J40" s="132">
         <v>19</v>
       </c>
-      <c r="K40" s="118"/>
-      <c r="L40" s="118">
+      <c r="K40" s="132"/>
+      <c r="L40" s="132">
         <v>20</v>
       </c>
-      <c r="M40" s="118"/>
-      <c r="N40" s="118">
+      <c r="M40" s="132"/>
+      <c r="N40" s="132">
         <v>21</v>
       </c>
-      <c r="O40" s="121"/>
+      <c r="O40" s="136"/>
       <c r="P40" s="17"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
-      <c r="B41" s="102"/>
-      <c r="C41" s="103"/>
+      <c r="B41" s="133"/>
+      <c r="C41" s="109"/>
       <c r="D41" s="108"/>
-      <c r="E41" s="103"/>
+      <c r="E41" s="109"/>
       <c r="F41" s="108"/>
-      <c r="G41" s="103"/>
+      <c r="G41" s="109"/>
       <c r="H41" s="108"/>
-      <c r="I41" s="103"/>
-      <c r="J41" s="111"/>
-      <c r="K41" s="112"/>
-      <c r="L41" s="93"/>
-      <c r="M41" s="94"/>
-      <c r="N41" s="93"/>
-      <c r="O41" s="99"/>
+      <c r="I41" s="109"/>
+      <c r="J41" s="114"/>
+      <c r="K41" s="115"/>
+      <c r="L41" s="120"/>
+      <c r="M41" s="149"/>
+      <c r="N41" s="120"/>
+      <c r="O41" s="121"/>
       <c r="P41" s="17"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
-      <c r="B42" s="104"/>
-      <c r="C42" s="105"/>
-      <c r="D42" s="109"/>
-      <c r="E42" s="105"/>
-      <c r="F42" s="109"/>
-      <c r="G42" s="105"/>
-      <c r="H42" s="109"/>
-      <c r="I42" s="105"/>
-      <c r="J42" s="113"/>
-      <c r="K42" s="114"/>
-      <c r="L42" s="95"/>
-      <c r="M42" s="96"/>
-      <c r="N42" s="95"/>
-      <c r="O42" s="100"/>
+      <c r="B42" s="134"/>
+      <c r="C42" s="111"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="111"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="111"/>
+      <c r="H42" s="110"/>
+      <c r="I42" s="111"/>
+      <c r="J42" s="116"/>
+      <c r="K42" s="117"/>
+      <c r="L42" s="122"/>
+      <c r="M42" s="150"/>
+      <c r="N42" s="122"/>
+      <c r="O42" s="123"/>
       <c r="P42" s="17"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
-      <c r="B43" s="104"/>
-      <c r="C43" s="105"/>
-      <c r="D43" s="109"/>
-      <c r="E43" s="105"/>
-      <c r="F43" s="109"/>
-      <c r="G43" s="105"/>
-      <c r="H43" s="109"/>
-      <c r="I43" s="105"/>
-      <c r="J43" s="113"/>
-      <c r="K43" s="114"/>
-      <c r="L43" s="95"/>
-      <c r="M43" s="96"/>
-      <c r="N43" s="95"/>
-      <c r="O43" s="100"/>
+      <c r="B43" s="134"/>
+      <c r="C43" s="111"/>
+      <c r="D43" s="110"/>
+      <c r="E43" s="111"/>
+      <c r="F43" s="110"/>
+      <c r="G43" s="111"/>
+      <c r="H43" s="110"/>
+      <c r="I43" s="111"/>
+      <c r="J43" s="116"/>
+      <c r="K43" s="117"/>
+      <c r="L43" s="122"/>
+      <c r="M43" s="150"/>
+      <c r="N43" s="122"/>
+      <c r="O43" s="123"/>
       <c r="P43" s="17"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
-      <c r="B44" s="104"/>
-      <c r="C44" s="105"/>
-      <c r="D44" s="109"/>
-      <c r="E44" s="105"/>
-      <c r="F44" s="109"/>
-      <c r="G44" s="105"/>
-      <c r="H44" s="109"/>
-      <c r="I44" s="105"/>
-      <c r="J44" s="113"/>
-      <c r="K44" s="114"/>
-      <c r="L44" s="95"/>
-      <c r="M44" s="96"/>
-      <c r="N44" s="95"/>
-      <c r="O44" s="100"/>
+      <c r="B44" s="134"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="110"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="110"/>
+      <c r="G44" s="111"/>
+      <c r="H44" s="110"/>
+      <c r="I44" s="111"/>
+      <c r="J44" s="116"/>
+      <c r="K44" s="117"/>
+      <c r="L44" s="122"/>
+      <c r="M44" s="150"/>
+      <c r="N44" s="122"/>
+      <c r="O44" s="123"/>
       <c r="P44" s="17"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
-      <c r="B45" s="104"/>
-      <c r="C45" s="105"/>
-      <c r="D45" s="109"/>
-      <c r="E45" s="105"/>
-      <c r="F45" s="109"/>
-      <c r="G45" s="105"/>
-      <c r="H45" s="109"/>
-      <c r="I45" s="105"/>
-      <c r="J45" s="113"/>
-      <c r="K45" s="114"/>
-      <c r="L45" s="95"/>
-      <c r="M45" s="96"/>
-      <c r="N45" s="95"/>
-      <c r="O45" s="100"/>
+      <c r="B45" s="134"/>
+      <c r="C45" s="111"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="111"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="111"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="111"/>
+      <c r="J45" s="116"/>
+      <c r="K45" s="117"/>
+      <c r="L45" s="122"/>
+      <c r="M45" s="150"/>
+      <c r="N45" s="122"/>
+      <c r="O45" s="123"/>
       <c r="P45" s="17"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="11"/>
-      <c r="B46" s="106"/>
-      <c r="C46" s="107"/>
-      <c r="D46" s="110"/>
-      <c r="E46" s="107"/>
-      <c r="F46" s="110"/>
-      <c r="G46" s="107"/>
-      <c r="H46" s="110"/>
-      <c r="I46" s="107"/>
-      <c r="J46" s="115"/>
-      <c r="K46" s="116"/>
-      <c r="L46" s="97"/>
-      <c r="M46" s="98"/>
-      <c r="N46" s="97"/>
-      <c r="O46" s="101"/>
+      <c r="B46" s="135"/>
+      <c r="C46" s="113"/>
+      <c r="D46" s="112"/>
+      <c r="E46" s="113"/>
+      <c r="F46" s="112"/>
+      <c r="G46" s="113"/>
+      <c r="H46" s="112"/>
+      <c r="I46" s="113"/>
+      <c r="J46" s="118"/>
+      <c r="K46" s="119"/>
+      <c r="L46" s="124"/>
+      <c r="M46" s="151"/>
+      <c r="N46" s="124"/>
+      <c r="O46" s="125"/>
       <c r="P46" s="17"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
@@ -4538,172 +4546,172 @@
       <c r="C47" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="165" t="s">
-        <v>53</v>
-      </c>
-      <c r="E47" s="166"/>
-      <c r="F47" s="166"/>
-      <c r="G47" s="166"/>
-      <c r="H47" s="167" t="s">
-        <v>37</v>
-      </c>
-      <c r="I47" s="167"/>
-      <c r="J47" s="167"/>
-      <c r="K47" s="167"/>
-      <c r="L47" s="167"/>
-      <c r="M47" s="167"/>
-      <c r="N47" s="167"/>
-      <c r="O47" s="168"/>
+      <c r="D47" s="143" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="144"/>
+      <c r="F47" s="144"/>
+      <c r="G47" s="144"/>
+      <c r="H47" s="145" t="s">
+        <v>35</v>
+      </c>
+      <c r="I47" s="145"/>
+      <c r="J47" s="145"/>
+      <c r="K47" s="145"/>
+      <c r="L47" s="145"/>
+      <c r="M47" s="145"/>
+      <c r="N47" s="145"/>
+      <c r="O47" s="146"/>
       <c r="P47" s="17"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
-      <c r="B48" s="122">
+      <c r="B48" s="105">
         <v>22</v>
       </c>
-      <c r="C48" s="123"/>
-      <c r="D48" s="123">
+      <c r="C48" s="106"/>
+      <c r="D48" s="106">
         <v>23</v>
       </c>
-      <c r="E48" s="123"/>
-      <c r="F48" s="123">
+      <c r="E48" s="106"/>
+      <c r="F48" s="106">
         <v>24</v>
       </c>
-      <c r="G48" s="123"/>
-      <c r="H48" s="118">
+      <c r="G48" s="106"/>
+      <c r="H48" s="132">
         <v>25</v>
       </c>
-      <c r="I48" s="118"/>
-      <c r="J48" s="118">
+      <c r="I48" s="132"/>
+      <c r="J48" s="132">
         <v>26</v>
       </c>
-      <c r="K48" s="118"/>
-      <c r="L48" s="118">
+      <c r="K48" s="132"/>
+      <c r="L48" s="132">
         <v>27</v>
       </c>
-      <c r="M48" s="118"/>
-      <c r="N48" s="118">
+      <c r="M48" s="132"/>
+      <c r="N48" s="132">
         <v>20</v>
       </c>
-      <c r="O48" s="121"/>
+      <c r="O48" s="136"/>
       <c r="P48" s="17"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="11"/>
-      <c r="B49" s="102"/>
-      <c r="C49" s="103"/>
+      <c r="B49" s="133"/>
+      <c r="C49" s="109"/>
       <c r="D49" s="108"/>
-      <c r="E49" s="103"/>
+      <c r="E49" s="109"/>
       <c r="F49" s="108"/>
-      <c r="G49" s="103"/>
+      <c r="G49" s="109"/>
       <c r="H49" s="108"/>
-      <c r="I49" s="103"/>
-      <c r="J49" s="111"/>
-      <c r="K49" s="112"/>
-      <c r="L49" s="93"/>
-      <c r="M49" s="94"/>
-      <c r="N49" s="93"/>
-      <c r="O49" s="99"/>
+      <c r="I49" s="109"/>
+      <c r="J49" s="114"/>
+      <c r="K49" s="115"/>
+      <c r="L49" s="120"/>
+      <c r="M49" s="149"/>
+      <c r="N49" s="120"/>
+      <c r="O49" s="121"/>
       <c r="P49" s="17"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="11"/>
-      <c r="B50" s="104"/>
-      <c r="C50" s="105"/>
-      <c r="D50" s="109"/>
-      <c r="E50" s="105"/>
-      <c r="F50" s="109"/>
-      <c r="G50" s="105"/>
-      <c r="H50" s="109"/>
-      <c r="I50" s="105"/>
-      <c r="J50" s="113"/>
-      <c r="K50" s="114"/>
-      <c r="L50" s="95"/>
-      <c r="M50" s="96"/>
-      <c r="N50" s="95"/>
-      <c r="O50" s="100"/>
+      <c r="B50" s="134"/>
+      <c r="C50" s="111"/>
+      <c r="D50" s="110"/>
+      <c r="E50" s="111"/>
+      <c r="F50" s="110"/>
+      <c r="G50" s="111"/>
+      <c r="H50" s="110"/>
+      <c r="I50" s="111"/>
+      <c r="J50" s="116"/>
+      <c r="K50" s="117"/>
+      <c r="L50" s="122"/>
+      <c r="M50" s="150"/>
+      <c r="N50" s="122"/>
+      <c r="O50" s="123"/>
       <c r="P50" s="17"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="11"/>
-      <c r="B51" s="104"/>
-      <c r="C51" s="105"/>
-      <c r="D51" s="109"/>
-      <c r="E51" s="105"/>
-      <c r="F51" s="109"/>
-      <c r="G51" s="105"/>
-      <c r="H51" s="109"/>
-      <c r="I51" s="105"/>
-      <c r="J51" s="113"/>
-      <c r="K51" s="114"/>
-      <c r="L51" s="95"/>
-      <c r="M51" s="96"/>
-      <c r="N51" s="95"/>
-      <c r="O51" s="100"/>
+      <c r="B51" s="134"/>
+      <c r="C51" s="111"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="111"/>
+      <c r="F51" s="110"/>
+      <c r="G51" s="111"/>
+      <c r="H51" s="110"/>
+      <c r="I51" s="111"/>
+      <c r="J51" s="116"/>
+      <c r="K51" s="117"/>
+      <c r="L51" s="122"/>
+      <c r="M51" s="150"/>
+      <c r="N51" s="122"/>
+      <c r="O51" s="123"/>
       <c r="P51" s="17"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="11"/>
-      <c r="B52" s="104"/>
-      <c r="C52" s="105"/>
-      <c r="D52" s="109"/>
-      <c r="E52" s="105"/>
-      <c r="F52" s="109"/>
-      <c r="G52" s="105"/>
-      <c r="H52" s="109"/>
-      <c r="I52" s="105"/>
-      <c r="J52" s="113"/>
-      <c r="K52" s="114"/>
-      <c r="L52" s="95"/>
-      <c r="M52" s="96"/>
-      <c r="N52" s="95"/>
-      <c r="O52" s="100"/>
+      <c r="B52" s="134"/>
+      <c r="C52" s="111"/>
+      <c r="D52" s="110"/>
+      <c r="E52" s="111"/>
+      <c r="F52" s="110"/>
+      <c r="G52" s="111"/>
+      <c r="H52" s="110"/>
+      <c r="I52" s="111"/>
+      <c r="J52" s="116"/>
+      <c r="K52" s="117"/>
+      <c r="L52" s="122"/>
+      <c r="M52" s="150"/>
+      <c r="N52" s="122"/>
+      <c r="O52" s="123"/>
       <c r="P52" s="17"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="11"/>
-      <c r="B53" s="104"/>
-      <c r="C53" s="105"/>
-      <c r="D53" s="109"/>
-      <c r="E53" s="105"/>
-      <c r="F53" s="109"/>
-      <c r="G53" s="105"/>
-      <c r="H53" s="109"/>
-      <c r="I53" s="105"/>
-      <c r="J53" s="113"/>
-      <c r="K53" s="114"/>
-      <c r="L53" s="95"/>
-      <c r="M53" s="96"/>
-      <c r="N53" s="95"/>
-      <c r="O53" s="100"/>
+      <c r="B53" s="134"/>
+      <c r="C53" s="111"/>
+      <c r="D53" s="110"/>
+      <c r="E53" s="111"/>
+      <c r="F53" s="110"/>
+      <c r="G53" s="111"/>
+      <c r="H53" s="110"/>
+      <c r="I53" s="111"/>
+      <c r="J53" s="116"/>
+      <c r="K53" s="117"/>
+      <c r="L53" s="122"/>
+      <c r="M53" s="150"/>
+      <c r="N53" s="122"/>
+      <c r="O53" s="123"/>
       <c r="P53" s="17"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="11"/>
-      <c r="B54" s="106"/>
-      <c r="C54" s="107"/>
-      <c r="D54" s="110"/>
-      <c r="E54" s="107"/>
-      <c r="F54" s="110"/>
-      <c r="G54" s="107"/>
-      <c r="H54" s="110"/>
-      <c r="I54" s="107"/>
-      <c r="J54" s="115"/>
-      <c r="K54" s="116"/>
-      <c r="L54" s="97"/>
-      <c r="M54" s="98"/>
-      <c r="N54" s="97"/>
-      <c r="O54" s="101"/>
+      <c r="B54" s="135"/>
+      <c r="C54" s="113"/>
+      <c r="D54" s="112"/>
+      <c r="E54" s="113"/>
+      <c r="F54" s="112"/>
+      <c r="G54" s="113"/>
+      <c r="H54" s="112"/>
+      <c r="I54" s="113"/>
+      <c r="J54" s="118"/>
+      <c r="K54" s="119"/>
+      <c r="L54" s="124"/>
+      <c r="M54" s="151"/>
+      <c r="N54" s="124"/>
+      <c r="O54" s="125"/>
       <c r="P54" s="17"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="11"/>
       <c r="B55" s="22"/>
       <c r="C55" s="3"/>
-      <c r="D55" s="169"/>
-      <c r="E55" s="167"/>
-      <c r="F55" s="167"/>
-      <c r="G55" s="170"/>
+      <c r="D55" s="147"/>
+      <c r="E55" s="145"/>
+      <c r="F55" s="145"/>
+      <c r="G55" s="148"/>
       <c r="H55" s="2"/>
       <c r="I55" s="3"/>
       <c r="J55" s="4"/>
@@ -4716,128 +4724,128 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="11"/>
-      <c r="B56" s="117">
+      <c r="B56" s="178">
         <v>28</v>
       </c>
-      <c r="C56" s="118"/>
-      <c r="D56" s="118">
+      <c r="C56" s="132"/>
+      <c r="D56" s="132">
         <v>29</v>
       </c>
-      <c r="E56" s="118"/>
-      <c r="F56" s="118">
+      <c r="E56" s="132"/>
+      <c r="F56" s="132">
         <v>30</v>
       </c>
-      <c r="G56" s="118"/>
-      <c r="N56" s="119"/>
-      <c r="O56" s="120"/>
+      <c r="G56" s="132"/>
+      <c r="N56" s="176"/>
+      <c r="O56" s="177"/>
       <c r="P56" s="17"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="11"/>
-      <c r="B57" s="102"/>
-      <c r="C57" s="103"/>
+      <c r="B57" s="133"/>
+      <c r="C57" s="109"/>
       <c r="D57" s="108"/>
-      <c r="E57" s="103"/>
+      <c r="E57" s="109"/>
       <c r="F57" s="108"/>
-      <c r="G57" s="103"/>
+      <c r="G57" s="109"/>
       <c r="H57" s="108"/>
-      <c r="I57" s="103"/>
-      <c r="J57" s="111"/>
-      <c r="K57" s="112"/>
-      <c r="L57" s="93"/>
-      <c r="M57" s="94"/>
-      <c r="N57" s="93"/>
-      <c r="O57" s="99"/>
+      <c r="I57" s="109"/>
+      <c r="J57" s="114"/>
+      <c r="K57" s="115"/>
+      <c r="L57" s="120"/>
+      <c r="M57" s="149"/>
+      <c r="N57" s="120"/>
+      <c r="O57" s="121"/>
       <c r="P57" s="17"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="11"/>
-      <c r="B58" s="104"/>
-      <c r="C58" s="105"/>
-      <c r="D58" s="109"/>
-      <c r="E58" s="105"/>
-      <c r="F58" s="109"/>
-      <c r="G58" s="105"/>
-      <c r="H58" s="109"/>
-      <c r="I58" s="105"/>
-      <c r="J58" s="113"/>
-      <c r="K58" s="114"/>
-      <c r="L58" s="95"/>
-      <c r="M58" s="96"/>
-      <c r="N58" s="95"/>
-      <c r="O58" s="100"/>
+      <c r="B58" s="134"/>
+      <c r="C58" s="111"/>
+      <c r="D58" s="110"/>
+      <c r="E58" s="111"/>
+      <c r="F58" s="110"/>
+      <c r="G58" s="111"/>
+      <c r="H58" s="110"/>
+      <c r="I58" s="111"/>
+      <c r="J58" s="116"/>
+      <c r="K58" s="117"/>
+      <c r="L58" s="122"/>
+      <c r="M58" s="150"/>
+      <c r="N58" s="122"/>
+      <c r="O58" s="123"/>
       <c r="P58" s="17"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="11"/>
-      <c r="B59" s="104"/>
-      <c r="C59" s="105"/>
-      <c r="D59" s="109"/>
-      <c r="E59" s="105"/>
-      <c r="F59" s="109"/>
-      <c r="G59" s="105"/>
-      <c r="H59" s="109"/>
-      <c r="I59" s="105"/>
-      <c r="J59" s="113"/>
-      <c r="K59" s="114"/>
-      <c r="L59" s="95"/>
-      <c r="M59" s="96"/>
-      <c r="N59" s="95"/>
-      <c r="O59" s="100"/>
+      <c r="B59" s="134"/>
+      <c r="C59" s="111"/>
+      <c r="D59" s="110"/>
+      <c r="E59" s="111"/>
+      <c r="F59" s="110"/>
+      <c r="G59" s="111"/>
+      <c r="H59" s="110"/>
+      <c r="I59" s="111"/>
+      <c r="J59" s="116"/>
+      <c r="K59" s="117"/>
+      <c r="L59" s="122"/>
+      <c r="M59" s="150"/>
+      <c r="N59" s="122"/>
+      <c r="O59" s="123"/>
       <c r="P59" s="17"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="11"/>
-      <c r="B60" s="104"/>
-      <c r="C60" s="105"/>
-      <c r="D60" s="109"/>
-      <c r="E60" s="105"/>
-      <c r="F60" s="109"/>
-      <c r="G60" s="105"/>
-      <c r="H60" s="109"/>
-      <c r="I60" s="105"/>
-      <c r="J60" s="113"/>
-      <c r="K60" s="114"/>
-      <c r="L60" s="95"/>
-      <c r="M60" s="96"/>
-      <c r="N60" s="95"/>
-      <c r="O60" s="100"/>
+      <c r="B60" s="134"/>
+      <c r="C60" s="111"/>
+      <c r="D60" s="110"/>
+      <c r="E60" s="111"/>
+      <c r="F60" s="110"/>
+      <c r="G60" s="111"/>
+      <c r="H60" s="110"/>
+      <c r="I60" s="111"/>
+      <c r="J60" s="116"/>
+      <c r="K60" s="117"/>
+      <c r="L60" s="122"/>
+      <c r="M60" s="150"/>
+      <c r="N60" s="122"/>
+      <c r="O60" s="123"/>
       <c r="P60" s="17"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="11"/>
-      <c r="B61" s="104"/>
-      <c r="C61" s="105"/>
-      <c r="D61" s="109"/>
-      <c r="E61" s="105"/>
-      <c r="F61" s="109"/>
-      <c r="G61" s="105"/>
-      <c r="H61" s="109"/>
-      <c r="I61" s="105"/>
-      <c r="J61" s="113"/>
-      <c r="K61" s="114"/>
-      <c r="L61" s="95"/>
-      <c r="M61" s="96"/>
-      <c r="N61" s="95"/>
-      <c r="O61" s="100"/>
+      <c r="B61" s="134"/>
+      <c r="C61" s="111"/>
+      <c r="D61" s="110"/>
+      <c r="E61" s="111"/>
+      <c r="F61" s="110"/>
+      <c r="G61" s="111"/>
+      <c r="H61" s="110"/>
+      <c r="I61" s="111"/>
+      <c r="J61" s="116"/>
+      <c r="K61" s="117"/>
+      <c r="L61" s="122"/>
+      <c r="M61" s="150"/>
+      <c r="N61" s="122"/>
+      <c r="O61" s="123"/>
       <c r="P61" s="17"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="11"/>
-      <c r="B62" s="106"/>
-      <c r="C62" s="107"/>
-      <c r="D62" s="110"/>
-      <c r="E62" s="107"/>
-      <c r="F62" s="110"/>
-      <c r="G62" s="107"/>
-      <c r="H62" s="110"/>
-      <c r="I62" s="107"/>
-      <c r="J62" s="115"/>
-      <c r="K62" s="116"/>
-      <c r="L62" s="97"/>
-      <c r="M62" s="98"/>
-      <c r="N62" s="97"/>
-      <c r="O62" s="101"/>
+      <c r="B62" s="135"/>
+      <c r="C62" s="113"/>
+      <c r="D62" s="112"/>
+      <c r="E62" s="113"/>
+      <c r="F62" s="112"/>
+      <c r="G62" s="113"/>
+      <c r="H62" s="112"/>
+      <c r="I62" s="113"/>
+      <c r="J62" s="118"/>
+      <c r="K62" s="119"/>
+      <c r="L62" s="124"/>
+      <c r="M62" s="151"/>
+      <c r="N62" s="124"/>
+      <c r="O62" s="125"/>
       <c r="P62" s="17"/>
     </row>
     <row r="63" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4876,22 +4884,22 @@
     </row>
     <row r="65" spans="1:16" ht="33.75" x14ac:dyDescent="0.3">
       <c r="A65" s="11"/>
-      <c r="B65" s="143" t="s">
-        <v>38</v>
-      </c>
-      <c r="C65" s="144"/>
-      <c r="D65" s="144"/>
-      <c r="E65" s="144"/>
-      <c r="F65" s="144"/>
-      <c r="G65" s="144"/>
-      <c r="H65" s="144"/>
-      <c r="I65" s="144"/>
-      <c r="J65" s="144"/>
-      <c r="K65" s="144"/>
-      <c r="L65" s="144"/>
-      <c r="M65" s="144"/>
-      <c r="N65" s="144"/>
-      <c r="O65" s="145"/>
+      <c r="B65" s="126" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" s="127"/>
+      <c r="D65" s="127"/>
+      <c r="E65" s="127"/>
+      <c r="F65" s="127"/>
+      <c r="G65" s="127"/>
+      <c r="H65" s="127"/>
+      <c r="I65" s="127"/>
+      <c r="J65" s="127"/>
+      <c r="K65" s="127"/>
+      <c r="L65" s="127"/>
+      <c r="M65" s="127"/>
+      <c r="N65" s="127"/>
+      <c r="O65" s="128"/>
       <c r="P65" s="17"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
@@ -4902,62 +4910,62 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="11"/>
-      <c r="B67" s="146" t="s">
+      <c r="B67" s="129" t="s">
+        <v>37</v>
+      </c>
+      <c r="C67" s="130"/>
+      <c r="D67" s="130" t="s">
+        <v>38</v>
+      </c>
+      <c r="E67" s="130"/>
+      <c r="F67" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="C67" s="133"/>
-      <c r="D67" s="133" t="s">
+      <c r="G67" s="130"/>
+      <c r="H67" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="E67" s="133"/>
-      <c r="F67" s="133" t="s">
+      <c r="I67" s="130"/>
+      <c r="J67" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="G67" s="133"/>
-      <c r="H67" s="133" t="s">
+      <c r="K67" s="130"/>
+      <c r="L67" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="I67" s="133"/>
-      <c r="J67" s="133" t="s">
+      <c r="M67" s="130"/>
+      <c r="N67" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="K67" s="133"/>
-      <c r="L67" s="133" t="s">
-        <v>44</v>
-      </c>
-      <c r="M67" s="133"/>
-      <c r="N67" s="133" t="s">
-        <v>45</v>
-      </c>
-      <c r="O67" s="147"/>
+      <c r="O67" s="131"/>
       <c r="P67" s="17"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="11"/>
-      <c r="B68" s="122"/>
-      <c r="C68" s="123"/>
-      <c r="D68" s="123"/>
-      <c r="E68" s="123"/>
-      <c r="F68" s="123">
+      <c r="B68" s="105"/>
+      <c r="C68" s="106"/>
+      <c r="D68" s="106"/>
+      <c r="E68" s="106"/>
+      <c r="F68" s="106">
         <v>1</v>
       </c>
-      <c r="G68" s="123"/>
-      <c r="H68" s="123">
+      <c r="G68" s="106"/>
+      <c r="H68" s="106">
         <v>2</v>
       </c>
-      <c r="I68" s="123"/>
-      <c r="J68" s="123">
+      <c r="I68" s="106"/>
+      <c r="J68" s="106">
         <v>3</v>
       </c>
-      <c r="K68" s="123"/>
-      <c r="L68" s="123">
+      <c r="K68" s="106"/>
+      <c r="L68" s="106">
         <v>4</v>
       </c>
-      <c r="M68" s="123"/>
-      <c r="N68" s="123">
+      <c r="M68" s="106"/>
+      <c r="N68" s="106">
         <v>5</v>
       </c>
-      <c r="O68" s="134"/>
+      <c r="O68" s="107"/>
       <c r="P68" s="17"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
@@ -4965,107 +4973,107 @@
       <c r="B69" s="45"/>
       <c r="C69" s="37"/>
       <c r="D69" s="108"/>
-      <c r="E69" s="103"/>
+      <c r="E69" s="109"/>
       <c r="F69" s="108"/>
-      <c r="G69" s="103"/>
+      <c r="G69" s="109"/>
       <c r="H69" s="108"/>
-      <c r="I69" s="103"/>
+      <c r="I69" s="109"/>
       <c r="J69" s="108"/>
-      <c r="K69" s="103"/>
-      <c r="L69" s="111"/>
-      <c r="M69" s="112"/>
-      <c r="N69" s="93"/>
-      <c r="O69" s="99"/>
+      <c r="K69" s="109"/>
+      <c r="L69" s="114"/>
+      <c r="M69" s="115"/>
+      <c r="N69" s="120"/>
+      <c r="O69" s="121"/>
       <c r="P69" s="17"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
       <c r="B70" s="46"/>
       <c r="C70" s="38"/>
-      <c r="D70" s="109"/>
-      <c r="E70" s="105"/>
-      <c r="F70" s="109"/>
-      <c r="G70" s="105"/>
-      <c r="H70" s="109"/>
-      <c r="I70" s="105"/>
-      <c r="J70" s="109"/>
-      <c r="K70" s="105"/>
-      <c r="L70" s="113"/>
-      <c r="M70" s="114"/>
-      <c r="N70" s="95"/>
-      <c r="O70" s="100"/>
+      <c r="D70" s="110"/>
+      <c r="E70" s="111"/>
+      <c r="F70" s="110"/>
+      <c r="G70" s="111"/>
+      <c r="H70" s="110"/>
+      <c r="I70" s="111"/>
+      <c r="J70" s="110"/>
+      <c r="K70" s="111"/>
+      <c r="L70" s="116"/>
+      <c r="M70" s="117"/>
+      <c r="N70" s="122"/>
+      <c r="O70" s="123"/>
       <c r="P70" s="17"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="11"/>
       <c r="B71" s="46"/>
       <c r="C71" s="38"/>
-      <c r="D71" s="109"/>
-      <c r="E71" s="105"/>
-      <c r="F71" s="109"/>
-      <c r="G71" s="105"/>
-      <c r="H71" s="109"/>
-      <c r="I71" s="105"/>
-      <c r="J71" s="109"/>
-      <c r="K71" s="105"/>
-      <c r="L71" s="113"/>
-      <c r="M71" s="114"/>
-      <c r="N71" s="95"/>
-      <c r="O71" s="100"/>
+      <c r="D71" s="110"/>
+      <c r="E71" s="111"/>
+      <c r="F71" s="110"/>
+      <c r="G71" s="111"/>
+      <c r="H71" s="110"/>
+      <c r="I71" s="111"/>
+      <c r="J71" s="110"/>
+      <c r="K71" s="111"/>
+      <c r="L71" s="116"/>
+      <c r="M71" s="117"/>
+      <c r="N71" s="122"/>
+      <c r="O71" s="123"/>
       <c r="P71" s="17"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="11"/>
       <c r="B72" s="46"/>
       <c r="C72" s="38"/>
-      <c r="D72" s="109"/>
-      <c r="E72" s="105"/>
-      <c r="F72" s="109"/>
-      <c r="G72" s="105"/>
-      <c r="H72" s="109"/>
-      <c r="I72" s="105"/>
-      <c r="J72" s="109"/>
-      <c r="K72" s="105"/>
-      <c r="L72" s="113"/>
-      <c r="M72" s="114"/>
-      <c r="N72" s="95"/>
-      <c r="O72" s="100"/>
+      <c r="D72" s="110"/>
+      <c r="E72" s="111"/>
+      <c r="F72" s="110"/>
+      <c r="G72" s="111"/>
+      <c r="H72" s="110"/>
+      <c r="I72" s="111"/>
+      <c r="J72" s="110"/>
+      <c r="K72" s="111"/>
+      <c r="L72" s="116"/>
+      <c r="M72" s="117"/>
+      <c r="N72" s="122"/>
+      <c r="O72" s="123"/>
       <c r="P72" s="17"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="11"/>
       <c r="B73" s="46"/>
       <c r="C73" s="38"/>
-      <c r="D73" s="109"/>
-      <c r="E73" s="105"/>
-      <c r="F73" s="109"/>
-      <c r="G73" s="105"/>
-      <c r="H73" s="109"/>
-      <c r="I73" s="105"/>
-      <c r="J73" s="109"/>
-      <c r="K73" s="105"/>
-      <c r="L73" s="113"/>
-      <c r="M73" s="114"/>
-      <c r="N73" s="95"/>
-      <c r="O73" s="100"/>
+      <c r="D73" s="110"/>
+      <c r="E73" s="111"/>
+      <c r="F73" s="110"/>
+      <c r="G73" s="111"/>
+      <c r="H73" s="110"/>
+      <c r="I73" s="111"/>
+      <c r="J73" s="110"/>
+      <c r="K73" s="111"/>
+      <c r="L73" s="116"/>
+      <c r="M73" s="117"/>
+      <c r="N73" s="122"/>
+      <c r="O73" s="123"/>
       <c r="P73" s="17"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="11"/>
       <c r="B74" s="46"/>
       <c r="C74" s="38"/>
-      <c r="D74" s="110"/>
-      <c r="E74" s="107"/>
-      <c r="F74" s="110"/>
-      <c r="G74" s="107"/>
-      <c r="H74" s="110"/>
-      <c r="I74" s="107"/>
-      <c r="J74" s="110"/>
-      <c r="K74" s="107"/>
-      <c r="L74" s="115"/>
-      <c r="M74" s="116"/>
-      <c r="N74" s="97"/>
-      <c r="O74" s="101"/>
+      <c r="D74" s="112"/>
+      <c r="E74" s="113"/>
+      <c r="F74" s="112"/>
+      <c r="G74" s="113"/>
+      <c r="H74" s="112"/>
+      <c r="I74" s="113"/>
+      <c r="J74" s="112"/>
+      <c r="K74" s="113"/>
+      <c r="L74" s="118"/>
+      <c r="M74" s="119"/>
+      <c r="N74" s="124"/>
+      <c r="O74" s="125"/>
       <c r="P74" s="17"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
@@ -5088,34 +5096,34 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="11"/>
-      <c r="B76" s="122">
+      <c r="B76" s="105">
         <v>6</v>
       </c>
-      <c r="C76" s="123"/>
-      <c r="D76" s="123">
+      <c r="C76" s="106"/>
+      <c r="D76" s="106">
         <v>7</v>
       </c>
-      <c r="E76" s="123"/>
-      <c r="F76" s="123">
+      <c r="E76" s="106"/>
+      <c r="F76" s="106">
         <v>8</v>
       </c>
-      <c r="G76" s="123"/>
-      <c r="H76" s="123">
+      <c r="G76" s="106"/>
+      <c r="H76" s="106">
         <v>9</v>
       </c>
-      <c r="I76" s="123"/>
-      <c r="J76" s="123">
+      <c r="I76" s="106"/>
+      <c r="J76" s="106">
         <v>10</v>
       </c>
-      <c r="K76" s="123"/>
-      <c r="L76" s="123">
+      <c r="K76" s="106"/>
+      <c r="L76" s="106">
         <v>11</v>
       </c>
-      <c r="M76" s="123"/>
-      <c r="N76" s="123">
+      <c r="M76" s="106"/>
+      <c r="N76" s="106">
         <v>12</v>
       </c>
-      <c r="O76" s="134"/>
+      <c r="O76" s="107"/>
       <c r="P76" s="17"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
@@ -5123,107 +5131,107 @@
       <c r="B77" s="47"/>
       <c r="C77" s="40"/>
       <c r="D77" s="108"/>
-      <c r="E77" s="103"/>
+      <c r="E77" s="109"/>
       <c r="F77" s="108"/>
-      <c r="G77" s="103"/>
+      <c r="G77" s="109"/>
       <c r="H77" s="108"/>
-      <c r="I77" s="103"/>
+      <c r="I77" s="109"/>
       <c r="J77" s="108"/>
-      <c r="K77" s="103"/>
-      <c r="L77" s="111"/>
-      <c r="M77" s="112"/>
-      <c r="N77" s="93"/>
-      <c r="O77" s="99"/>
+      <c r="K77" s="109"/>
+      <c r="L77" s="114"/>
+      <c r="M77" s="115"/>
+      <c r="N77" s="120"/>
+      <c r="O77" s="121"/>
       <c r="P77" s="17"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="11"/>
       <c r="B78" s="47"/>
       <c r="C78" s="40"/>
-      <c r="D78" s="109"/>
-      <c r="E78" s="105"/>
-      <c r="F78" s="109"/>
-      <c r="G78" s="105"/>
-      <c r="H78" s="109"/>
-      <c r="I78" s="105"/>
-      <c r="J78" s="109"/>
-      <c r="K78" s="105"/>
-      <c r="L78" s="113"/>
-      <c r="M78" s="114"/>
-      <c r="N78" s="95"/>
-      <c r="O78" s="100"/>
+      <c r="D78" s="110"/>
+      <c r="E78" s="111"/>
+      <c r="F78" s="110"/>
+      <c r="G78" s="111"/>
+      <c r="H78" s="110"/>
+      <c r="I78" s="111"/>
+      <c r="J78" s="110"/>
+      <c r="K78" s="111"/>
+      <c r="L78" s="116"/>
+      <c r="M78" s="117"/>
+      <c r="N78" s="122"/>
+      <c r="O78" s="123"/>
       <c r="P78" s="17"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="11"/>
       <c r="B79" s="47"/>
       <c r="C79" s="40"/>
-      <c r="D79" s="109"/>
-      <c r="E79" s="105"/>
-      <c r="F79" s="109"/>
-      <c r="G79" s="105"/>
-      <c r="H79" s="109"/>
-      <c r="I79" s="105"/>
-      <c r="J79" s="109"/>
-      <c r="K79" s="105"/>
-      <c r="L79" s="113"/>
-      <c r="M79" s="114"/>
-      <c r="N79" s="95"/>
-      <c r="O79" s="100"/>
+      <c r="D79" s="110"/>
+      <c r="E79" s="111"/>
+      <c r="F79" s="110"/>
+      <c r="G79" s="111"/>
+      <c r="H79" s="110"/>
+      <c r="I79" s="111"/>
+      <c r="J79" s="110"/>
+      <c r="K79" s="111"/>
+      <c r="L79" s="116"/>
+      <c r="M79" s="117"/>
+      <c r="N79" s="122"/>
+      <c r="O79" s="123"/>
       <c r="P79" s="17"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="11"/>
       <c r="B80" s="47"/>
       <c r="C80" s="40"/>
-      <c r="D80" s="109"/>
-      <c r="E80" s="105"/>
-      <c r="F80" s="109"/>
-      <c r="G80" s="105"/>
-      <c r="H80" s="109"/>
-      <c r="I80" s="105"/>
-      <c r="J80" s="109"/>
-      <c r="K80" s="105"/>
-      <c r="L80" s="113"/>
-      <c r="M80" s="114"/>
-      <c r="N80" s="95"/>
-      <c r="O80" s="100"/>
+      <c r="D80" s="110"/>
+      <c r="E80" s="111"/>
+      <c r="F80" s="110"/>
+      <c r="G80" s="111"/>
+      <c r="H80" s="110"/>
+      <c r="I80" s="111"/>
+      <c r="J80" s="110"/>
+      <c r="K80" s="111"/>
+      <c r="L80" s="116"/>
+      <c r="M80" s="117"/>
+      <c r="N80" s="122"/>
+      <c r="O80" s="123"/>
       <c r="P80" s="17"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="11"/>
       <c r="B81" s="48"/>
       <c r="C81" s="41"/>
-      <c r="D81" s="109"/>
-      <c r="E81" s="105"/>
-      <c r="F81" s="109"/>
-      <c r="G81" s="105"/>
-      <c r="H81" s="109"/>
-      <c r="I81" s="105"/>
-      <c r="J81" s="109"/>
-      <c r="K81" s="105"/>
-      <c r="L81" s="113"/>
-      <c r="M81" s="114"/>
-      <c r="N81" s="95"/>
-      <c r="O81" s="100"/>
+      <c r="D81" s="110"/>
+      <c r="E81" s="111"/>
+      <c r="F81" s="110"/>
+      <c r="G81" s="111"/>
+      <c r="H81" s="110"/>
+      <c r="I81" s="111"/>
+      <c r="J81" s="110"/>
+      <c r="K81" s="111"/>
+      <c r="L81" s="116"/>
+      <c r="M81" s="117"/>
+      <c r="N81" s="122"/>
+      <c r="O81" s="123"/>
       <c r="P81" s="17"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="11"/>
       <c r="B82" s="46"/>
       <c r="C82" s="38"/>
-      <c r="D82" s="110"/>
-      <c r="E82" s="107"/>
-      <c r="F82" s="110"/>
-      <c r="G82" s="107"/>
-      <c r="H82" s="110"/>
-      <c r="I82" s="107"/>
-      <c r="J82" s="110"/>
-      <c r="K82" s="107"/>
-      <c r="L82" s="115"/>
-      <c r="M82" s="116"/>
-      <c r="N82" s="97"/>
-      <c r="O82" s="101"/>
+      <c r="D82" s="112"/>
+      <c r="E82" s="113"/>
+      <c r="F82" s="112"/>
+      <c r="G82" s="113"/>
+      <c r="H82" s="112"/>
+      <c r="I82" s="113"/>
+      <c r="J82" s="112"/>
+      <c r="K82" s="113"/>
+      <c r="L82" s="118"/>
+      <c r="M82" s="119"/>
+      <c r="N82" s="124"/>
+      <c r="O82" s="125"/>
       <c r="P82" s="17"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.3">
@@ -5246,34 +5254,34 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="11"/>
-      <c r="B84" s="124">
+      <c r="B84" s="137">
         <v>13</v>
       </c>
-      <c r="C84" s="125"/>
-      <c r="D84" s="118">
+      <c r="C84" s="138"/>
+      <c r="D84" s="132">
         <v>14</v>
       </c>
-      <c r="E84" s="118"/>
-      <c r="F84" s="118">
+      <c r="E84" s="132"/>
+      <c r="F84" s="132">
         <v>15</v>
       </c>
-      <c r="G84" s="118"/>
-      <c r="H84" s="118">
+      <c r="G84" s="132"/>
+      <c r="H84" s="132">
         <v>16</v>
       </c>
-      <c r="I84" s="118"/>
-      <c r="J84" s="118">
+      <c r="I84" s="132"/>
+      <c r="J84" s="132">
         <v>17</v>
       </c>
-      <c r="K84" s="118"/>
-      <c r="L84" s="118">
+      <c r="K84" s="132"/>
+      <c r="L84" s="132">
         <v>18</v>
       </c>
-      <c r="M84" s="118"/>
-      <c r="N84" s="118">
+      <c r="M84" s="132"/>
+      <c r="N84" s="132">
         <v>19</v>
       </c>
-      <c r="O84" s="121"/>
+      <c r="O84" s="136"/>
       <c r="P84" s="17"/>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.3">
@@ -5281,107 +5289,107 @@
       <c r="B85" s="47"/>
       <c r="C85" s="39"/>
       <c r="D85" s="108"/>
-      <c r="E85" s="103"/>
+      <c r="E85" s="109"/>
       <c r="F85" s="108"/>
-      <c r="G85" s="103"/>
+      <c r="G85" s="109"/>
       <c r="H85" s="108"/>
-      <c r="I85" s="103"/>
+      <c r="I85" s="109"/>
       <c r="J85" s="108"/>
-      <c r="K85" s="103"/>
-      <c r="L85" s="111"/>
-      <c r="M85" s="112"/>
-      <c r="N85" s="93"/>
-      <c r="O85" s="99"/>
+      <c r="K85" s="109"/>
+      <c r="L85" s="114"/>
+      <c r="M85" s="115"/>
+      <c r="N85" s="120"/>
+      <c r="O85" s="121"/>
       <c r="P85" s="17"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="11"/>
       <c r="B86" s="49"/>
       <c r="C86" s="42"/>
-      <c r="D86" s="109"/>
-      <c r="E86" s="105"/>
-      <c r="F86" s="109"/>
-      <c r="G86" s="105"/>
-      <c r="H86" s="109"/>
-      <c r="I86" s="105"/>
-      <c r="J86" s="109"/>
-      <c r="K86" s="105"/>
-      <c r="L86" s="113"/>
-      <c r="M86" s="114"/>
-      <c r="N86" s="95"/>
-      <c r="O86" s="100"/>
+      <c r="D86" s="110"/>
+      <c r="E86" s="111"/>
+      <c r="F86" s="110"/>
+      <c r="G86" s="111"/>
+      <c r="H86" s="110"/>
+      <c r="I86" s="111"/>
+      <c r="J86" s="110"/>
+      <c r="K86" s="111"/>
+      <c r="L86" s="116"/>
+      <c r="M86" s="117"/>
+      <c r="N86" s="122"/>
+      <c r="O86" s="123"/>
       <c r="P86" s="17"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="11"/>
       <c r="B87" s="49"/>
       <c r="C87" s="42"/>
-      <c r="D87" s="109"/>
-      <c r="E87" s="105"/>
-      <c r="F87" s="109"/>
-      <c r="G87" s="105"/>
-      <c r="H87" s="109"/>
-      <c r="I87" s="105"/>
-      <c r="J87" s="109"/>
-      <c r="K87" s="105"/>
-      <c r="L87" s="113"/>
-      <c r="M87" s="114"/>
-      <c r="N87" s="95"/>
-      <c r="O87" s="100"/>
+      <c r="D87" s="110"/>
+      <c r="E87" s="111"/>
+      <c r="F87" s="110"/>
+      <c r="G87" s="111"/>
+      <c r="H87" s="110"/>
+      <c r="I87" s="111"/>
+      <c r="J87" s="110"/>
+      <c r="K87" s="111"/>
+      <c r="L87" s="116"/>
+      <c r="M87" s="117"/>
+      <c r="N87" s="122"/>
+      <c r="O87" s="123"/>
       <c r="P87" s="17"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="11"/>
       <c r="B88" s="49"/>
       <c r="C88" s="42"/>
-      <c r="D88" s="109"/>
-      <c r="E88" s="105"/>
-      <c r="F88" s="109"/>
-      <c r="G88" s="105"/>
-      <c r="H88" s="109"/>
-      <c r="I88" s="105"/>
-      <c r="J88" s="109"/>
-      <c r="K88" s="105"/>
-      <c r="L88" s="113"/>
-      <c r="M88" s="114"/>
-      <c r="N88" s="95"/>
-      <c r="O88" s="100"/>
+      <c r="D88" s="110"/>
+      <c r="E88" s="111"/>
+      <c r="F88" s="110"/>
+      <c r="G88" s="111"/>
+      <c r="H88" s="110"/>
+      <c r="I88" s="111"/>
+      <c r="J88" s="110"/>
+      <c r="K88" s="111"/>
+      <c r="L88" s="116"/>
+      <c r="M88" s="117"/>
+      <c r="N88" s="122"/>
+      <c r="O88" s="123"/>
       <c r="P88" s="17"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" s="11"/>
       <c r="B89" s="50"/>
       <c r="C89" s="43"/>
-      <c r="D89" s="109"/>
-      <c r="E89" s="105"/>
-      <c r="F89" s="109"/>
-      <c r="G89" s="105"/>
-      <c r="H89" s="109"/>
-      <c r="I89" s="105"/>
-      <c r="J89" s="109"/>
-      <c r="K89" s="105"/>
-      <c r="L89" s="113"/>
-      <c r="M89" s="114"/>
-      <c r="N89" s="95"/>
-      <c r="O89" s="100"/>
+      <c r="D89" s="110"/>
+      <c r="E89" s="111"/>
+      <c r="F89" s="110"/>
+      <c r="G89" s="111"/>
+      <c r="H89" s="110"/>
+      <c r="I89" s="111"/>
+      <c r="J89" s="110"/>
+      <c r="K89" s="111"/>
+      <c r="L89" s="116"/>
+      <c r="M89" s="117"/>
+      <c r="N89" s="122"/>
+      <c r="O89" s="123"/>
       <c r="P89" s="17"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" s="11"/>
       <c r="B90" s="46"/>
       <c r="C90" s="38"/>
-      <c r="D90" s="110"/>
-      <c r="E90" s="107"/>
-      <c r="F90" s="110"/>
-      <c r="G90" s="107"/>
-      <c r="H90" s="110"/>
-      <c r="I90" s="107"/>
-      <c r="J90" s="110"/>
-      <c r="K90" s="107"/>
-      <c r="L90" s="115"/>
-      <c r="M90" s="116"/>
-      <c r="N90" s="97"/>
-      <c r="O90" s="101"/>
+      <c r="D90" s="112"/>
+      <c r="E90" s="113"/>
+      <c r="F90" s="112"/>
+      <c r="G90" s="113"/>
+      <c r="H90" s="112"/>
+      <c r="I90" s="113"/>
+      <c r="J90" s="112"/>
+      <c r="K90" s="113"/>
+      <c r="L90" s="118"/>
+      <c r="M90" s="119"/>
+      <c r="N90" s="124"/>
+      <c r="O90" s="125"/>
       <c r="P90" s="17"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.3">
@@ -5404,34 +5412,34 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="11"/>
-      <c r="B92" s="122">
+      <c r="B92" s="105">
         <v>20</v>
       </c>
-      <c r="C92" s="123"/>
-      <c r="D92" s="123">
+      <c r="C92" s="106"/>
+      <c r="D92" s="106">
         <v>21</v>
       </c>
-      <c r="E92" s="123"/>
-      <c r="F92" s="123">
+      <c r="E92" s="106"/>
+      <c r="F92" s="106">
         <v>22</v>
       </c>
-      <c r="G92" s="123"/>
-      <c r="H92" s="118">
+      <c r="G92" s="106"/>
+      <c r="H92" s="132">
         <v>23</v>
       </c>
-      <c r="I92" s="118"/>
-      <c r="J92" s="118">
+      <c r="I92" s="132"/>
+      <c r="J92" s="132">
         <v>24</v>
       </c>
-      <c r="K92" s="118"/>
-      <c r="L92" s="118">
+      <c r="K92" s="132"/>
+      <c r="L92" s="132">
         <v>25</v>
       </c>
-      <c r="M92" s="118"/>
-      <c r="N92" s="118">
+      <c r="M92" s="132"/>
+      <c r="N92" s="132">
         <v>26</v>
       </c>
-      <c r="O92" s="121"/>
+      <c r="O92" s="136"/>
       <c r="P92" s="17"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.3">
@@ -5439,107 +5447,107 @@
       <c r="B93" s="51"/>
       <c r="C93" s="39"/>
       <c r="D93" s="108"/>
-      <c r="E93" s="103"/>
+      <c r="E93" s="109"/>
       <c r="F93" s="108"/>
-      <c r="G93" s="103"/>
+      <c r="G93" s="109"/>
       <c r="H93" s="108"/>
-      <c r="I93" s="103"/>
+      <c r="I93" s="109"/>
       <c r="J93" s="108"/>
-      <c r="K93" s="103"/>
-      <c r="L93" s="111"/>
-      <c r="M93" s="112"/>
-      <c r="N93" s="93"/>
-      <c r="O93" s="99"/>
+      <c r="K93" s="109"/>
+      <c r="L93" s="114"/>
+      <c r="M93" s="115"/>
+      <c r="N93" s="120"/>
+      <c r="O93" s="121"/>
       <c r="P93" s="17"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" s="11"/>
       <c r="B94" s="48"/>
       <c r="C94" s="44"/>
-      <c r="D94" s="109"/>
-      <c r="E94" s="105"/>
-      <c r="F94" s="109"/>
-      <c r="G94" s="105"/>
-      <c r="H94" s="109"/>
-      <c r="I94" s="105"/>
-      <c r="J94" s="109"/>
-      <c r="K94" s="105"/>
-      <c r="L94" s="113"/>
-      <c r="M94" s="114"/>
-      <c r="N94" s="95"/>
-      <c r="O94" s="100"/>
+      <c r="D94" s="110"/>
+      <c r="E94" s="111"/>
+      <c r="F94" s="110"/>
+      <c r="G94" s="111"/>
+      <c r="H94" s="110"/>
+      <c r="I94" s="111"/>
+      <c r="J94" s="110"/>
+      <c r="K94" s="111"/>
+      <c r="L94" s="116"/>
+      <c r="M94" s="117"/>
+      <c r="N94" s="122"/>
+      <c r="O94" s="123"/>
       <c r="P94" s="17"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" s="11"/>
       <c r="B95" s="48"/>
       <c r="C95" s="44"/>
-      <c r="D95" s="109"/>
-      <c r="E95" s="105"/>
-      <c r="F95" s="109"/>
-      <c r="G95" s="105"/>
-      <c r="H95" s="109"/>
-      <c r="I95" s="105"/>
-      <c r="J95" s="109"/>
-      <c r="K95" s="105"/>
-      <c r="L95" s="113"/>
-      <c r="M95" s="114"/>
-      <c r="N95" s="95"/>
-      <c r="O95" s="100"/>
+      <c r="D95" s="110"/>
+      <c r="E95" s="111"/>
+      <c r="F95" s="110"/>
+      <c r="G95" s="111"/>
+      <c r="H95" s="110"/>
+      <c r="I95" s="111"/>
+      <c r="J95" s="110"/>
+      <c r="K95" s="111"/>
+      <c r="L95" s="116"/>
+      <c r="M95" s="117"/>
+      <c r="N95" s="122"/>
+      <c r="O95" s="123"/>
       <c r="P95" s="17"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" s="11"/>
       <c r="B96" s="48"/>
       <c r="C96" s="44"/>
-      <c r="D96" s="109"/>
-      <c r="E96" s="105"/>
-      <c r="F96" s="109"/>
-      <c r="G96" s="105"/>
-      <c r="H96" s="109"/>
-      <c r="I96" s="105"/>
-      <c r="J96" s="109"/>
-      <c r="K96" s="105"/>
-      <c r="L96" s="113"/>
-      <c r="M96" s="114"/>
-      <c r="N96" s="95"/>
-      <c r="O96" s="100"/>
+      <c r="D96" s="110"/>
+      <c r="E96" s="111"/>
+      <c r="F96" s="110"/>
+      <c r="G96" s="111"/>
+      <c r="H96" s="110"/>
+      <c r="I96" s="111"/>
+      <c r="J96" s="110"/>
+      <c r="K96" s="111"/>
+      <c r="L96" s="116"/>
+      <c r="M96" s="117"/>
+      <c r="N96" s="122"/>
+      <c r="O96" s="123"/>
       <c r="P96" s="17"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="11"/>
       <c r="B97" s="48"/>
       <c r="C97" s="44"/>
-      <c r="D97" s="109"/>
-      <c r="E97" s="105"/>
-      <c r="F97" s="109"/>
-      <c r="G97" s="105"/>
-      <c r="H97" s="109"/>
-      <c r="I97" s="105"/>
-      <c r="J97" s="109"/>
-      <c r="K97" s="105"/>
-      <c r="L97" s="113"/>
-      <c r="M97" s="114"/>
-      <c r="N97" s="95"/>
-      <c r="O97" s="100"/>
+      <c r="D97" s="110"/>
+      <c r="E97" s="111"/>
+      <c r="F97" s="110"/>
+      <c r="G97" s="111"/>
+      <c r="H97" s="110"/>
+      <c r="I97" s="111"/>
+      <c r="J97" s="110"/>
+      <c r="K97" s="111"/>
+      <c r="L97" s="116"/>
+      <c r="M97" s="117"/>
+      <c r="N97" s="122"/>
+      <c r="O97" s="123"/>
       <c r="P97" s="17"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="11"/>
       <c r="B98" s="46"/>
       <c r="C98" s="38"/>
-      <c r="D98" s="110"/>
-      <c r="E98" s="107"/>
-      <c r="F98" s="110"/>
-      <c r="G98" s="107"/>
-      <c r="H98" s="110"/>
-      <c r="I98" s="107"/>
-      <c r="J98" s="110"/>
-      <c r="K98" s="107"/>
-      <c r="L98" s="115"/>
-      <c r="M98" s="116"/>
-      <c r="N98" s="97"/>
-      <c r="O98" s="101"/>
+      <c r="D98" s="112"/>
+      <c r="E98" s="113"/>
+      <c r="F98" s="112"/>
+      <c r="G98" s="113"/>
+      <c r="H98" s="112"/>
+      <c r="I98" s="113"/>
+      <c r="J98" s="112"/>
+      <c r="K98" s="113"/>
+      <c r="L98" s="118"/>
+      <c r="M98" s="119"/>
+      <c r="N98" s="124"/>
+      <c r="O98" s="125"/>
       <c r="P98" s="17"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.3">
@@ -5562,135 +5570,135 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="11"/>
-      <c r="B100" s="122">
+      <c r="B100" s="105">
         <v>27</v>
       </c>
-      <c r="C100" s="123"/>
-      <c r="D100" s="123">
+      <c r="C100" s="106"/>
+      <c r="D100" s="106">
         <v>28</v>
       </c>
-      <c r="E100" s="123"/>
-      <c r="F100" s="123">
+      <c r="E100" s="106"/>
+      <c r="F100" s="106">
         <v>29</v>
       </c>
-      <c r="G100" s="123"/>
-      <c r="H100" s="118">
+      <c r="G100" s="106"/>
+      <c r="H100" s="132">
         <v>30</v>
       </c>
-      <c r="I100" s="118"/>
-      <c r="J100" s="123">
+      <c r="I100" s="132"/>
+      <c r="J100" s="106">
         <v>31</v>
       </c>
-      <c r="K100" s="123"/>
+      <c r="K100" s="106"/>
       <c r="O100" s="21"/>
       <c r="P100" s="17"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" s="11"/>
-      <c r="B101" s="102"/>
-      <c r="C101" s="103"/>
+      <c r="B101" s="133"/>
+      <c r="C101" s="109"/>
       <c r="D101" s="108"/>
-      <c r="E101" s="103"/>
+      <c r="E101" s="109"/>
       <c r="F101" s="108"/>
-      <c r="G101" s="103"/>
+      <c r="G101" s="109"/>
       <c r="H101" s="108"/>
-      <c r="I101" s="103"/>
+      <c r="I101" s="109"/>
       <c r="J101" s="108"/>
-      <c r="K101" s="103"/>
-      <c r="L101" s="111"/>
-      <c r="M101" s="112"/>
-      <c r="N101" s="93"/>
-      <c r="O101" s="99"/>
+      <c r="K101" s="109"/>
+      <c r="L101" s="114"/>
+      <c r="M101" s="115"/>
+      <c r="N101" s="120"/>
+      <c r="O101" s="121"/>
       <c r="P101" s="17"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="11"/>
-      <c r="B102" s="104"/>
-      <c r="C102" s="105"/>
-      <c r="D102" s="109"/>
-      <c r="E102" s="105"/>
-      <c r="F102" s="109"/>
-      <c r="G102" s="105"/>
-      <c r="H102" s="109"/>
-      <c r="I102" s="105"/>
-      <c r="J102" s="109"/>
-      <c r="K102" s="105"/>
-      <c r="L102" s="113"/>
-      <c r="M102" s="114"/>
-      <c r="N102" s="95"/>
-      <c r="O102" s="100"/>
+      <c r="B102" s="134"/>
+      <c r="C102" s="111"/>
+      <c r="D102" s="110"/>
+      <c r="E102" s="111"/>
+      <c r="F102" s="110"/>
+      <c r="G102" s="111"/>
+      <c r="H102" s="110"/>
+      <c r="I102" s="111"/>
+      <c r="J102" s="110"/>
+      <c r="K102" s="111"/>
+      <c r="L102" s="116"/>
+      <c r="M102" s="117"/>
+      <c r="N102" s="122"/>
+      <c r="O102" s="123"/>
       <c r="P102" s="17"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="11"/>
-      <c r="B103" s="104"/>
-      <c r="C103" s="105"/>
-      <c r="D103" s="109"/>
-      <c r="E103" s="105"/>
-      <c r="F103" s="109"/>
-      <c r="G103" s="105"/>
-      <c r="H103" s="109"/>
-      <c r="I103" s="105"/>
-      <c r="J103" s="109"/>
-      <c r="K103" s="105"/>
-      <c r="L103" s="113"/>
-      <c r="M103" s="114"/>
-      <c r="N103" s="95"/>
-      <c r="O103" s="100"/>
+      <c r="B103" s="134"/>
+      <c r="C103" s="111"/>
+      <c r="D103" s="110"/>
+      <c r="E103" s="111"/>
+      <c r="F103" s="110"/>
+      <c r="G103" s="111"/>
+      <c r="H103" s="110"/>
+      <c r="I103" s="111"/>
+      <c r="J103" s="110"/>
+      <c r="K103" s="111"/>
+      <c r="L103" s="116"/>
+      <c r="M103" s="117"/>
+      <c r="N103" s="122"/>
+      <c r="O103" s="123"/>
       <c r="P103" s="17"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="11"/>
-      <c r="B104" s="104"/>
-      <c r="C104" s="105"/>
-      <c r="D104" s="109"/>
-      <c r="E104" s="105"/>
-      <c r="F104" s="109"/>
-      <c r="G104" s="105"/>
-      <c r="H104" s="109"/>
-      <c r="I104" s="105"/>
-      <c r="J104" s="109"/>
-      <c r="K104" s="105"/>
-      <c r="L104" s="113"/>
-      <c r="M104" s="114"/>
-      <c r="N104" s="95"/>
-      <c r="O104" s="100"/>
+      <c r="B104" s="134"/>
+      <c r="C104" s="111"/>
+      <c r="D104" s="110"/>
+      <c r="E104" s="111"/>
+      <c r="F104" s="110"/>
+      <c r="G104" s="111"/>
+      <c r="H104" s="110"/>
+      <c r="I104" s="111"/>
+      <c r="J104" s="110"/>
+      <c r="K104" s="111"/>
+      <c r="L104" s="116"/>
+      <c r="M104" s="117"/>
+      <c r="N104" s="122"/>
+      <c r="O104" s="123"/>
       <c r="P104" s="17"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" s="11"/>
-      <c r="B105" s="104"/>
-      <c r="C105" s="105"/>
-      <c r="D105" s="109"/>
-      <c r="E105" s="105"/>
-      <c r="F105" s="109"/>
-      <c r="G105" s="105"/>
-      <c r="H105" s="109"/>
-      <c r="I105" s="105"/>
-      <c r="J105" s="109"/>
-      <c r="K105" s="105"/>
-      <c r="L105" s="113"/>
-      <c r="M105" s="114"/>
-      <c r="N105" s="95"/>
-      <c r="O105" s="100"/>
+      <c r="B105" s="134"/>
+      <c r="C105" s="111"/>
+      <c r="D105" s="110"/>
+      <c r="E105" s="111"/>
+      <c r="F105" s="110"/>
+      <c r="G105" s="111"/>
+      <c r="H105" s="110"/>
+      <c r="I105" s="111"/>
+      <c r="J105" s="110"/>
+      <c r="K105" s="111"/>
+      <c r="L105" s="116"/>
+      <c r="M105" s="117"/>
+      <c r="N105" s="122"/>
+      <c r="O105" s="123"/>
       <c r="P105" s="17"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" s="11"/>
-      <c r="B106" s="106"/>
-      <c r="C106" s="107"/>
-      <c r="D106" s="110"/>
-      <c r="E106" s="107"/>
-      <c r="F106" s="110"/>
-      <c r="G106" s="107"/>
-      <c r="H106" s="110"/>
-      <c r="I106" s="107"/>
-      <c r="J106" s="110"/>
-      <c r="K106" s="107"/>
-      <c r="L106" s="115"/>
-      <c r="M106" s="116"/>
-      <c r="N106" s="97"/>
-      <c r="O106" s="101"/>
+      <c r="B106" s="135"/>
+      <c r="C106" s="113"/>
+      <c r="D106" s="112"/>
+      <c r="E106" s="113"/>
+      <c r="F106" s="112"/>
+      <c r="G106" s="113"/>
+      <c r="H106" s="112"/>
+      <c r="I106" s="113"/>
+      <c r="J106" s="112"/>
+      <c r="K106" s="113"/>
+      <c r="L106" s="118"/>
+      <c r="M106" s="119"/>
+      <c r="N106" s="124"/>
+      <c r="O106" s="125"/>
       <c r="P106" s="17"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.3">
@@ -5720,22 +5728,22 @@
     <row r="109" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="110" spans="1:16" ht="33.75" x14ac:dyDescent="0.3">
       <c r="A110" s="11"/>
-      <c r="B110" s="143" t="s">
-        <v>46</v>
-      </c>
-      <c r="C110" s="144"/>
-      <c r="D110" s="144"/>
-      <c r="E110" s="144"/>
-      <c r="F110" s="144"/>
-      <c r="G110" s="144"/>
-      <c r="H110" s="144"/>
-      <c r="I110" s="144"/>
-      <c r="J110" s="144"/>
-      <c r="K110" s="144"/>
-      <c r="L110" s="144"/>
-      <c r="M110" s="144"/>
-      <c r="N110" s="144"/>
-      <c r="O110" s="145"/>
+      <c r="B110" s="126" t="s">
+        <v>44</v>
+      </c>
+      <c r="C110" s="127"/>
+      <c r="D110" s="127"/>
+      <c r="E110" s="127"/>
+      <c r="F110" s="127"/>
+      <c r="G110" s="127"/>
+      <c r="H110" s="127"/>
+      <c r="I110" s="127"/>
+      <c r="J110" s="127"/>
+      <c r="K110" s="127"/>
+      <c r="L110" s="127"/>
+      <c r="M110" s="127"/>
+      <c r="N110" s="127"/>
+      <c r="O110" s="128"/>
       <c r="P110" s="17"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.3">
@@ -5746,56 +5754,56 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" s="11"/>
-      <c r="B112" s="146" t="s">
+      <c r="B112" s="129" t="s">
+        <v>37</v>
+      </c>
+      <c r="C112" s="130"/>
+      <c r="D112" s="130" t="s">
+        <v>38</v>
+      </c>
+      <c r="E112" s="130"/>
+      <c r="F112" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="C112" s="133"/>
-      <c r="D112" s="133" t="s">
+      <c r="G112" s="130"/>
+      <c r="H112" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="E112" s="133"/>
-      <c r="F112" s="133" t="s">
+      <c r="I112" s="130"/>
+      <c r="J112" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="G112" s="133"/>
-      <c r="H112" s="133" t="s">
+      <c r="K112" s="130"/>
+      <c r="L112" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="I112" s="133"/>
-      <c r="J112" s="133" t="s">
+      <c r="M112" s="130"/>
+      <c r="N112" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="K112" s="133"/>
-      <c r="L112" s="133" t="s">
-        <v>44</v>
-      </c>
-      <c r="M112" s="133"/>
-      <c r="N112" s="133" t="s">
-        <v>45</v>
-      </c>
-      <c r="O112" s="147"/>
+      <c r="O112" s="131"/>
       <c r="P112" s="17"/>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="11"/>
-      <c r="B113" s="122"/>
-      <c r="C113" s="123"/>
-      <c r="D113" s="123"/>
-      <c r="E113" s="123"/>
-      <c r="F113" s="123"/>
-      <c r="G113" s="123"/>
-      <c r="H113" s="123"/>
-      <c r="I113" s="123"/>
-      <c r="J113" s="123"/>
-      <c r="K113" s="123"/>
-      <c r="L113" s="123">
+      <c r="B113" s="105"/>
+      <c r="C113" s="106"/>
+      <c r="D113" s="106"/>
+      <c r="E113" s="106"/>
+      <c r="F113" s="106"/>
+      <c r="G113" s="106"/>
+      <c r="H113" s="106"/>
+      <c r="I113" s="106"/>
+      <c r="J113" s="106"/>
+      <c r="K113" s="106"/>
+      <c r="L113" s="106">
         <v>1</v>
       </c>
-      <c r="M113" s="123"/>
-      <c r="N113" s="123">
+      <c r="M113" s="106"/>
+      <c r="N113" s="106">
         <v>2</v>
       </c>
-      <c r="O113" s="134"/>
+      <c r="O113" s="107"/>
       <c r="P113" s="17"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.3">
@@ -5803,107 +5811,107 @@
       <c r="B114" s="45"/>
       <c r="C114" s="37"/>
       <c r="D114" s="108"/>
-      <c r="E114" s="103"/>
+      <c r="E114" s="109"/>
       <c r="F114" s="108"/>
-      <c r="G114" s="103"/>
+      <c r="G114" s="109"/>
       <c r="H114" s="108"/>
-      <c r="I114" s="103"/>
+      <c r="I114" s="109"/>
       <c r="J114" s="108"/>
-      <c r="K114" s="103"/>
-      <c r="L114" s="111"/>
-      <c r="M114" s="112"/>
-      <c r="N114" s="93"/>
-      <c r="O114" s="99"/>
+      <c r="K114" s="109"/>
+      <c r="L114" s="114"/>
+      <c r="M114" s="115"/>
+      <c r="N114" s="120"/>
+      <c r="O114" s="121"/>
       <c r="P114" s="17"/>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" s="11"/>
       <c r="B115" s="46"/>
       <c r="C115" s="38"/>
-      <c r="D115" s="109"/>
-      <c r="E115" s="105"/>
-      <c r="F115" s="109"/>
-      <c r="G115" s="105"/>
-      <c r="H115" s="109"/>
-      <c r="I115" s="105"/>
-      <c r="J115" s="109"/>
-      <c r="K115" s="105"/>
-      <c r="L115" s="113"/>
-      <c r="M115" s="114"/>
-      <c r="N115" s="95"/>
-      <c r="O115" s="100"/>
+      <c r="D115" s="110"/>
+      <c r="E115" s="111"/>
+      <c r="F115" s="110"/>
+      <c r="G115" s="111"/>
+      <c r="H115" s="110"/>
+      <c r="I115" s="111"/>
+      <c r="J115" s="110"/>
+      <c r="K115" s="111"/>
+      <c r="L115" s="116"/>
+      <c r="M115" s="117"/>
+      <c r="N115" s="122"/>
+      <c r="O115" s="123"/>
       <c r="P115" s="17"/>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" s="11"/>
       <c r="B116" s="46"/>
       <c r="C116" s="38"/>
-      <c r="D116" s="109"/>
-      <c r="E116" s="105"/>
-      <c r="F116" s="109"/>
-      <c r="G116" s="105"/>
-      <c r="H116" s="109"/>
-      <c r="I116" s="105"/>
-      <c r="J116" s="109"/>
-      <c r="K116" s="105"/>
-      <c r="L116" s="113"/>
-      <c r="M116" s="114"/>
-      <c r="N116" s="95"/>
-      <c r="O116" s="100"/>
+      <c r="D116" s="110"/>
+      <c r="E116" s="111"/>
+      <c r="F116" s="110"/>
+      <c r="G116" s="111"/>
+      <c r="H116" s="110"/>
+      <c r="I116" s="111"/>
+      <c r="J116" s="110"/>
+      <c r="K116" s="111"/>
+      <c r="L116" s="116"/>
+      <c r="M116" s="117"/>
+      <c r="N116" s="122"/>
+      <c r="O116" s="123"/>
       <c r="P116" s="17"/>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" s="11"/>
       <c r="B117" s="46"/>
       <c r="C117" s="38"/>
-      <c r="D117" s="109"/>
-      <c r="E117" s="105"/>
-      <c r="F117" s="109"/>
-      <c r="G117" s="105"/>
-      <c r="H117" s="109"/>
-      <c r="I117" s="105"/>
-      <c r="J117" s="109"/>
-      <c r="K117" s="105"/>
-      <c r="L117" s="113"/>
-      <c r="M117" s="114"/>
-      <c r="N117" s="95"/>
-      <c r="O117" s="100"/>
+      <c r="D117" s="110"/>
+      <c r="E117" s="111"/>
+      <c r="F117" s="110"/>
+      <c r="G117" s="111"/>
+      <c r="H117" s="110"/>
+      <c r="I117" s="111"/>
+      <c r="J117" s="110"/>
+      <c r="K117" s="111"/>
+      <c r="L117" s="116"/>
+      <c r="M117" s="117"/>
+      <c r="N117" s="122"/>
+      <c r="O117" s="123"/>
       <c r="P117" s="17"/>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" s="11"/>
       <c r="B118" s="46"/>
       <c r="C118" s="38"/>
-      <c r="D118" s="109"/>
-      <c r="E118" s="105"/>
-      <c r="F118" s="109"/>
-      <c r="G118" s="105"/>
-      <c r="H118" s="109"/>
-      <c r="I118" s="105"/>
-      <c r="J118" s="109"/>
-      <c r="K118" s="105"/>
-      <c r="L118" s="113"/>
-      <c r="M118" s="114"/>
-      <c r="N118" s="95"/>
-      <c r="O118" s="100"/>
+      <c r="D118" s="110"/>
+      <c r="E118" s="111"/>
+      <c r="F118" s="110"/>
+      <c r="G118" s="111"/>
+      <c r="H118" s="110"/>
+      <c r="I118" s="111"/>
+      <c r="J118" s="110"/>
+      <c r="K118" s="111"/>
+      <c r="L118" s="116"/>
+      <c r="M118" s="117"/>
+      <c r="N118" s="122"/>
+      <c r="O118" s="123"/>
       <c r="P118" s="17"/>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="11"/>
       <c r="B119" s="46"/>
       <c r="C119" s="38"/>
-      <c r="D119" s="110"/>
-      <c r="E119" s="107"/>
-      <c r="F119" s="110"/>
-      <c r="G119" s="107"/>
-      <c r="H119" s="110"/>
-      <c r="I119" s="107"/>
-      <c r="J119" s="110"/>
-      <c r="K119" s="107"/>
-      <c r="L119" s="115"/>
-      <c r="M119" s="116"/>
-      <c r="N119" s="97"/>
-      <c r="O119" s="101"/>
+      <c r="D119" s="112"/>
+      <c r="E119" s="113"/>
+      <c r="F119" s="112"/>
+      <c r="G119" s="113"/>
+      <c r="H119" s="112"/>
+      <c r="I119" s="113"/>
+      <c r="J119" s="112"/>
+      <c r="K119" s="113"/>
+      <c r="L119" s="118"/>
+      <c r="M119" s="119"/>
+      <c r="N119" s="124"/>
+      <c r="O119" s="125"/>
       <c r="P119" s="17"/>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.3">
@@ -5926,26 +5934,26 @@
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" s="11"/>
-      <c r="B121" s="122">
+      <c r="B121" s="105">
         <v>3</v>
       </c>
-      <c r="C121" s="123"/>
-      <c r="D121" s="123">
+      <c r="C121" s="106"/>
+      <c r="D121" s="106">
         <v>4</v>
       </c>
-      <c r="E121" s="123"/>
-      <c r="F121" s="123">
+      <c r="E121" s="106"/>
+      <c r="F121" s="106">
         <v>5</v>
       </c>
-      <c r="G121" s="123"/>
-      <c r="H121" s="123"/>
-      <c r="I121" s="123"/>
-      <c r="J121" s="123"/>
-      <c r="K121" s="123"/>
-      <c r="L121" s="123"/>
-      <c r="M121" s="123"/>
-      <c r="N121" s="123"/>
-      <c r="O121" s="134"/>
+      <c r="G121" s="106"/>
+      <c r="H121" s="106"/>
+      <c r="I121" s="106"/>
+      <c r="J121" s="106"/>
+      <c r="K121" s="106"/>
+      <c r="L121" s="106"/>
+      <c r="M121" s="106"/>
+      <c r="N121" s="106"/>
+      <c r="O121" s="107"/>
       <c r="P121" s="17"/>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.3">
@@ -5953,119 +5961,119 @@
       <c r="B122" s="47"/>
       <c r="C122" s="40"/>
       <c r="D122" s="108" t="s">
-        <v>47</v>
-      </c>
-      <c r="E122" s="103"/>
+        <v>45</v>
+      </c>
+      <c r="E122" s="109"/>
       <c r="F122" s="108"/>
-      <c r="G122" s="103"/>
+      <c r="G122" s="109"/>
       <c r="H122" s="108"/>
-      <c r="I122" s="103"/>
+      <c r="I122" s="109"/>
       <c r="J122" s="108"/>
-      <c r="K122" s="103"/>
-      <c r="L122" s="111"/>
-      <c r="M122" s="112"/>
-      <c r="N122" s="93"/>
-      <c r="O122" s="99"/>
+      <c r="K122" s="109"/>
+      <c r="L122" s="114"/>
+      <c r="M122" s="115"/>
+      <c r="N122" s="120"/>
+      <c r="O122" s="121"/>
       <c r="P122" s="17"/>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" s="11"/>
       <c r="B123" s="47"/>
       <c r="C123" s="40"/>
-      <c r="D123" s="109"/>
-      <c r="E123" s="105"/>
-      <c r="F123" s="109"/>
-      <c r="G123" s="105"/>
-      <c r="H123" s="109"/>
-      <c r="I123" s="105"/>
-      <c r="J123" s="109"/>
-      <c r="K123" s="105"/>
-      <c r="L123" s="113"/>
-      <c r="M123" s="114"/>
-      <c r="N123" s="95"/>
-      <c r="O123" s="100"/>
+      <c r="D123" s="110"/>
+      <c r="E123" s="111"/>
+      <c r="F123" s="110"/>
+      <c r="G123" s="111"/>
+      <c r="H123" s="110"/>
+      <c r="I123" s="111"/>
+      <c r="J123" s="110"/>
+      <c r="K123" s="111"/>
+      <c r="L123" s="116"/>
+      <c r="M123" s="117"/>
+      <c r="N123" s="122"/>
+      <c r="O123" s="123"/>
       <c r="P123" s="17"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" s="11"/>
       <c r="B124" s="47"/>
       <c r="C124" s="40"/>
-      <c r="D124" s="109"/>
-      <c r="E124" s="105"/>
-      <c r="F124" s="109"/>
-      <c r="G124" s="105"/>
-      <c r="H124" s="109"/>
-      <c r="I124" s="105"/>
-      <c r="J124" s="109"/>
-      <c r="K124" s="105"/>
-      <c r="L124" s="113"/>
-      <c r="M124" s="114"/>
-      <c r="N124" s="95"/>
-      <c r="O124" s="100"/>
+      <c r="D124" s="110"/>
+      <c r="E124" s="111"/>
+      <c r="F124" s="110"/>
+      <c r="G124" s="111"/>
+      <c r="H124" s="110"/>
+      <c r="I124" s="111"/>
+      <c r="J124" s="110"/>
+      <c r="K124" s="111"/>
+      <c r="L124" s="116"/>
+      <c r="M124" s="117"/>
+      <c r="N124" s="122"/>
+      <c r="O124" s="123"/>
       <c r="P124" s="17"/>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" s="11"/>
       <c r="B125" s="47"/>
       <c r="C125" s="40"/>
-      <c r="D125" s="109"/>
-      <c r="E125" s="105"/>
-      <c r="F125" s="109"/>
-      <c r="G125" s="105"/>
-      <c r="H125" s="109"/>
-      <c r="I125" s="105"/>
-      <c r="J125" s="109"/>
-      <c r="K125" s="105"/>
-      <c r="L125" s="113"/>
-      <c r="M125" s="114"/>
-      <c r="N125" s="95"/>
-      <c r="O125" s="100"/>
+      <c r="D125" s="110"/>
+      <c r="E125" s="111"/>
+      <c r="F125" s="110"/>
+      <c r="G125" s="111"/>
+      <c r="H125" s="110"/>
+      <c r="I125" s="111"/>
+      <c r="J125" s="110"/>
+      <c r="K125" s="111"/>
+      <c r="L125" s="116"/>
+      <c r="M125" s="117"/>
+      <c r="N125" s="122"/>
+      <c r="O125" s="123"/>
       <c r="P125" s="17"/>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" s="11"/>
       <c r="B126" s="48"/>
       <c r="C126" s="41"/>
-      <c r="D126" s="109"/>
-      <c r="E126" s="105"/>
-      <c r="F126" s="109"/>
-      <c r="G126" s="105"/>
-      <c r="H126" s="109"/>
-      <c r="I126" s="105"/>
-      <c r="J126" s="109"/>
-      <c r="K126" s="105"/>
-      <c r="L126" s="113"/>
-      <c r="M126" s="114"/>
-      <c r="N126" s="95"/>
-      <c r="O126" s="100"/>
+      <c r="D126" s="110"/>
+      <c r="E126" s="111"/>
+      <c r="F126" s="110"/>
+      <c r="G126" s="111"/>
+      <c r="H126" s="110"/>
+      <c r="I126" s="111"/>
+      <c r="J126" s="110"/>
+      <c r="K126" s="111"/>
+      <c r="L126" s="116"/>
+      <c r="M126" s="117"/>
+      <c r="N126" s="122"/>
+      <c r="O126" s="123"/>
       <c r="P126" s="17"/>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" s="11"/>
       <c r="B127" s="46"/>
       <c r="C127" s="38"/>
-      <c r="D127" s="110"/>
-      <c r="E127" s="107"/>
-      <c r="F127" s="110"/>
-      <c r="G127" s="107"/>
-      <c r="H127" s="110"/>
-      <c r="I127" s="107"/>
-      <c r="J127" s="110"/>
-      <c r="K127" s="107"/>
-      <c r="L127" s="115"/>
-      <c r="M127" s="116"/>
-      <c r="N127" s="97"/>
-      <c r="O127" s="101"/>
+      <c r="D127" s="112"/>
+      <c r="E127" s="113"/>
+      <c r="F127" s="112"/>
+      <c r="G127" s="113"/>
+      <c r="H127" s="112"/>
+      <c r="I127" s="113"/>
+      <c r="J127" s="112"/>
+      <c r="K127" s="113"/>
+      <c r="L127" s="118"/>
+      <c r="M127" s="119"/>
+      <c r="N127" s="124"/>
+      <c r="O127" s="125"/>
       <c r="P127" s="17"/>
     </row>
     <row r="128" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="11"/>
       <c r="B128" s="55"/>
       <c r="C128" s="56"/>
-      <c r="D128" s="179" t="s">
-        <v>48</v>
-      </c>
-      <c r="E128" s="180"/>
+      <c r="D128" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="E128" s="104"/>
       <c r="F128" s="57"/>
       <c r="G128" s="58"/>
       <c r="H128" s="57"/>
@@ -6096,6 +6104,207 @@
     </row>
   </sheetData>
   <mergeCells count="225">
+    <mergeCell ref="L57:M62"/>
+    <mergeCell ref="N57:O62"/>
+    <mergeCell ref="B57:C62"/>
+    <mergeCell ref="D57:E62"/>
+    <mergeCell ref="F57:G62"/>
+    <mergeCell ref="H57:I62"/>
+    <mergeCell ref="J57:K62"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="J49:K54"/>
+    <mergeCell ref="L49:M54"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="N41:O46"/>
+    <mergeCell ref="B41:C46"/>
+    <mergeCell ref="D41:E46"/>
+    <mergeCell ref="F41:G46"/>
+    <mergeCell ref="H41:I46"/>
+    <mergeCell ref="J41:K46"/>
+    <mergeCell ref="L41:M46"/>
+    <mergeCell ref="D49:E54"/>
+    <mergeCell ref="F49:G54"/>
+    <mergeCell ref="H49:I54"/>
+    <mergeCell ref="N49:O54"/>
+    <mergeCell ref="B49:C54"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="B33:C38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="L33:M38"/>
+    <mergeCell ref="N33:O38"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="D33:K38"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="B25:C30"/>
+    <mergeCell ref="L25:M26"/>
+    <mergeCell ref="L27:M28"/>
+    <mergeCell ref="D31:K31"/>
+    <mergeCell ref="D25:K30"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="F14:G18"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="B6:C11"/>
+    <mergeCell ref="D6:E11"/>
+    <mergeCell ref="F6:G11"/>
+    <mergeCell ref="H6:I11"/>
+    <mergeCell ref="J6:K11"/>
+    <mergeCell ref="H14:I16"/>
+    <mergeCell ref="L6:M11"/>
+    <mergeCell ref="N6:O11"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B14:C18"/>
+    <mergeCell ref="D14:E18"/>
+    <mergeCell ref="J17:K18"/>
+    <mergeCell ref="J14:K16"/>
+    <mergeCell ref="L14:O18"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="H47:O47"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B65:O65"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B21:O21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="D69:E74"/>
+    <mergeCell ref="F69:G74"/>
+    <mergeCell ref="H69:I74"/>
+    <mergeCell ref="J69:K74"/>
+    <mergeCell ref="L69:M74"/>
+    <mergeCell ref="N69:O74"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="D77:E82"/>
+    <mergeCell ref="F77:G82"/>
+    <mergeCell ref="H77:I82"/>
+    <mergeCell ref="J77:K82"/>
+    <mergeCell ref="L77:M82"/>
+    <mergeCell ref="N77:O82"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="D85:E90"/>
+    <mergeCell ref="F85:G90"/>
+    <mergeCell ref="H85:I90"/>
+    <mergeCell ref="J85:K90"/>
+    <mergeCell ref="L85:M90"/>
+    <mergeCell ref="N85:O90"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="D93:E98"/>
+    <mergeCell ref="F93:G98"/>
+    <mergeCell ref="H93:I98"/>
+    <mergeCell ref="J93:K98"/>
+    <mergeCell ref="L93:M98"/>
+    <mergeCell ref="N93:O98"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="B101:C106"/>
+    <mergeCell ref="D101:E106"/>
+    <mergeCell ref="F101:G106"/>
+    <mergeCell ref="H101:I106"/>
+    <mergeCell ref="J101:K106"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="F114:G119"/>
+    <mergeCell ref="H114:I119"/>
+    <mergeCell ref="J114:K119"/>
+    <mergeCell ref="L114:M119"/>
+    <mergeCell ref="N114:O119"/>
+    <mergeCell ref="L101:M106"/>
+    <mergeCell ref="N101:O106"/>
+    <mergeCell ref="B110:O110"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
     <mergeCell ref="P13:U16"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="D128:E128"/>
@@ -6120,207 +6329,6 @@
     <mergeCell ref="L113:M113"/>
     <mergeCell ref="N113:O113"/>
     <mergeCell ref="D114:E119"/>
-    <mergeCell ref="F114:G119"/>
-    <mergeCell ref="H114:I119"/>
-    <mergeCell ref="J114:K119"/>
-    <mergeCell ref="L114:M119"/>
-    <mergeCell ref="N114:O119"/>
-    <mergeCell ref="L101:M106"/>
-    <mergeCell ref="N101:O106"/>
-    <mergeCell ref="B110:O110"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="J112:K112"/>
-    <mergeCell ref="L112:M112"/>
-    <mergeCell ref="N112:O112"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="B101:C106"/>
-    <mergeCell ref="D101:E106"/>
-    <mergeCell ref="F101:G106"/>
-    <mergeCell ref="H101:I106"/>
-    <mergeCell ref="J101:K106"/>
-    <mergeCell ref="J100:K100"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="L92:M92"/>
-    <mergeCell ref="N92:O92"/>
-    <mergeCell ref="D93:E98"/>
-    <mergeCell ref="F93:G98"/>
-    <mergeCell ref="H93:I98"/>
-    <mergeCell ref="J93:K98"/>
-    <mergeCell ref="L93:M98"/>
-    <mergeCell ref="N93:O98"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="L84:M84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="D85:E90"/>
-    <mergeCell ref="F85:G90"/>
-    <mergeCell ref="H85:I90"/>
-    <mergeCell ref="J85:K90"/>
-    <mergeCell ref="L85:M90"/>
-    <mergeCell ref="N85:O90"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="D77:E82"/>
-    <mergeCell ref="F77:G82"/>
-    <mergeCell ref="H77:I82"/>
-    <mergeCell ref="J77:K82"/>
-    <mergeCell ref="L77:M82"/>
-    <mergeCell ref="N77:O82"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="D69:E74"/>
-    <mergeCell ref="F69:G74"/>
-    <mergeCell ref="H69:I74"/>
-    <mergeCell ref="J69:K74"/>
-    <mergeCell ref="L69:M74"/>
-    <mergeCell ref="N69:O74"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="H47:O47"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B65:O65"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B21:O21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L6:M11"/>
-    <mergeCell ref="N6:O11"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B14:C18"/>
-    <mergeCell ref="D14:E18"/>
-    <mergeCell ref="J17:K18"/>
-    <mergeCell ref="J14:K16"/>
-    <mergeCell ref="L14:O18"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="F14:G18"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="B6:C11"/>
-    <mergeCell ref="D6:E11"/>
-    <mergeCell ref="F6:G11"/>
-    <mergeCell ref="H6:I11"/>
-    <mergeCell ref="J6:K11"/>
-    <mergeCell ref="H14:I16"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:O30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="B25:C30"/>
-    <mergeCell ref="L25:M26"/>
-    <mergeCell ref="L27:M28"/>
-    <mergeCell ref="D31:K31"/>
-    <mergeCell ref="D25:K30"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="B33:C38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="L33:M38"/>
-    <mergeCell ref="N33:O38"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="D33:K38"/>
-    <mergeCell ref="J49:K54"/>
-    <mergeCell ref="L49:M54"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="N41:O46"/>
-    <mergeCell ref="B41:C46"/>
-    <mergeCell ref="D41:E46"/>
-    <mergeCell ref="F41:G46"/>
-    <mergeCell ref="H41:I46"/>
-    <mergeCell ref="J41:K46"/>
-    <mergeCell ref="L41:M46"/>
-    <mergeCell ref="D49:E54"/>
-    <mergeCell ref="F49:G54"/>
-    <mergeCell ref="H49:I54"/>
-    <mergeCell ref="N49:O54"/>
-    <mergeCell ref="B49:C54"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="L57:M62"/>
-    <mergeCell ref="N57:O62"/>
-    <mergeCell ref="B57:C62"/>
-    <mergeCell ref="D57:E62"/>
-    <mergeCell ref="F57:G62"/>
-    <mergeCell ref="H57:I62"/>
-    <mergeCell ref="J57:K62"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:G56"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6332,7 +6340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -6346,57 +6354,57 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="75" t="s">
         <v>55</v>
-      </c>
-      <c r="B1" s="75" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="75" t="s">
-        <v>57</v>
       </c>
       <c r="D1" s="75"/>
       <c r="E1" s="75"/>
       <c r="F1" s="75"/>
       <c r="G1" s="75"/>
-      <c r="H1" s="181" t="s">
-        <v>58</v>
+      <c r="H1" s="179" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="75" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" s="75" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" s="75"/>
       <c r="D2" s="75"/>
       <c r="E2" s="75"/>
       <c r="F2" s="75"/>
       <c r="G2" s="75"/>
-      <c r="H2" s="182"/>
+      <c r="H2" s="180"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="D3" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="E3" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="F3" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="77" t="s">
+      <c r="G3" s="77" t="s">
         <v>65</v>
-      </c>
-      <c r="F3" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="77" t="s">
-        <v>67</v>
       </c>
       <c r="H3" s="77"/>
     </row>
@@ -6405,19 +6413,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="E4" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="F4" s="77" t="s">
         <v>70</v>
-      </c>
-      <c r="E4" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="77" t="s">
-        <v>72</v>
       </c>
       <c r="G4" s="77"/>
       <c r="H4" s="77"/>
@@ -6427,16 +6435,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="77" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="77" t="s">
-        <v>75</v>
-      </c>
       <c r="E5" s="77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F5" s="77"/>
       <c r="G5" s="77"/>
@@ -6447,16 +6455,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="77" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="77" t="s">
-        <v>78</v>
-      </c>
       <c r="E6" s="77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F6" s="77"/>
       <c r="G6" s="77"/>
@@ -6467,16 +6475,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="77" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C7" s="77" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D7" s="77" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E7" s="77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F7" s="77"/>
       <c r="G7" s="77"/>
@@ -6487,16 +6495,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="77" t="s">
-        <v>83</v>
-      </c>
       <c r="E8" s="77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F8" s="77"/>
       <c r="G8" s="77"/>
@@ -6507,19 +6515,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="77" t="s">
         <v>84</v>
-      </c>
-      <c r="C9" s="77" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="77" t="s">
-        <v>86</v>
       </c>
       <c r="G9" s="77"/>
       <c r="H9" s="77"/>
@@ -6529,19 +6537,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="77" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="77" t="s">
-        <v>89</v>
-      </c>
       <c r="E10" s="77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F10" s="77" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G10" s="77"/>
       <c r="H10" s="77"/>
@@ -6551,16 +6559,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="77" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C11" s="77" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D11" s="77" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E11" s="77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F11" s="77"/>
       <c r="G11" s="77"/>
@@ -6571,16 +6579,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="77" t="s">
         <v>92</v>
-      </c>
-      <c r="C12" s="77" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="77" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="77" t="s">
-        <v>94</v>
       </c>
       <c r="F12" s="77"/>
       <c r="G12" s="77"/>
@@ -6588,57 +6596,57 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="75" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B14" s="75" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C14" s="75" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D14" s="75"/>
       <c r="E14" s="75"/>
       <c r="F14" s="75"/>
       <c r="G14" s="75"/>
-      <c r="H14" s="181" t="s">
-        <v>58</v>
+      <c r="H14" s="179" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="75" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B15" s="75" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C15" s="75"/>
       <c r="D15" s="75"/>
       <c r="E15" s="75"/>
       <c r="F15" s="75"/>
       <c r="G15" s="75"/>
-      <c r="H15" s="182"/>
+      <c r="H15" s="180"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="77" t="s">
+      <c r="D16" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="77" t="s">
+      <c r="E16" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="77" t="s">
+      <c r="F16" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="77" t="s">
+      <c r="G16" s="77" t="s">
         <v>65</v>
-      </c>
-      <c r="F16" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="77" t="s">
-        <v>67</v>
       </c>
       <c r="H16" s="77"/>
     </row>
@@ -6647,19 +6655,19 @@
         <v>1</v>
       </c>
       <c r="B17" s="77" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C17" s="77" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D17" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="77" t="s">
         <v>70</v>
-      </c>
-      <c r="E17" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="77" t="s">
-        <v>72</v>
       </c>
       <c r="G17" s="77"/>
       <c r="H17" s="77"/>
@@ -6669,16 +6677,16 @@
         <v>2</v>
       </c>
       <c r="B18" s="77" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C18" s="77" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D18" s="77" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E18" s="77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F18" s="77"/>
       <c r="G18" s="77"/>
@@ -6696,57 +6704,57 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="75" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B20" s="75" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C20" s="75" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D20" s="75"/>
       <c r="E20" s="75"/>
       <c r="F20" s="75"/>
       <c r="G20" s="75"/>
-      <c r="H20" s="181" t="s">
-        <v>58</v>
+      <c r="H20" s="179" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="75" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B21" s="75" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C21" s="75"/>
       <c r="D21" s="75"/>
       <c r="E21" s="75"/>
       <c r="F21" s="75"/>
       <c r="G21" s="75"/>
-      <c r="H21" s="182"/>
+      <c r="H21" s="180"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="77" t="s">
+      <c r="D22" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="77" t="s">
+      <c r="E22" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="77" t="s">
+      <c r="F22" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="77" t="s">
+      <c r="G22" s="77" t="s">
         <v>65</v>
-      </c>
-      <c r="F22" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" s="77" t="s">
-        <v>67</v>
       </c>
       <c r="H22" s="77"/>
     </row>
@@ -6755,19 +6763,19 @@
         <v>1</v>
       </c>
       <c r="B23" s="77" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C23" s="77" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D23" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="77" t="s">
         <v>70</v>
-      </c>
-      <c r="E23" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" s="77" t="s">
-        <v>72</v>
       </c>
       <c r="G23" s="77"/>
       <c r="H23" s="77"/>
@@ -6777,16 +6785,16 @@
         <v>2</v>
       </c>
       <c r="B24" s="77" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C24" s="77" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D24" s="77" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E24" s="77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F24" s="77"/>
       <c r="G24" s="77"/>
@@ -6797,57 +6805,57 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="75" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B26" s="75" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C26" s="75" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D26" s="75"/>
       <c r="E26" s="75"/>
       <c r="F26" s="75"/>
       <c r="G26" s="75"/>
-      <c r="H26" s="181" t="s">
-        <v>58</v>
+      <c r="H26" s="179" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="75" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B27" s="75" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C27" s="75"/>
       <c r="D27" s="75"/>
       <c r="E27" s="75"/>
       <c r="F27" s="75"/>
       <c r="G27" s="75"/>
-      <c r="H27" s="182"/>
+      <c r="H27" s="180"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="77" t="s">
+      <c r="D28" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="77" t="s">
+      <c r="E28" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="77" t="s">
+      <c r="F28" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="77" t="s">
+      <c r="G28" s="77" t="s">
         <v>65</v>
-      </c>
-      <c r="F28" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="G28" s="77" t="s">
-        <v>67</v>
       </c>
       <c r="H28" s="77"/>
     </row>
@@ -6856,19 +6864,19 @@
         <v>1</v>
       </c>
       <c r="B29" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="77" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" s="77" t="s">
-        <v>110</v>
-      </c>
       <c r="E29" s="77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F29" s="77" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G29" s="77"/>
       <c r="H29" s="77"/>
@@ -6878,19 +6886,19 @@
         <v>2</v>
       </c>
       <c r="B30" s="77" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C30" s="77" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D30" s="77" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E30" s="77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F30" s="77" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G30" s="77"/>
       <c r="H30" s="77"/>
@@ -6900,16 +6908,16 @@
         <v>3</v>
       </c>
       <c r="B31" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="77" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="C31" s="77" t="s">
-        <v>114</v>
-      </c>
-      <c r="D31" s="80" t="s">
-        <v>115</v>
-      </c>
       <c r="E31" s="77" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F31" s="77"/>
       <c r="G31" s="77"/>
@@ -6920,16 +6928,16 @@
         <v>4</v>
       </c>
       <c r="B32" s="77" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C32" s="77" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D32" s="77" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E32" s="77" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F32" s="77"/>
       <c r="G32" s="77"/>
@@ -6940,21 +6948,21 @@
         <v>5</v>
       </c>
       <c r="B33" s="77" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C33" s="77" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D33" s="77" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E33" s="77" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F33" s="77"/>
       <c r="G33" s="77"/>
-      <c r="H33" s="183" t="s">
-        <v>120</v>
+      <c r="H33" s="181" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -6962,36 +6970,36 @@
         <v>6</v>
       </c>
       <c r="B34" s="77" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C34" s="77" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D34" s="77" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E34" s="77" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F34" s="77"/>
       <c r="G34" s="77"/>
-      <c r="H34" s="184"/>
+      <c r="H34" s="182"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="76">
         <v>7</v>
       </c>
       <c r="B35" s="77" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C35" s="77" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D35" s="77" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E35" s="77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F35" s="77"/>
       <c r="G35" s="77"/>
@@ -7002,19 +7010,19 @@
         <v>8</v>
       </c>
       <c r="B36" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="77" t="s">
         <v>84</v>
-      </c>
-      <c r="C36" s="77" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="F36" s="77" t="s">
-        <v>86</v>
       </c>
       <c r="G36" s="77"/>
       <c r="H36" s="77"/>
@@ -7024,57 +7032,57 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="75" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B38" s="75" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C38" s="75" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D38" s="75"/>
       <c r="E38" s="75"/>
       <c r="F38" s="75"/>
       <c r="G38" s="75"/>
-      <c r="H38" s="181" t="s">
-        <v>58</v>
+      <c r="H38" s="179" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="75" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B39" s="75" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C39" s="75"/>
       <c r="D39" s="75"/>
       <c r="E39" s="75"/>
       <c r="F39" s="75"/>
       <c r="G39" s="75"/>
-      <c r="H39" s="182"/>
+      <c r="H39" s="180"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="77" t="s">
+      <c r="D40" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="C40" s="77" t="s">
+      <c r="E40" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="77" t="s">
+      <c r="F40" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="77" t="s">
+      <c r="G40" s="77" t="s">
         <v>65</v>
-      </c>
-      <c r="F40" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="G40" s="77" t="s">
-        <v>67</v>
       </c>
       <c r="H40" s="77"/>
     </row>
@@ -7083,19 +7091,19 @@
         <v>1</v>
       </c>
       <c r="B41" s="77" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C41" s="77" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D41" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41" s="77" t="s">
         <v>70</v>
-      </c>
-      <c r="E41" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="F41" s="77" t="s">
-        <v>72</v>
       </c>
       <c r="G41" s="77"/>
       <c r="H41" s="77"/>
@@ -7105,16 +7113,16 @@
         <v>2</v>
       </c>
       <c r="B42" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="C42" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="D42" s="77" t="s">
-        <v>130</v>
-      </c>
       <c r="E42" s="77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F42" s="77"/>
       <c r="G42" s="77"/>
@@ -7125,57 +7133,57 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="75" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B44" s="75" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C44" s="75" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D44" s="75"/>
       <c r="E44" s="75"/>
       <c r="F44" s="75"/>
       <c r="G44" s="75"/>
-      <c r="H44" s="181" t="s">
-        <v>58</v>
+      <c r="H44" s="179" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="75" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B45" s="75" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C45" s="75"/>
       <c r="D45" s="75"/>
       <c r="E45" s="75"/>
       <c r="F45" s="75"/>
       <c r="G45" s="75"/>
-      <c r="H45" s="182"/>
+      <c r="H45" s="180"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="77" t="s">
+      <c r="D46" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="77" t="s">
+      <c r="E46" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="77" t="s">
+      <c r="F46" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="E46" s="77" t="s">
+      <c r="G46" s="77" t="s">
         <v>65</v>
-      </c>
-      <c r="F46" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="G46" s="77" t="s">
-        <v>67</v>
       </c>
       <c r="H46" s="77"/>
     </row>
@@ -7184,19 +7192,19 @@
         <v>1</v>
       </c>
       <c r="B47" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="77" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="C47" s="77" t="s">
-        <v>134</v>
-      </c>
-      <c r="D47" s="77" t="s">
-        <v>110</v>
-      </c>
       <c r="E47" s="77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F47" s="77" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G47" s="77"/>
       <c r="H47" s="77"/>
@@ -7206,19 +7214,19 @@
         <v>2</v>
       </c>
       <c r="B48" s="77" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C48" s="77" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D48" s="77" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E48" s="77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F48" s="77" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G48" s="77"/>
       <c r="H48" s="77"/>
@@ -7228,16 +7236,16 @@
         <v>3</v>
       </c>
       <c r="B49" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" s="80" t="s">
         <v>137</v>
       </c>
-      <c r="C49" s="77" t="s">
-        <v>138</v>
-      </c>
-      <c r="D49" s="80" t="s">
-        <v>139</v>
-      </c>
       <c r="E49" s="77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F49" s="77"/>
       <c r="G49" s="77"/>
@@ -7248,16 +7256,16 @@
         <v>4</v>
       </c>
       <c r="B50" s="77" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C50" s="77" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D50" s="77" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E50" s="77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F50" s="77"/>
       <c r="G50" s="77"/>
@@ -7268,19 +7276,19 @@
         <v>5</v>
       </c>
       <c r="B51" s="77" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C51" s="77" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D51" s="77" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E51" s="77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F51" s="77" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G51" s="77"/>
       <c r="H51" s="77"/>
@@ -7290,57 +7298,57 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="75" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B53" s="75" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C53" s="75" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D53" s="75"/>
       <c r="E53" s="75"/>
       <c r="F53" s="75"/>
       <c r="G53" s="75"/>
-      <c r="H53" s="181" t="s">
-        <v>58</v>
+      <c r="H53" s="179" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="75" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B54" s="75" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C54" s="75"/>
       <c r="D54" s="75"/>
       <c r="E54" s="75"/>
       <c r="F54" s="75"/>
       <c r="G54" s="75"/>
-      <c r="H54" s="182"/>
+      <c r="H54" s="180"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B55" s="77" t="s">
+      <c r="D55" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="C55" s="77" t="s">
+      <c r="E55" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="D55" s="77" t="s">
+      <c r="F55" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="E55" s="77" t="s">
+      <c r="G55" s="77" t="s">
         <v>65</v>
-      </c>
-      <c r="F55" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="G55" s="77" t="s">
-        <v>67</v>
       </c>
       <c r="H55" s="77"/>
     </row>
@@ -7349,19 +7357,19 @@
         <v>1</v>
       </c>
       <c r="B56" s="77" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C56" s="77" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D56" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="E56" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="F56" s="77" t="s">
         <v>70</v>
-      </c>
-      <c r="E56" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="F56" s="77" t="s">
-        <v>72</v>
       </c>
       <c r="G56" s="77"/>
       <c r="H56" s="77"/>
@@ -7371,16 +7379,16 @@
         <v>2</v>
       </c>
       <c r="B57" s="77" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C57" s="77" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D57" s="77" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E57" s="77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F57" s="77"/>
       <c r="G57" s="77"/>
@@ -7398,57 +7406,57 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="75" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B59" s="75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C59" s="75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D59" s="75"/>
       <c r="E59" s="75"/>
       <c r="F59" s="75"/>
       <c r="G59" s="75"/>
-      <c r="H59" s="181" t="s">
-        <v>58</v>
+      <c r="H59" s="179" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="75" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B60" s="75" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C60" s="75"/>
       <c r="D60" s="75"/>
       <c r="E60" s="75"/>
       <c r="F60" s="75"/>
       <c r="G60" s="75"/>
-      <c r="H60" s="182"/>
+      <c r="H60" s="180"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="77" t="s">
+      <c r="D61" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="77" t="s">
+      <c r="E61" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="D61" s="77" t="s">
+      <c r="F61" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="E61" s="77" t="s">
+      <c r="G61" s="77" t="s">
         <v>65</v>
-      </c>
-      <c r="F61" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="G61" s="77" t="s">
-        <v>67</v>
       </c>
       <c r="H61" s="77"/>
     </row>
@@ -7457,19 +7465,19 @@
         <v>1</v>
       </c>
       <c r="B62" s="77" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C62" s="77" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D62" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="E62" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="F62" s="77" t="s">
         <v>70</v>
-      </c>
-      <c r="E62" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="F62" s="77" t="s">
-        <v>72</v>
       </c>
       <c r="G62" s="77"/>
       <c r="H62" s="77"/>
@@ -7479,16 +7487,16 @@
         <v>2</v>
       </c>
       <c r="B63" s="77" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C63" s="77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D63" s="77" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E63" s="77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F63" s="77"/>
       <c r="G63" s="77"/>
@@ -7499,57 +7507,57 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="75" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B65" s="75" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C65" s="75" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D65" s="75"/>
       <c r="E65" s="75"/>
       <c r="F65" s="75"/>
       <c r="G65" s="75"/>
-      <c r="H65" s="181" t="s">
-        <v>58</v>
+      <c r="H65" s="179" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="75" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B66" s="75" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C66" s="75"/>
       <c r="D66" s="75"/>
       <c r="E66" s="75"/>
       <c r="F66" s="75"/>
       <c r="G66" s="75"/>
-      <c r="H66" s="182"/>
+      <c r="H66" s="180"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="B67" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="C67" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B67" s="77" t="s">
+      <c r="D67" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="C67" s="77" t="s">
+      <c r="E67" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="D67" s="77" t="s">
+      <c r="F67" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="E67" s="77" t="s">
+      <c r="G67" s="77" t="s">
         <v>65</v>
-      </c>
-      <c r="F67" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="G67" s="77" t="s">
-        <v>67</v>
       </c>
       <c r="H67" s="77"/>
     </row>
@@ -7558,19 +7566,19 @@
         <v>1</v>
       </c>
       <c r="B68" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="C68" s="77" t="s">
+        <v>153</v>
+      </c>
+      <c r="D68" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="C68" s="77" t="s">
-        <v>155</v>
-      </c>
-      <c r="D68" s="77" t="s">
-        <v>110</v>
-      </c>
       <c r="E68" s="77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F68" s="77" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G68" s="77"/>
       <c r="H68" s="77"/>
@@ -7580,19 +7588,19 @@
         <v>2</v>
       </c>
       <c r="B69" s="77" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C69" s="77" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D69" s="77" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E69" s="77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F69" s="77" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G69" s="77"/>
       <c r="H69" s="77"/>
@@ -7602,16 +7610,16 @@
         <v>3</v>
       </c>
       <c r="B70" s="77" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C70" s="77" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D70" s="77" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E70" s="77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F70" s="77"/>
       <c r="G70" s="77"/>
@@ -7622,16 +7630,16 @@
         <v>4</v>
       </c>
       <c r="B71" s="77" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C71" s="77" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D71" s="77" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E71" s="77" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F71" s="77"/>
       <c r="G71" s="77"/>
@@ -7642,57 +7650,57 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="75" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B73" s="75" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C73" s="75" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D73" s="75"/>
       <c r="E73" s="75"/>
       <c r="F73" s="75"/>
       <c r="G73" s="75"/>
-      <c r="H73" s="181" t="s">
-        <v>58</v>
+      <c r="H73" s="179" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="75" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B74" s="75" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C74" s="75"/>
       <c r="D74" s="75"/>
       <c r="E74" s="75"/>
       <c r="F74" s="75"/>
       <c r="G74" s="75"/>
-      <c r="H74" s="182"/>
+      <c r="H74" s="180"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="B75" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="C75" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B75" s="77" t="s">
+      <c r="D75" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="C75" s="77" t="s">
+      <c r="E75" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="D75" s="77" t="s">
+      <c r="F75" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="E75" s="77" t="s">
+      <c r="G75" s="77" t="s">
         <v>65</v>
-      </c>
-      <c r="F75" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="G75" s="77" t="s">
-        <v>67</v>
       </c>
       <c r="H75" s="77"/>
     </row>
@@ -7701,19 +7709,19 @@
         <v>1</v>
       </c>
       <c r="B76" s="77" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C76" s="77" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D76" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="E76" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="F76" s="77" t="s">
         <v>70</v>
-      </c>
-      <c r="E76" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="F76" s="77" t="s">
-        <v>72</v>
       </c>
       <c r="G76" s="77"/>
       <c r="H76" s="77"/>
@@ -7723,16 +7731,16 @@
         <v>2</v>
       </c>
       <c r="B77" s="77" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C77" s="77" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D77" s="77" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E77" s="77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F77" s="77"/>
       <c r="G77" s="77"/>
@@ -7743,16 +7751,16 @@
         <v>3</v>
       </c>
       <c r="B78" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" s="77" t="s">
+        <v>165</v>
+      </c>
+      <c r="D78" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="C78" s="77" t="s">
-        <v>167</v>
-      </c>
-      <c r="D78" s="77" t="s">
-        <v>83</v>
-      </c>
       <c r="E78" s="77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F78" s="77"/>
       <c r="G78" s="77"/>
@@ -7763,16 +7771,16 @@
         <v>4</v>
       </c>
       <c r="B79" s="77" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C79" s="77" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D79" s="77" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E79" s="77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F79" s="77"/>
       <c r="G79" s="77"/>
@@ -7783,16 +7791,16 @@
         <v>5</v>
       </c>
       <c r="B80" s="77" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C80" s="77" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D80" s="77" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E80" s="77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F80" s="77"/>
       <c r="G80" s="77"/>
@@ -7803,16 +7811,16 @@
         <v>6</v>
       </c>
       <c r="B81" s="77" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C81" s="77" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D81" s="77" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E81" s="77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F81" s="77"/>
       <c r="G81" s="77"/>
@@ -7823,16 +7831,16 @@
         <v>7</v>
       </c>
       <c r="B82" s="77" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C82" s="77" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D82" s="77" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E82" s="77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F82" s="77"/>
       <c r="G82" s="77"/>
@@ -7840,57 +7848,57 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="75" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B84" s="75" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C84" s="75" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D84" s="75"/>
       <c r="E84" s="75"/>
       <c r="F84" s="75"/>
       <c r="G84" s="75"/>
-      <c r="H84" s="181" t="s">
-        <v>58</v>
+      <c r="H84" s="179" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="75" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B85" s="75" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C85" s="75"/>
       <c r="D85" s="75"/>
       <c r="E85" s="75"/>
       <c r="F85" s="75"/>
       <c r="G85" s="75"/>
-      <c r="H85" s="182"/>
+      <c r="H85" s="180"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="B86" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="C86" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B86" s="77" t="s">
+      <c r="D86" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="C86" s="77" t="s">
+      <c r="E86" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="D86" s="77" t="s">
+      <c r="F86" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="E86" s="77" t="s">
+      <c r="G86" s="77" t="s">
         <v>65</v>
-      </c>
-      <c r="F86" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="G86" s="77" t="s">
-        <v>67</v>
       </c>
       <c r="H86" s="77"/>
     </row>
@@ -7899,19 +7907,19 @@
         <v>1</v>
       </c>
       <c r="B87" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="C87" s="77" t="s">
+        <v>176</v>
+      </c>
+      <c r="D87" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="C87" s="77" t="s">
-        <v>178</v>
-      </c>
-      <c r="D87" s="77" t="s">
-        <v>110</v>
-      </c>
       <c r="E87" s="77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F87" s="77" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G87" s="77">
         <v>0</v>
@@ -7923,23 +7931,23 @@
         <v>2</v>
       </c>
       <c r="B88" s="77" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88" s="77" t="s">
+        <v>178</v>
+      </c>
+      <c r="D88" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="C88" s="77" t="s">
-        <v>180</v>
-      </c>
-      <c r="D88" s="77" t="s">
-        <v>181</v>
-      </c>
       <c r="E88" s="77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F88" s="77"/>
       <c r="G88" s="77">
         <v>0</v>
       </c>
       <c r="H88" s="77" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
@@ -7947,16 +7955,16 @@
         <v>3</v>
       </c>
       <c r="B89" s="77" t="s">
+        <v>181</v>
+      </c>
+      <c r="C89" s="77" t="s">
+        <v>182</v>
+      </c>
+      <c r="D89" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="C89" s="77" t="s">
-        <v>184</v>
-      </c>
-      <c r="D89" s="77" t="s">
-        <v>185</v>
-      </c>
       <c r="E89" s="77" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F89" s="77"/>
       <c r="G89" s="77">
@@ -7969,16 +7977,16 @@
         <v>4</v>
       </c>
       <c r="B90" s="77" t="s">
+        <v>184</v>
+      </c>
+      <c r="C90" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="D90" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="C90" s="77" t="s">
-        <v>187</v>
-      </c>
-      <c r="D90" s="77" t="s">
-        <v>188</v>
-      </c>
       <c r="E90" s="77" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F90" s="77"/>
       <c r="G90" s="77">
@@ -7991,16 +7999,16 @@
         <v>5</v>
       </c>
       <c r="B91" s="77" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C91" s="77" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D91" s="77" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E91" s="77" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F91" s="77"/>
       <c r="G91" s="77">
@@ -8013,16 +8021,16 @@
         <v>6</v>
       </c>
       <c r="B92" s="77" t="s">
+        <v>189</v>
+      </c>
+      <c r="C92" s="77" t="s">
+        <v>190</v>
+      </c>
+      <c r="D92" s="77" t="s">
         <v>191</v>
       </c>
-      <c r="C92" s="77" t="s">
-        <v>192</v>
-      </c>
-      <c r="D92" s="77" t="s">
-        <v>193</v>
-      </c>
       <c r="E92" s="77" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F92" s="77"/>
       <c r="G92" s="77">
@@ -8035,16 +8043,16 @@
         <v>7</v>
       </c>
       <c r="B93" s="77" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C93" s="77" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D93" s="77" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E93" s="77" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F93" s="77"/>
       <c r="G93" s="77">
@@ -8057,16 +8065,16 @@
         <v>8</v>
       </c>
       <c r="B94" s="77" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C94" s="77" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D94" s="77" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E94" s="77" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F94" s="77"/>
       <c r="G94" s="77">
@@ -8079,16 +8087,16 @@
         <v>9</v>
       </c>
       <c r="B95" s="77" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C95" s="77" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D95" s="77" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E95" s="77" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F95" s="77"/>
       <c r="G95" s="77">
@@ -8101,16 +8109,16 @@
         <v>10</v>
       </c>
       <c r="B96" s="77" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C96" s="77" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D96" s="77" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E96" s="77" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F96" s="77"/>
       <c r="G96" s="77">
@@ -8123,19 +8131,19 @@
         <v>11</v>
       </c>
       <c r="B97" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="C97" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="D97" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="C97" s="77" t="s">
+      <c r="E97" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="D97" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="E97" s="77" t="s">
-        <v>71</v>
-      </c>
       <c r="F97" s="77" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G97" s="77"/>
       <c r="H97" s="77"/>
@@ -8145,16 +8153,16 @@
         <v>12</v>
       </c>
       <c r="B98" s="77" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C98" s="77" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D98" s="77" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E98" s="77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F98" s="77"/>
       <c r="G98" s="77"/>
@@ -8165,16 +8173,16 @@
         <v>13</v>
       </c>
       <c r="B99" s="77" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C99" s="77" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D99" s="77" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E99" s="77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F99" s="77"/>
       <c r="G99" s="77"/>
@@ -8182,57 +8190,57 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="75" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B101" s="75" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C101" s="75" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D101" s="75"/>
       <c r="E101" s="75"/>
       <c r="F101" s="75"/>
       <c r="G101" s="75"/>
-      <c r="H101" s="181" t="s">
-        <v>58</v>
+      <c r="H101" s="179" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="75" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B102" s="75" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C102" s="75"/>
       <c r="D102" s="75"/>
       <c r="E102" s="75"/>
       <c r="F102" s="75"/>
       <c r="G102" s="75"/>
-      <c r="H102" s="182"/>
+      <c r="H102" s="180"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="B103" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="C103" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B103" s="77" t="s">
+      <c r="D103" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="C103" s="77" t="s">
+      <c r="E103" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="D103" s="77" t="s">
+      <c r="F103" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="E103" s="77" t="s">
+      <c r="G103" s="77" t="s">
         <v>65</v>
-      </c>
-      <c r="F103" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="G103" s="77" t="s">
-        <v>67</v>
       </c>
       <c r="H103" s="77"/>
     </row>
@@ -8241,19 +8249,19 @@
         <v>1</v>
       </c>
       <c r="B104" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="C104" s="77" t="s">
+        <v>206</v>
+      </c>
+      <c r="D104" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="C104" s="77" t="s">
-        <v>208</v>
-      </c>
-      <c r="D104" s="77" t="s">
-        <v>110</v>
-      </c>
       <c r="E104" s="77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F104" s="77" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G104" s="77"/>
       <c r="H104" s="77"/>
@@ -8263,19 +8271,19 @@
         <v>2</v>
       </c>
       <c r="B105" s="77" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C105" s="77" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D105" s="77" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E105" s="77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F105" s="77" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G105" s="77"/>
       <c r="H105" s="77"/>
@@ -8285,16 +8293,16 @@
         <v>3</v>
       </c>
       <c r="B106" s="77" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C106" s="77" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D106" s="80" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E106" s="77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F106" s="77"/>
       <c r="G106" s="77"/>
@@ -8305,16 +8313,16 @@
         <v>4</v>
       </c>
       <c r="B107" s="77" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C107" s="77" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D107" s="77" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E107" s="77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F107" s="77"/>
       <c r="G107" s="77"/>
@@ -8325,19 +8333,19 @@
         <v>5</v>
       </c>
       <c r="B108" s="77" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C108" s="77" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D108" s="77" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E108" s="77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F108" s="77" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G108" s="77"/>
       <c r="H108" s="77"/>
@@ -8347,16 +8355,16 @@
         <v>6</v>
       </c>
       <c r="B109" s="77" t="s">
+        <v>210</v>
+      </c>
+      <c r="C109" s="77" t="s">
+        <v>211</v>
+      </c>
+      <c r="D109" s="77" t="s">
         <v>212</v>
       </c>
-      <c r="C109" s="77" t="s">
-        <v>213</v>
-      </c>
-      <c r="D109" s="77" t="s">
-        <v>214</v>
-      </c>
       <c r="E109" s="77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F109" s="77"/>
       <c r="G109" s="77"/>
@@ -8367,16 +8375,16 @@
         <v>7</v>
       </c>
       <c r="B110" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C110" s="77" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D110" s="77" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E110" s="77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F110" s="77"/>
       <c r="G110" s="77"/>
@@ -8387,76 +8395,76 @@
         <v>8</v>
       </c>
       <c r="B111" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="C111" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="D111" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="C111" s="77" t="s">
+      <c r="E111" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="D111" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="E111" s="77" t="s">
-        <v>71</v>
-      </c>
       <c r="F111" s="77" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G111" s="77"/>
       <c r="H111" s="77"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="75" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B113" s="75" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C113" s="75" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D113" s="75"/>
       <c r="E113" s="75"/>
       <c r="F113" s="75"/>
       <c r="G113" s="75"/>
-      <c r="H113" s="181" t="s">
-        <v>58</v>
+      <c r="H113" s="179" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="75" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B114" s="75" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C114" s="75"/>
       <c r="D114" s="75"/>
       <c r="E114" s="75"/>
       <c r="F114" s="75"/>
       <c r="G114" s="75"/>
-      <c r="H114" s="182"/>
+      <c r="H114" s="180"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="B115" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="C115" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B115" s="77" t="s">
+      <c r="D115" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="C115" s="77" t="s">
+      <c r="E115" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="D115" s="77" t="s">
+      <c r="F115" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="E115" s="77" t="s">
+      <c r="G115" s="77" t="s">
         <v>65</v>
-      </c>
-      <c r="F115" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="G115" s="77" t="s">
-        <v>67</v>
       </c>
       <c r="H115" s="77"/>
     </row>
@@ -8465,19 +8473,19 @@
         <v>1</v>
       </c>
       <c r="B116" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="C116" s="77" t="s">
+        <v>218</v>
+      </c>
+      <c r="D116" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="C116" s="77" t="s">
-        <v>220</v>
-      </c>
-      <c r="D116" s="77" t="s">
-        <v>110</v>
-      </c>
       <c r="E116" s="77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F116" s="77" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G116" s="77"/>
       <c r="H116" s="77"/>
@@ -8487,19 +8495,19 @@
         <v>2</v>
       </c>
       <c r="B117" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="C117" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="D117" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="C117" s="77" t="s">
+      <c r="E117" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="D117" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="E117" s="77" t="s">
-        <v>71</v>
-      </c>
       <c r="F117" s="77" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G117" s="77"/>
       <c r="H117" s="77"/>
@@ -8509,19 +8517,19 @@
         <v>3</v>
       </c>
       <c r="B118" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="C118" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="D118" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="E118" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="F118" s="77" t="s">
         <v>84</v>
-      </c>
-      <c r="C118" s="77" t="s">
-        <v>85</v>
-      </c>
-      <c r="D118" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="E118" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="F118" s="77" t="s">
-        <v>86</v>
       </c>
       <c r="G118" s="77"/>
       <c r="H118" s="77"/>
@@ -8531,19 +8539,19 @@
         <v>4</v>
       </c>
       <c r="B119" s="77" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C119" s="77" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D119" s="77" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E119" s="77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F119" s="77" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G119" s="77"/>
       <c r="H119" s="77"/>
@@ -8553,16 +8561,16 @@
         <v>5</v>
       </c>
       <c r="B120" s="77" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C120" s="77" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D120" s="77" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E120" s="77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F120" s="77"/>
       <c r="G120" s="77"/>
@@ -8573,16 +8581,16 @@
         <v>6</v>
       </c>
       <c r="B121" s="77" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C121" s="77" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D121" s="77" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E121" s="77" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F121" s="77"/>
       <c r="G121" s="77"/>
@@ -8590,57 +8598,57 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="75" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B123" s="75" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C123" s="75" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D123" s="75"/>
       <c r="E123" s="75"/>
       <c r="F123" s="75"/>
       <c r="G123" s="75"/>
-      <c r="H123" s="181" t="s">
-        <v>58</v>
+      <c r="H123" s="179" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="75" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B124" s="75" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C124" s="75"/>
       <c r="D124" s="75"/>
       <c r="E124" s="75"/>
       <c r="F124" s="75"/>
       <c r="G124" s="75"/>
-      <c r="H124" s="182"/>
+      <c r="H124" s="180"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="B125" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="C125" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B125" s="77" t="s">
+      <c r="D125" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="C125" s="77" t="s">
+      <c r="E125" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="D125" s="77" t="s">
+      <c r="F125" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="E125" s="77" t="s">
+      <c r="G125" s="77" t="s">
         <v>65</v>
-      </c>
-      <c r="F125" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="G125" s="77" t="s">
-        <v>67</v>
       </c>
       <c r="H125" s="77"/>
     </row>
@@ -8649,19 +8657,19 @@
         <v>1</v>
       </c>
       <c r="B126" s="77" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C126" s="77" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D126" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="E126" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="F126" s="77" t="s">
         <v>70</v>
-      </c>
-      <c r="E126" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="F126" s="77" t="s">
-        <v>72</v>
       </c>
       <c r="G126" s="77"/>
       <c r="H126" s="77"/>
@@ -8671,16 +8679,16 @@
         <v>2</v>
       </c>
       <c r="B127" s="77" t="s">
+        <v>225</v>
+      </c>
+      <c r="C127" s="77" t="s">
         <v>227</v>
       </c>
-      <c r="C127" s="77" t="s">
-        <v>229</v>
-      </c>
       <c r="D127" s="77" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E127" s="77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F127" s="77"/>
       <c r="G127" s="77"/>
@@ -8688,6 +8696,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="H33:H34"/>
     <mergeCell ref="H101:H102"/>
     <mergeCell ref="H113:H114"/>
     <mergeCell ref="H123:H124"/>
@@ -8697,12 +8711,6 @@
     <mergeCell ref="H65:H66"/>
     <mergeCell ref="H73:H74"/>
     <mergeCell ref="H84:H85"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="H33:H34"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8724,38 +8732,38 @@
   <sheetData>
     <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="185" t="s">
-        <v>271</v>
-      </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="187"/>
+      <c r="B2" s="183" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="185"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="174"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="188"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="186"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="174"/>
-      <c r="C4" s="159"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="159"/>
-      <c r="G4" s="188"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="186"/>
     </row>
     <row r="5" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="189"/>
-      <c r="C5" s="190"/>
-      <c r="D5" s="190"/>
-      <c r="E5" s="190"/>
-      <c r="F5" s="190"/>
-      <c r="G5" s="191"/>
+      <c r="B5" s="187"/>
+      <c r="C5" s="188"/>
+      <c r="D5" s="188"/>
+      <c r="E5" s="188"/>
+      <c r="F5" s="188"/>
+      <c r="G5" s="189"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="74"/>
@@ -8775,200 +8783,200 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -8982,10 +8990,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8999,7 +9007,7 @@
         <v>43703</v>
       </c>
       <c r="B1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -9007,7 +9015,7 @@
         <v>43703</v>
       </c>
       <c r="B2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -9015,95 +9023,103 @@
         <v>43704</v>
       </c>
       <c r="B3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B5" t="s">
         <v>355</v>
-      </c>
-      <c r="B5" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="82" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="82" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="82" t="s">
+        <v>364</v>
+      </c>
+      <c r="B8" t="s">
         <v>367</v>
-      </c>
-      <c r="B8" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="82" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B9" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="82" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B10" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="82" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B11" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="82" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B12" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="82" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B13" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="82" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B14" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="82" t="s">
         <v>380</v>
+      </c>
+      <c r="B15" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -9137,7 +9153,7 @@
     </row>
     <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2" s="83" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B2" s="83"/>
       <c r="C2" s="83"/>
@@ -9148,7 +9164,7 @@
     </row>
     <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A3" s="83" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B3" s="83"/>
       <c r="C3" s="83"/>
@@ -9159,10 +9175,10 @@
     </row>
     <row r="4" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A4" s="84" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B4" s="83" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C4" s="83"/>
       <c r="D4" s="83"/>
@@ -9172,10 +9188,10 @@
     </row>
     <row r="5" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A5" s="83" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B5" s="83" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C5" s="83"/>
       <c r="D5" s="83"/>
@@ -9185,10 +9201,10 @@
     </row>
     <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A6" s="83" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B6" s="83" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C6" s="83"/>
       <c r="D6" s="83"/>
@@ -9198,7 +9214,7 @@
     </row>
     <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A7" s="83" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B7" s="83"/>
       <c r="C7" s="83"/>
@@ -9209,10 +9225,10 @@
     </row>
     <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A8" s="83" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B8" s="83" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C8" s="83"/>
       <c r="D8" s="83"/>
@@ -9222,10 +9238,10 @@
     </row>
     <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A9" s="83" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B9" s="83" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C9" s="83"/>
       <c r="D9" s="83"/>
@@ -9235,10 +9251,10 @@
     </row>
     <row r="10" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A10" s="83" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B10" s="83" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C10" s="83"/>
       <c r="D10" s="83"/>
@@ -9248,7 +9264,7 @@
     </row>
     <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A11" s="83" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B11" s="83"/>
       <c r="C11" s="83"/>
@@ -9259,10 +9275,10 @@
     </row>
     <row r="12" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A12" s="83" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B12" s="83" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C12" s="83"/>
       <c r="D12" s="83"/>
@@ -9272,10 +9288,10 @@
     </row>
     <row r="13" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A13" s="83" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B13" s="83" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C13" s="83"/>
       <c r="D13" s="83"/>
@@ -9285,10 +9301,10 @@
     </row>
     <row r="14" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A14" s="83" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B14" s="83" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C14" s="83"/>
       <c r="D14" s="83"/>
@@ -9298,10 +9314,10 @@
     </row>
     <row r="15" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A15" s="83" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B15" s="83" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C15" s="83"/>
       <c r="D15" s="83"/>
@@ -9311,10 +9327,10 @@
     </row>
     <row r="16" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A16" s="83" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B16" s="83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C16" s="83"/>
       <c r="D16" s="83"/>
@@ -9324,10 +9340,10 @@
     </row>
     <row r="17" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A17" s="83" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B17" s="83" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C17" s="83"/>
       <c r="D17" s="83"/>
@@ -9337,10 +9353,10 @@
     </row>
     <row r="18" spans="1:7" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="83" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B18" s="85" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C18" s="83"/>
       <c r="D18" s="83"/>
@@ -9350,10 +9366,10 @@
     </row>
     <row r="19" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A19" s="83" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B19" s="83" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C19" s="83"/>
       <c r="D19" s="83"/>
@@ -9363,7 +9379,7 @@
     </row>
     <row r="20" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A20" s="83" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B20" s="83"/>
       <c r="C20" s="83"/>
@@ -9374,7 +9390,7 @@
     </row>
     <row r="21" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A21" s="83" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B21" s="83"/>
       <c r="C21" s="83"/>
@@ -9385,10 +9401,10 @@
     </row>
     <row r="22" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A22" s="83" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B22" s="83" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C22" s="83"/>
       <c r="D22" s="83"/>
@@ -9398,10 +9414,10 @@
     </row>
     <row r="23" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A23" s="83" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B23" s="83" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C23" s="83"/>
       <c r="D23" s="83"/>
@@ -9411,10 +9427,10 @@
     </row>
     <row r="24" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A24" s="83" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B24" s="83" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C24" s="83"/>
       <c r="D24" s="83"/>
@@ -9424,7 +9440,7 @@
     </row>
     <row r="25" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A25" s="83" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B25" s="83"/>
       <c r="C25" s="83"/>
@@ -9435,7 +9451,7 @@
     </row>
     <row r="26" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A26" s="86" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B26" s="83"/>
       <c r="C26" s="83"/>
@@ -9446,7 +9462,7 @@
     </row>
     <row r="27" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A27" s="83" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B27" s="83"/>
       <c r="C27" s="83"/>
@@ -9457,7 +9473,7 @@
     </row>
     <row r="28" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A28" s="87" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B28" s="83"/>
       <c r="C28" s="83"/>
@@ -9468,7 +9484,7 @@
     </row>
     <row r="29" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A29" s="83" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B29" s="83"/>
       <c r="C29" s="83"/>
@@ -9479,7 +9495,7 @@
     </row>
     <row r="30" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A30" s="88" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B30" s="83"/>
       <c r="C30" s="83"/>
@@ -9490,7 +9506,7 @@
     </row>
     <row r="31" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A31" s="83" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B31" s="83"/>
       <c r="C31" s="83"/>
@@ -9501,7 +9517,7 @@
     </row>
     <row r="32" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A32" s="83" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B32" s="83"/>
       <c r="C32" s="83"/>
@@ -9512,7 +9528,7 @@
     </row>
     <row r="33" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A33" s="83" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B33" s="83"/>
       <c r="C33" s="83"/>
@@ -9523,7 +9539,7 @@
     </row>
     <row r="34" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A34" s="87" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B34" s="83"/>
       <c r="C34" s="83"/>
@@ -9534,7 +9550,7 @@
     </row>
     <row r="35" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A35" s="83" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B35" s="83"/>
       <c r="C35" s="83"/>
@@ -9545,7 +9561,7 @@
     </row>
     <row r="36" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A36" s="83" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B36" s="83"/>
       <c r="C36" s="83"/>
@@ -9556,7 +9572,7 @@
     </row>
     <row r="37" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A37" s="83" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B37" s="83"/>
       <c r="C37" s="83"/>
@@ -9567,7 +9583,7 @@
     </row>
     <row r="38" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A38" s="83" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B38" s="83"/>
       <c r="C38" s="83"/>
@@ -9578,7 +9594,7 @@
     </row>
     <row r="39" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A39" s="87" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B39" s="83"/>
       <c r="C39" s="83"/>
@@ -9589,7 +9605,7 @@
     </row>
     <row r="40" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A40" s="83" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B40" s="83"/>
       <c r="C40" s="83"/>
@@ -9600,7 +9616,7 @@
     </row>
     <row r="41" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A41" s="83" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B41" s="83"/>
       <c r="C41" s="83"/>
@@ -9611,32 +9627,32 @@
     </row>
     <row r="42" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A42" s="83" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A43" s="83" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A44" s="83" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A45" s="83" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A46" s="83" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A47" s="83" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B47" s="83"/>
       <c r="C47" s="83"/>
@@ -9647,7 +9663,7 @@
     </row>
     <row r="48" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A48" s="83" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B48" s="83"/>
       <c r="C48" s="83"/>
@@ -9658,7 +9674,7 @@
     </row>
     <row r="49" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A49" s="83" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B49" s="83"/>
       <c r="C49" s="83"/>
@@ -9669,7 +9685,7 @@
     </row>
     <row r="50" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A50" s="83" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B50" s="83"/>
       <c r="C50" s="83"/>
@@ -9680,7 +9696,7 @@
     </row>
     <row r="51" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A51" s="83" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B51" s="83"/>
       <c r="C51" s="83"/>
@@ -9691,7 +9707,7 @@
     </row>
     <row r="52" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A52" s="83" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B52" s="83"/>
       <c r="C52" s="83"/>
@@ -9702,7 +9718,7 @@
     </row>
     <row r="53" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A53" s="83" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B53" s="83"/>
       <c r="C53" s="83"/>
@@ -9713,7 +9729,7 @@
     </row>
     <row r="54" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A54" s="83" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B54" s="83"/>
       <c r="C54" s="83"/>
@@ -9724,7 +9740,7 @@
     </row>
     <row r="55" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A55" s="83" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B55" s="83"/>
       <c r="C55" s="83"/>
@@ -9735,7 +9751,7 @@
     </row>
     <row r="56" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A56" s="83" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B56" s="83"/>
       <c r="C56" s="83"/>
@@ -9746,7 +9762,7 @@
     </row>
     <row r="57" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A57" s="83" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B57" s="83"/>
       <c r="C57" s="83"/>
@@ -9757,7 +9773,7 @@
     </row>
     <row r="58" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A58" s="83" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B58" s="83"/>
       <c r="C58" s="83"/>
@@ -9768,7 +9784,7 @@
     </row>
     <row r="59" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A59" s="83" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B59" s="83"/>
       <c r="C59" s="83"/>
@@ -9779,7 +9795,7 @@
     </row>
     <row r="60" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A60" s="83" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B60" s="83"/>
       <c r="C60" s="83"/>
@@ -9790,7 +9806,7 @@
     </row>
     <row r="61" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A61" s="83" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B61" s="83"/>
       <c r="C61" s="83"/>
@@ -9801,7 +9817,7 @@
     </row>
     <row r="62" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A62" s="83" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B62" s="83"/>
       <c r="C62" s="83"/>
@@ -9812,7 +9828,7 @@
     </row>
     <row r="63" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A63" s="83" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B63" s="83"/>
       <c r="C63" s="83"/>
@@ -9832,7 +9848,7 @@
     </row>
     <row r="65" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A65" s="83" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B65" s="83"/>
       <c r="C65" s="83"/>
@@ -9852,7 +9868,7 @@
     </row>
     <row r="67" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A67" s="83" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B67" s="83"/>
       <c r="C67" s="83"/>
@@ -9863,7 +9879,7 @@
     </row>
     <row r="68" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A68" s="83" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B68" s="83"/>
       <c r="C68" s="83"/>
